--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7509A3-1C73-46D3-A2AB-DB5C0DA72042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E3CEF-9A6B-44B8-981A-2C2C38EC2DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22845" yWindow="3090" windowWidth="17280" windowHeight="8880" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -1152,10 +1152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공양미 삼백 석은 몽운사로 잘 시주 받았습니다. 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>귀덕 어멈은 너무 바빠 보인다. 아직인듯싶다. 청이의 행방에 관련하여 더 알아보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1181,6 +1177,10 @@
   </si>
   <si>
     <t>index_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1577,7 +1577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
   <dimension ref="A1:F426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1592,22 +1594,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1621,7 +1623,7 @@
         <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -5181,7 +5183,7 @@
         <v>179</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E3CEF-9A6B-44B8-981A-2C2C38EC2DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B124A0-2D7B-4B43-B4B5-4147FD66DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-24030" yWindow="1995" windowWidth="17280" windowHeight="8880" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FF0000&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
+    <t>&lt;color=660000&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
   <dimension ref="A1:F426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B124A0-2D7B-4B43-B4B5-4147FD66DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E3CEF-9A6B-44B8-981A-2C2C38EC2DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24030" yWindow="1995" windowWidth="17280" windowHeight="8880" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=660000&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
+    <t>&lt;color=#FF0000&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
   <dimension ref="A1:F426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E3CEF-9A6B-44B8-981A-2C2C38EC2DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EAA1C3-C8EA-4953-9E1A-23677F12913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="4728" yWindow="2340" windowWidth="17280" windowHeight="8880" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FF0000&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
+    <t>&lt;color=#B40404&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
   <dimension ref="A1:F426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EAA1C3-C8EA-4953-9E1A-23677F12913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F369E-B262-4425-9FC7-C88B7E9059CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4728" yWindow="2340" windowWidth="17280" windowHeight="8880" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -989,14 +989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나쁜 결말1 [양상군자]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나쁜 결말2 [구화지문]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몸이 계속 뜨거워지며 숨이 옥죄어왔고, 자꾸만 헛구역질이 나왔다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1021,10 +1013,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나쁜 결말3 [과유불급]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정신을 차리니 몸은 꽁꽁 묶여있었고 앞은 보이지 않았다. 그때, 누군가의 중얼거림이 들렸다.</t>
   </si>
   <si>
@@ -1038,10 +1026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나쁜 결말4 [취생몽사]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>........어두운 아비 눈을 밝게 띄워 주옵소서...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1052,10 +1036,6 @@
     <t>이윽고, 남아있던 송나라 상인들도 모두 마을을 떴고, 고요함 속에서 나는 그저 하릴없이 청이를 기다릴 뿐이었다.</t>
   </si>
   <si>
-    <t>보통 결말1 [연경학망]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다음날도, 또 그 다음날에도.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1064,94 +1044,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청이에게 수양딸로 들어오라는 말은 했지만, 청이는 한사코 거절했소. 듣도 보도 못한 말이오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">청이 누님을 못 본 지 이틀 되었나...누님이 요 근래 저잣거리를 자주 돌아다녔습니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 맛있게 잘 먹었습니다. 청이 누님 이야기를 하고 있었지요? 청이 누님이 요즘 어떤 남정네와 자주 얘기를 나누는 모습을 보았습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이가 장터에 자주 머무르긴 했는데.. 향리 댁에 들어가기 전 채비를 한다고 생각했지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘 그 아기씨가 여기서 서성거리긴 했지요. 무엇을 사 갔는지 궁금하십니까? 객의 정보는 함부로 제공하면 안 됩니다. 그게 설령 가족이어도 말이지요. 거래라면 모를까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즈음 승려와 이야기하는 걸 몇 번 봤는데… 한번 승려에게 가보셔.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어느 댁 아드님이란 걸 들었던 것 같은데 얼굴을 가려 기억이 잘 안 나요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 그렇지. 청이가 송나라 상인들과 떠드는 걸 보았소. 송에서 신품이라도 들어왔나...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫째 둘째는 벼슬길에 올랐고, 셋째는 이틀 전에 과거를 보러 갔소.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예, 저도 송에 세 살 난 아들이 있지요. 얼른 보고 싶군요. 그러려면 얼른 물살이 잠잠해져야 할 텐데...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심청 아기씨 말씀이신가요? 저희에게 참으로 고마운 분이죠. 그 덕에 한시름 놓았습니다... 아이고, 바쁘네요. 그럼 조심히 들어가시지요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신네 딸이 그들과 거래를 했소. 무엇을 내놓은지 모르겠으나 그들에게 삼백 석을 요구하는 걸 엿들었소. 굉장히 귀한 걸 팔아치운 모양이오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승려가 마을에 자주 내려오는 걸 보니 땡중이오. 청이에게 연정을 품은 건 아니오?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 말인데, 배가 다시 송으로 가는 때를 알아봐줄 수 있는가? 이유는 나중에 말해주겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이가 아비 눈을 꼭 뜰 수 있게 해야 한다고 어찌나 고민이던지... 결국 어떻게든 구했나 보네...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그분은 우리 점포 단골입니다! 워낙에 꾸미개들을 많이 사 가지요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물살이 가라앉아야 배가 뜰 수 있소. 지금은 배가 뜨질 못하네..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댁네 따님이 짚신을 크기 상관없이 여러 켤레를 사 갔는데, 짚신을 있는 대로 다 가져갔습니다. 무슨 일인지 궁금하긴 했지요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 그리고 뒷간에 갔다가 은밀히 대화를 나누는 걸 엿들었네. 3월 보름날을 누군가에게 얘기하면 일이 진행된단 이야기를 들었어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…잡화상에게 물건을 부탁해놨는데, 그것을 가져다주면 얘기해 주겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그날이었나,, 뱃사공이 큰 소리를 쳤던 일이 있소. 사공에게 한번 가보시오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매해 이맘때, 송에서 오가는 뱃길이 거세지기에 무역이 중단되었소. 그러나 송나라 사람들이 뱃길을 잠잠하게 만드는 법을 안다더군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>귀덕 어멈은 너무 바빠 보인다. 아직인듯싶다. 청이의 행방에 관련하여 더 알아보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1180,7 +1072,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#B40404&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
+    <t>청이에게 ⓡ수양딸로 들어오라는 말은 했지만, 청이는 한사코 거절했소.ⓦ 듣도 보도 못한 말이오.</t>
+  </si>
+  <si>
+    <t>청이 누님을 못 본 지 이틀 되었나...ⓡ누님이 요 근래 저잣거리를 자주 돌아다녔습니다.ⓦ</t>
+  </si>
+  <si>
+    <t>아, 맛있게 잘 먹었습니다. 청이 누님 이야기를 하고 있었지요? ⓡ청이 누님이 요즘 어떤 남정네와 자주 얘기를 나누는 모습ⓦ을 보았습니다.</t>
+  </si>
+  <si>
+    <t>ⓡ청이가 장터에 자주 머무르긴 했는데..ⓦ 향리 댁에 들어가기 전 채비를 한다고 생각했지.</t>
+  </si>
+  <si>
+    <t>요즘 그 아기씨가 여기서 서성거리긴 했지요. 무엇을 사 갔는지 궁금하십니까? ⓡ객의 정보는 함부로 제공하면 안 됩니다.ⓦ 그게 설령 가족이어도 말이지요. 거래라면 모를까.</t>
+  </si>
+  <si>
+    <t>요즈음 ⓡ승려와 이야기하는 걸 몇 번 봤는데…ⓦ 한번 승려에게 가보셔.</t>
+  </si>
+  <si>
+    <t>ⓡ어느 댁 아드님이란 걸 들었던 것 같은데ⓦ 얼굴을 가려 기억이 잘 안 나요.</t>
+  </si>
+  <si>
+    <t>아, 그렇지. ⓡ청이가 송나라 상인들과 떠드는 걸 보았소.ⓦ 송에서 신품이라도 들어왔나...</t>
+  </si>
+  <si>
+    <t>첫째 둘째는 벼슬길에 올랐고, ⓡ셋째는 이틀 전에 과거를 보러 갔소.ⓦ</t>
+  </si>
+  <si>
+    <t>예, 저도 송에 세 살 난 아들이 있지요. 얼른 보고 싶군요. 그러려면 ⓡ얼른 물살이 잠잠해져야 할 텐데...ⓦ</t>
+  </si>
+  <si>
+    <t>ⓡ심청 아기씨 말씀이신가요? 저희에게 참으로 고마운 분이죠.ⓦ 그 덕에 한시름 놓았습니다... 아이고, 바쁘네요. 그럼 조심히 들어가시지요.</t>
+  </si>
+  <si>
+    <t>ⓡ당신네 딸이 그들과 거래를 했소.ⓦ 무엇을 내놓은지 모르겠으나 그들에게 ⓡ삼백 석을 요구ⓦ하는 걸 엿들었소. 굉장히 귀한 걸 팔아치운 모양이오.</t>
+  </si>
+  <si>
+    <t>승려가 마을에 자주 내려오는 걸 보니 땡중이오. ⓡ청이에게 연정을 품은 건 아니오?ⓦ</t>
+  </si>
+  <si>
+    <t>그래서 말인데, ⓡ배가 다시 송으로 가는 때를 알아봐줄 수 있는가?ⓦ 이유는 나중에 말해주겠네.</t>
+  </si>
+  <si>
+    <t>ⓡ청이가 아비 눈을 꼭 뜰 수 있게 해야 한다고ⓦ 어찌나 고민이던지... 결국 어떻게든 구했나 보네...</t>
+  </si>
+  <si>
+    <t>ⓡ그분은 우리 점포 단골입니다!ⓦ 워낙에 꾸미개들을 많이 사 가지요..</t>
+  </si>
+  <si>
+    <t>물살이 가라앉아야 배가 뜰 수 있소. ⓡ지금은 배가 뜨질 못하네..ⓦ</t>
+  </si>
+  <si>
+    <t>댁네 따님이 짚신을 크기 상관없이 여러 켤레를 사 갔는데, ⓡ짚신을 있는 대로 다 가져갔습니다.ⓦ 무슨 일인지 궁금하긴 했지요.</t>
+  </si>
+  <si>
+    <t>아, 그리고 뒷간에 갔다가 은밀히 대화를 나누는 걸 엿들었네. ⓡ3월 보름날을 누군가에게 얘기하면 일이 진행된단 이야기를 들었어.ⓦ</t>
+  </si>
+  <si>
+    <t>…ⓡ잡화상에게 물건을 부탁해놨는데,ⓦ 그것을 가져다주면 얘기해 주겠네.</t>
+  </si>
+  <si>
+    <t>그날이었나,, ⓡ뱃사공이 큰 소리를 쳤던 일이 있소.ⓦ 사공에게 한번 가보시오.</t>
+  </si>
+  <si>
+    <t>매해 이맘때, 송에서 오가는 뱃길이 거세지기에 무역이 중단되었소. 그러나 ⓡ송나라 사람들이 뱃길을 잠잠하게 만드는 법을 안다더군.ⓦ</t>
+  </si>
+  <si>
+    <t>ⓡ나쁜 결말1 [양상군자]ⓦ</t>
+  </si>
+  <si>
+    <t>ⓡ나쁜 결말2 [구화지문]ⓦ</t>
+  </si>
+  <si>
+    <t>ⓡ나쁜 결말3 [과유불급]ⓦ</t>
+  </si>
+  <si>
+    <t>ⓡ나쁜 결말4 [취생몽사]ⓦ</t>
+  </si>
+  <si>
+    <t>&lt;color=#B4472C4&gt;보통 결말1 [연경학망]ⓦ</t>
+  </si>
+  <si>
+    <t>ⓡ공양미 삼백 석은 몽운사로 잘 시주 받았습니다.ⓦ 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1577,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
   <dimension ref="A1:F426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -1594,22 +1567,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1843,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -1903,7 +1876,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2023,7 +1996,7 @@
         <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2243,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -2443,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -2563,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -2643,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -2743,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -2803,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -2903,7 +2876,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -3063,7 +3036,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -3103,7 +3076,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
@@ -3183,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -3683,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -3723,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -4263,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -4483,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E145" s="2" t="b">
         <v>0</v>
@@ -4703,7 +4676,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -5183,7 +5156,7 @@
         <v>179</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>
@@ -5223,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E182" s="2" t="b">
         <v>0</v>
@@ -5723,7 +5696,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E207" s="2" t="b">
         <v>0</v>
@@ -8583,7 +8556,7 @@
         <v>179</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E350" s="2" t="b">
         <v>0</v>
@@ -8783,7 +8756,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E360" s="2" t="b">
         <v>0</v>
@@ -9403,7 +9376,7 @@
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E391" s="2" t="b">
         <v>0</v>
@@ -9663,7 +9636,7 @@
         <v>179</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -9763,7 +9736,7 @@
         <v>179</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -9783,7 +9756,7 @@
         <v>179</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E410" s="2" t="b">
         <v>0</v>
@@ -9803,7 +9776,7 @@
         <v>179</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E411" s="2" t="b">
         <v>0</v>
@@ -9823,7 +9796,7 @@
         <v>179</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E412" s="2" t="b">
         <v>0</v>
@@ -9843,7 +9816,7 @@
         <v>179</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E413" s="2" t="b">
         <v>0</v>
@@ -9863,7 +9836,7 @@
         <v>179</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E414" s="2" t="b">
         <v>0</v>
@@ -9883,7 +9856,7 @@
         <v>179</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -9903,7 +9876,7 @@
         <v>179</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E416" s="2" t="b">
         <v>0</v>
@@ -9923,7 +9896,7 @@
         <v>179</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E417" s="2" t="b">
         <v>0</v>
@@ -9943,7 +9916,7 @@
         <v>269</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E418" s="2" t="b">
         <v>0</v>
@@ -9963,7 +9936,7 @@
         <v>179</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E419" s="2" t="b">
         <v>0</v>
@@ -9983,7 +9956,7 @@
         <v>179</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E420" s="2" t="b">
         <v>0</v>
@@ -10003,7 +9976,7 @@
         <v>179</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="E421" s="2" t="b">
         <v>0</v>
@@ -10023,7 +9996,7 @@
         <v>179</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E422" s="2" t="b">
         <v>0</v>
@@ -10043,7 +10016,7 @@
         <v>179</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E423" s="2" t="b">
         <v>0</v>
@@ -10063,7 +10036,7 @@
         <v>179</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E424" s="2" t="b">
         <v>0</v>
@@ -10083,7 +10056,7 @@
         <v>179</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E425" s="2" t="b">
         <v>0</v>
@@ -10103,7 +10076,7 @@
         <v>179</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F369E-B262-4425-9FC7-C88B7E9059CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BCD87-88F3-40C6-AD97-1ACAF2F3F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
@@ -1072,89 +1072,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청이에게 ⓡ수양딸로 들어오라는 말은 했지만, 청이는 한사코 거절했소.ⓦ 듣도 보도 못한 말이오.</t>
-  </si>
-  <si>
-    <t>청이 누님을 못 본 지 이틀 되었나...ⓡ누님이 요 근래 저잣거리를 자주 돌아다녔습니다.ⓦ</t>
-  </si>
-  <si>
-    <t>아, 맛있게 잘 먹었습니다. 청이 누님 이야기를 하고 있었지요? ⓡ청이 누님이 요즘 어떤 남정네와 자주 얘기를 나누는 모습ⓦ을 보았습니다.</t>
-  </si>
-  <si>
-    <t>ⓡ청이가 장터에 자주 머무르긴 했는데..ⓦ 향리 댁에 들어가기 전 채비를 한다고 생각했지.</t>
-  </si>
-  <si>
-    <t>요즘 그 아기씨가 여기서 서성거리긴 했지요. 무엇을 사 갔는지 궁금하십니까? ⓡ객의 정보는 함부로 제공하면 안 됩니다.ⓦ 그게 설령 가족이어도 말이지요. 거래라면 모를까.</t>
-  </si>
-  <si>
-    <t>요즈음 ⓡ승려와 이야기하는 걸 몇 번 봤는데…ⓦ 한번 승려에게 가보셔.</t>
-  </si>
-  <si>
-    <t>ⓡ어느 댁 아드님이란 걸 들었던 것 같은데ⓦ 얼굴을 가려 기억이 잘 안 나요.</t>
-  </si>
-  <si>
-    <t>아, 그렇지. ⓡ청이가 송나라 상인들과 떠드는 걸 보았소.ⓦ 송에서 신품이라도 들어왔나...</t>
-  </si>
-  <si>
-    <t>첫째 둘째는 벼슬길에 올랐고, ⓡ셋째는 이틀 전에 과거를 보러 갔소.ⓦ</t>
-  </si>
-  <si>
-    <t>예, 저도 송에 세 살 난 아들이 있지요. 얼른 보고 싶군요. 그러려면 ⓡ얼른 물살이 잠잠해져야 할 텐데...ⓦ</t>
-  </si>
-  <si>
-    <t>ⓡ심청 아기씨 말씀이신가요? 저희에게 참으로 고마운 분이죠.ⓦ 그 덕에 한시름 놓았습니다... 아이고, 바쁘네요. 그럼 조심히 들어가시지요.</t>
-  </si>
-  <si>
-    <t>ⓡ당신네 딸이 그들과 거래를 했소.ⓦ 무엇을 내놓은지 모르겠으나 그들에게 ⓡ삼백 석을 요구ⓦ하는 걸 엿들었소. 굉장히 귀한 걸 팔아치운 모양이오.</t>
-  </si>
-  <si>
-    <t>승려가 마을에 자주 내려오는 걸 보니 땡중이오. ⓡ청이에게 연정을 품은 건 아니오?ⓦ</t>
-  </si>
-  <si>
-    <t>그래서 말인데, ⓡ배가 다시 송으로 가는 때를 알아봐줄 수 있는가?ⓦ 이유는 나중에 말해주겠네.</t>
-  </si>
-  <si>
-    <t>ⓡ청이가 아비 눈을 꼭 뜰 수 있게 해야 한다고ⓦ 어찌나 고민이던지... 결국 어떻게든 구했나 보네...</t>
-  </si>
-  <si>
-    <t>ⓡ그분은 우리 점포 단골입니다!ⓦ 워낙에 꾸미개들을 많이 사 가지요..</t>
-  </si>
-  <si>
-    <t>물살이 가라앉아야 배가 뜰 수 있소. ⓡ지금은 배가 뜨질 못하네..ⓦ</t>
-  </si>
-  <si>
-    <t>댁네 따님이 짚신을 크기 상관없이 여러 켤레를 사 갔는데, ⓡ짚신을 있는 대로 다 가져갔습니다.ⓦ 무슨 일인지 궁금하긴 했지요.</t>
-  </si>
-  <si>
-    <t>아, 그리고 뒷간에 갔다가 은밀히 대화를 나누는 걸 엿들었네. ⓡ3월 보름날을 누군가에게 얘기하면 일이 진행된단 이야기를 들었어.ⓦ</t>
-  </si>
-  <si>
-    <t>…ⓡ잡화상에게 물건을 부탁해놨는데,ⓦ 그것을 가져다주면 얘기해 주겠네.</t>
-  </si>
-  <si>
-    <t>그날이었나,, ⓡ뱃사공이 큰 소리를 쳤던 일이 있소.ⓦ 사공에게 한번 가보시오.</t>
-  </si>
-  <si>
-    <t>매해 이맘때, 송에서 오가는 뱃길이 거세지기에 무역이 중단되었소. 그러나 ⓡ송나라 사람들이 뱃길을 잠잠하게 만드는 법을 안다더군.ⓦ</t>
-  </si>
-  <si>
-    <t>ⓡ나쁜 결말1 [양상군자]ⓦ</t>
-  </si>
-  <si>
-    <t>ⓡ나쁜 결말2 [구화지문]ⓦ</t>
-  </si>
-  <si>
-    <t>ⓡ나쁜 결말3 [과유불급]ⓦ</t>
-  </si>
-  <si>
-    <t>ⓡ나쁜 결말4 [취생몽사]ⓦ</t>
-  </si>
-  <si>
-    <t>&lt;color=#B4472C4&gt;보통 결말1 [연경학망]ⓦ</t>
-  </si>
-  <si>
-    <t>ⓡ공양미 삼백 석은 몽운사로 잘 시주 받았습니다.ⓦ 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>&lt;color=#B40404&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
+  </si>
+  <si>
+    <t>청이에게 &lt;color=#B40404&gt;수양딸로 들어오라는 말은 했지만, 청이는 한사코 거절했소.&lt;/color&gt; 듣도 보도 못한 말이오.</t>
+  </si>
+  <si>
+    <t>청이 누님을 못 본 지 이틀 되었나...&lt;color=#B40404&gt;누님이 요 근래 저잣거리를 자주 돌아다녔습니다.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>아, 맛있게 잘 먹었습니다. 청이 누님 이야기를 하고 있었지요? &lt;color=#B40404&gt;청이 누님이 요즘 어떤 남정네와 자주 얘기를 나누는 모습&lt;/color&gt;을 보았습니다.</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;청이가 장터에 자주 머무르긴 했는데..&lt;/color&gt; 향리 댁에 들어가기 전 채비를 한다고 생각했지.</t>
+  </si>
+  <si>
+    <t>요즘 그 아기씨가 여기서 서성거리긴 했지요. 무엇을 사 갔는지 궁금하십니까? &lt;color=#B40404&gt;객의 정보는 함부로 제공하면 안 됩니다.&lt;/color&gt; 그게 설령 가족이어도 말이지요. 거래라면 모를까.</t>
+  </si>
+  <si>
+    <t>요즈음 &lt;color=#B40404&gt;승려와 이야기하는 걸 몇 번 봤는데…&lt;/color&gt; 한번 승려에게 가보셔.</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;어느 댁 아드님이란 걸 들었던 것 같은데&lt;/color&gt; 얼굴을 가려 기억이 잘 안 나요.</t>
+  </si>
+  <si>
+    <t>아, 그렇지. &lt;color=#B40404&gt;청이가 송나라 상인들과 떠드는 걸 보았소.&lt;/color&gt; 송에서 신품이라도 들어왔나...</t>
+  </si>
+  <si>
+    <t>첫째 둘째는 벼슬길에 올랐고, &lt;color=#B40404&gt;셋째는 이틀 전에 과거를 보러 갔소.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>예, 저도 송에 세 살 난 아들이 있지요. 얼른 보고 싶군요. 그러려면 &lt;color=#B40404&gt;얼른 물살이 잠잠해져야 할 텐데...&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;심청 아기씨 말씀이신가요? 저희에게 참으로 고마운 분이죠.&lt;/color&gt; 그 덕에 한시름 놓았습니다... 아이고, 바쁘네요. 그럼 조심히 들어가시지요.</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;당신네 딸이 그들과 거래를 했소.&lt;/color&gt; 무엇을 내놓은지 모르겠으나 그들에게 &lt;color=#B40404&gt;삼백 석을 요구&lt;/color&gt;하는 걸 엿들었소. 굉장히 귀한 걸 팔아치운 모양이오.</t>
+  </si>
+  <si>
+    <t>승려가 마을에 자주 내려오는 걸 보니 땡중이오. &lt;color=#B40404&gt;청이에게 연정을 품은 건 아니오?&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>그래서 말인데, &lt;color=#B40404&gt;배가 다시 송으로 가는 때를 알아봐줄 수 있는가?&lt;/color&gt; 이유는 나중에 말해주겠네.</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;청이가 아비 눈을 꼭 뜰 수 있게 해야 한다고&lt;/color&gt; 어찌나 고민이던지... 결국 어떻게든 구했나 보네...</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;그분은 우리 점포 단골입니다!&lt;/color&gt; 워낙에 꾸미개들을 많이 사 가지요..</t>
+  </si>
+  <si>
+    <t>물살이 가라앉아야 배가 뜰 수 있소. &lt;color=#B40404&gt;지금은 배가 뜨질 못하네..&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>댁네 따님이 짚신을 크기 상관없이 여러 켤레를 사 갔는데, &lt;color=#B40404&gt;짚신을 있는 대로 다 가져갔습니다.&lt;/color&gt; 무슨 일인지 궁금하긴 했지요.</t>
+  </si>
+  <si>
+    <t>아, 그리고 뒷간에 갔다가 은밀히 대화를 나누는 걸 엿들었네. &lt;color=#B40404&gt;3월 보름날을 누군가에게 얘기하면 일이 진행된단 이야기를 들었어.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>…&lt;color=#B40404&gt;잡화상에게 물건을 부탁해놨는데,&lt;/color&gt; 그것을 가져다주면 얘기해 주겠네.</t>
+  </si>
+  <si>
+    <t>그날이었나,, &lt;color=#B40404&gt;뱃사공이 큰 소리를 쳤던 일이 있소.&lt;/color&gt; 사공에게 한번 가보시오.</t>
+  </si>
+  <si>
+    <t>매해 이맘때, 송에서 오가는 뱃길이 거세지기에 무역이 중단되었소. 그러나 &lt;color=#B40404&gt;송나라 사람들이 뱃길을 잠잠하게 만드는 법을 안다더군.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;나쁜 결말1 [양상군자]&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;나쁜 결말2 [구화지문]&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;나쁜 결말3 [과유불급]&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#B40404&gt;나쁜 결말4 [취생몽사]&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#B4472C4&gt;보통 결말1 [연경학망]&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1550,7 @@
   <dimension ref="A1:F426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -1596,7 +1595,7 @@
         <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -1816,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -1876,7 +1875,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -1996,7 +1995,7 @@
         <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2216,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -2416,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -2536,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -2616,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -2716,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -2776,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -2876,7 +2875,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -3036,7 +3035,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -3076,7 +3075,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
@@ -3156,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -3656,7 +3655,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -3696,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -4236,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -4456,7 +4455,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E145" s="2" t="b">
         <v>0</v>
@@ -4676,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -5196,7 +5195,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E182" s="2" t="b">
         <v>0</v>
@@ -5696,7 +5695,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E207" s="2" t="b">
         <v>0</v>
@@ -8756,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E360" s="2" t="b">
         <v>0</v>
@@ -9376,7 +9375,7 @@
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E391" s="2" t="b">
         <v>0</v>
@@ -9636,7 +9635,7 @@
         <v>179</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -9736,7 +9735,7 @@
         <v>179</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -9856,7 +9855,7 @@
         <v>179</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -9976,7 +9975,7 @@
         <v>179</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E421" s="2" t="b">
         <v>0</v>
@@ -10076,7 +10075,7 @@
         <v>179</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BCD87-88F3-40C6-AD97-1ACAF2F3F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F43550-A749-4B73-BB4E-BF05805BBD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="342">
   <si>
     <t>NPC</t>
   </si>
@@ -1141,19 +1141,53 @@
     <t>매해 이맘때, 송에서 오가는 뱃길이 거세지기에 무역이 중단되었소. 그러나 &lt;color=#B40404&gt;송나라 사람들이 뱃길을 잠잠하게 만드는 법을 안다더군.&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#B40404&gt;나쁜 결말1 [양상군자]&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;나쁜 결말2 [구화지문]&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;나쁜 결말3 [과유불급]&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;나쁜 결말4 [취생몽사]&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#B4472C4&gt;보통 결말1 [연경학망]&lt;/color&gt;</t>
+    <t>이번에 들여온 비녀가 그렇게 예쁘던데,,,</t>
+  </si>
+  <si>
+    <t>어려움 있으면 말해봅세.</t>
+  </si>
+  <si>
+    <t>(노비와 대화를 나눈다.)</t>
+  </si>
+  <si>
+    <t>살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
+  </si>
+  <si>
+    <t>저거 맛있겠다..</t>
+  </si>
+  <si>
+    <t>(주막에 앉아서 늘어지게 쉬고 있다.)</t>
+  </si>
+  <si>
+    <t>(이쪽은 쳐다도 보지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몹시 바빠 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음 깊이 불공드리면 조만간 부처의 덕으로 눈을 뜰 수 있을 것입니다.</t>
+  </si>
+  <si>
+    <t>나쁜 결말1 [양상군자]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜 결말2 [구화지문]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜 결말3 [과유불급]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜 결말4 [취생몽사]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통 결말1 [연경학망]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1206,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,6 +1255,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:F426"/>
+  <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -1561,10 +1598,12 @@
     <col min="4" max="4" width="171.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="7" max="7" width="8.796875" style="2"/>
+    <col min="8" max="8" width="8.796875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
@@ -1584,7 +1623,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>4999</v>
       </c>
@@ -1603,8 +1642,9 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>5000</v>
       </c>
@@ -1624,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>5001</v>
       </c>
@@ -1644,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>5002</v>
       </c>
@@ -1664,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5003</v>
       </c>
@@ -1684,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5004</v>
       </c>
@@ -1704,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>5005</v>
       </c>
@@ -1724,7 +1764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5006</v>
       </c>
@@ -1744,7 +1784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>5007</v>
       </c>
@@ -1764,7 +1804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5010</v>
       </c>
@@ -1784,7 +1824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5011</v>
       </c>
@@ -1804,7 +1844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>5012</v>
       </c>
@@ -1824,7 +1864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>5013</v>
       </c>
@@ -1844,7 +1884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>5014</v>
       </c>
@@ -1864,7 +1904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>5015</v>
       </c>
@@ -9566,16 +9606,16 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="E401" s="2" t="b">
         <v>0</v>
@@ -9586,16 +9626,16 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
-        <v>7001</v>
+        <v>6501</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="E402" s="2" t="b">
         <v>0</v>
@@ -9606,16 +9646,16 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
-        <v>7002</v>
+        <v>6502</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="E403" s="2" t="b">
         <v>0</v>
@@ -9626,16 +9666,16 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
-        <v>7003</v>
+        <v>6503</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -9646,16 +9686,16 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
-        <v>7004</v>
+        <v>6504</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="E405" s="2" t="b">
         <v>0</v>
@@ -9666,16 +9706,16 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
-        <v>7005</v>
+        <v>6505</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="E406" s="2" t="b">
         <v>0</v>
@@ -9686,16 +9726,16 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
-        <v>7006</v>
+        <v>6506</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="E407" s="2" t="b">
         <v>0</v>
@@ -9706,16 +9746,16 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
-        <v>7007</v>
+        <v>6507</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="E408" s="2" t="b">
         <v>0</v>
@@ -9726,16 +9766,16 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
-        <v>7008</v>
+        <v>6508</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -9746,16 +9786,16 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
-        <v>7009</v>
+        <v>6509</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="E410" s="2" t="b">
         <v>0</v>
@@ -9766,16 +9806,16 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
-        <v>7010</v>
+        <v>6510</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="E411" s="2" t="b">
         <v>0</v>
@@ -9786,16 +9826,16 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
-        <v>7011</v>
+        <v>7000</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E412" s="2" t="b">
         <v>0</v>
@@ -9806,7 +9846,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
-        <v>7012</v>
+        <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>100</v>
@@ -9815,7 +9855,7 @@
         <v>179</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E413" s="2" t="b">
         <v>0</v>
@@ -9826,7 +9866,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
-        <v>7013</v>
+        <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>100</v>
@@ -9835,7 +9875,7 @@
         <v>179</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E414" s="2" t="b">
         <v>0</v>
@@ -9846,7 +9886,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
-        <v>7014</v>
+        <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>100</v>
@@ -9855,7 +9895,7 @@
         <v>179</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -9866,16 +9906,16 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
-        <v>7015</v>
+        <v>7004</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E416" s="2" t="b">
         <v>0</v>
@@ -9886,7 +9926,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
-        <v>7016</v>
+        <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>100</v>
@@ -9895,7 +9935,7 @@
         <v>179</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E417" s="2" t="b">
         <v>0</v>
@@ -9906,16 +9946,16 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
-        <v>7017</v>
+        <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E418" s="2" t="b">
         <v>0</v>
@@ -9926,7 +9966,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
-        <v>7018</v>
+        <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>100</v>
@@ -9935,7 +9975,7 @@
         <v>179</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E419" s="2" t="b">
         <v>0</v>
@@ -9946,7 +9986,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
-        <v>7019</v>
+        <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>100</v>
@@ -9955,7 +9995,7 @@
         <v>179</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="E420" s="2" t="b">
         <v>0</v>
@@ -9966,7 +10006,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
-        <v>7020</v>
+        <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>100</v>
@@ -9975,7 +10015,7 @@
         <v>179</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="E421" s="2" t="b">
         <v>0</v>
@@ -9986,7 +10026,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
-        <v>7021</v>
+        <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>100</v>
@@ -9995,7 +10035,7 @@
         <v>179</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E422" s="2" t="b">
         <v>0</v>
@@ -10006,7 +10046,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
-        <v>7022</v>
+        <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>100</v>
@@ -10015,7 +10055,7 @@
         <v>179</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E423" s="2" t="b">
         <v>0</v>
@@ -10026,7 +10066,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
-        <v>7023</v>
+        <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>100</v>
@@ -10035,7 +10075,7 @@
         <v>179</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E424" s="2" t="b">
         <v>0</v>
@@ -10046,7 +10086,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
-        <v>7024</v>
+        <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>100</v>
@@ -10055,7 +10095,7 @@
         <v>179</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E425" s="2" t="b">
         <v>0</v>
@@ -10066,7 +10106,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
-        <v>7025</v>
+        <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>100</v>
@@ -10075,13 +10115,233 @@
         <v>179</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F426" s="2">
         <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A427" s="2">
+        <v>7015</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E427" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F427" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A428" s="2">
+        <v>7016</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E428" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F428" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A429" s="2">
+        <v>7017</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E429" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F429" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A430" s="2">
+        <v>7018</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E430" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F430" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A431" s="2">
+        <v>7019</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E431" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F431" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A432" s="2">
+        <v>7020</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E432" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F432" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A433" s="2">
+        <v>7021</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E433" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F433" s="2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A434" s="2">
+        <v>7022</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E434" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F434" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A435" s="2">
+        <v>7023</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F435" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A436" s="2">
+        <v>7024</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E436" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F436" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A437" s="2">
+        <v>7025</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E437" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F437" s="2">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F43550-A749-4B73-BB4E-BF05805BBD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33045FD-9AE4-4815-8512-3A16C722204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="341">
   <si>
     <t>NPC</t>
   </si>
@@ -62,1131 +73,1172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호호, 무슨 일이신가요??;이번에 들여온 비녀가 그렇게 예쁘던데,,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기는 어쩐 일이오?;(노비와 대화를 나눈다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>송나라 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얌전한 괴앙이가 붓두막에 일찍 오른다더니! 괘씸한 것.</t>
+  </si>
+  <si>
+    <t>내가 그 아이를 단단히 잘못 봤네..</t>
+  </si>
+  <si>
+    <t>(말을 걸어봐도 대답하지 않는다.)</t>
+  </si>
+  <si>
+    <t>따님이 거짓을 고하고 사라졌다는 말씀이십니까? 믿어지지 않는군요.</t>
+  </si>
+  <si>
+    <t>청이 누님이 향리 댁으로 들어간 게 아니라는 것이지요? 어디로 가셨을지 걱정됩니다.</t>
+  </si>
+  <si>
+    <t>귀한 딸 단속도 안 하고 무엇했나.</t>
+  </si>
+  <si>
+    <t>청이가 뭘 하고 다녔는지 저는 모릅니다. 오비삼척이오!</t>
+  </si>
+  <si>
+    <t>그 어린아이가 어딜 간 겐지...</t>
+  </si>
+  <si>
+    <t>댁의 딸을 왜 이리 와서 찾소?</t>
+  </si>
+  <si>
+    <t>따님은 좋은 곳으로 향하였을 겁니다. 기운이 좋군요.</t>
+  </si>
+  <si>
+    <t>누님이 어디로 갔을지는 모르겠어요. 아 배고파…</t>
+  </si>
+  <si>
+    <t>그것과 내가 무슨 상관이 있나. 잘 모르겠네.</t>
+  </si>
+  <si>
+    <t>저잣거리는 달에 한 번 갑니다. 견물생심이기에 항상 속세를 경계해야 합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">누님이 자주 오셔서 먹을 것을 챙겨주셨습니다. </t>
+  </si>
+  <si>
+    <t>보통 주막에만 있으니... 난 모르오.</t>
+  </si>
+  <si>
+    <t>허언을 하고 어딜 간 겐지.. 쯧쯧… 관심 없다네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제게 아들이 있을리가요. 하하하.</t>
+  </si>
+  <si>
+    <t>아들은 없고 딸만 셋이오. 누구 놀리시오?</t>
+  </si>
+  <si>
+    <t>송나라 상인들</t>
+  </si>
+  <si>
+    <t>기억이 안 나요... 생각해 볼게요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">청이가 송 사람과 자주 얘기하더라니까! </t>
+  </si>
+  <si>
+    <t>청이가 타인에게 워낙 잘했으니 말이야.. 그럴 법도 하지.</t>
+  </si>
+  <si>
+    <t>나는 모르는 일일세.</t>
+  </si>
+  <si>
+    <t>장터에는 관심이 없어 잘 알지 못합니다.</t>
+  </si>
+  <si>
+    <t>그 사람들이 무서워 강변 쪽에는 가지도 않아요.</t>
+  </si>
+  <si>
+    <t>그 계집아이.. 송에서 온 치들이랑 달포 전부터 자주 떠들던데, 그런 당돌한 계집은 처음 보았소.</t>
+  </si>
+  <si>
+    <t>불공이라도 드리려 한 건지..</t>
+  </si>
+  <si>
+    <t>장사 방해하지 마시오!</t>
+  </si>
+  <si>
+    <t>공양미를 바친다면 정말로 아버지가 눈을 뜰 수 있는지 몇 번이고 물었습니다. 시주 책도 확인했더랬죠.</t>
+  </si>
+  <si>
+    <t>아무래도 승려가 수상하오.</t>
+  </si>
+  <si>
+    <t>...음..그건 좀 아닌 것 같아요.</t>
+  </si>
+  <si>
+    <t>..진정 말이 된다고 생각하시오?</t>
+  </si>
+  <si>
+    <t>너무 허무맹랑하여 듣고 싶지 않군...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누님이 얼핏 무뚝뚝해 보여도, 참 마음이 따뜻한 분입니다. 이곳저곳 도움을 주셨나 보네요.</t>
+  </si>
+  <si>
+    <t>상인들이 청이에게 고마워한다고? 청이가 뭔가 할 땐 똑 부러지지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 댁 따님이 저들이랑 종종 떠드는 것을 보았소. 제대로는 모르오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300석이나 시주했다고요? 시주를 뭣 하려 합니까? 당장 가져오시지요! 저렇게 갑갑하다니까.</t>
+  </si>
+  <si>
+    <t>나 같으면 공양은 안 합니다. 나 살기도 바쁜데,,</t>
+  </si>
+  <si>
+    <t>공양미가 뭐에요??? 쌀이요?..배고프다...</t>
+  </si>
+  <si>
+    <t>금시초문일세.. 그런 큰돈을 왜 궁금해하는지 궁금하군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 정토에 더욱 가까워졌습니다. *정토 : 불교 신자가 죽으면 도달하는 곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(또 화를 낼 것 같아 이야기하고 싶지 않다.)</t>
+  </si>
+  <si>
+    <t>청이가 그 많은 쌀을 어디에서 구했는지는 나도 모르네...</t>
+  </si>
+  <si>
+    <t>(재물에 관련된 일이라 별로 이야기하고 싶지 않다..)</t>
+  </si>
+  <si>
+    <t>(별로 이야기하고 싶지 않다.)</t>
+  </si>
+  <si>
+    <t>(이야기해 봤자 알지 못할 것이다.)</t>
+  </si>
+  <si>
+    <t>청이가 팔아치울 귀한 것이 뭐가 있을는지..</t>
+  </si>
+  <si>
+    <t>그분이 가끔 떡을 주셨는데...</t>
+  </si>
+  <si>
+    <t>우리 막내는 장차 큰일을 할 것이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물살이 빠르면 빨래할 때 좋지..</t>
+  </si>
+  <si>
+    <t>그런 이야기는 물에 대해 잘 아는 사람에게나 물어보게.</t>
+  </si>
+  <si>
+    <t>거센 물이 흐르듯 객이나 들어왔으면..</t>
+  </si>
+  <si>
+    <t>물길은 거세지기도, 약해지기도 하지요.</t>
+  </si>
+  <si>
+    <t>물가엔 잘 가지 않아요.</t>
+  </si>
+  <si>
+    <t>지금 물길이 거센 시기입니다.</t>
+  </si>
+  <si>
+    <t>(청이 이야기를 더 해봤자 기분만 상할 것이다..)</t>
+  </si>
+  <si>
+    <t>무슨 말인지 도통 모르겠군요.</t>
+  </si>
+  <si>
+    <t>걔가 집으로 사 오는 게, 먹을 것 말고 뭐가 있었나요?</t>
+  </si>
+  <si>
+    <t>무엇을 위해 따님의 물건에 집착을 하시는 겁니까? 내려놓으면 편해지는 것을...</t>
+  </si>
+  <si>
+    <t>들어보니 그 계집이 아주 작정하고 도망친 거네!! 갑갑해라 정말!</t>
+  </si>
+  <si>
+    <t>아니, 청이는 짚신을 삼아 내다 팔았었는데 도리어 사들이다니.. 희한한 일이네.</t>
+  </si>
+  <si>
+    <t>내 말을 못 믿겠소? 그래도 이게 사실이오.</t>
+  </si>
+  <si>
+    <t>누님께서 짚신을 잔뜩..? 내게도 한 켤레 주시긴 했는데.. 어쩐지 기분이 안 좋아요. 오랫동안 누님을 뵙지 못할 것 같은 기분이에요.</t>
+  </si>
+  <si>
+    <t>난 관계없네.</t>
+  </si>
+  <si>
+    <t>잘 모르겠어요. 뱃사공 아저씨께 물어보세요.</t>
+  </si>
+  <si>
+    <t>사공의 일이라면 사공에게 가보세요.</t>
   </si>
   <si>
     <t>뭐 살 것 있소?;살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(꼬르륵)...배고프다..;저거 맛있겠다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간이 명줄이오! 빨리 움직이십시오!!(퍽 겸손한 말씨로 바삐 일한다.);(이쪽은 쳐다도 보지 않는다.);(몹시 바빠 보인다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송나라 상인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얌전한 괴앙이가 붓두막에 일찍 오른다더니! 괘씸한 것.</t>
-  </si>
-  <si>
-    <t>내가 그 아이를 단단히 잘못 봤네..</t>
-  </si>
-  <si>
-    <t>(말을 걸어봐도 대답하지 않는다.)</t>
-  </si>
-  <si>
-    <t>따님이 거짓을 고하고 사라졌다는 말씀이십니까? 믿어지지 않는군요.</t>
-  </si>
-  <si>
-    <t>청이 누님이 향리 댁으로 들어간 게 아니라는 것이지요? 어디로 가셨을지 걱정됩니다.</t>
-  </si>
-  <si>
-    <t>귀한 딸 단속도 안 하고 무엇했나.</t>
-  </si>
-  <si>
-    <t>청이가 뭘 하고 다녔는지 저는 모릅니다. 오비삼척이오!</t>
-  </si>
-  <si>
-    <t>그 어린아이가 어딜 간 겐지...</t>
-  </si>
-  <si>
-    <t>댁의 딸을 왜 이리 와서 찾소?</t>
-  </si>
-  <si>
-    <t>따님은 좋은 곳으로 향하였을 겁니다. 기운이 좋군요.</t>
-  </si>
-  <si>
-    <t>누님이 어디로 갔을지는 모르겠어요. 아 배고파…</t>
-  </si>
-  <si>
-    <t>(말을 걸어보았지만 눈길도 주지 않는다.)</t>
-  </si>
-  <si>
-    <t>그것과 내가 무슨 상관이 있나. 잘 모르겠네.</t>
-  </si>
-  <si>
-    <t>저잣거리는 달에 한 번 갑니다. 견물생심이기에 항상 속세를 경계해야 합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">누님이 자주 오셔서 먹을 것을 챙겨주셨습니다. </t>
-  </si>
-  <si>
-    <t>보통 주막에만 있으니... 난 모르오.</t>
+  </si>
+  <si>
+    <t>부처께 지성으로 불공드린다면 근심이 없어진답니다.;마음 깊이 불공드리면 조만간 부처의 덕으로 눈을 뜰 수 있을 것입니다.</t>
+  </si>
+  <si>
+    <t>귀덕 어멈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 댁 셋째 아들 말이지요, 여자 깨나 울릴 것 같던데... 그나저나 왜 찾으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 단순한 도움을 받았습니다. 제가 말씀드릴 의무도 이유도 없으니 신경 쓰지 마시지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠,,청이가 대가 없이 막 도와주고 그러지는 않는데.. 뭘 얼마나 받았대요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누님께서 품을 팔던 것을 제하면 평소에 팔았던 건 짚신과 새끼줄이었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통.. 값어치가 나가는 것이라 하면,,, 사람의 몸값이 가장 비싸지요.. 하하하 농입니다!! 진지하게 생각 마쇼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 걸 왜 내게 물으시오?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요망한 것. 알면 알수록 더 마음에 들지 않는군. 그 댁 딸 이야기 더 이상 듣기 싫소.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 이야기한 게 전부요. 더 이상 할 말 없소.</t>
+  </si>
+  <si>
+    <t>따님에게 직접 들으시지요. 바빠서 이만 실례하겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자서라도 거뜬히 살아야 해.;어려움 있으면 말해봅세.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이가 장터에 자주 머물렀었어. 장터로 가보셔.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승려에게 가보라니까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뺑덕네가 한 말이지..? ...허튼소리 믿지 마세.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이가 아비 수발드느라 온갖 생필품은 다 사러 다녔을 텐데, 무엇이 궁금하셔?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송에서 온 물품들에 관심이 많았나봅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 그쪽엔 관심도 없네요~ 때 되면 되겠죠~</t>
+  </si>
+  <si>
+    <t>개울은 항시 잔잔하지만, 바다는 아니지요. 바다는 태어나 딱 한 번 보았습니다.. 도움이 못 되어드려 죄송하군요.</t>
+  </si>
+  <si>
+    <t>배는 항상 뜨는 게 아닌가요?</t>
+  </si>
+  <si>
+    <t>배가 다시 뜨는 때를 알아봐 주게.</t>
+  </si>
+  <si>
+    <t>파도가 거셀 때 배를 띄우는 사공은 없지. 미친 게 아니고서야.</t>
+  </si>
+  <si>
+    <t>배는 날씨가 잔잔해지면 띄울 것입니다. 언제가 될지는 아무도 모르지요.</t>
+  </si>
+  <si>
+    <t>그분 덕분에 이 일대에서 꾸미개 신품도 여기 점포가 제일 빨리 들어오지요!</t>
+  </si>
+  <si>
+    <t>예, 그 단골 객 덕분에 꾸미개는 많이 들여오는 편입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 아들은 이제 열 살이지요. 아들 안부는 왜 묻는 거요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 왜 나한테 물으쇼? 나는 모르는 일입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">흠흠.. 그, 뭐 이번에 단산오옥이라 부르는 먹을 들여왔는데.. 넌지시 홍보 좀 해주시죠. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼른 배가 출항 좀 했으면 좋겠수다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막내가 우리 집 종들을 어엿비 여겨 꾸미개를 하나씩 장만해 줬소. 종들의 차림새도 신경 쓰는 아이지. 참으로 기특하지 않소?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 재물만 많았다면 그곳의 단골이 되었을 텐데 아쉽군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옴마나.. 역시 그 댁 셋째는 여색을 좋아하나 보옵니다. 내가 십 년만 젊었어도... 농이여요~ 홍홍홍홍~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누님은 항상 이것저것 들고 다니셨습니다.. 그게 궁금하다면 물건을 판 사람에게 가보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이는 향리 댁의 양녀로 들어가지 않았수?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이가 향리 댁으로 간 게 아니라는 말이지?? 알겠네. 나도 찾아봄세.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱃사람들 사정은 관심 없어요~</t>
+  </si>
+  <si>
+    <t>그것을 왜 내게 얘기하는 겐가?</t>
+  </si>
+  <si>
+    <t>물품의 수출 때문에 저도 누구보다 배가 뜨길 바라고 있습죠.</t>
+  </si>
+  <si>
+    <t>덕분에 길게 쉬게 됐소.. 국밥이나 많이 먹어야겠군.</t>
+  </si>
+  <si>
+    <t>사공에게 가보시오.</t>
+  </si>
+  <si>
+    <t>(장사꾼에게 물건을 찾으러 가자.)</t>
+  </si>
+  <si>
+    <t>물건을 받아왔소?? 가져왔다면 어서 건네주게.</t>
+  </si>
+  <si>
+    <t>때문에 값을 더 받아야겠는데, 댁이 이 상자를 열어준다면 물건을 드리겠수다.</t>
+  </si>
+  <si>
+    <t>무역상에게 선물 받은 장난감인데, 진짜 선물은 이 상자 안에 있습죠.. 나는 이런 것엔 영 재주가 없어서... 부탁 좀 하겠수다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도르륵 구슬이 굴러가는 소리와 함께 상자가 덜컥였다. </t>
+  </si>
+  <si>
+    <t>고맙습니다! 덕분에 이제서야 상자 안을 확인하네요!</t>
+  </si>
+  <si>
+    <t>장사꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱃길을 잠재우는 방법이라.. 가끔 하늘에 제를 지내면 된다는 말도 있던데.. 제대로는 잘 모르겠군.</t>
+  </si>
+  <si>
+    <t>(귀덕 어멈의 말을 듣자.)</t>
+  </si>
+  <si>
+    <t>어서 가보게. 몸조심하고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단서를 더 조합해 보자.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셋째가 이틀 전에 태의감으로 향했지.. 또 무슨 일이 있었소?</t>
+  </si>
+  <si>
+    <t>,,,주막이 소란스러웠던 걸로 기억해요. 자세히는 모르니 주막으로 가보세요.</t>
+  </si>
+  <si>
+    <t>신경 쓰고 싶지 않소. 저리 가시오.</t>
+  </si>
+  <si>
+    <t>남녀 둘이 친하면 하나 밖에 없지. 명약관화요.</t>
+  </si>
+  <si>
+    <t>그 둘이 함께 있는걸 나도 보긴 봤소. 그저 친우 사이 아니오?</t>
+  </si>
+  <si>
+    <t>지금 우리 아들이랑 그 댁 따님하고 엮는 것이오?? 실례라는 생각은 안드시오?</t>
+  </si>
+  <si>
+    <t>그 둘이 친한 것과 내게 질문을 하는 것이 무슨 관계가 있소?</t>
+  </si>
+  <si>
+    <t>둘이 친우보다는 가까워 보였어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이와 향리 댁 막내아들이 함께 사라졌단 말이시오? 말에 어폐가 있소. 어디 가서 그런 소리 하다가 봉변 당하기 딱 좋겠소. 조심하시오.</t>
+  </si>
+  <si>
+    <t>우리 셋째는 분명히 태의감으로 갔소. 또 허튼 소리 하다간 비명횡사할 줄 아시오.</t>
+  </si>
+  <si>
+    <t>나는 관심 없으니 장사 방해 말고 저리 비키십쇼.</t>
+  </si>
+  <si>
+    <t>저는 모르겠어요.</t>
+  </si>
+  <si>
+    <t>둘 다 이틀 전에 사라졌다고요? 난리났네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옴마, 지금 무역이 중단 되었다는 말씀이시오? 그럼 당분간 비단은 못 보겠네..</t>
+  </si>
+  <si>
+    <t>어쩐지, 뱃사람들이 주막에 오래 머무른다더니,,, 그런 연유였구만..</t>
+  </si>
+  <si>
+    <t>무슨 말인지 잘 모르겠어요..</t>
+  </si>
+  <si>
+    <t>다 부처의 뜻일 겁니다.</t>
+  </si>
+  <si>
+    <t>무역이 중단된 일을 어떻게 아시나요? 그러나 조만간 다시 재개될 것 입니다. 걱정마세요.</t>
+  </si>
+  <si>
+    <t>그들이 알아서 하겠지. 이제 나랑은 상관없다네.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그건 또 어디서 전해들은 것이오? ..알고 왔으니 얘기해줘야겠군. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심학규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사공의 물건 말이지요? 구해놨습죠..그런데 철이 철인지라 어렵사리 구했지요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장사꾼은 상자 안을 확인하더니, 책을 꺼내들고선 한숨을 푹 내쉬었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이고, 글도 못 하는데 책이라니..... 일단 사공의 물건을 받으시지요. 중요한 물건이니 꼭! 잘 전달해 주셔야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 밥이다!! 감사합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사람이 누군지는 기억이 잘 안 납니다. 별로 관심이 가지도 않았는걸요.</t>
+  </si>
+  <si>
+    <t>아, 당신이 아비되는 사람이오..? 이런, 말 실수했군. 미안하오.</t>
+  </si>
+  <si>
+    <t>그 치들이야 장사에 눈과 귀가 멀어서 그렇다쳐도... 그런데 당신은 누구시오? 내가 말해 줄 이유가 없잖소?</t>
+  </si>
+  <si>
+    <t>어서 가시오! 성가시게 하지말고.</t>
+  </si>
+  <si>
+    <t>다시 말을 걸어도 대답이 없다. 내일 다시 이 주제로 말을 걸어봐야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이는 어디서 공양미를 구한 것일까..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">청이가 상인들에게 도움을 주었다. 그렇군.. 일전에 상인들이 방문했었네. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 가문과 비단 같은 걸 직접 거래하는데 몇 날 뒤 바로 배를 띄울 것이라 보고했네. 정확한 날짜는 알려주지않더군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(별로 이야기하고 싶지 않다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 팔에 매달리려는 뺑덕 어멈을 살짝 피했다.</t>
+  </si>
+  <si>
+    <t>뭔가를 보긴 했는데, 맨입으로는 알려드리기 힘듭니다~ 제가 원하는 걸 가져오신다면 알려드리겠소~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사합니다. 다녀오셨군요! 하던 얘기를 해드리죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주막은 바빠지고 일손은 없어서 그런데 일 좀 돕겠는가? 이야기는 일단 그 뒤에 하세.</t>
+  </si>
+  <si>
+    <t>대신 너무 바빠서 그런데 이 음식 좀 장터 아이에게 갖다 줄 수 있겠나?? 꽤 오래 굶었을 게야.</t>
+  </si>
+  <si>
+    <t>와, 귀한 떡이네요!! 정말 감사합니다! 아주머니께는 매번 얻어먹네요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃이 예뻐보여 뒷산에서 한 줌 따왔는데 아주머니께 전해주시겠어요?? 저는 이제 벗들과 이 떡을 나누어야해서요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다녀왔는가? 오, 그 아이가 이것을 가져다달라고 했다고? 약초구만!! 기특한 것. 많이도 가져왔구만. 심씨에게도 좀 나눠주겠네. 물에 달여 마시면 몸에 좋을게야.</t>
+  </si>
+  <si>
+    <t>다녀왔는가? 오, 그 아이가 이것을 가져다달라고 했다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉증에 좋은 약초구만!! 기특한 것. 많이도 가져왔네. 심씨에게도 좀 나눠주겠네. 물에 달여 마시면 몸에 좋을게야.</t>
+  </si>
+  <si>
+    <t>이 정도면 도움이 되었지? 근데 몸조심하게. 느낌이 좀 그러네.. 여기저기 떠들다간 위험할 것 같아.</t>
+  </si>
+  <si>
+    <t>고맙네. 일전에 내가 출항 날을 알아와달라는 부탁을 들어주었구려. 여기서부턴 내가 알아서 처리하겠네.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그건 또 어디서 들었소?! 이 이야기를 섣불리 꺼냈다간 큰일이 날 것이오. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기를 들은 사공이 목소리를 낮추어 속삭였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인 모를 이끌림에, 나는 비장하게 고개를 끄덕였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 보름날, 그 치들이 바다에서 일을 꾸민다고 했소. 나는 그것을 막으러 가야 하오. 함께 하겠소?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비를 마친 뒤 선착장에 있는 나를 찾아오면 바로 출발하겠소.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 알고 오셨나요? 함께해 주신다니 영광이군요. 당신 식구에게는 역시 고귀한 마음이 흐르나 봅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아궁이에 넣고 불을 지피시오.</t>
+  </si>
+  <si>
+    <t>개울가에서 z를 누르면 물을 뜰 수 있소!</t>
+  </si>
+  <si>
+    <t>먼저 장작을 넣어야한다.</t>
+  </si>
+  <si>
+    <t>쌀이 있어야 밥을 만들 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥 짓는 법도 몰라서 그러는가? 아궁이에 불을 때고 쌀과 물을 솥에 올리면 된다네. 청이 없으면 어찌 살려는지 원...</t>
+  </si>
+  <si>
+    <t>한 줌은 될지 모르겠소.</t>
+  </si>
+  <si>
+    <t>이 정도 쌀로는 우리 노점에서 아무것도 못 바꿉디다!</t>
+  </si>
+  <si>
+    <t>시주는 한 가마니부터 받고 있습니다. 마음만은 감사히 받지요.</t>
+  </si>
+  <si>
+    <t>와! 쌀이다.. 배고파요. 그치만 생쌀은 먹어도 배가 안차요.</t>
+  </si>
+  <si>
+    <t>굶주릴 땐 여기 도화촌 주막이 종종 생각나곤 하지..</t>
+  </si>
+  <si>
+    <t>쌀이 타기 전에 물을 붓자.</t>
+  </si>
+  <si>
+    <t>이제 밥 짓는 법을 좀 알겠소? 배 곯고 다니지 마시오.</t>
+  </si>
+  <si>
+    <t>허허, 잘 챙겨드시오.</t>
+  </si>
+  <si>
+    <t>여기서 식자재는 팔지않소.</t>
+  </si>
+  <si>
+    <t>하하 식사도 챙겨주시는겁니까? 감사드리지요. 마음만 받겠습니다.</t>
+  </si>
+  <si>
+    <t>잘 챙겨 먹는게 제일이오.</t>
+  </si>
+  <si>
+    <t>내게 주는 것이오?? 갖다 팔고 집안 살림에나 보태게.</t>
+  </si>
+  <si>
+    <t>이번에 들여온 꾸미개군요. 참 곱지요? 다음엔 더 좋은 걸 들여오겠습니다.</t>
+  </si>
+  <si>
+    <t>우리 귀덕이 공부 시킬 때 잿물을 대신 썼는데.. 추억이구먼.</t>
+  </si>
+  <si>
+    <t>다녀오십쇼! 만약 달라면 줘도 됩니다. 다음에 값을 받으면 되니까요.</t>
+  </si>
+  <si>
+    <t>헤헤, 그게 뭐예요? 모양이 먹기 좋게 생겼어요.</t>
+  </si>
+  <si>
+    <t>(주막에 온 객들을 맞이하느라 매우 바쁜 것 같다. 얼른 거지 아이에게 음식을 전달하자.)</t>
+  </si>
+  <si>
+    <t>제가 보기엔 예쁜 꽃이지만, 아주머니가 좋아하실지는 모르겠어요.</t>
+  </si>
+  <si>
+    <t>(귀덕 어멈에게 전달해야한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사공의 것이다. 다른 사람에게 건네선 안된다.)</t>
+  </si>
+  <si>
+    <t>으음, 이 특이한 향. 아편이네요.. 어디 병자가 있나보군요.</t>
+  </si>
+  <si>
+    <t>고맙소. 부탁을 들어주었으니 내 이야기를 해주겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난해 오월부터 송나라 상인들 배의 *도사공이었소. 우리 막내 딸아이가 병에 걸려 일을 쉬면 안되는 처지인데, 삼월이 되자마자 일감을 잃었지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 사는게 팍팍해 그런지 엊그제는 술에 취해 주막에서 실수를 했군.. 하소연이 길었소.  이제 호기심은 해결되셨소? *우두머리 사공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마음이 수치스러워 어디에도 물어볼 수 없다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춥지 않은 집으로 만들어주겠다 매혹하는 것이오?? 앙큼하셔요~ 호호.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누굴 배곯고 다니는 거지로 아시오? 이걸 누구 코에 붙인담.. 도로 가져가셔요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 이런 것보단, 좀 더 반짝거리는 것이 좋습니다. 호호호~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말로 갖고 싶었던 것이옵니다~ 너무 마음에 들어요! 낭군님 하시렵니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제 훔쳤수?! 이런 도적 놈을 봤나!! 향리님께 데려가 혼구녕을 내주겠다!! 여기 누가 *순검 좀 불러주게! *순찰대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절 주시는 건가요? 필요 없어요. 먹을 거로 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 형편이 넉넉했다면 딸들한테 하나씩 해줬을 텐데.. *도산 주려는 것이오? 좋겠군.  *선물의 옛말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹?? 호호. 글씨 쓰는 사내는 멋들어지지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단산에서 올라온 먹이라고.. 한번 써보겠네. 품질이 좋아 보이는군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 참 좋아 보이는 먹입니다. 저는 괜찮습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부유한 문반들이나 쓰지, 나 같은 상놈은 괜찮소.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 이제까지 보아온 먹 중에 가장 좋아 보입니다. 나중에 제가 직접 구매하겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 청이 누님은 항상 제게 주먹밥을 가져다주셨지요.. 배가 고프네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주먹밥을 허겁지겁 먹는다. 아이가 밥을 다 먹으면 말을 걸어야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심청 아기씨와 그 댁 도령이 함께 사라졌다는 말씀이십니까? 아닙니다. 심청 아가씨는 반드시 돌아올 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배의 출항 날? 그걸 왜 궁금해하는진 모르겠으나 도와줄 순 있지. 주막에 오는 객들의 대화를 엿들어보겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고, 아직 너무 바빠 그런데, 다른 일 좀 보고 한가해지면 다시 오게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 진행에 필요한 단서가 없습니다. 다른 방향으로 탐색해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제 반찬도 기억이 안 나는데 그때 일이 기억이 나겠어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희가 무역을 하며 쓰는 방법이 따로 있지요. 업계 사람이 아니라면 이야기해드릴 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굳이 알려 하지 않았으면 좋겠군.  때가 되면 알게 될 것이오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 이제 출발하겠소. 그리고 우리와 함께할 사람도 먼저 타있소. 나룻배에 타시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나룻배에 탑승하니, 흐릿한 시야 사이에 인영이 보였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 내 앞으로 천천히 다가오더니 먼저 입을 열었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그의 얼굴을 가까이 바라보니, 향리 댁 셋째 아들이었다.</t>
+  </si>
+  <si>
+    <t>묻고 싶은 게 오만가지였지만 그런 나의 마음을 알아챘는지 그가 이야기를 이어갔다.</t>
+  </si>
+  <si>
+    <t>제게 물어보고 싶으신 게 꽤 많으실 겁니다. 천천히 물어보시지요,</t>
+  </si>
+  <si>
+    <t>장지언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑습니다. 청이 아버님. 이렇게 뵙게 되는군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 청이와 교제 중인 장 지언이라고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'태형에 처할 줄 아시오!!'</t>
+  </si>
+  <si>
+    <t>장사꾼이 연신 소리쳤다.</t>
+  </si>
+  <si>
+    <t>장사꾼에게 팔뚝을 붙잡혀 있는 새에, 군인들이 달려와 끈으로 내 몸통을 묶었고, 나는 끌려가고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 단단히 경고 했지않소? 자초한 줄 아시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부인이 하인의 하얀 천을 걷어내더니, 그 속에서 칼을 꺼내들었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼날에 반사된 빛이 눈에 들어와 질끈 감은 찰나, 이미 복부에 따듯함이 퍼졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황을 파악하기도 전에 내 몸은 저택 안으로 끌려가고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜 결말1 [양상군자]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜 결말2 [구화지문]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸이 계속 뜨거워지며 숨이 옥죄어왔고, 자꾸만 헛구역질이 나왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸이 달아오른다. 쑤시던 무릎이 개운해졌다. 눈도 밝아진 기분이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀떡꿀떡, 약초물을 모조리 목으로 넘겼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 이 약초가 내 몸에 잘 맞는지, 몸이 좋아지는 기분이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨끈함에 기분도 나른해진 찰나였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 몸을 뉘인 바닥은 이젠 안락하게만 느껴졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜 결말3 [과유불급]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신을 차리니 몸은 꽁꽁 묶여있었고 앞은 보이지 않았다. 그때, 누군가의 중얼거림이 들렸다.</t>
+  </si>
+  <si>
+    <t>첨벙 소리가 났고, 뒤이어 웅성이는 소리가 귓가에 들려왔다.</t>
+  </si>
+  <si>
+    <t>생생한 흉몽임에 틀림없다. 고약하게 풍기는 물 비린내를 뒤로하며 쏟아지는 잠에 몸을 맡겼다.</t>
+  </si>
+  <si>
+    <t>갑자기 뒤통수에 둔탁한 소리가 울렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜 결말4 [취생몽사]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>........어두운 아비 눈을 밝게 띄워 주옵소서...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 보름날이 밝았다. 어찌 된 일인지 궁금하여 향리 댁을 갔으나 부인은 온데간데없었다..</t>
+  </si>
+  <si>
+    <t>이윽고, 남아있던 송나라 상인들도 모두 마을을 떴고, 고요함 속에서 나는 그저 하릴없이 청이를 기다릴 뿐이었다.</t>
+  </si>
+  <si>
+    <t>보통 결말1 [연경학망]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음날도, 또 그 다음날에도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부인이 없는 향리 댁의 대문은 그저 척박한 모양새였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이에게 수양딸로 들어오라는 말은 했지만, 청이는 한사코 거절했소. 듣도 보도 못한 말이오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">청이 누님을 못 본 지 이틀 되었나...누님이 요 근래 저잣거리를 자주 돌아다녔습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 맛있게 잘 먹었습니다. 청이 누님 이야기를 하고 있었지요? 청이 누님이 요즘 어떤 남정네와 자주 얘기를 나누는 모습을 보았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이가 장터에 자주 머무르긴 했는데.. 향리 댁에 들어가기 전 채비를 한다고 생각했지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 그 아기씨가 여기서 서성거리긴 했지요. 무엇을 사 갔는지 궁금하십니까? 객의 정보는 함부로 제공하면 안 됩니다. 그게 설령 가족이어도 말이지요. 거래라면 모를까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즈음 승려와 이야기하는 걸 몇 번 봤는데… 한번 승려에게 가보셔.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느 댁 아드님이란 걸 들었던 것 같은데 얼굴을 가려 기억이 잘 안 나요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 그렇지. 청이가 송나라 상인들과 떠드는 걸 보았소. 송에서 신품이라도 들어왔나...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫째 둘째는 벼슬길에 올랐고, 셋째는 이틀 전에 과거를 보러 갔소.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예, 저도 송에 세 살 난 아들이 있지요. 얼른 보고 싶군요. 그러려면 얼른 물살이 잠잠해져야 할 텐데...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심청 아기씨 말씀이신가요? 저희에게 참으로 고마운 분이죠. 그 덕에 한시름 놓았습니다... 아이고, 바쁘네요. 그럼 조심히 들어가시지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신네 딸이 그들과 거래를 했소. 무엇을 내놓은지 모르겠으나 그들에게 삼백 석을 요구하는 걸 엿들었소. 굉장히 귀한 걸 팔아치운 모양이오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승려가 마을에 자주 내려오는 걸 보니 땡중이오. 청이에게 연정을 품은 건 아니오?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 말인데, 배가 다시 송으로 가는 때를 알아봐줄 수 있는가? 이유는 나중에 말해주겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이가 아비 눈을 꼭 뜰 수 있게 해야 한다고 어찌나 고민이던지... 결국 어떻게든 구했나 보네...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그분은 우리 점포 단골입니다! 워낙에 꾸미개들을 많이 사 가지요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물살이 가라앉아야 배가 뜰 수 있소. 지금은 배가 뜨질 못하네..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댁네 따님이 짚신을 크기 상관없이 여러 켤레를 사 갔는데, 짚신을 있는 대로 다 가져갔습니다. 무슨 일인지 궁금하긴 했지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 그리고 뒷간에 갔다가 은밀히 대화를 나누는 걸 엿들었네. 3월 보름날을 누군가에게 얘기하면 일이 진행된단 이야기를 들었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…잡화상에게 물건을 부탁해놨는데, 그것을 가져다주면 얘기해 주겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그날이었나,, 뱃사공이 큰 소리를 쳤던 일이 있소. 사공에게 한번 가보시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매해 이맘때, 송에서 오가는 뱃길이 거세지기에 무역이 중단되었소. 그러나 송나라 사람들이 뱃길을 잠잠하게 만드는 법을 안다더군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공양미 삼백 석은 몽운사로 잘 시주 받았습니다. 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀덕 어멈은 너무 바빠 보인다. 아직인듯싶다. 청이의 행방에 관련하여 더 알아보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역이 중단 된 지는 얼마되지않았습죠. 한 사흘은 되었나? 물건을 내리느라 상인들이 마을에 자주 옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한동안 사절은 안 오겠군..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 들여온 비녀가 그렇게 예쁘던데,,,</t>
+  </si>
+  <si>
+    <t>호호, 무슨 일이신가요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUsing_dialog_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어려움 있으면 말해봅세.</t>
+  </si>
+  <si>
+    <t>혼자서라도 거뜬히 살아야 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(노비와 대화를 나눈다.)</t>
+  </si>
+  <si>
+    <t>살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
+  </si>
+  <si>
+    <t>여기는 어쩐 일이오?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 살 것 있소?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부처께 지성으로 불공드린다면 근심이 없어진답니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주막에 앉아서 늘어지게 쉬고 있다.)</t>
+  </si>
+  <si>
+    <t>오랜만에 밟는 땅이요. 쉬고 싶소.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 명줄이오! 빨리 움직이십시오!!(퍽 겸손한 말씨로 바삐 일한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음 깊이 불공드리면 조만간 부처의 덕으로 눈을 뜰 수 있을 것입니다.</t>
+  </si>
+  <si>
+    <t>(이쪽은 쳐다도 보지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몹시 바빠 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 맛있겠다..</t>
+  </si>
+  <si>
+    <t>(꼬르륵)...배고프다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주막에 앉아서 늘어지게 쉬고 있다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 들여온 비녀가 그렇게 예쁘던데,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음 깊이 불공드리면 조만간 부처의 덕으로 눈을 뜰 수 있을 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 막 쉬는 참이오. 방해하지 마시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주변의 소음에 나의 말소리가 묻힌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말로 갖고싶었던 것이옵니다~ 너무 마음에 들어요! 낭군님 하시렵니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 뺑덕이는 어릴 적 보낸 거 누구보다 잘 알지 않소? 왜 아픈 구석을 후벼파시오!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 배고파…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 신분에 누군가를 마음에 품을 수 있겠습니까? 하하, 절 남자로서 바라봐 주시니 고맙군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고 계집이 무언가를 팔아치웠나 보구먼.. 집에 사라진 것 없나 찾아보시오!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아.. 저는 어디서 난 쌀인지는 모릅니다. 그저 댁의 이름 석 자로 몽운사에 시주가 들어왔으니까요. 그게 따님이 해내신 일이었군요. 참 든든한 딸을 두셨습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀덕이는 옆 마을로 장가 들은 지 오래지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 명줄이오! 빨리 움직이십시오!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명히 배가 출항하는 때가 정확히 있을 걸세.. 다시 알아봐 주게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(꼬르륵)...배고프다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(많이 바빠보인다.)</t>
-  </si>
-  <si>
-    <t>이제 막 쉬는 참이오. 방해하지 마시오.</t>
-  </si>
-  <si>
-    <t>(주변의 소음에 나의 말소리가 묻힌다.)</t>
-  </si>
-  <si>
-    <t>허언을 하고 어딜 간 겐지.. 쯧쯧… 관심 없다네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제게 아들이 있을리가요. 하하하.</t>
-  </si>
-  <si>
-    <t>아들은 없고 딸만 셋이오. 누구 놀리시오?</t>
-  </si>
-  <si>
-    <t>송나라 상인들</t>
-  </si>
-  <si>
-    <t>우리 뺑덕이는 어릴 적 보낸 거 누구보다 잘 알지 않소? 왜 아픈 구석을 후벼파시오!</t>
-  </si>
-  <si>
-    <t>귀덕이는 옆 마을로 장가 들은 지 오래지...</t>
-  </si>
-  <si>
-    <t>기억이 안 나요... 생각해 볼게요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">청이가 송 사람과 자주 얘기하더라니까! </t>
-  </si>
-  <si>
-    <t>청이가 타인에게 워낙 잘했으니 말이야.. 그럴 법도 하지.</t>
-  </si>
-  <si>
-    <t>나는 모르는 일일세.</t>
-  </si>
-  <si>
-    <t>장터에는 관심이 없어 잘 알지 못합니다.</t>
-  </si>
-  <si>
-    <t>그 사람들이 무서워 강변 쪽에는 가지도 않아요.</t>
-  </si>
-  <si>
-    <t>그 계집아이.. 송에서 온 치들이랑 달포 전부터 자주 떠들던데, 그런 당돌한 계집은 처음 보았소.</t>
-  </si>
-  <si>
-    <t>불공이라도 드리려 한 건지..</t>
-  </si>
-  <si>
-    <t>장사 방해하지 마시오!</t>
-  </si>
-  <si>
-    <t>공양미를 바친다면 정말로 아버지가 눈을 뜰 수 있는지 몇 번이고 물었습니다. 시주 책도 확인했더랬죠.</t>
-  </si>
-  <si>
-    <t>아 배고파…</t>
-  </si>
-  <si>
-    <t>아무래도 승려가 수상하오.</t>
-  </si>
-  <si>
-    <t>...음..그건 좀 아닌 것 같아요.</t>
-  </si>
-  <si>
-    <t>..진정 말이 된다고 생각하시오?</t>
-  </si>
-  <si>
-    <t>제 신분에 누군가를 마음에 품을 수 있겠습니까? 하하, 절 남자로서 바라봐 주시니 고맙군요.</t>
-  </si>
-  <si>
-    <t>너무 허무맹랑하여 듣고 싶지 않군...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누님이 얼핏 무뚝뚝해 보여도, 참 마음이 따뜻한 분입니다. 이곳저곳 도움을 주셨나 보네요.</t>
-  </si>
-  <si>
-    <t>상인들이 청이에게 고마워한다고? 청이가 뭔가 할 땐 똑 부러지지..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 댁 따님이 저들이랑 종종 떠드는 것을 보았소. 제대로는 모르오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300석이나 시주했다고요? 시주를 뭣 하려 합니까? 당장 가져오시지요! 저렇게 갑갑하다니까.</t>
-  </si>
-  <si>
-    <t>나 같으면 공양은 안 합니다. 나 살기도 바쁜데,,</t>
-  </si>
-  <si>
-    <t>공양미가 뭐에요??? 쌀이요?..배고프다...</t>
-  </si>
-  <si>
-    <t>금시초문일세.. 그런 큰돈을 왜 궁금해하는지 궁금하군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕분에 정토에 더욱 가까워졌습니다. *정토 : 불교 신자가 죽으면 도달하는 곳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(또 화를 낼 것 같아 이야기하고 싶지 않다.)</t>
-  </si>
-  <si>
-    <t>청이가 그 많은 쌀을 어디에서 구했는지는 나도 모르네...</t>
-  </si>
-  <si>
-    <t>(재물에 관련된 일이라 별로 이야기하고 싶지 않다..)</t>
-  </si>
-  <si>
-    <t>(별로 이야기하고 싶지 않다.)</t>
-  </si>
-  <si>
-    <t>아.. 저는 어디서 난 쌀인지는 모릅니다. 그저 댁의 이름 석 자로 몽운사에 시주가 들어왔으니까요. 그게 따님이 해내신 일이었군요. 참 든든한 딸을 두셨습니다.</t>
-  </si>
-  <si>
-    <t>(이야기해 봤자 알지 못할 것이다.)</t>
-  </si>
-  <si>
-    <t>고 계집이 무언가를 팔아치웠나 보구먼.. 집에 사라진 것 없나 찾아보시오!</t>
-  </si>
-  <si>
-    <t>청이가 팔아치울 귀한 것이 뭐가 있을는지..</t>
-  </si>
-  <si>
-    <t>그분이 가끔 떡을 주셨는데...</t>
-  </si>
-  <si>
-    <t>우리 막내는 장차 큰일을 할 것이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물살이 빠르면 빨래할 때 좋지..</t>
-  </si>
-  <si>
-    <t>그런 이야기는 물에 대해 잘 아는 사람에게나 물어보게.</t>
-  </si>
-  <si>
-    <t>거센 물이 흐르듯 객이나 들어왔으면..</t>
-  </si>
-  <si>
-    <t>물길은 거세지기도, 약해지기도 하지요.</t>
-  </si>
-  <si>
-    <t>물가엔 잘 가지 않아요.</t>
-  </si>
-  <si>
-    <t>지금 물길이 거센 시기입니다.</t>
-  </si>
-  <si>
-    <t>(청이 이야기를 더 해봤자 기분만 상할 것이다..)</t>
-  </si>
-  <si>
-    <t>무슨 말인지 도통 모르겠군요.</t>
-  </si>
-  <si>
-    <t>걔가 집으로 사 오는 게, 먹을 것 말고 뭐가 있었나요?</t>
-  </si>
-  <si>
-    <t>무엇을 위해 따님의 물건에 집착을 하시는 겁니까? 내려놓으면 편해지는 것을...</t>
-  </si>
-  <si>
-    <t>들어보니 그 계집이 아주 작정하고 도망친 거네!! 갑갑해라 정말!</t>
-  </si>
-  <si>
-    <t>아니, 청이는 짚신을 삼아 내다 팔았었는데 도리어 사들이다니.. 희한한 일이네.</t>
-  </si>
-  <si>
-    <t>내 말을 못 믿겠소? 그래도 이게 사실이오.</t>
-  </si>
-  <si>
-    <t>누님께서 짚신을 잔뜩..? 내게도 한 켤레 주시긴 했는데.. 어쩐지 기분이 안 좋아요. 오랫동안 누님을 뵙지 못할 것 같은 기분이에요.</t>
-  </si>
-  <si>
-    <t>난 관계없네.</t>
-  </si>
-  <si>
-    <t>잘 모르겠어요. 뱃사공 아저씨께 물어보세요.</t>
-  </si>
-  <si>
-    <t>사공의 일이라면 사공에게 가보세요.</t>
-  </si>
-  <si>
-    <t>뭐 살 것 있소?;살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
-  </si>
-  <si>
-    <t>부처께 지성으로 불공드린다면 근심이 없어진답니다.;마음 깊이 불공드리면 조만간 부처의 덕으로 눈을 뜰 수 있을 것입니다.</t>
-  </si>
-  <si>
-    <t>시간이 명줄이오! 빨리 움직이십시오!!(퍽 겸손한 말씨로 바삐 일한다.);(이쪽은 쳐다도 보지 않는다.);(몹시 바빠 보인다.)</t>
-  </si>
-  <si>
-    <t>호호, 무슨 일이신가요??;이번에 들여온 비녀가 그렇게 예쁘던데,,,</t>
-  </si>
-  <si>
-    <t>귀덕 어멈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오랜만에 밟는 땅이요. 쉬고 싶소.;(주막에 앉아서 늘어지게 쉬고 있다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 댁 셋째 아들 말이지요, 여자 깨나 울릴 것 같던데... 그나저나 왜 찾으세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 단순한 도움을 받았습니다. 제가 말씀드릴 의무도 이유도 없으니 신경 쓰지 마시지요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠,,청이가 대가 없이 막 도와주고 그러지는 않는데.. 뭘 얼마나 받았대요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누님께서 품을 팔던 것을 제하면 평소에 팔았던 건 짚신과 새끼줄이었어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보통.. 값어치가 나가는 것이라 하면,,, 사람의 몸값이 가장 비싸지요.. 하하하 농입니다!! 진지하게 생각 마쇼.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런 걸 왜 내게 물으시오?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요망한 것. 알면 알수록 더 마음에 들지 않는군. 그 댁 딸 이야기 더 이상 듣기 싫소.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 이야기한 게 전부요. 더 이상 할 말 없소.</t>
-  </si>
-  <si>
-    <t>따님에게 직접 들으시지요. 바빠서 이만 실례하겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼자서라도 거뜬히 살아야 해.;어려움 있으면 말해봅세.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이가 장터에 자주 머물렀었어. 장터로 가보셔.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승려에게 가보라니까…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뺑덕네가 한 말이지..? ...허튼소리 믿지 마세.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이가 아비 수발드느라 온갖 생필품은 다 사러 다녔을 텐데, 무엇이 궁금하셔?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송에서 온 물품들에 관심이 많았나봅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 그쪽엔 관심도 없네요~ 때 되면 되겠죠~</t>
-  </si>
-  <si>
-    <t>개울은 항시 잔잔하지만, 바다는 아니지요. 바다는 태어나 딱 한 번 보았습니다.. 도움이 못 되어드려 죄송하군요.</t>
-  </si>
-  <si>
-    <t>배는 항상 뜨는 게 아닌가요?</t>
-  </si>
-  <si>
-    <t>배가 다시 뜨는 때를 알아봐 주게.</t>
-  </si>
-  <si>
-    <t>파도가 거셀 때 배를 띄우는 사공은 없지. 미친 게 아니고서야.</t>
-  </si>
-  <si>
-    <t>배는 날씨가 잔잔해지면 띄울 것입니다. 언제가 될지는 아무도 모르지요.</t>
-  </si>
-  <si>
-    <t>그분 덕분에 이 일대에서 꾸미개 신품도 여기 점포가 제일 빨리 들어오지요!</t>
-  </si>
-  <si>
-    <t>예, 그 단골 객 덕분에 꾸미개는 많이 들여오는 편입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 아들은 이제 열 살이지요. 아들 안부는 왜 묻는 거요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그걸 왜 나한테 물으쇼? 나는 모르는 일입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">흠흠.. 그, 뭐 이번에 단산오옥이라 부르는 먹을 들여왔는데.. 넌지시 홍보 좀 해주시죠. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼른 배가 출항 좀 했으면 좋겠수다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>막내가 우리 집 종들을 어엿비 여겨 꾸미개를 하나씩 장만해 줬소. 종들의 차림새도 신경 쓰는 아이지. 참으로 기특하지 않소?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 재물만 많았다면 그곳의 단골이 되었을 텐데 아쉽군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옴마나.. 역시 그 댁 셋째는 여색을 좋아하나 보옵니다. 내가 십 년만 젊었어도... 농이여요~ 홍홍홍홍~~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누님은 항상 이것저것 들고 다니셨습니다.. 그게 궁금하다면 물건을 판 사람에게 가보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(꼬르륵)...배고프다..;저거 맛있겠다..;</t>
-  </si>
-  <si>
-    <t>(꼬르륵)...배고프다..;저거 맛있겠다..;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이는 향리 댁의 양녀로 들어가지 않았수?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이가 향리 댁으로 간 게 아니라는 말이지?? 알겠네. 나도 찾아봄세.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뱃사람들 사정은 관심 없어요~</t>
-  </si>
-  <si>
-    <t>그것을 왜 내게 얘기하는 겐가?</t>
-  </si>
-  <si>
-    <t>물품의 수출 때문에 저도 누구보다 배가 뜨길 바라고 있습죠.</t>
-  </si>
-  <si>
-    <t>덕분에 길게 쉬게 됐소.. 국밥이나 많이 먹어야겠군.</t>
-  </si>
-  <si>
-    <t>분명히 배가 출항하는 때가 정확히 있을 걸세.. 다시 알아봐 주게.</t>
-  </si>
-  <si>
-    <t>사공에게 가보시오.</t>
-  </si>
-  <si>
-    <t>(장사꾼에게 물건을 찾으러 가자.)</t>
-  </si>
-  <si>
-    <t>물건을 받아왔소?? 가져왔다면 어서 건네주게.</t>
-  </si>
-  <si>
-    <t>때문에 값을 더 받아야겠는데, 댁이 이 상자를 열어준다면 물건을 드리겠수다.</t>
-  </si>
-  <si>
-    <t>무역상에게 선물 받은 장난감인데, 진짜 선물은 이 상자 안에 있습죠.. 나는 이런 것엔 영 재주가 없어서... 부탁 좀 하겠수다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도르륵 구슬이 굴러가는 소리와 함께 상자가 덜컥였다. </t>
-  </si>
-  <si>
-    <t>고맙습니다! 덕분에 이제서야 상자 안을 확인하네요!</t>
-  </si>
-  <si>
-    <t>장사꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뱃길을 잠재우는 방법이라.. 가끔 하늘에 제를 지내면 된다는 말도 있던데.. 제대로는 잘 모르겠군.</t>
-  </si>
-  <si>
-    <t>(귀덕 어멈의 말을 듣자.)</t>
-  </si>
-  <si>
-    <t>어서 가보게. 몸조심하고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단서를 더 조합해 보자.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셋째가 이틀 전에 태의감으로 향했지.. 또 무슨 일이 있었소?</t>
-  </si>
-  <si>
-    <t>,,,주막이 소란스러웠던 걸로 기억해요. 자세히는 모르니 주막으로 가보세요.</t>
-  </si>
-  <si>
-    <t>신경 쓰고 싶지 않소. 저리 가시오.</t>
-  </si>
-  <si>
-    <t>남녀 둘이 친하면 하나 밖에 없지. 명약관화요.</t>
-  </si>
-  <si>
-    <t>그 둘이 함께 있는걸 나도 보긴 봤소. 그저 친우 사이 아니오?</t>
-  </si>
-  <si>
-    <t>지금 우리 아들이랑 그 댁 따님하고 엮는 것이오?? 실례라는 생각은 안드시오?</t>
-  </si>
-  <si>
-    <t>그 둘이 친한 것과 내게 질문을 하는 것이 무슨 관계가 있소?</t>
-  </si>
-  <si>
-    <t>둘이 친우보다는 가까워 보였어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이와 향리 댁 막내아들이 함께 사라졌단 말이시오? 말에 어폐가 있소. 어디 가서 그런 소리 하다가 봉변 당하기 딱 좋겠소. 조심하시오.</t>
-  </si>
-  <si>
-    <t>우리 셋째는 분명히 태의감으로 갔소. 또 허튼 소리 하다간 비명횡사할 줄 아시오.</t>
-  </si>
-  <si>
-    <t>나는 관심 없으니 장사 방해 말고 저리 비키십쇼.</t>
-  </si>
-  <si>
-    <t>저는 모르겠어요.</t>
-  </si>
-  <si>
-    <t>둘 다 이틀 전에 사라졌다고요? 난리났네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옴마, 지금 무역이 중단 되었다는 말씀이시오? 그럼 당분간 비단은 못 보겠네..</t>
-  </si>
-  <si>
-    <t>어쩐지, 뱃사람들이 주막에 오래 머무른다더니,,, 그런 연유였구만..</t>
-  </si>
-  <si>
-    <t>한동안 사절은 안 오겠군..</t>
-  </si>
-  <si>
-    <t>무역이 중단 된 지는 얼마되지않았습죠. 한 사흘은 되었나? 물건을 내리느라 상인들이 마을에 자주 옵니다.</t>
-  </si>
-  <si>
-    <t>무슨 말인지 잘 모르겠어요..</t>
-  </si>
-  <si>
-    <t>다 부처의 뜻일 겁니다.</t>
-  </si>
-  <si>
-    <t>무역이 중단된 일을 어떻게 아시나요? 그러나 조만간 다시 재개될 것 입니다. 걱정마세요.</t>
-  </si>
-  <si>
-    <t>그들이 알아서 하겠지. 이제 나랑은 상관없다네.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그건 또 어디서 전해들은 것이오? ..알고 왔으니 얘기해줘야겠군. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼자서라도 거뜬히 살아야 해.;어려움 있으면 말해봅세.</t>
-  </si>
-  <si>
-    <t>(꼬르륵)...배고프다..;저거 맛있겠다..</t>
-  </si>
-  <si>
-    <t>오랜만에 밟는 땅이요. 쉬고 싶소.;(주막에 앉아서 늘어지게 쉬고 있다.)</t>
-  </si>
-  <si>
-    <t>심학규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사공의 물건 말이지요? 구해놨습죠..그런데 철이 철인지라 어렵사리 구했지요. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장사꾼은 상자 안을 확인하더니, 책을 꺼내들고선 한숨을 푹 내쉬었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이고, 글도 못 하는데 책이라니..... 일단 사공의 물건을 받으시지요. 중요한 물건이니 꼭! 잘 전달해 주셔야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와 밥이다!! 감사합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 사람이 누군지는 기억이 잘 안 납니다. 별로 관심이 가지도 않았는걸요.</t>
-  </si>
-  <si>
-    <t>아, 당신이 아비되는 사람이오..? 이런, 말 실수했군. 미안하오.</t>
-  </si>
-  <si>
-    <t>그 치들이야 장사에 눈과 귀가 멀어서 그렇다쳐도... 그런데 당신은 누구시오? 내가 말해 줄 이유가 없잖소?</t>
-  </si>
-  <si>
-    <t>어서 가시오! 성가시게 하지말고.</t>
-  </si>
-  <si>
-    <t>다시 말을 걸어도 대답이 없다. 내일 다시 이 주제로 말을 걸어봐야겠다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청이는 어디서 공양미를 구한 것일까..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">청이가 상인들에게 도움을 주었다. 그렇군.. 일전에 상인들이 방문했었네. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 가문과 비단 같은 걸 직접 거래하는데 몇 날 뒤 바로 배를 띄울 것이라 보고했네. 정확한 날짜는 알려주지않더군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(별로 이야기하고 싶지 않다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말로 갖고싶었던 것이옵니다~ 너무 마음에 들어요! 낭군님 하시렵니까?</t>
-  </si>
-  <si>
-    <t>나의 팔에 매달리려는 뺑덕 어멈을 살짝 피했다.</t>
-  </si>
-  <si>
-    <t>뭔가를 보긴 했는데, 맨입으로는 알려드리기 힘듭니다~ 제가 원하는 걸 가져오신다면 알려드리겠소~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감사합니다. 다녀오셨군요! 하던 얘기를 해드리죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주막은 바빠지고 일손은 없어서 그런데 일 좀 돕겠는가? 이야기는 일단 그 뒤에 하세.</t>
-  </si>
-  <si>
-    <t>대신 너무 바빠서 그런데 이 음식 좀 장터 아이에게 갖다 줄 수 있겠나?? 꽤 오래 굶었을 게야.</t>
-  </si>
-  <si>
-    <t>와, 귀한 떡이네요!! 정말 감사합니다! 아주머니께는 매번 얻어먹네요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃이 예뻐보여 뒷산에서 한 줌 따왔는데 아주머니께 전해주시겠어요?? 저는 이제 벗들과 이 떡을 나누어야해서요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다녀왔는가? 오, 그 아이가 이것을 가져다달라고 했다고? 약초구만!! 기특한 것. 많이도 가져왔구만. 심씨에게도 좀 나눠주겠네. 물에 달여 마시면 몸에 좋을게야.</t>
-  </si>
-  <si>
-    <t>다녀왔는가? 오, 그 아이가 이것을 가져다달라고 했다고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉증에 좋은 약초구만!! 기특한 것. 많이도 가져왔네. 심씨에게도 좀 나눠주겠네. 물에 달여 마시면 몸에 좋을게야.</t>
-  </si>
-  <si>
-    <t>이 정도면 도움이 되었지? 근데 몸조심하게. 느낌이 좀 그러네.. 여기저기 떠들다간 위험할 것 같아.</t>
-  </si>
-  <si>
-    <t>고맙네. 일전에 내가 출항 날을 알아와달라는 부탁을 들어주었구려. 여기서부턴 내가 알아서 처리하겠네.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그건 또 어디서 들었소?! 이 이야기를 섣불리 꺼냈다간 큰일이 날 것이오. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이야기를 들은 사공이 목소리를 낮추어 속삭였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원인 모를 이끌림에, 나는 비장하게 고개를 끄덕였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 보름날, 그 치들이 바다에서 일을 꾸민다고 했소. 나는 그것을 막으러 가야 하오. 함께 하겠소?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채비를 마친 뒤 선착장에 있는 나를 찾아오면 바로 출발하겠소.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다 알고 오셨나요? 함께해 주신다니 영광이군요. 당신 식구에게는 역시 고귀한 마음이 흐르나 봅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아궁이에 넣고 불을 지피시오.</t>
-  </si>
-  <si>
-    <t>개울가에서 z를 누르면 물을 뜰 수 있소!</t>
-  </si>
-  <si>
-    <t>먼저 장작을 넣어야한다.</t>
-  </si>
-  <si>
-    <t>쌀이 있어야 밥을 만들 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밥 짓는 법도 몰라서 그러는가? 아궁이에 불을 때고 쌀과 물을 솥에 올리면 된다네. 청이 없으면 어찌 살려는지 원...</t>
-  </si>
-  <si>
-    <t>한 줌은 될지 모르겠소.</t>
-  </si>
-  <si>
-    <t>이 정도 쌀로는 우리 노점에서 아무것도 못 바꿉디다!</t>
-  </si>
-  <si>
-    <t>시주는 한 가마니부터 받고 있습니다. 마음만은 감사히 받지요.</t>
-  </si>
-  <si>
-    <t>와! 쌀이다.. 배고파요. 그치만 생쌀은 먹어도 배가 안차요.</t>
-  </si>
-  <si>
-    <t>굶주릴 땐 여기 도화촌 주막이 종종 생각나곤 하지..</t>
-  </si>
-  <si>
-    <t>쌀이 타기 전에 물을 붓자.</t>
-  </si>
-  <si>
-    <t>이제 밥 짓는 법을 좀 알겠소? 배 곯고 다니지 마시오.</t>
-  </si>
-  <si>
-    <t>허허, 잘 챙겨드시오.</t>
-  </si>
-  <si>
-    <t>여기서 식자재는 팔지않소.</t>
-  </si>
-  <si>
-    <t>하하 식사도 챙겨주시는겁니까? 감사드리지요. 마음만 받겠습니다.</t>
-  </si>
-  <si>
-    <t>잘 챙겨 먹는게 제일이오.</t>
-  </si>
-  <si>
-    <t>내게 주는 것이오?? 갖다 팔고 집안 살림에나 보태게.</t>
-  </si>
-  <si>
-    <t>이번에 들여온 꾸미개군요. 참 곱지요? 다음엔 더 좋은 걸 들여오겠습니다.</t>
-  </si>
-  <si>
-    <t>우리 귀덕이 공부 시킬 때 잿물을 대신 썼는데.. 추억이구먼.</t>
-  </si>
-  <si>
-    <t>다녀오십쇼! 만약 달라면 줘도 됩니다. 다음에 값을 받으면 되니까요.</t>
-  </si>
-  <si>
-    <t>헤헤, 그게 뭐예요? 모양이 먹기 좋게 생겼어요.</t>
-  </si>
-  <si>
-    <t>(주막에 온 객들을 맞이하느라 매우 바쁜 것 같다. 얼른 거지 아이에게 음식을 전달하자.)</t>
-  </si>
-  <si>
-    <t>제가 보기엔 예쁜 꽃이지만, 아주머니가 좋아하실지는 모르겠어요.</t>
-  </si>
-  <si>
-    <t>(귀덕 어멈에게 전달해야한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(사공의 것이다. 다른 사람에게 건네선 안된다.)</t>
-  </si>
-  <si>
-    <t>으음, 이 특이한 향. 아편이네요.. 어디 병자가 있나보군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(말을 걸어보았지만 눈길도 주지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>달달하고 톡쏘는 냄새가 나요. 뭔가 맛있는 냄새예요.</t>
-  </si>
-  <si>
-    <t>고맙소. 부탁을 들어주었으니 내 이야기를 해주겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지난해 오월부터 송나라 상인들 배의 *도사공이었소. 우리 막내 딸아이가 병에 걸려 일을 쉬면 안되는 처지인데, 삼월이 되자마자 일감을 잃었지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘 사는게 팍팍해 그런지 엊그제는 술에 취해 주막에서 실수를 했군.. 하소연이 길었소.  이제 호기심은 해결되셨소? *우두머리 사공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기는 어쩐 일이오?;(노비와 대화를 나눈다.)</t>
-  </si>
-  <si>
-    <t>(마음이 수치스러워 어디에도 물어볼 수 없다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춥지 않은 집으로 만들어주겠다 매혹하는 것이오?? 앙큼하셔요~ 호호.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누굴 배곯고 다니는 거지로 아시오? 이걸 누구 코에 붙인담.. 도로 가져가셔요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 이런 것보단, 좀 더 반짝거리는 것이 좋습니다. 호호호~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말로 갖고 싶었던 것이옵니다~ 너무 마음에 들어요! 낭군님 하시렵니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언제 훔쳤수?! 이런 도적 놈을 봤나!! 향리님께 데려가 혼구녕을 내주겠다!! 여기 누가 *순검 좀 불러주게! *순찰대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절 주시는 건가요? 필요 없어요. 먹을 거로 주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 형편이 넉넉했다면 딸들한테 하나씩 해줬을 텐데.. *도산 주려는 것이오? 좋겠군.  *선물의 옛말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹?? 호호. 글씨 쓰는 사내는 멋들어지지요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단산에서 올라온 먹이라고.. 한번 써보겠네. 품질이 좋아 보이는군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 참 좋아 보이는 먹입니다. 저는 괜찮습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부유한 문반들이나 쓰지, 나 같은 상놈은 괜찮소.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오, 이제까지 보아온 먹 중에 가장 좋아 보입니다. 나중에 제가 직접 구매하겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 청이 누님은 항상 제게 주먹밥을 가져다주셨지요.. 배가 고프네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주먹밥을 허겁지겁 먹는다. 아이가 밥을 다 먹으면 말을 걸어야겠다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심청 아기씨와 그 댁 도령이 함께 사라졌다는 말씀이십니까? 아닙니다. 심청 아가씨는 반드시 돌아올 것입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배의 출항 날? 그걸 왜 궁금해하는진 모르겠으나 도와줄 순 있지. 주막에 오는 객들의 대화를 엿들어보겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고, 아직 너무 바빠 그런데, 다른 일 좀 보고 한가해지면 다시 오게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 진행에 필요한 단서가 없습니다. 다른 방향으로 탐색해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어제 반찬도 기억이 안 나는데 그때 일이 기억이 나겠어요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저희가 무역을 하며 쓰는 방법이 따로 있지요. 업계 사람이 아니라면 이야기해드릴 수 없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굳이 알려 하지 않았으면 좋겠군.  때가 되면 알게 될 것이오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면 이제 출발하겠소. 그리고 우리와 함께할 사람도 먼저 타있소. 나룻배에 타시오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나룻배에 탑승하니, 흐릿한 시야 사이에 인영이 보였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그는 내 앞으로 천천히 다가오더니 먼저 입을 열었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그의 얼굴을 가까이 바라보니, 향리 댁 셋째 아들이었다.</t>
-  </si>
-  <si>
-    <t>묻고 싶은 게 오만가지였지만 그런 나의 마음을 알아챘는지 그가 이야기를 이어갔다.</t>
-  </si>
-  <si>
-    <t>제게 물어보고 싶으신 게 꽤 많으실 겁니다. 천천히 물어보시지요,</t>
-  </si>
-  <si>
-    <t>장지언</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반갑습니다. 청이 아버님. 이렇게 뵙게 되는군요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 청이와 교제 중인 장 지언이라고 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'태형에 처할 줄 아시오!!'</t>
-  </si>
-  <si>
-    <t>장사꾼이 연신 소리쳤다.</t>
-  </si>
-  <si>
-    <t>장사꾼에게 팔뚝을 붙잡혀 있는 새에, 군인들이 달려와 끈으로 내 몸통을 묶었고, 나는 끌려가고 있었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 단단히 경고 했지않소? 자초한 줄 아시오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부인이 하인의 하얀 천을 걷어내더니, 그 속에서 칼을 꺼내들었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼날에 반사된 빛이 눈에 들어와 질끈 감은 찰나, 이미 복부에 따듯함이 퍼졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상황을 파악하기도 전에 내 몸은 저택 안으로 끌려가고 있었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸이 계속 뜨거워지며 숨이 옥죄어왔고, 자꾸만 헛구역질이 나왔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸이 달아오른다. 쑤시던 무릎이 개운해졌다. 눈도 밝아진 기분이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿀떡꿀떡, 약초물을 모조리 목으로 넘겼다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시 이 약초가 내 몸에 잘 맞는지, 몸이 좋아지는 기분이었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨끈함에 기분도 나른해진 찰나였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 몸을 뉘인 바닥은 이젠 안락하게만 느껴졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신을 차리니 몸은 꽁꽁 묶여있었고 앞은 보이지 않았다. 그때, 누군가의 중얼거림이 들렸다.</t>
-  </si>
-  <si>
-    <t>첨벙 소리가 났고, 뒤이어 웅성이는 소리가 귓가에 들려왔다.</t>
-  </si>
-  <si>
-    <t>생생한 흉몽임에 틀림없다. 고약하게 풍기는 물 비린내를 뒤로하며 쏟아지는 잠에 몸을 맡겼다.</t>
-  </si>
-  <si>
-    <t>갑자기 뒤통수에 둔탁한 소리가 울렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>........어두운 아비 눈을 밝게 띄워 주옵소서...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 보름날이 밝았다. 어찌 된 일인지 궁금하여 향리 댁을 갔으나 부인은 온데간데없었다..</t>
-  </si>
-  <si>
-    <t>이윽고, 남아있던 송나라 상인들도 모두 마을을 떴고, 고요함 속에서 나는 그저 하릴없이 청이를 기다릴 뿐이었다.</t>
-  </si>
-  <si>
-    <t>다음날도, 또 그 다음날에도.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부인이 없는 향리 댁의 대문은 그저 척박한 모양새였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀덕 어멈은 너무 바빠 보인다. 아직인듯싶다. 청이의 행방에 관련하여 더 알아보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isUsing_dialog_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;공양미 삼백 석은 몽운사로 잘 시주 받았습니다.&lt;/color&gt; 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
-  </si>
-  <si>
-    <t>청이에게 &lt;color=#B40404&gt;수양딸로 들어오라는 말은 했지만, 청이는 한사코 거절했소.&lt;/color&gt; 듣도 보도 못한 말이오.</t>
-  </si>
-  <si>
-    <t>청이 누님을 못 본 지 이틀 되었나...&lt;color=#B40404&gt;누님이 요 근래 저잣거리를 자주 돌아다녔습니다.&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>아, 맛있게 잘 먹었습니다. 청이 누님 이야기를 하고 있었지요? &lt;color=#B40404&gt;청이 누님이 요즘 어떤 남정네와 자주 얘기를 나누는 모습&lt;/color&gt;을 보았습니다.</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;청이가 장터에 자주 머무르긴 했는데..&lt;/color&gt; 향리 댁에 들어가기 전 채비를 한다고 생각했지.</t>
-  </si>
-  <si>
-    <t>요즘 그 아기씨가 여기서 서성거리긴 했지요. 무엇을 사 갔는지 궁금하십니까? &lt;color=#B40404&gt;객의 정보는 함부로 제공하면 안 됩니다.&lt;/color&gt; 그게 설령 가족이어도 말이지요. 거래라면 모를까.</t>
-  </si>
-  <si>
-    <t>요즈음 &lt;color=#B40404&gt;승려와 이야기하는 걸 몇 번 봤는데…&lt;/color&gt; 한번 승려에게 가보셔.</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;어느 댁 아드님이란 걸 들었던 것 같은데&lt;/color&gt; 얼굴을 가려 기억이 잘 안 나요.</t>
-  </si>
-  <si>
-    <t>아, 그렇지. &lt;color=#B40404&gt;청이가 송나라 상인들과 떠드는 걸 보았소.&lt;/color&gt; 송에서 신품이라도 들어왔나...</t>
-  </si>
-  <si>
-    <t>첫째 둘째는 벼슬길에 올랐고, &lt;color=#B40404&gt;셋째는 이틀 전에 과거를 보러 갔소.&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>예, 저도 송에 세 살 난 아들이 있지요. 얼른 보고 싶군요. 그러려면 &lt;color=#B40404&gt;얼른 물살이 잠잠해져야 할 텐데...&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;심청 아기씨 말씀이신가요? 저희에게 참으로 고마운 분이죠.&lt;/color&gt; 그 덕에 한시름 놓았습니다... 아이고, 바쁘네요. 그럼 조심히 들어가시지요.</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;당신네 딸이 그들과 거래를 했소.&lt;/color&gt; 무엇을 내놓은지 모르겠으나 그들에게 &lt;color=#B40404&gt;삼백 석을 요구&lt;/color&gt;하는 걸 엿들었소. 굉장히 귀한 걸 팔아치운 모양이오.</t>
-  </si>
-  <si>
-    <t>승려가 마을에 자주 내려오는 걸 보니 땡중이오. &lt;color=#B40404&gt;청이에게 연정을 품은 건 아니오?&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>그래서 말인데, &lt;color=#B40404&gt;배가 다시 송으로 가는 때를 알아봐줄 수 있는가?&lt;/color&gt; 이유는 나중에 말해주겠네.</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;청이가 아비 눈을 꼭 뜰 수 있게 해야 한다고&lt;/color&gt; 어찌나 고민이던지... 결국 어떻게든 구했나 보네...</t>
-  </si>
-  <si>
-    <t>&lt;color=#B40404&gt;그분은 우리 점포 단골입니다!&lt;/color&gt; 워낙에 꾸미개들을 많이 사 가지요..</t>
-  </si>
-  <si>
-    <t>물살이 가라앉아야 배가 뜰 수 있소. &lt;color=#B40404&gt;지금은 배가 뜨질 못하네..&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>댁네 따님이 짚신을 크기 상관없이 여러 켤레를 사 갔는데, &lt;color=#B40404&gt;짚신을 있는 대로 다 가져갔습니다.&lt;/color&gt; 무슨 일인지 궁금하긴 했지요.</t>
-  </si>
-  <si>
-    <t>아, 그리고 뒷간에 갔다가 은밀히 대화를 나누는 걸 엿들었네. &lt;color=#B40404&gt;3월 보름날을 누군가에게 얘기하면 일이 진행된단 이야기를 들었어.&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>…&lt;color=#B40404&gt;잡화상에게 물건을 부탁해놨는데,&lt;/color&gt; 그것을 가져다주면 얘기해 주겠네.</t>
-  </si>
-  <si>
-    <t>그날이었나,, &lt;color=#B40404&gt;뱃사공이 큰 소리를 쳤던 일이 있소.&lt;/color&gt; 사공에게 한번 가보시오.</t>
-  </si>
-  <si>
-    <t>매해 이맘때, 송에서 오가는 뱃길이 거세지기에 무역이 중단되었소. 그러나 &lt;color=#B40404&gt;송나라 사람들이 뱃길을 잠잠하게 만드는 법을 안다더군.&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>이번에 들여온 비녀가 그렇게 예쁘던데,,,</t>
-  </si>
-  <si>
-    <t>어려움 있으면 말해봅세.</t>
-  </si>
-  <si>
-    <t>(노비와 대화를 나눈다.)</t>
-  </si>
-  <si>
-    <t>살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
-  </si>
-  <si>
-    <t>저거 맛있겠다..</t>
-  </si>
-  <si>
-    <t>(주막에 앉아서 늘어지게 쉬고 있다.)</t>
-  </si>
-  <si>
-    <t>(이쪽은 쳐다도 보지 않는다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(몹시 바빠 보인다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음 깊이 불공드리면 조만간 부처의 덕으로 눈을 뜰 수 있을 것입니다.</t>
-  </si>
-  <si>
-    <t>나쁜 결말1 [양상군자]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나쁜 결말2 [구화지문]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나쁜 결말3 [과유불급]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나쁜 결말4 [취생몽사]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보통 결말1 [연경학망]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,7 +1246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1216,6 +1268,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1256,8 +1315,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,10 +1340,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1584,46 +1639,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:H437"/>
+  <dimension ref="A1:F437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="171.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="2"/>
-    <col min="8" max="8" width="8.796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="11.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="95.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.09765625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>299</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>4999</v>
       </c>
@@ -1631,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>305</v>
+        <v>233</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -1642,9 +1695,8 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>5000</v>
       </c>
@@ -1655,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -1664,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>5001</v>
       </c>
@@ -1675,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -1684,18 +1736,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>5002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -1704,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5003</v>
       </c>
@@ -1715,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -1724,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5004</v>
       </c>
@@ -1735,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -1744,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>5005</v>
       </c>
@@ -1755,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -1764,7 +1816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5006</v>
       </c>
@@ -1775,7 +1827,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -1784,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>5007</v>
       </c>
@@ -1792,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -1804,7 +1856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5010</v>
       </c>
@@ -1815,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -1824,7 +1876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5011</v>
       </c>
@@ -1835,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -1844,7 +1896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>5012</v>
       </c>
@@ -1855,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -1864,7 +1916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>5013</v>
       </c>
@@ -1875,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -1884,7 +1936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>5014</v>
       </c>
@@ -1895,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -1904,18 +1956,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>5015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -1935,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -1955,7 +2007,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -1969,13 +2021,13 @@
         <v>5018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -1989,13 +2041,13 @@
         <v>5019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -2009,13 +2061,13 @@
         <v>5020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -2029,13 +2081,13 @@
         <v>5021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2049,13 +2101,13 @@
         <v>5022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -2075,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -2095,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -2115,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -2135,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -2155,7 +2207,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -2175,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
@@ -2195,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -2212,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -2235,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -2255,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -2275,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="b">
         <v>0</v>
@@ -2295,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
@@ -2315,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
@@ -2335,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
@@ -2355,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -2375,7 +2427,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>28</v>
+        <v>339</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -2395,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -2415,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
@@ -2435,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
@@ -2455,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -2475,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -2495,7 +2547,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
@@ -2515,7 +2567,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
@@ -2535,7 +2587,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -2555,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
@@ -2575,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -2595,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>0</v>
@@ -2615,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
@@ -2635,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
@@ -2655,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -2675,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -2695,7 +2747,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -2715,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -2732,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
@@ -2755,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -2775,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -2795,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -2815,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -2835,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="b">
         <v>0</v>
@@ -2855,7 +2907,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E63" s="2" t="b">
         <v>0</v>
@@ -2875,7 +2927,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E64" s="2" t="b">
         <v>0</v>
@@ -2895,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E65" s="2" t="b">
         <v>0</v>
@@ -2912,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -2935,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E67" s="2" t="b">
         <v>0</v>
@@ -2955,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E68" s="2" t="b">
         <v>0</v>
@@ -2975,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E69" s="2" t="b">
         <v>0</v>
@@ -2995,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="b">
         <v>0</v>
@@ -3015,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E71" s="2" t="b">
         <v>0</v>
@@ -3035,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E72" s="2" t="b">
         <v>0</v>
@@ -3055,7 +3107,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E73" s="2" t="b">
         <v>0</v>
@@ -3075,7 +3127,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -3095,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E75" s="2" t="b">
         <v>0</v>
@@ -3115,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
@@ -3135,7 +3187,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E77" s="2" t="b">
         <v>0</v>
@@ -3155,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E78" s="2" t="b">
         <v>0</v>
@@ -3175,7 +3227,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E79" s="2" t="b">
         <v>0</v>
@@ -3195,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -3215,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="b">
         <v>0</v>
@@ -3235,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E82" s="2" t="b">
         <v>0</v>
@@ -3255,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E83" s="2" t="b">
         <v>0</v>
@@ -3275,7 +3327,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E84" s="2" t="b">
         <v>0</v>
@@ -3295,7 +3347,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
@@ -3315,7 +3367,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>323</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
@@ -3335,7 +3387,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
@@ -3355,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E88" s="2" t="b">
         <v>0</v>
@@ -3375,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="b">
         <v>0</v>
@@ -3395,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E90" s="2" t="b">
         <v>0</v>
@@ -3415,7 +3467,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
@@ -3435,7 +3487,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>56</v>
+        <v>331</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
@@ -3455,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E93" s="2" t="b">
         <v>0</v>
@@ -3475,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E94" s="2" t="b">
         <v>0</v>
@@ -3495,7 +3547,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
@@ -3515,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E96" s="2" t="b">
         <v>0</v>
@@ -3535,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E97" s="2" t="b">
         <v>0</v>
@@ -3555,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E98" s="2" t="b">
         <v>0</v>
@@ -3575,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
@@ -3595,7 +3647,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
@@ -3615,7 +3667,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E101" s="2" t="b">
         <v>0</v>
@@ -3635,7 +3687,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E102" s="2" t="b">
         <v>0</v>
@@ -3655,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E103" s="2" t="b">
         <v>0</v>
@@ -3675,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="E104" s="2" t="b">
         <v>0</v>
@@ -3695,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -3715,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E106" s="2" t="b">
         <v>0</v>
@@ -3735,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -3755,7 +3807,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E108" s="2" t="b">
         <v>0</v>
@@ -3775,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E109" s="2" t="b">
         <v>0</v>
@@ -3795,7 +3847,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E110" s="2" t="b">
         <v>0</v>
@@ -3815,7 +3867,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E111" s="2" t="b">
         <v>0</v>
@@ -3835,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
@@ -3855,7 +3907,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
@@ -3869,13 +3921,13 @@
         <v>5218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="E114" s="2" t="b">
         <v>0</v>
@@ -3895,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E115" s="2" t="b">
         <v>0</v>
@@ -3915,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E116" s="2" t="b">
         <v>0</v>
@@ -3935,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E117" s="2" t="b">
         <v>0</v>
@@ -3955,7 +4007,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E118" s="2" t="b">
         <v>0</v>
@@ -3975,7 +4027,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="E119" s="2" t="b">
         <v>0</v>
@@ -3995,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E120" s="2" t="b">
         <v>0</v>
@@ -4015,7 +4067,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E121" s="2" t="b">
         <v>0</v>
@@ -4035,7 +4087,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E122" s="2" t="b">
         <v>0</v>
@@ -4055,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="E123" s="2" t="b">
         <v>0</v>
@@ -4075,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E124" s="2" t="b">
         <v>0</v>
@@ -4095,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E125" s="2" t="b">
         <v>0</v>
@@ -4115,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E126" s="2" t="b">
         <v>0</v>
@@ -4135,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E127" s="2" t="b">
         <v>0</v>
@@ -4155,7 +4207,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E128" s="2" t="b">
         <v>0</v>
@@ -4175,7 +4227,7 @@
         <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E129" s="2" t="b">
         <v>0</v>
@@ -4195,7 +4247,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E130" s="2" t="b">
         <v>0</v>
@@ -4215,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E131" s="2" t="b">
         <v>0</v>
@@ -4232,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="E132" s="2" t="b">
         <v>0</v>
@@ -4255,7 +4307,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E133" s="2" t="b">
         <v>0</v>
@@ -4275,7 +4327,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -4295,7 +4347,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E135" s="2" t="b">
         <v>0</v>
@@ -4315,7 +4367,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E136" s="2" t="b">
         <v>0</v>
@@ -4335,7 +4387,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>98</v>
+        <v>323</v>
       </c>
       <c r="E137" s="2" t="b">
         <v>0</v>
@@ -4355,7 +4407,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E138" s="2" t="b">
         <v>0</v>
@@ -4375,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="E139" s="2" t="b">
         <v>0</v>
@@ -4395,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E140" s="2" t="b">
         <v>0</v>
@@ -4415,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E141" s="2" t="b">
         <v>0</v>
@@ -4435,7 +4487,7 @@
         <v>4</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E142" s="2" t="b">
         <v>0</v>
@@ -4455,7 +4507,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E143" s="2" t="b">
         <v>0</v>
@@ -4475,7 +4527,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E144" s="2" t="b">
         <v>0</v>
@@ -4495,7 +4547,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E145" s="2" t="b">
         <v>0</v>
@@ -4515,7 +4567,7 @@
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E146" s="2" t="b">
         <v>0</v>
@@ -4535,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E147" s="2" t="b">
         <v>0</v>
@@ -4555,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E148" s="2" t="b">
         <v>0</v>
@@ -4575,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E149" s="2" t="b">
         <v>0</v>
@@ -4595,7 +4647,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E150" s="2" t="b">
         <v>0</v>
@@ -4615,7 +4667,7 @@
         <v>5</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E151" s="2" t="b">
         <v>0</v>
@@ -4635,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E152" s="2" t="b">
         <v>0</v>
@@ -4655,7 +4707,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E153" s="2" t="b">
         <v>0</v>
@@ -4675,7 +4727,7 @@
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E154" s="2" t="b">
         <v>0</v>
@@ -4695,7 +4747,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="b">
         <v>0</v>
@@ -4715,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -4735,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E157" s="2" t="b">
         <v>0</v>
@@ -4755,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E158" s="2" t="b">
         <v>0</v>
@@ -4775,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E159" s="2" t="b">
         <v>0</v>
@@ -4795,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E160" s="2" t="b">
         <v>0</v>
@@ -4815,7 +4867,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E161" s="2" t="b">
         <v>0</v>
@@ -4835,7 +4887,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E162" s="2" t="b">
         <v>0</v>
@@ -4855,7 +4907,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="E163" s="2" t="b">
         <v>0</v>
@@ -4875,7 +4927,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
@@ -4895,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E165" s="2" t="b">
         <v>0</v>
@@ -4915,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E166" s="2" t="b">
         <v>0</v>
@@ -4935,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E167" s="2" t="b">
         <v>0</v>
@@ -4955,7 +5007,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E168" s="2" t="b">
         <v>0</v>
@@ -4975,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E169" s="2" t="b">
         <v>0</v>
@@ -4995,7 +5047,7 @@
         <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E170" s="2" t="b">
         <v>0</v>
@@ -5015,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E171" s="2" t="b">
         <v>0</v>
@@ -5035,7 +5087,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E172" s="2" t="b">
         <v>0</v>
@@ -5055,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="E173" s="2" t="b">
         <v>0</v>
@@ -5075,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E174" s="2" t="b">
         <v>0</v>
@@ -5092,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E175" s="2" t="b">
         <v>0</v>
@@ -5112,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E176" s="2" t="b">
         <v>0</v>
@@ -5135,7 +5187,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E177" s="2" t="b">
         <v>0</v>
@@ -5155,7 +5207,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E178" s="2" t="b">
         <v>0</v>
@@ -5175,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="E179" s="2" t="b">
         <v>0</v>
@@ -5192,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>
@@ -5212,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="E181" s="2" t="b">
         <v>0</v>
@@ -5235,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="E182" s="2" t="b">
         <v>0</v>
@@ -5255,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E183" s="2" t="b">
         <v>0</v>
@@ -5275,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E184" s="2" t="b">
         <v>0</v>
@@ -5295,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="E185" s="2" t="b">
         <v>0</v>
@@ -5315,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E186" s="2" t="b">
         <v>0</v>
@@ -5335,7 +5387,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E187" s="2" t="b">
         <v>0</v>
@@ -5375,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="E189" s="2" t="b">
         <v>0</v>
@@ -5384,7 +5436,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>5376</v>
       </c>
@@ -5395,7 +5447,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E190" s="2" t="b">
         <v>0</v>
@@ -5415,7 +5467,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E191" s="2" t="b">
         <v>0</v>
@@ -5435,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E192" s="2" t="b">
         <v>0</v>
@@ -5455,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="E193" s="2" t="b">
         <v>0</v>
@@ -5475,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E194" s="2" t="b">
         <v>0</v>
@@ -5495,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E195" s="2" t="b">
         <v>0</v>
@@ -5515,7 +5567,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="E196" s="2" t="b">
         <v>0</v>
@@ -5535,7 +5587,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="E197" s="2" t="b">
         <v>0</v>
@@ -5555,7 +5607,7 @@
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E198" s="2" t="b">
         <v>0</v>
@@ -5575,7 +5627,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E199" s="2" t="b">
         <v>0</v>
@@ -5589,13 +5641,13 @@
         <v>5398</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="E200" s="2" t="b">
         <v>0</v>
@@ -5615,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="E201" s="2" t="b">
         <v>0</v>
@@ -5635,7 +5687,7 @@
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E202" s="2" t="b">
         <v>0</v>
@@ -5655,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E203" s="2" t="b">
         <v>0</v>
@@ -5675,7 +5727,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E204" s="2" t="b">
         <v>0</v>
@@ -5695,7 +5747,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E205" s="2" t="b">
         <v>0</v>
@@ -5715,7 +5767,7 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E206" s="2" t="b">
         <v>0</v>
@@ -5735,7 +5787,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="E207" s="2" t="b">
         <v>0</v>
@@ -5755,7 +5807,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E208" s="2" t="b">
         <v>0</v>
@@ -5775,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E209" s="2" t="b">
         <v>0</v>
@@ -5795,7 +5847,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E210" s="2" t="b">
         <v>0</v>
@@ -5815,7 +5867,7 @@
         <v>3</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E211" s="2" t="b">
         <v>0</v>
@@ -5835,7 +5887,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="E212" s="2" t="b">
         <v>0</v>
@@ -5855,7 +5907,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E213" s="2" t="b">
         <v>0</v>
@@ -5875,7 +5927,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E214" s="2" t="b">
         <v>0</v>
@@ -5895,7 +5947,7 @@
         <v>7</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E215" s="2" t="b">
         <v>0</v>
@@ -5915,7 +5967,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E216" s="2" t="b">
         <v>0</v>
@@ -5935,7 +5987,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E217" s="2" t="b">
         <v>0</v>
@@ -5955,7 +6007,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E218" s="2" t="b">
         <v>0</v>
@@ -5969,13 +6021,13 @@
         <v>5440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E219" s="2" t="b">
         <v>0</v>
@@ -5992,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E220" s="2" t="b">
         <v>0</v>
@@ -6009,13 +6061,13 @@
         <v>5442</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="E221" s="2" t="b">
         <v>0</v>
@@ -6029,13 +6081,13 @@
         <v>5443</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E222" s="2" t="b">
         <v>0</v>
@@ -6055,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="E223" s="2" t="b">
         <v>0</v>
@@ -6075,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="E224" s="2" t="b">
         <v>0</v>
@@ -6095,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E225" s="2" t="b">
         <v>0</v>
@@ -6115,7 +6167,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E226" s="2" t="b">
         <v>0</v>
@@ -6135,7 +6187,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E227" s="2" t="b">
         <v>0</v>
@@ -6155,7 +6207,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E228" s="2" t="b">
         <v>0</v>
@@ -6175,7 +6227,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="E229" s="2" t="b">
         <v>0</v>
@@ -6195,7 +6247,7 @@
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E230" s="2" t="b">
         <v>0</v>
@@ -6215,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E231" s="2" t="b">
         <v>0</v>
@@ -6235,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E232" s="2" t="b">
         <v>0</v>
@@ -6255,7 +6307,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E233" s="2" t="b">
         <v>0</v>
@@ -6275,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E234" s="2" t="b">
         <v>0</v>
@@ -6295,7 +6347,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E235" s="2" t="b">
         <v>0</v>
@@ -6315,7 +6367,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E236" s="2" t="b">
         <v>0</v>
@@ -6332,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E237" s="2" t="b">
         <v>0</v>
@@ -6355,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="E238" s="2" t="b">
         <v>0</v>
@@ -6375,7 +6427,7 @@
         <v>7</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="E239" s="2" t="b">
         <v>0</v>
@@ -6392,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E240" s="2" t="b">
         <v>0</v>
@@ -6415,7 +6467,7 @@
         <v>7</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E241" s="2" t="b">
         <v>0</v>
@@ -6435,7 +6487,7 @@
         <v>7</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="E242" s="2" t="b">
         <v>0</v>
@@ -6452,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="E243" s="2" t="b">
         <v>0</v>
@@ -6472,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="E244" s="2" t="b">
         <v>0</v>
@@ -6492,10 +6544,10 @@
         <v>0</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="E245" s="2" t="b">
         <v>0</v>
@@ -6512,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="E246" s="2" t="b">
         <v>0</v>
@@ -6532,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="E247" s="2" t="b">
         <v>0</v>
@@ -6552,10 +6604,10 @@
         <v>0</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="E248" s="2" t="b">
         <v>0</v>
@@ -6572,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E249" s="2" t="b">
         <v>0</v>
@@ -6595,7 +6647,7 @@
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="E250" s="2" t="b">
         <v>0</v>
@@ -6615,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="E251" s="2" t="b">
         <v>0</v>
@@ -6635,7 +6687,7 @@
         <v>2</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="E252" s="2" t="b">
         <v>0</v>
@@ -6655,7 +6707,7 @@
         <v>3</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E253" s="2" t="b">
         <v>0</v>
@@ -6675,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E254" s="2" t="b">
         <v>0</v>
@@ -6695,7 +6747,7 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E255" s="2" t="b">
         <v>0</v>
@@ -6715,7 +6767,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="E256" s="2" t="b">
         <v>0</v>
@@ -6735,7 +6787,7 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="E257" s="2" t="b">
         <v>0</v>
@@ -6755,7 +6807,7 @@
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E258" s="2" t="b">
         <v>0</v>
@@ -6775,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="E259" s="2" t="b">
         <v>0</v>
@@ -6784,7 +6836,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>5709</v>
       </c>
@@ -6795,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="E260" s="2" t="b">
         <v>0</v>
@@ -6815,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E261" s="2" t="b">
         <v>0</v>
@@ -6835,7 +6887,7 @@
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E262" s="2" t="b">
         <v>0</v>
@@ -6855,7 +6907,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E263" s="2" t="b">
         <v>0</v>
@@ -6875,7 +6927,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="E264" s="2" t="b">
         <v>0</v>
@@ -6895,7 +6947,7 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="E265" s="2" t="b">
         <v>0</v>
@@ -6915,7 +6967,7 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E266" s="2" t="b">
         <v>0</v>
@@ -6932,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="E267" s="2" t="b">
         <v>0</v>
@@ -6955,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="E268" s="2" t="b">
         <v>0</v>
@@ -6975,7 +7027,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E269" s="2" t="b">
         <v>0</v>
@@ -6995,7 +7047,7 @@
         <v>3</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E270" s="2" t="b">
         <v>0</v>
@@ -7015,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E271" s="2" t="b">
         <v>0</v>
@@ -7035,7 +7087,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E272" s="2" t="b">
         <v>0</v>
@@ -7055,7 +7107,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="E273" s="2" t="b">
         <v>0</v>
@@ -7075,7 +7127,7 @@
         <v>7</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="E274" s="2" t="b">
         <v>0</v>
@@ -7095,7 +7147,7 @@
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E275" s="2" t="b">
         <v>0</v>
@@ -7115,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="E276" s="2" t="b">
         <v>0</v>
@@ -7135,7 +7187,7 @@
         <v>2</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="E277" s="2" t="b">
         <v>0</v>
@@ -7155,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E278" s="2" t="b">
         <v>0</v>
@@ -7175,7 +7227,7 @@
         <v>4</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E279" s="2" t="b">
         <v>0</v>
@@ -7195,7 +7247,7 @@
         <v>5</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E280" s="2" t="b">
         <v>0</v>
@@ -7215,7 +7267,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="E281" s="2" t="b">
         <v>0</v>
@@ -7235,7 +7287,7 @@
         <v>7</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="E282" s="2" t="b">
         <v>0</v>
@@ -7255,7 +7307,7 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E283" s="2" t="b">
         <v>0</v>
@@ -7272,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E284" s="2" t="b">
         <v>0</v>
@@ -7295,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="E285" s="2" t="b">
         <v>0</v>
@@ -7315,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E286" s="2" t="b">
         <v>0</v>
@@ -7335,7 +7387,7 @@
         <v>3</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E287" s="2" t="b">
         <v>0</v>
@@ -7355,7 +7407,7 @@
         <v>4</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E288" s="2" t="b">
         <v>0</v>
@@ -7375,7 +7427,7 @@
         <v>5</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="E289" s="2" t="b">
         <v>0</v>
@@ -7395,7 +7447,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E290" s="2" t="b">
         <v>0</v>
@@ -7415,7 +7467,7 @@
         <v>7</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E291" s="2" t="b">
         <v>0</v>
@@ -7435,7 +7487,7 @@
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="E292" s="2" t="b">
         <v>0</v>
@@ -7452,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E293" s="2" t="b">
         <v>0</v>
@@ -7475,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="E294" s="2" t="b">
         <v>0</v>
@@ -7495,7 +7547,7 @@
         <v>2</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E295" s="2" t="b">
         <v>0</v>
@@ -7515,7 +7567,7 @@
         <v>3</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E296" s="2" t="b">
         <v>0</v>
@@ -7535,7 +7587,7 @@
         <v>4</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E297" s="2" t="b">
         <v>0</v>
@@ -7555,7 +7607,7 @@
         <v>5</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E298" s="2" t="b">
         <v>0</v>
@@ -7575,7 +7627,7 @@
         <v>7</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="E299" s="2" t="b">
         <v>0</v>
@@ -7595,7 +7647,7 @@
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="E300" s="2" t="b">
         <v>0</v>
@@ -7615,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E301" s="2" t="b">
         <v>0</v>
@@ -7635,7 +7687,7 @@
         <v>2</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E302" s="2" t="b">
         <v>0</v>
@@ -7655,7 +7707,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E303" s="2" t="b">
         <v>0</v>
@@ -7675,7 +7727,7 @@
         <v>4</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="E304" s="2" t="b">
         <v>0</v>
@@ -7695,7 +7747,7 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E305" s="2" t="b">
         <v>0</v>
@@ -7715,7 +7767,7 @@
         <v>6</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="E306" s="2" t="b">
         <v>0</v>
@@ -7735,7 +7787,7 @@
         <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="E307" s="2" t="b">
         <v>0</v>
@@ -7755,7 +7807,7 @@
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="E308" s="2" t="b">
         <v>0</v>
@@ -7775,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E309" s="2" t="b">
         <v>0</v>
@@ -7795,7 +7847,7 @@
         <v>2</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="E310" s="2" t="b">
         <v>0</v>
@@ -7815,7 +7867,7 @@
         <v>3</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="E311" s="2" t="b">
         <v>0</v>
@@ -7835,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="E312" s="2" t="b">
         <v>0</v>
@@ -7855,7 +7907,7 @@
         <v>5</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="E313" s="2" t="b">
         <v>0</v>
@@ -7875,7 +7927,7 @@
         <v>6</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="E314" s="2" t="b">
         <v>0</v>
@@ -7895,7 +7947,7 @@
         <v>7</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E315" s="2" t="b">
         <v>0</v>
@@ -7915,7 +7967,7 @@
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="E316" s="2" t="b">
         <v>0</v>
@@ -7935,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="E317" s="2" t="b">
         <v>0</v>
@@ -7955,7 +8007,7 @@
         <v>2</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="E318" s="2" t="b">
         <v>0</v>
@@ -7975,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E319" s="2" t="b">
         <v>0</v>
@@ -7995,7 +8047,7 @@
         <v>4</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E320" s="2" t="b">
         <v>0</v>
@@ -8015,7 +8067,7 @@
         <v>5</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E321" s="2" t="b">
         <v>0</v>
@@ -8035,7 +8087,7 @@
         <v>7</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="E322" s="2" t="b">
         <v>0</v>
@@ -8055,7 +8107,7 @@
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E323" s="2" t="b">
         <v>0</v>
@@ -8075,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E324" s="2" t="b">
         <v>0</v>
@@ -8095,7 +8147,7 @@
         <v>2</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E325" s="2" t="b">
         <v>0</v>
@@ -8115,7 +8167,7 @@
         <v>3</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E326" s="2" t="b">
         <v>0</v>
@@ -8135,7 +8187,7 @@
         <v>4</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E327" s="2" t="b">
         <v>0</v>
@@ -8155,7 +8207,7 @@
         <v>5</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E328" s="2" t="b">
         <v>0</v>
@@ -8175,7 +8227,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E329" s="2" t="b">
         <v>0</v>
@@ -8195,7 +8247,7 @@
         <v>7</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E330" s="2" t="b">
         <v>0</v>
@@ -8215,7 +8267,7 @@
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E331" s="2" t="b">
         <v>0</v>
@@ -8235,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="E332" s="2" t="b">
         <v>0</v>
@@ -8255,7 +8307,7 @@
         <v>2</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="E333" s="2" t="b">
         <v>0</v>
@@ -8275,7 +8327,7 @@
         <v>3</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E334" s="2" t="b">
         <v>0</v>
@@ -8295,7 +8347,7 @@
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E335" s="2" t="b">
         <v>0</v>
@@ -8315,7 +8367,7 @@
         <v>5</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E336" s="2" t="b">
         <v>0</v>
@@ -8335,7 +8387,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="E337" s="2" t="b">
         <v>0</v>
@@ -8355,7 +8407,7 @@
         <v>7</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="E338" s="2" t="b">
         <v>0</v>
@@ -8375,7 +8427,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E339" s="2" t="b">
         <v>0</v>
@@ -8395,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="E340" s="2" t="b">
         <v>0</v>
@@ -8415,7 +8467,7 @@
         <v>2</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="E341" s="2" t="b">
         <v>0</v>
@@ -8435,7 +8487,7 @@
         <v>3</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="E342" s="2" t="b">
         <v>0</v>
@@ -8455,7 +8507,7 @@
         <v>4</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="E343" s="2" t="b">
         <v>0</v>
@@ -8475,7 +8527,7 @@
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="E344" s="2" t="b">
         <v>0</v>
@@ -8495,7 +8547,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="E345" s="2" t="b">
         <v>0</v>
@@ -8515,7 +8567,7 @@
         <v>7</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="E346" s="2" t="b">
         <v>0</v>
@@ -8535,7 +8587,7 @@
         <v>7</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="E347" s="2" t="b">
         <v>0</v>
@@ -8555,7 +8607,7 @@
         <v>7</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E348" s="2" t="b">
         <v>0</v>
@@ -8575,7 +8627,7 @@
         <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="E349" s="2" t="b">
         <v>0</v>
@@ -8592,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="E350" s="2" t="b">
         <v>0</v>
@@ -8609,13 +8661,13 @@
         <v>6010</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E351" s="2" t="b">
         <v>0</v>
@@ -8629,13 +8681,13 @@
         <v>6011</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E352" s="2" t="b">
         <v>0</v>
@@ -8649,13 +8701,13 @@
         <v>6012</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E353" s="2" t="b">
         <v>0</v>
@@ -8669,13 +8721,13 @@
         <v>6013</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E354" s="2" t="b">
         <v>0</v>
@@ -8689,13 +8741,13 @@
         <v>6014</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E355" s="2" t="b">
         <v>0</v>
@@ -8709,13 +8761,13 @@
         <v>6015</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E356" s="2" t="b">
         <v>0</v>
@@ -8729,13 +8781,13 @@
         <v>6016</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E357" s="2" t="b">
         <v>0</v>
@@ -8749,13 +8801,13 @@
         <v>6017</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E358" s="2" t="b">
         <v>0</v>
@@ -8769,13 +8821,13 @@
         <v>6030</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E359" s="2" t="b">
         <v>0</v>
@@ -8789,13 +8841,13 @@
         <v>6031</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E360" s="2" t="b">
         <v>0</v>
@@ -8809,13 +8861,13 @@
         <v>6032</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E361" s="2" t="b">
         <v>0</v>
@@ -8829,13 +8881,13 @@
         <v>6033</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E362" s="2" t="b">
         <v>0</v>
@@ -8849,13 +8901,13 @@
         <v>6034</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E363" s="2" t="b">
         <v>0</v>
@@ -8869,13 +8921,13 @@
         <v>6035</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E364" s="2" t="b">
         <v>0</v>
@@ -8889,13 +8941,13 @@
         <v>6036</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E365" s="2" t="b">
         <v>0</v>
@@ -8909,13 +8961,13 @@
         <v>6037</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E366" s="2" t="b">
         <v>0</v>
@@ -8929,13 +8981,13 @@
         <v>6050</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E367" s="2" t="b">
         <v>0</v>
@@ -8949,13 +9001,13 @@
         <v>6051</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E368" s="2" t="b">
         <v>0</v>
@@ -8969,13 +9021,13 @@
         <v>6052</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E369" s="2" t="b">
         <v>0</v>
@@ -8989,13 +9041,13 @@
         <v>6053</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="E370" s="2" t="b">
         <v>0</v>
@@ -9009,13 +9061,13 @@
         <v>6054</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E371" s="2" t="b">
         <v>0</v>
@@ -9029,13 +9081,13 @@
         <v>6055</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E372" s="2" t="b">
         <v>0</v>
@@ -9049,13 +9101,13 @@
         <v>6056</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E373" s="2" t="b">
         <v>0</v>
@@ -9069,13 +9121,13 @@
         <v>6057</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="E374" s="2" t="b">
         <v>0</v>
@@ -9089,13 +9141,13 @@
         <v>6070</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E375" s="2" t="b">
         <v>0</v>
@@ -9109,13 +9161,13 @@
         <v>6071</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E376" s="2" t="b">
         <v>0</v>
@@ -9129,13 +9181,13 @@
         <v>6072</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E377" s="2" t="b">
         <v>0</v>
@@ -9149,13 +9201,13 @@
         <v>6073</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E378" s="2" t="b">
         <v>0</v>
@@ -9169,13 +9221,13 @@
         <v>6074</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="E379" s="2" t="b">
         <v>0</v>
@@ -9189,13 +9241,13 @@
         <v>6075</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E380" s="2" t="b">
         <v>0</v>
@@ -9209,13 +9261,13 @@
         <v>6076</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="E381" s="2" t="b">
         <v>0</v>
@@ -9229,13 +9281,13 @@
         <v>6077</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="E382" s="2" t="b">
         <v>0</v>
@@ -9249,13 +9301,13 @@
         <v>6090</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E383" s="2" t="b">
         <v>0</v>
@@ -9269,13 +9321,13 @@
         <v>6091</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E384" s="2" t="b">
         <v>0</v>
@@ -9289,13 +9341,13 @@
         <v>6092</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="E385" s="2" t="b">
         <v>0</v>
@@ -9309,13 +9361,13 @@
         <v>6093</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="E386" s="2" t="b">
         <v>0</v>
@@ -9329,13 +9381,13 @@
         <v>6094</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E387" s="2" t="b">
         <v>0</v>
@@ -9349,13 +9401,13 @@
         <v>6095</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E388" s="2" t="b">
         <v>0</v>
@@ -9369,13 +9421,13 @@
         <v>6096</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E389" s="2" t="b">
         <v>0</v>
@@ -9389,13 +9441,13 @@
         <v>6097</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E390" s="2" t="b">
         <v>0</v>
@@ -9409,13 +9461,13 @@
         <v>6098</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E391" s="2" t="b">
         <v>0</v>
@@ -9429,13 +9481,13 @@
         <v>6099</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E392" s="2" t="b">
         <v>0</v>
@@ -9449,13 +9501,13 @@
         <v>6110</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E393" s="2" t="b">
         <v>0</v>
@@ -9469,13 +9521,13 @@
         <v>6111</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E394" s="2" t="b">
         <v>0</v>
@@ -9489,13 +9541,13 @@
         <v>6112</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E395" s="2" t="b">
         <v>0</v>
@@ -9509,13 +9561,13 @@
         <v>6113</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E396" s="2" t="b">
         <v>0</v>
@@ -9529,13 +9581,13 @@
         <v>6114</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E397" s="2" t="b">
         <v>0</v>
@@ -9549,13 +9601,13 @@
         <v>6115</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E398" s="2" t="b">
         <v>0</v>
@@ -9569,13 +9621,13 @@
         <v>6116</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E399" s="2" t="b">
         <v>0</v>
@@ -9589,13 +9641,13 @@
         <v>6117</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E400" s="2" t="b">
         <v>0</v>
@@ -9615,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="E401" s="2" t="b">
         <v>0</v>
@@ -9635,7 +9687,7 @@
         <v>2</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E402" s="2" t="b">
         <v>0</v>
@@ -9649,13 +9701,13 @@
         <v>6502</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E403" s="2" t="b">
         <v>0</v>
@@ -9675,7 +9727,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -9695,7 +9747,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E405" s="2" t="b">
         <v>0</v>
@@ -9715,7 +9767,7 @@
         <v>7</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E406" s="2" t="b">
         <v>0</v>
@@ -9732,10 +9784,10 @@
         <v>0</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E407" s="2" t="b">
         <v>0</v>
@@ -9752,10 +9804,10 @@
         <v>0</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E408" s="2" t="b">
         <v>0</v>
@@ -9775,7 +9827,7 @@
         <v>5</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -9795,7 +9847,7 @@
         <v>7</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E410" s="2" t="b">
         <v>0</v>
@@ -9815,7 +9867,7 @@
         <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E411" s="2" t="b">
         <v>0</v>
@@ -9829,13 +9881,13 @@
         <v>7000</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="E412" s="2" t="b">
         <v>0</v>
@@ -9849,13 +9901,13 @@
         <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="E413" s="2" t="b">
         <v>0</v>
@@ -9869,13 +9921,13 @@
         <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="E414" s="2" t="b">
         <v>0</v>
@@ -9889,13 +9941,13 @@
         <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>337</v>
+        <v>254</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -9909,13 +9961,13 @@
         <v>7004</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="E416" s="2" t="b">
         <v>0</v>
@@ -9929,13 +9981,13 @@
         <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E417" s="2" t="b">
         <v>0</v>
@@ -9949,13 +10001,13 @@
         <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="E418" s="2" t="b">
         <v>0</v>
@@ -9969,13 +10021,13 @@
         <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="E419" s="2" t="b">
         <v>0</v>
@@ -9989,13 +10041,13 @@
         <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="E420" s="2" t="b">
         <v>0</v>
@@ -10009,13 +10061,13 @@
         <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="E421" s="2" t="b">
         <v>0</v>
@@ -10029,13 +10081,13 @@
         <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="E422" s="2" t="b">
         <v>0</v>
@@ -10049,13 +10101,13 @@
         <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="E423" s="2" t="b">
         <v>0</v>
@@ -10069,13 +10121,13 @@
         <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E424" s="2" t="b">
         <v>0</v>
@@ -10089,13 +10141,13 @@
         <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E425" s="2" t="b">
         <v>0</v>
@@ -10109,13 +10161,13 @@
         <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>
@@ -10129,13 +10181,13 @@
         <v>7015</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="E427" s="2" t="b">
         <v>0</v>
@@ -10149,13 +10201,13 @@
         <v>7016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="E428" s="2" t="b">
         <v>0</v>
@@ -10169,13 +10221,13 @@
         <v>7017</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="E429" s="2" t="b">
         <v>0</v>
@@ -10189,13 +10241,13 @@
         <v>7018</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="E430" s="2" t="b">
         <v>0</v>
@@ -10209,13 +10261,13 @@
         <v>7019</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E431" s="2" t="b">
         <v>0</v>
@@ -10229,13 +10281,13 @@
         <v>7020</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="E432" s="2" t="b">
         <v>0</v>
@@ -10249,13 +10301,13 @@
         <v>7021</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="E433" s="2" t="b">
         <v>0</v>
@@ -10269,13 +10321,13 @@
         <v>7022</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E434" s="2" t="b">
         <v>0</v>
@@ -10289,13 +10341,13 @@
         <v>7023</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E435" s="2" t="b">
         <v>0</v>
@@ -10309,13 +10361,13 @@
         <v>7024</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="E436" s="2" t="b">
         <v>0</v>
@@ -10329,13 +10381,13 @@
         <v>7025</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="E437" s="2" t="b">
         <v>0</v>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACDE6F2-F036-4530-BE01-7A0C381BD31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9E5BAF-EE47-403E-B3D4-1157632E953E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="3444" yWindow="204" windowWidth="17280" windowHeight="11772" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2168,7 +2168,7 @@
   <dimension ref="A1:F606"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9E5BAF-EE47-403E-B3D4-1157632E953E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6200A0-CCB8-4AB5-864A-DF5AE8BAE034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3444" yWindow="204" windowWidth="17280" windowHeight="11772" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NPC_01!$A$1:$F$606</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="504">
   <si>
     <t>NPC</t>
   </si>
@@ -1724,6 +1727,14 @@
   </si>
   <si>
     <t>뭐 살 것 있소?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2168,7 +2179,7 @@
   <dimension ref="A1:F606"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -2587,7 +2598,7 @@
         <v>5020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>150</v>
@@ -3307,7 +3318,7 @@
         <v>5099</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>150</v>
@@ -4447,7 +4458,7 @@
         <v>5218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>150</v>
@@ -5767,7 +5778,7 @@
         <v>5365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>150</v>
@@ -5787,7 +5798,7 @@
         <v>5366</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>150</v>
@@ -6547,7 +6558,7 @@
         <v>5440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>150</v>
@@ -6587,7 +6598,7 @@
         <v>5442</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>150</v>
@@ -6907,7 +6918,7 @@
         <v>5476</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>150</v>
@@ -6967,7 +6978,7 @@
         <v>5479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>150</v>
@@ -7027,7 +7038,7 @@
         <v>5482</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>150</v>
@@ -7047,7 +7058,7 @@
         <v>5483</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>150</v>
@@ -7107,7 +7118,7 @@
         <v>5486</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>150</v>
@@ -7127,7 +7138,7 @@
         <v>5487</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>150</v>
@@ -7507,7 +7518,7 @@
         <v>5716</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>150</v>
@@ -7847,7 +7858,7 @@
         <v>5733</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>150</v>
@@ -8027,7 +8038,7 @@
         <v>5742</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>150</v>
@@ -9167,7 +9178,7 @@
         <v>5799</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>150</v>
@@ -10427,7 +10438,7 @@
         <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>150</v>
@@ -10447,7 +10458,7 @@
         <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>150</v>
@@ -10467,7 +10478,7 @@
         <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>150</v>
@@ -10507,7 +10518,7 @@
         <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>150</v>
@@ -10527,7 +10538,7 @@
         <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>150</v>
@@ -10547,7 +10558,7 @@
         <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>150</v>
@@ -10567,7 +10578,7 @@
         <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>150</v>
@@ -10587,7 +10598,7 @@
         <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>150</v>
@@ -10607,7 +10618,7 @@
         <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>150</v>
@@ -10627,7 +10638,7 @@
         <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>150</v>
@@ -10647,7 +10658,7 @@
         <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>150</v>
@@ -10667,7 +10678,7 @@
         <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>150</v>
@@ -10687,7 +10698,7 @@
         <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>150</v>
@@ -10707,7 +10718,7 @@
         <v>7015</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>150</v>
@@ -10727,7 +10738,7 @@
         <v>7016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>150</v>
@@ -10767,7 +10778,7 @@
         <v>7018</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>150</v>
@@ -10787,7 +10798,7 @@
         <v>7019</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>150</v>
@@ -10807,7 +10818,7 @@
         <v>7020</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>150</v>
@@ -10827,7 +10838,7 @@
         <v>7021</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>150</v>
@@ -10847,7 +10858,7 @@
         <v>7022</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>150</v>
@@ -10867,7 +10878,7 @@
         <v>7023</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>150</v>
@@ -10887,7 +10898,7 @@
         <v>7024</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>150</v>
@@ -10907,7 +10918,7 @@
         <v>7025</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>150</v>
@@ -10947,7 +10958,7 @@
         <v>7027</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>338</v>
@@ -11007,7 +11018,7 @@
         <v>7030</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>338</v>
@@ -11027,7 +11038,7 @@
         <v>7031</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>338</v>
@@ -11047,7 +11058,7 @@
         <v>7032</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>338</v>
@@ -11067,7 +11078,7 @@
         <v>7033</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>338</v>
@@ -11087,7 +11098,7 @@
         <v>7034</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>338</v>
@@ -11127,7 +11138,7 @@
         <v>7036</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>338</v>
@@ -11187,7 +11198,7 @@
         <v>7039</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>338</v>
@@ -11207,7 +11218,7 @@
         <v>7040</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>338</v>
@@ -11227,7 +11238,7 @@
         <v>7041</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>338</v>
@@ -11247,7 +11258,7 @@
         <v>7042</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>338</v>
@@ -11287,7 +11298,7 @@
         <v>7044</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>338</v>
@@ -11307,7 +11318,7 @@
         <v>7045</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>338</v>
@@ -11327,7 +11338,7 @@
         <v>7046</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>338</v>
@@ -11347,7 +11358,7 @@
         <v>7047</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>338</v>
@@ -11367,7 +11378,7 @@
         <v>7048</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>338</v>
@@ -11387,7 +11398,7 @@
         <v>7049</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>338</v>
@@ -11407,7 +11418,7 @@
         <v>7050</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>338</v>
@@ -11427,7 +11438,7 @@
         <v>7051</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>338</v>
@@ -11447,7 +11458,7 @@
         <v>7052</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>338</v>
@@ -11487,7 +11498,7 @@
         <v>7054</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>338</v>
@@ -11527,7 +11538,7 @@
         <v>7056</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>338</v>
@@ -11587,7 +11598,7 @@
         <v>7059</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>338</v>
@@ -11607,7 +11618,7 @@
         <v>7060</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>338</v>
@@ -11707,7 +11718,7 @@
         <v>7065</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>338</v>
@@ -11727,7 +11738,7 @@
         <v>7066</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>338</v>
@@ -11747,7 +11758,7 @@
         <v>7067</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>338</v>
@@ -11767,7 +11778,7 @@
         <v>7068</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>338</v>
@@ -11807,7 +11818,7 @@
         <v>7070</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>338</v>
@@ -11887,7 +11898,7 @@
         <v>7074</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>338</v>
@@ -11907,7 +11918,7 @@
         <v>7075</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>338</v>
@@ -12007,7 +12018,7 @@
         <v>7080</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>338</v>
@@ -12027,7 +12038,7 @@
         <v>7081</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>338</v>
@@ -12047,7 +12058,7 @@
         <v>7082</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>338</v>
@@ -12067,7 +12078,7 @@
         <v>7083</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>338</v>
@@ -12107,7 +12118,7 @@
         <v>7085</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>338</v>
@@ -12127,7 +12138,7 @@
         <v>7086</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>338</v>
@@ -12147,7 +12158,7 @@
         <v>7087</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>338</v>
@@ -12167,7 +12178,7 @@
         <v>7088</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>338</v>
@@ -12227,7 +12238,7 @@
         <v>7091</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>338</v>
@@ -12247,7 +12258,7 @@
         <v>7092</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>338</v>
@@ -12267,7 +12278,7 @@
         <v>7093</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>338</v>
@@ -12287,7 +12298,7 @@
         <v>7094</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>338</v>
@@ -12467,7 +12478,7 @@
         <v>7103</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>338</v>
@@ -12487,7 +12498,7 @@
         <v>7104</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>338</v>
@@ -12507,7 +12518,7 @@
         <v>7105</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>338</v>
@@ -12527,7 +12538,7 @@
         <v>7106</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>338</v>
@@ -12547,7 +12558,7 @@
         <v>7107</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>338</v>
@@ -12567,7 +12578,7 @@
         <v>7108</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>338</v>
@@ -12587,7 +12598,7 @@
         <v>7109</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>338</v>
@@ -12607,7 +12618,7 @@
         <v>7110</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>338</v>
@@ -12627,7 +12638,7 @@
         <v>7111</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>338</v>
@@ -12647,7 +12658,7 @@
         <v>7112</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C524" s="7" t="s">
         <v>338</v>
@@ -12667,7 +12678,7 @@
         <v>7113</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C525" s="7" t="s">
         <v>338</v>
@@ -12687,7 +12698,7 @@
         <v>7114</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>338</v>
@@ -12707,7 +12718,7 @@
         <v>7115</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C527" s="7" t="s">
         <v>338</v>
@@ -12727,7 +12738,7 @@
         <v>7116</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>338</v>
@@ -12747,7 +12758,7 @@
         <v>7117</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C529" s="7" t="s">
         <v>338</v>
@@ -12767,7 +12778,7 @@
         <v>7118</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>338</v>
@@ -12787,7 +12798,7 @@
         <v>7119</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C531" s="7" t="s">
         <v>338</v>
@@ -12807,7 +12818,7 @@
         <v>7120</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C532" s="7" t="s">
         <v>338</v>
@@ -12827,7 +12838,7 @@
         <v>7121</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>338</v>
@@ -12847,7 +12858,7 @@
         <v>7122</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>338</v>
@@ -12867,7 +12878,7 @@
         <v>7123</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>338</v>
@@ -12887,7 +12898,7 @@
         <v>7124</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>338</v>
@@ -12907,7 +12918,7 @@
         <v>7125</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>338</v>
@@ -12927,7 +12938,7 @@
         <v>7126</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>338</v>
@@ -12947,7 +12958,7 @@
         <v>7127</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>338</v>
@@ -12967,7 +12978,7 @@
         <v>7128</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>338</v>
@@ -12987,7 +12998,7 @@
         <v>7129</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>338</v>
@@ -13007,7 +13018,7 @@
         <v>7130</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>338</v>
@@ -13027,7 +13038,7 @@
         <v>7131</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C543" s="7" t="s">
         <v>338</v>
@@ -13047,7 +13058,7 @@
         <v>7132</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>338</v>
@@ -13067,7 +13078,7 @@
         <v>7133</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C545" s="7" t="s">
         <v>338</v>
@@ -13087,7 +13098,7 @@
         <v>7134</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C546" s="7" t="s">
         <v>338</v>
@@ -13107,7 +13118,7 @@
         <v>7135</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C547" s="7" t="s">
         <v>338</v>
@@ -13127,7 +13138,7 @@
         <v>7136</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C548" s="7" t="s">
         <v>338</v>
@@ -13147,7 +13158,7 @@
         <v>7137</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C549" s="7" t="s">
         <v>338</v>
@@ -13167,7 +13178,7 @@
         <v>7138</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C550" s="7" t="s">
         <v>338</v>
@@ -13187,7 +13198,7 @@
         <v>7139</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C551" s="7" t="s">
         <v>338</v>
@@ -13207,7 +13218,7 @@
         <v>7140</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C552" s="7" t="s">
         <v>338</v>
@@ -13227,7 +13238,7 @@
         <v>7141</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C553" s="7" t="s">
         <v>338</v>
@@ -13247,7 +13258,7 @@
         <v>7142</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C554" s="7" t="s">
         <v>338</v>
@@ -13267,7 +13278,7 @@
         <v>7143</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C555" s="7" t="s">
         <v>338</v>
@@ -13287,7 +13298,7 @@
         <v>7144</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C556" s="7" t="s">
         <v>338</v>
@@ -13307,7 +13318,7 @@
         <v>7145</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C557" s="7" t="s">
         <v>338</v>
@@ -13327,7 +13338,7 @@
         <v>7146</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C558" s="7" t="s">
         <v>338</v>
@@ -13347,7 +13358,7 @@
         <v>7147</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C559" s="7" t="s">
         <v>338</v>
@@ -13367,7 +13378,7 @@
         <v>7148</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C560" s="7" t="s">
         <v>338</v>
@@ -13387,7 +13398,7 @@
         <v>7149</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C561" s="7" t="s">
         <v>338</v>
@@ -13407,7 +13418,7 @@
         <v>7150</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C562" s="7" t="s">
         <v>338</v>
@@ -13427,7 +13438,7 @@
         <v>7151</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C563" s="7" t="s">
         <v>338</v>
@@ -13447,7 +13458,7 @@
         <v>7152</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C564" s="7" t="s">
         <v>338</v>
@@ -14287,7 +14298,7 @@
         <v>7194</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="C606" s="6" t="s">
         <v>338</v>
@@ -14303,6 +14314,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F606" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leesangmin\Documents\Unity\RealRealShimCheong\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6200A0-CCB8-4AB5-864A-DF5AE8BAE034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82362F72-3F37-478D-8856-36CCF83751DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="204" windowWidth="17280" windowHeight="11772" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="531">
   <si>
     <t>NPC</t>
   </si>
@@ -1735,6 +1735,109 @@
   </si>
   <si>
     <t>PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 살 것 있소?;살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
+  </si>
+  <si>
+    <t>시간이 명줄이오! 빨리 움직이십시오!!(퍽 겸손한 말씨로 바삐 일한다.);(이쪽은 쳐다도 보지 않는다.);(몹시 바빠 보인다.)</t>
+  </si>
+  <si>
+    <t>오랜만에 밟는 땅이요. 쉬고 싶소.;(주막에 앉아서 늘어지게 쉬고 있다.)</t>
+  </si>
+  <si>
+    <t>한동안 사절은 안 오겠군..</t>
+  </si>
+  <si>
+    <t>무역이 중단 된 지는 얼마되지않았습죠. 한 사흘은 되었나? 물건을 내리느라 상인들이 마을에 자주 옵니다.</t>
+  </si>
+  <si>
+    <t>거리를 두어 송 상인들의 배를 좇고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돛을 접고 닻을 내리는 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다란 송나라 상인들의 배에 딱 붙어 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민할 새도 없이 바다에 뛰어들었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신없이 팔을 휘적이니 손목에 무언가 휘감겼고, 있는 힘을 다해 그것을 수면 위로 끌어당겼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[분골쇄신]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지언이 단단히 일러둔 대로 나룻배 끄트머리에서 떨어지지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배에 있던 누군가가 바닷물로 뛰어들었고 그 반동으로 배는 크게 기울었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지언과 나는 침묵 속에서 사공을 기다렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마 동안의 시간이 흘렀을까, 곧이어 청이가 먼저 나룻배에 올랐고, 사공도 무사히 올랐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 보는 청이의 비릿한 표정에 멍해져있던 찰나였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이보시오, 사공 양반!! 어떻게든 해보시오! 나는 수영을 모른단 말이오!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 한번 청이를 안으려 팔을 휘둘렀지만, 청이는 이미 바닷속으로 사라지고 난 뒤였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 아무 말도 할 수 없어 침묵을 지켰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이의 모든 행동에, 이유가 있었을 테고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이를 그렇게 몰아넣은 건 바로 나 자신일 테니.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입이 떨어지지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말도 잃으셨습니까? 무슨 말이라도 해보십시오, 아버지!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청아. 진정하거라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달밤이 지나 새벽이 오는 하늘만 바라보다 청이가 입을 열었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 이제껏 키워주신 은혜 덕에 열심히 일할 수 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단서에 대해 향리 댁 부인과 대화를 해보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2176,24 +2279,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:F606"/>
+  <dimension ref="A1:F766"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A743" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H762" sqref="H762"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="95.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.09765625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="2"/>
+    <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="95.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>294</v>
       </c>
@@ -2213,7 +2316,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4999</v>
       </c>
@@ -2233,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5000</v>
       </c>
@@ -2253,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5001</v>
       </c>
@@ -2273,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5002</v>
       </c>
@@ -2293,7 +2396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5003</v>
       </c>
@@ -2313,7 +2416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5004</v>
       </c>
@@ -2333,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5005</v>
       </c>
@@ -2353,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5006</v>
       </c>
@@ -2373,7 +2476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5007</v>
       </c>
@@ -2393,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5010</v>
       </c>
@@ -2413,7 +2516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>5011</v>
       </c>
@@ -2433,7 +2536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>5012</v>
       </c>
@@ -2453,7 +2556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5013</v>
       </c>
@@ -2473,7 +2576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>5014</v>
       </c>
@@ -2493,7 +2596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5015</v>
       </c>
@@ -2513,7 +2616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>5016</v>
       </c>
@@ -2533,7 +2636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>5017</v>
       </c>
@@ -2553,7 +2656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5018</v>
       </c>
@@ -2573,7 +2676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>5019</v>
       </c>
@@ -2593,7 +2696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>5020</v>
       </c>
@@ -2613,7 +2716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5021</v>
       </c>
@@ -2633,7 +2736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>5022</v>
       </c>
@@ -2653,7 +2756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>5030</v>
       </c>
@@ -2673,7 +2776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>5031</v>
       </c>
@@ -2693,7 +2796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>5032</v>
       </c>
@@ -2713,7 +2816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>5033</v>
       </c>
@@ -2733,7 +2836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>5034</v>
       </c>
@@ -2753,7 +2856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>5035</v>
       </c>
@@ -2773,7 +2876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>5036</v>
       </c>
@@ -2793,7 +2896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>5037</v>
       </c>
@@ -2813,7 +2916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>5050</v>
       </c>
@@ -2833,7 +2936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>5051</v>
       </c>
@@ -2853,7 +2956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>5052</v>
       </c>
@@ -2873,7 +2976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>5053</v>
       </c>
@@ -2893,7 +2996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>5054</v>
       </c>
@@ -2913,7 +3016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>5055</v>
       </c>
@@ -2933,7 +3036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>5056</v>
       </c>
@@ -2953,7 +3056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>5057</v>
       </c>
@@ -2973,7 +3076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>5070</v>
       </c>
@@ -2993,7 +3096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>5071</v>
       </c>
@@ -3013,7 +3116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>5072</v>
       </c>
@@ -3033,7 +3136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>5073</v>
       </c>
@@ -3053,7 +3156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>5074</v>
       </c>
@@ -3073,7 +3176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>5075</v>
       </c>
@@ -3093,7 +3196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>5076</v>
       </c>
@@ -3113,7 +3216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>5077</v>
       </c>
@@ -3133,7 +3236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5090</v>
       </c>
@@ -3153,7 +3256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>5091</v>
       </c>
@@ -3173,7 +3276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>5092</v>
       </c>
@@ -3193,7 +3296,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>5093</v>
       </c>
@@ -3213,7 +3316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>5094</v>
       </c>
@@ -3233,7 +3336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>5095</v>
       </c>
@@ -3253,7 +3356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>5096</v>
       </c>
@@ -3273,7 +3376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>5097</v>
       </c>
@@ -3293,7 +3396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>5098</v>
       </c>
@@ -3313,7 +3416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5099</v>
       </c>
@@ -3333,7 +3436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5100</v>
       </c>
@@ -3353,7 +3456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5110</v>
       </c>
@@ -3373,7 +3476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5111</v>
       </c>
@@ -3393,7 +3496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>5112</v>
       </c>
@@ -3413,7 +3516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>5113</v>
       </c>
@@ -3433,7 +3536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>5114</v>
       </c>
@@ -3453,7 +3556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>5115</v>
       </c>
@@ -3473,7 +3576,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>5116</v>
       </c>
@@ -3493,7 +3596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>5117</v>
       </c>
@@ -3513,7 +3616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>5130</v>
       </c>
@@ -3533,7 +3636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>5131</v>
       </c>
@@ -3553,7 +3656,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>5132</v>
       </c>
@@ -3573,7 +3676,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>5133</v>
       </c>
@@ -3593,7 +3696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>5134</v>
       </c>
@@ -3613,7 +3716,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>5135</v>
       </c>
@@ -3633,7 +3736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>5136</v>
       </c>
@@ -3653,7 +3756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>5137</v>
       </c>
@@ -3673,7 +3776,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>5138</v>
       </c>
@@ -3693,7 +3796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>5139</v>
       </c>
@@ -3713,7 +3816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>5140</v>
       </c>
@@ -3733,7 +3836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>5141</v>
       </c>
@@ -3753,7 +3856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>5142</v>
       </c>
@@ -3773,7 +3876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>5150</v>
       </c>
@@ -3793,7 +3896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>5151</v>
       </c>
@@ -3813,7 +3916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>5152</v>
       </c>
@@ -3833,7 +3936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>5153</v>
       </c>
@@ -3853,7 +3956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>5154</v>
       </c>
@@ -3873,7 +3976,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>5155</v>
       </c>
@@ -3893,7 +3996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>5156</v>
       </c>
@@ -3913,7 +4016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>5157</v>
       </c>
@@ -3933,7 +4036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>5170</v>
       </c>
@@ -3953,7 +4056,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>5171</v>
       </c>
@@ -3973,7 +4076,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>5172</v>
       </c>
@@ -3993,7 +4096,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>5173</v>
       </c>
@@ -4013,7 +4116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>5174</v>
       </c>
@@ -4033,7 +4136,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>5175</v>
       </c>
@@ -4053,7 +4156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>5176</v>
       </c>
@@ -4073,7 +4176,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>5177</v>
       </c>
@@ -4093,7 +4196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>5190</v>
       </c>
@@ -4113,7 +4216,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>5191</v>
       </c>
@@ -4133,7 +4236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>5192</v>
       </c>
@@ -4153,7 +4256,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>5193</v>
       </c>
@@ -4173,7 +4276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>5194</v>
       </c>
@@ -4193,7 +4296,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>5195</v>
       </c>
@@ -4213,7 +4316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>5196</v>
       </c>
@@ -4233,7 +4336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>5197</v>
       </c>
@@ -4253,7 +4356,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>5198</v>
       </c>
@@ -4273,7 +4376,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>5199</v>
       </c>
@@ -4293,7 +4396,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>5210</v>
       </c>
@@ -4313,7 +4416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>5211</v>
       </c>
@@ -4333,7 +4436,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>5212</v>
       </c>
@@ -4353,7 +4456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>5213</v>
       </c>
@@ -4373,7 +4476,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>5214</v>
       </c>
@@ -4393,7 +4496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>5215</v>
       </c>
@@ -4413,7 +4516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>5216</v>
       </c>
@@ -4433,7 +4536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>5217</v>
       </c>
@@ -4453,7 +4556,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>5218</v>
       </c>
@@ -4473,7 +4576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>5230</v>
       </c>
@@ -4493,7 +4596,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>5231</v>
       </c>
@@ -4513,7 +4616,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>5232</v>
       </c>
@@ -4533,7 +4636,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>5233</v>
       </c>
@@ -4553,7 +4656,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>5234</v>
       </c>
@@ -4573,7 +4676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>5235</v>
       </c>
@@ -4593,7 +4696,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>5236</v>
       </c>
@@ -4613,7 +4716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>5237</v>
       </c>
@@ -4633,7 +4736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>5250</v>
       </c>
@@ -4653,7 +4756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>5251</v>
       </c>
@@ -4673,7 +4776,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>5252</v>
       </c>
@@ -4693,7 +4796,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>5253</v>
       </c>
@@ -4713,7 +4816,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>5254</v>
       </c>
@@ -4733,7 +4836,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>5255</v>
       </c>
@@ -4753,7 +4856,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>5256</v>
       </c>
@@ -4773,7 +4876,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>5257</v>
       </c>
@@ -4793,7 +4896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>5270</v>
       </c>
@@ -4813,7 +4916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>5271</v>
       </c>
@@ -4833,7 +4936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>5272</v>
       </c>
@@ -4853,7 +4956,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>5273</v>
       </c>
@@ -4873,7 +4976,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>5274</v>
       </c>
@@ -4893,7 +4996,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>5275</v>
       </c>
@@ -4913,7 +5016,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>5276</v>
       </c>
@@ -4933,7 +5036,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>5277</v>
       </c>
@@ -4953,7 +5056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>5290</v>
       </c>
@@ -4973,7 +5076,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>5291</v>
       </c>
@@ -4993,7 +5096,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>5292</v>
       </c>
@@ -5013,7 +5116,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>5293</v>
       </c>
@@ -5033,7 +5136,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>5294</v>
       </c>
@@ -5053,7 +5156,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>5295</v>
       </c>
@@ -5073,7 +5176,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>5296</v>
       </c>
@@ -5093,7 +5196,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>5297</v>
       </c>
@@ -5113,7 +5216,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>5310</v>
       </c>
@@ -5133,7 +5236,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>5311</v>
       </c>
@@ -5153,7 +5256,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>5312</v>
       </c>
@@ -5173,7 +5276,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>5313</v>
       </c>
@@ -5193,7 +5296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>5314</v>
       </c>
@@ -5213,7 +5316,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>5315</v>
       </c>
@@ -5233,7 +5336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>5316</v>
       </c>
@@ -5253,7 +5356,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>5317</v>
       </c>
@@ -5273,7 +5376,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>5318</v>
       </c>
@@ -5293,7 +5396,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>5319</v>
       </c>
@@ -5313,7 +5416,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>5330</v>
       </c>
@@ -5333,7 +5436,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>5331</v>
       </c>
@@ -5353,7 +5456,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>5332</v>
       </c>
@@ -5373,7 +5476,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>5333</v>
       </c>
@@ -5393,7 +5496,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>5334</v>
       </c>
@@ -5413,7 +5516,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>5335</v>
       </c>
@@ -5433,7 +5536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>5336</v>
       </c>
@@ -5453,7 +5556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>5337</v>
       </c>
@@ -5473,7 +5576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>5350</v>
       </c>
@@ -5493,7 +5596,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>5351</v>
       </c>
@@ -5513,7 +5616,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>5352</v>
       </c>
@@ -5533,7 +5636,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>5353</v>
       </c>
@@ -5553,7 +5656,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>5354</v>
       </c>
@@ -5573,7 +5676,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>5355</v>
       </c>
@@ -5593,7 +5696,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>5356</v>
       </c>
@@ -5613,7 +5716,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>5357</v>
       </c>
@@ -5633,7 +5736,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>5358</v>
       </c>
@@ -5653,7 +5756,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>5359</v>
       </c>
@@ -5673,7 +5776,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>5360</v>
       </c>
@@ -5693,7 +5796,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>5361</v>
       </c>
@@ -5713,7 +5816,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>5362</v>
       </c>
@@ -5733,7 +5836,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>5363</v>
       </c>
@@ -5753,7 +5856,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>5364</v>
       </c>
@@ -5773,7 +5876,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>5365</v>
       </c>
@@ -5793,7 +5896,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>5366</v>
       </c>
@@ -5813,7 +5916,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>5367</v>
       </c>
@@ -5833,7 +5936,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>5368</v>
       </c>
@@ -5853,7 +5956,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>5370</v>
       </c>
@@ -5873,7 +5976,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>5371</v>
       </c>
@@ -5893,7 +5996,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>5372</v>
       </c>
@@ -5913,7 +6016,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>5373</v>
       </c>
@@ -5933,7 +6036,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>5374</v>
       </c>
@@ -5953,7 +6056,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>5375</v>
       </c>
@@ -5973,7 +6076,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>5376</v>
       </c>
@@ -5993,7 +6096,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>5377</v>
       </c>
@@ -6013,7 +6116,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>5390</v>
       </c>
@@ -6033,7 +6136,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>5391</v>
       </c>
@@ -6053,7 +6156,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>5392</v>
       </c>
@@ -6073,7 +6176,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>5393</v>
       </c>
@@ -6093,7 +6196,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>5394</v>
       </c>
@@ -6113,7 +6216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>5395</v>
       </c>
@@ -6133,7 +6236,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>5396</v>
       </c>
@@ -6153,7 +6256,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>5397</v>
       </c>
@@ -6173,7 +6276,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>5398</v>
       </c>
@@ -6193,7 +6296,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>5410</v>
       </c>
@@ -6213,7 +6316,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>5411</v>
       </c>
@@ -6233,7 +6336,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>5412</v>
       </c>
@@ -6253,7 +6356,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>5413</v>
       </c>
@@ -6273,7 +6376,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>5414</v>
       </c>
@@ -6293,7 +6396,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>5415</v>
       </c>
@@ -6313,7 +6416,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>5416</v>
       </c>
@@ -6333,7 +6436,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>5417</v>
       </c>
@@ -6353,7 +6456,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>5430</v>
       </c>
@@ -6373,7 +6476,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>5431</v>
       </c>
@@ -6393,7 +6496,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>5432</v>
       </c>
@@ -6413,7 +6516,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>5433</v>
       </c>
@@ -6433,7 +6536,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>5434</v>
       </c>
@@ -6453,7 +6556,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>5435</v>
       </c>
@@ -6473,7 +6576,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>5436</v>
       </c>
@@ -6493,7 +6596,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>5437</v>
       </c>
@@ -6513,7 +6616,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>5438</v>
       </c>
@@ -6533,7 +6636,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>5439</v>
       </c>
@@ -6553,7 +6656,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>5440</v>
       </c>
@@ -6573,7 +6676,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>5441</v>
       </c>
@@ -6593,7 +6696,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>5442</v>
       </c>
@@ -6613,7 +6716,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>5443</v>
       </c>
@@ -6633,7 +6736,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>5450</v>
       </c>
@@ -6653,7 +6756,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>5451</v>
       </c>
@@ -6673,7 +6776,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>5452</v>
       </c>
@@ -6693,7 +6796,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>5453</v>
       </c>
@@ -6713,7 +6816,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>5454</v>
       </c>
@@ -6733,7 +6836,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>5455</v>
       </c>
@@ -6753,7 +6856,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>5456</v>
       </c>
@@ -6773,7 +6876,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>5457</v>
       </c>
@@ -6793,7 +6896,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>5470</v>
       </c>
@@ -6813,7 +6916,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>5471</v>
       </c>
@@ -6833,7 +6936,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>5472</v>
       </c>
@@ -6853,7 +6956,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>5473</v>
       </c>
@@ -6873,7 +6976,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>5474</v>
       </c>
@@ -6893,7 +6996,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>5475</v>
       </c>
@@ -6913,7 +7016,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>5476</v>
       </c>
@@ -6933,7 +7036,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>5477</v>
       </c>
@@ -6953,7 +7056,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>5478</v>
       </c>
@@ -6973,7 +7076,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>5479</v>
       </c>
@@ -6993,7 +7096,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>5480</v>
       </c>
@@ -7013,7 +7116,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>5481</v>
       </c>
@@ -7033,7 +7136,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>5482</v>
       </c>
@@ -7053,7 +7156,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>5483</v>
       </c>
@@ -7073,7 +7176,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>5484</v>
       </c>
@@ -7093,7 +7196,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>5485</v>
       </c>
@@ -7113,7 +7216,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>5486</v>
       </c>
@@ -7133,7 +7236,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>5487</v>
       </c>
@@ -7153,7 +7256,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>5488</v>
       </c>
@@ -7173,7 +7276,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>5489</v>
       </c>
@@ -7193,7 +7296,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>5700</v>
       </c>
@@ -7213,7 +7316,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>5701</v>
       </c>
@@ -7233,7 +7336,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>5702</v>
       </c>
@@ -7253,7 +7356,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>5703</v>
       </c>
@@ -7273,7 +7376,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>5704</v>
       </c>
@@ -7293,7 +7396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>5705</v>
       </c>
@@ -7313,7 +7416,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>5706</v>
       </c>
@@ -7333,7 +7436,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>5707</v>
       </c>
@@ -7353,7 +7456,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>5708</v>
       </c>
@@ -7373,7 +7476,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>5709</v>
       </c>
@@ -7393,7 +7496,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>5710</v>
       </c>
@@ -7413,7 +7516,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>5711</v>
       </c>
@@ -7433,7 +7536,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>5712</v>
       </c>
@@ -7453,7 +7556,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>5713</v>
       </c>
@@ -7473,7 +7576,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>5714</v>
       </c>
@@ -7493,7 +7596,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>5715</v>
       </c>
@@ -7513,7 +7616,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>5716</v>
       </c>
@@ -7533,7 +7636,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>5717</v>
       </c>
@@ -7553,7 +7656,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>5718</v>
       </c>
@@ -7573,7 +7676,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>5719</v>
       </c>
@@ -7593,7 +7696,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>5720</v>
       </c>
@@ -7613,7 +7716,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>5721</v>
       </c>
@@ -7633,7 +7736,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>5722</v>
       </c>
@@ -7653,7 +7756,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>5723</v>
       </c>
@@ -7673,7 +7776,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>5724</v>
       </c>
@@ -7693,7 +7796,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>5725</v>
       </c>
@@ -7713,7 +7816,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>5726</v>
       </c>
@@ -7733,7 +7836,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>5727</v>
       </c>
@@ -7753,7 +7856,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>5728</v>
       </c>
@@ -7773,7 +7876,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>5729</v>
       </c>
@@ -7793,7 +7896,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>5730</v>
       </c>
@@ -7813,7 +7916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>5731</v>
       </c>
@@ -7833,7 +7936,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>5732</v>
       </c>
@@ -7853,7 +7956,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>5733</v>
       </c>
@@ -7873,7 +7976,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>5734</v>
       </c>
@@ -7893,7 +7996,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>5735</v>
       </c>
@@ -7913,7 +8016,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>5736</v>
       </c>
@@ -7933,7 +8036,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>5737</v>
       </c>
@@ -7953,7 +8056,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>5738</v>
       </c>
@@ -7973,7 +8076,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>5739</v>
       </c>
@@ -7993,7 +8096,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>5740</v>
       </c>
@@ -8013,7 +8116,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>5741</v>
       </c>
@@ -8033,7 +8136,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>5742</v>
       </c>
@@ -8053,7 +8156,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>5743</v>
       </c>
@@ -8073,7 +8176,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>5744</v>
       </c>
@@ -8093,7 +8196,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>5745</v>
       </c>
@@ -8113,7 +8216,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>5746</v>
       </c>
@@ -8133,7 +8236,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>5747</v>
       </c>
@@ -8153,7 +8256,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>5748</v>
       </c>
@@ -8173,7 +8276,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>5749</v>
       </c>
@@ -8193,7 +8296,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>5750</v>
       </c>
@@ -8213,7 +8316,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>5751</v>
       </c>
@@ -8233,7 +8336,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>5752</v>
       </c>
@@ -8253,7 +8356,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>5753</v>
       </c>
@@ -8273,7 +8376,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>5754</v>
       </c>
@@ -8293,7 +8396,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>5755</v>
       </c>
@@ -8313,7 +8416,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>5756</v>
       </c>
@@ -8333,7 +8436,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>5757</v>
       </c>
@@ -8353,7 +8456,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>5758</v>
       </c>
@@ -8373,7 +8476,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>5759</v>
       </c>
@@ -8393,7 +8496,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>5760</v>
       </c>
@@ -8413,7 +8516,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>5761</v>
       </c>
@@ -8433,7 +8536,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>5762</v>
       </c>
@@ -8453,7 +8556,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>5763</v>
       </c>
@@ -8473,7 +8576,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>5764</v>
       </c>
@@ -8493,7 +8596,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>5765</v>
       </c>
@@ -8513,7 +8616,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>5766</v>
       </c>
@@ -8533,7 +8636,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>5767</v>
       </c>
@@ -8553,7 +8656,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>5768</v>
       </c>
@@ -8573,7 +8676,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>5769</v>
       </c>
@@ -8593,7 +8696,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>5770</v>
       </c>
@@ -8613,7 +8716,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>5771</v>
       </c>
@@ -8633,7 +8736,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>5772</v>
       </c>
@@ -8653,7 +8756,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>5773</v>
       </c>
@@ -8673,7 +8776,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>5774</v>
       </c>
@@ -8693,7 +8796,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>5775</v>
       </c>
@@ -8713,7 +8816,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>5776</v>
       </c>
@@ -8733,7 +8836,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>5777</v>
       </c>
@@ -8753,7 +8856,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>5778</v>
       </c>
@@ -8773,7 +8876,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>5779</v>
       </c>
@@ -8793,7 +8896,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>5780</v>
       </c>
@@ -8813,7 +8916,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>5781</v>
       </c>
@@ -8833,7 +8936,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>5782</v>
       </c>
@@ -8853,7 +8956,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>5783</v>
       </c>
@@ -8873,7 +8976,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>5784</v>
       </c>
@@ -8893,7 +8996,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>5785</v>
       </c>
@@ -8913,7 +9016,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>5786</v>
       </c>
@@ -8933,7 +9036,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>5787</v>
       </c>
@@ -8953,7 +9056,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>5788</v>
       </c>
@@ -8973,7 +9076,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>5789</v>
       </c>
@@ -8993,7 +9096,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>5790</v>
       </c>
@@ -9013,7 +9116,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>5791</v>
       </c>
@@ -9033,7 +9136,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>5792</v>
       </c>
@@ -9053,7 +9156,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>5793</v>
       </c>
@@ -9073,7 +9176,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>5794</v>
       </c>
@@ -9093,7 +9196,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>5795</v>
       </c>
@@ -9113,7 +9216,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>5796</v>
       </c>
@@ -9133,7 +9236,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>5797</v>
       </c>
@@ -9153,7 +9256,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>5798</v>
       </c>
@@ -9173,7 +9276,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>5799</v>
       </c>
@@ -9193,7 +9296,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>6010</v>
       </c>
@@ -9213,7 +9316,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>6011</v>
       </c>
@@ -9233,7 +9336,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>6012</v>
       </c>
@@ -9253,7 +9356,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>6013</v>
       </c>
@@ -9273,7 +9376,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>6014</v>
       </c>
@@ -9293,7 +9396,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>6015</v>
       </c>
@@ -9313,7 +9416,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>6016</v>
       </c>
@@ -9333,7 +9436,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>6017</v>
       </c>
@@ -9353,7 +9456,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>6030</v>
       </c>
@@ -9373,7 +9476,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>6031</v>
       </c>
@@ -9393,7 +9496,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>6032</v>
       </c>
@@ -9413,7 +9516,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>6033</v>
       </c>
@@ -9433,7 +9536,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>6034</v>
       </c>
@@ -9453,7 +9556,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>6035</v>
       </c>
@@ -9473,7 +9576,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>6036</v>
       </c>
@@ -9493,7 +9596,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>6037</v>
       </c>
@@ -9513,7 +9616,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>6050</v>
       </c>
@@ -9533,7 +9636,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>6051</v>
       </c>
@@ -9553,7 +9656,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>6052</v>
       </c>
@@ -9573,7 +9676,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>6053</v>
       </c>
@@ -9593,7 +9696,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>6054</v>
       </c>
@@ -9613,7 +9716,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>6055</v>
       </c>
@@ -9633,7 +9736,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>6056</v>
       </c>
@@ -9653,7 +9756,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>6057</v>
       </c>
@@ -9673,7 +9776,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>6070</v>
       </c>
@@ -9693,7 +9796,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>6071</v>
       </c>
@@ -9713,7 +9816,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>6072</v>
       </c>
@@ -9733,7 +9836,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>6073</v>
       </c>
@@ -9753,7 +9856,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>6074</v>
       </c>
@@ -9773,7 +9876,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>6075</v>
       </c>
@@ -9793,7 +9896,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>6076</v>
       </c>
@@ -9813,7 +9916,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>6077</v>
       </c>
@@ -9833,7 +9936,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>6090</v>
       </c>
@@ -9853,7 +9956,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>6091</v>
       </c>
@@ -9873,7 +9976,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>6092</v>
       </c>
@@ -9893,7 +9996,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>6093</v>
       </c>
@@ -9913,7 +10016,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>6094</v>
       </c>
@@ -9933,7 +10036,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>6095</v>
       </c>
@@ -9953,7 +10056,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>6096</v>
       </c>
@@ -9973,7 +10076,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>6097</v>
       </c>
@@ -9993,7 +10096,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>6098</v>
       </c>
@@ -10013,7 +10116,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>6099</v>
       </c>
@@ -10033,7 +10136,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>6110</v>
       </c>
@@ -10053,7 +10156,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>6111</v>
       </c>
@@ -10073,7 +10176,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>6112</v>
       </c>
@@ -10093,7 +10196,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>6113</v>
       </c>
@@ -10113,7 +10216,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>6114</v>
       </c>
@@ -10133,7 +10236,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>6115</v>
       </c>
@@ -10153,7 +10256,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>6116</v>
       </c>
@@ -10173,7 +10276,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>6117</v>
       </c>
@@ -10193,7 +10296,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>6500</v>
       </c>
@@ -10213,7 +10316,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>6501</v>
       </c>
@@ -10233,7 +10336,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>6502</v>
       </c>
@@ -10253,7 +10356,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>6503</v>
       </c>
@@ -10273,7 +10376,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>6504</v>
       </c>
@@ -10293,7 +10396,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>6505</v>
       </c>
@@ -10313,7 +10416,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>6506</v>
       </c>
@@ -10333,7 +10436,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>6507</v>
       </c>
@@ -10353,7 +10456,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>6508</v>
       </c>
@@ -10373,7 +10476,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>6509</v>
       </c>
@@ -10393,7 +10496,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>6510</v>
       </c>
@@ -10413,7 +10516,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>7000</v>
       </c>
@@ -10433,7 +10536,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>7001</v>
       </c>
@@ -10453,7 +10556,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>7002</v>
       </c>
@@ -10473,7 +10576,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>7003</v>
       </c>
@@ -10493,7 +10596,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>7004</v>
       </c>
@@ -10513,7 +10616,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>7005</v>
       </c>
@@ -10533,7 +10636,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>7006</v>
       </c>
@@ -10553,7 +10656,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>7007</v>
       </c>
@@ -10573,7 +10676,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>7008</v>
       </c>
@@ -10593,7 +10696,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>7009</v>
       </c>
@@ -10613,7 +10716,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>7010</v>
       </c>
@@ -10633,7 +10736,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>7011</v>
       </c>
@@ -10653,7 +10756,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>7012</v>
       </c>
@@ -10673,7 +10776,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>7013</v>
       </c>
@@ -10693,7 +10796,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>7014</v>
       </c>
@@ -10713,7 +10816,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>7015</v>
       </c>
@@ -10733,7 +10836,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>7016</v>
       </c>
@@ -10753,7 +10856,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>7017</v>
       </c>
@@ -10773,7 +10876,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>7018</v>
       </c>
@@ -10793,7 +10896,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>7019</v>
       </c>
@@ -10813,7 +10916,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>7020</v>
       </c>
@@ -10833,7 +10936,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>7021</v>
       </c>
@@ -10853,7 +10956,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>7022</v>
       </c>
@@ -10873,7 +10976,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>7023</v>
       </c>
@@ -10893,7 +10996,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>7024</v>
       </c>
@@ -10913,7 +11016,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>7025</v>
       </c>
@@ -10933,7 +11036,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>7026</v>
       </c>
@@ -10953,7 +11056,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>7027</v>
       </c>
@@ -10973,7 +11076,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>7028</v>
       </c>
@@ -10993,7 +11096,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>7029</v>
       </c>
@@ -11013,7 +11116,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>7030</v>
       </c>
@@ -11033,7 +11136,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>7031</v>
       </c>
@@ -11053,7 +11156,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>7032</v>
       </c>
@@ -11073,7 +11176,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>7033</v>
       </c>
@@ -11093,7 +11196,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>7034</v>
       </c>
@@ -11113,7 +11216,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>7035</v>
       </c>
@@ -11133,7 +11236,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>7036</v>
       </c>
@@ -11153,7 +11256,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>7037</v>
       </c>
@@ -11173,7 +11276,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>7038</v>
       </c>
@@ -11193,7 +11296,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>7039</v>
       </c>
@@ -11213,7 +11316,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>7040</v>
       </c>
@@ -11233,7 +11336,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>7041</v>
       </c>
@@ -11253,7 +11356,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>7042</v>
       </c>
@@ -11273,7 +11376,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>7043</v>
       </c>
@@ -11293,7 +11396,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>7044</v>
       </c>
@@ -11313,7 +11416,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>7045</v>
       </c>
@@ -11333,7 +11436,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>7046</v>
       </c>
@@ -11353,7 +11456,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>7047</v>
       </c>
@@ -11373,7 +11476,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>7048</v>
       </c>
@@ -11393,7 +11496,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>7049</v>
       </c>
@@ -11413,7 +11516,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>7050</v>
       </c>
@@ -11433,7 +11536,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>7051</v>
       </c>
@@ -11453,7 +11556,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>7052</v>
       </c>
@@ -11473,7 +11576,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>7053</v>
       </c>
@@ -11493,7 +11596,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>7054</v>
       </c>
@@ -11513,7 +11616,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>7055</v>
       </c>
@@ -11533,7 +11636,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>7056</v>
       </c>
@@ -11553,7 +11656,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>7057</v>
       </c>
@@ -11573,7 +11676,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>7058</v>
       </c>
@@ -11593,7 +11696,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>7059</v>
       </c>
@@ -11613,7 +11716,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>7060</v>
       </c>
@@ -11633,7 +11736,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>7061</v>
       </c>
@@ -11653,7 +11756,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>7062</v>
       </c>
@@ -11673,7 +11776,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>7063</v>
       </c>
@@ -11693,7 +11796,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>7064</v>
       </c>
@@ -11713,7 +11816,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>7065</v>
       </c>
@@ -11733,7 +11836,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>7066</v>
       </c>
@@ -11753,7 +11856,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>7067</v>
       </c>
@@ -11773,7 +11876,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>7068</v>
       </c>
@@ -11793,7 +11896,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>7069</v>
       </c>
@@ -11813,7 +11916,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>7070</v>
       </c>
@@ -11833,7 +11936,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>7071</v>
       </c>
@@ -11853,7 +11956,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>7072</v>
       </c>
@@ -11873,7 +11976,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>7073</v>
       </c>
@@ -11893,7 +11996,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>7074</v>
       </c>
@@ -11913,7 +12016,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>7075</v>
       </c>
@@ -11933,7 +12036,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>7076</v>
       </c>
@@ -11953,7 +12056,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>7077</v>
       </c>
@@ -11973,7 +12076,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>7078</v>
       </c>
@@ -11993,7 +12096,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>7079</v>
       </c>
@@ -12013,7 +12116,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>7080</v>
       </c>
@@ -12033,7 +12136,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>7081</v>
       </c>
@@ -12053,7 +12156,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>7082</v>
       </c>
@@ -12073,7 +12176,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>7083</v>
       </c>
@@ -12093,7 +12196,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>7084</v>
       </c>
@@ -12113,7 +12216,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>7085</v>
       </c>
@@ -12133,7 +12236,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>7086</v>
       </c>
@@ -12153,7 +12256,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>7087</v>
       </c>
@@ -12173,7 +12276,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>7088</v>
       </c>
@@ -12193,7 +12296,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>7089</v>
       </c>
@@ -12213,7 +12316,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>7090</v>
       </c>
@@ -12233,7 +12336,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>7091</v>
       </c>
@@ -12253,7 +12356,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>7092</v>
       </c>
@@ -12273,7 +12376,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>7093</v>
       </c>
@@ -12293,7 +12396,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>7094</v>
       </c>
@@ -12313,7 +12416,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>7095</v>
       </c>
@@ -12333,7 +12436,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>7096</v>
       </c>
@@ -12353,7 +12456,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>7097</v>
       </c>
@@ -12373,7 +12476,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>7098</v>
       </c>
@@ -12393,7 +12496,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>7099</v>
       </c>
@@ -12413,7 +12516,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>7100</v>
       </c>
@@ -12433,7 +12536,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>7101</v>
       </c>
@@ -12453,7 +12556,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>7102</v>
       </c>
@@ -12473,7 +12576,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>7103</v>
       </c>
@@ -12493,7 +12596,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>7104</v>
       </c>
@@ -12513,7 +12616,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>7105</v>
       </c>
@@ -12533,7 +12636,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>7106</v>
       </c>
@@ -12553,7 +12656,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>7107</v>
       </c>
@@ -12573,7 +12676,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>7108</v>
       </c>
@@ -12593,7 +12696,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>7109</v>
       </c>
@@ -12613,7 +12716,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>7110</v>
       </c>
@@ -12633,7 +12736,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>7111</v>
       </c>
@@ -12653,7 +12756,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>7112</v>
       </c>
@@ -12673,7 +12776,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>7113</v>
       </c>
@@ -12693,7 +12796,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>7114</v>
       </c>
@@ -12713,7 +12816,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>7115</v>
       </c>
@@ -12733,7 +12836,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>7116</v>
       </c>
@@ -12753,7 +12856,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>7117</v>
       </c>
@@ -12773,7 +12876,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>7118</v>
       </c>
@@ -12793,7 +12896,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>7119</v>
       </c>
@@ -12813,7 +12916,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>7120</v>
       </c>
@@ -12833,7 +12936,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>7121</v>
       </c>
@@ -12853,7 +12956,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>7122</v>
       </c>
@@ -12873,7 +12976,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>7123</v>
       </c>
@@ -12893,7 +12996,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>7124</v>
       </c>
@@ -12913,7 +13016,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>7125</v>
       </c>
@@ -12933,7 +13036,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>7126</v>
       </c>
@@ -12953,7 +13056,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>7127</v>
       </c>
@@ -12973,7 +13076,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>7128</v>
       </c>
@@ -12993,7 +13096,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>7129</v>
       </c>
@@ -13013,7 +13116,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>7130</v>
       </c>
@@ -13033,7 +13136,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>7131</v>
       </c>
@@ -13053,7 +13156,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>7132</v>
       </c>
@@ -13073,7 +13176,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>7133</v>
       </c>
@@ -13093,7 +13196,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>7134</v>
       </c>
@@ -13113,7 +13216,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>7135</v>
       </c>
@@ -13133,7 +13236,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>7136</v>
       </c>
@@ -13153,7 +13256,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>7137</v>
       </c>
@@ -13173,7 +13276,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>7138</v>
       </c>
@@ -13193,7 +13296,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>7139</v>
       </c>
@@ -13213,7 +13316,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>7140</v>
       </c>
@@ -13233,7 +13336,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>7141</v>
       </c>
@@ -13253,7 +13356,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>7142</v>
       </c>
@@ -13273,7 +13376,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <v>7143</v>
       </c>
@@ -13293,7 +13396,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <v>7144</v>
       </c>
@@ -13313,7 +13416,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>7145</v>
       </c>
@@ -13333,7 +13436,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>7146</v>
       </c>
@@ -13353,7 +13456,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>7147</v>
       </c>
@@ -13373,7 +13476,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>7148</v>
       </c>
@@ -13393,7 +13496,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>7149</v>
       </c>
@@ -13413,7 +13516,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>7150</v>
       </c>
@@ -13433,7 +13536,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>7151</v>
       </c>
@@ -13453,7 +13556,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>7152</v>
       </c>
@@ -13473,7 +13576,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>7153</v>
       </c>
@@ -13493,7 +13596,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>7154</v>
       </c>
@@ -13513,7 +13616,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>7155</v>
       </c>
@@ -13533,7 +13636,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <v>7156</v>
       </c>
@@ -13553,7 +13656,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>7157</v>
       </c>
@@ -13573,7 +13676,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>7158</v>
       </c>
@@ -13593,7 +13696,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>7159</v>
       </c>
@@ -13613,7 +13716,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>7160</v>
       </c>
@@ -13633,7 +13736,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>7161</v>
       </c>
@@ -13653,7 +13756,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>7162</v>
       </c>
@@ -13673,7 +13776,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>7163</v>
       </c>
@@ -13693,7 +13796,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>7164</v>
       </c>
@@ -13713,7 +13816,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>7165</v>
       </c>
@@ -13733,7 +13836,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>7166</v>
       </c>
@@ -13753,7 +13856,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>7167</v>
       </c>
@@ -13773,7 +13876,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>7168</v>
       </c>
@@ -13793,7 +13896,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>7169</v>
       </c>
@@ -13813,7 +13916,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>7170</v>
       </c>
@@ -13833,7 +13936,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>7171</v>
       </c>
@@ -13853,7 +13956,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>7172</v>
       </c>
@@ -13873,7 +13976,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <v>7173</v>
       </c>
@@ -13893,7 +13996,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>7174</v>
       </c>
@@ -13913,7 +14016,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>7175</v>
       </c>
@@ -13933,7 +14036,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>7176</v>
       </c>
@@ -13953,7 +14056,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>7177</v>
       </c>
@@ -13973,7 +14076,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <v>7178</v>
       </c>
@@ -13993,7 +14096,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <v>7179</v>
       </c>
@@ -14013,7 +14116,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="2">
         <v>7180</v>
       </c>
@@ -14033,7 +14136,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>7181</v>
       </c>
@@ -14053,7 +14156,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <v>7182</v>
       </c>
@@ -14073,7 +14176,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>7183</v>
       </c>
@@ -14093,7 +14196,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>7184</v>
       </c>
@@ -14113,7 +14216,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>7185</v>
       </c>
@@ -14133,7 +14236,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <v>7186</v>
       </c>
@@ -14153,7 +14256,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>7187</v>
       </c>
@@ -14173,7 +14276,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <v>7188</v>
       </c>
@@ -14193,7 +14296,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
         <v>7189</v>
       </c>
@@ -14213,7 +14316,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
         <v>7190</v>
       </c>
@@ -14233,7 +14336,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="2">
         <v>7191</v>
       </c>
@@ -14253,7 +14356,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <v>7192</v>
       </c>
@@ -14273,7 +14376,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
         <v>7193</v>
       </c>
@@ -14293,7 +14396,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <v>7194</v>
       </c>
@@ -14311,6 +14414,3206 @@
       </c>
       <c r="F606" s="2">
         <v>604</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A607" s="2">
+        <v>7195</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E607" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F607" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A608" s="2">
+        <v>7196</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E608" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F608" s="2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A609" s="2">
+        <v>7197</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E609" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F609" s="2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A610" s="2">
+        <v>7198</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E610" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F610" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A611" s="2">
+        <v>7199</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E611" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F611" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A612" s="2">
+        <v>7200</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E612" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F612" s="2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A613" s="2">
+        <v>7201</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E613" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F613" s="2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A614" s="2">
+        <v>7202</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E614" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F614" s="2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A615" s="2">
+        <v>7203</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E615" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F615" s="2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A616" s="2">
+        <v>7204</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E616" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F616" s="2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A617" s="2">
+        <v>7205</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E617" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F617" s="2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A618" s="2">
+        <v>7206</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E618" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F618" s="2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A619" s="2">
+        <v>7207</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E619" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F619" s="2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A620" s="2">
+        <v>7208</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E620" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F620" s="2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A621" s="2">
+        <v>7209</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E621" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F621" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A622" s="2">
+        <v>7210</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E622" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F622" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A623" s="2">
+        <v>7211</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E623" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F623" s="2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A624" s="2">
+        <v>7212</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E624" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F624" s="2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A625" s="2">
+        <v>7213</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E625" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F625" s="2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A626" s="2">
+        <v>7214</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E626" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F626" s="2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A627" s="2">
+        <v>7215</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E627" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F627" s="2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A628" s="2">
+        <v>7216</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E628" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F628" s="2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A629" s="2">
+        <v>7217</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E629" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F629" s="2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A630" s="2">
+        <v>7218</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E630" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F630" s="2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A631" s="2">
+        <v>7219</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E631" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F631" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A632" s="2">
+        <v>7220</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E632" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F632" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A633" s="2">
+        <v>7221</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E633" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F633" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A634" s="2">
+        <v>7222</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E634" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F634" s="2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A635" s="2">
+        <v>7223</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E635" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F635" s="2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A636" s="2">
+        <v>7224</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E636" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F636" s="2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A637" s="2">
+        <v>7225</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E637" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F637" s="2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A638" s="2">
+        <v>7226</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E638" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F638" s="2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A639" s="2">
+        <v>7227</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E639" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F639" s="2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A640" s="2">
+        <v>7228</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E640" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F640" s="2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A641" s="2">
+        <v>7229</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E641" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F641" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A642" s="2">
+        <v>7230</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E642" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F642" s="2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A643" s="2">
+        <v>7231</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E643" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F643" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A644" s="2">
+        <v>7232</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E644" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F644" s="2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A645" s="2">
+        <v>7233</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E645" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F645" s="2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A646" s="2">
+        <v>7234</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E646" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F646" s="2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A647" s="2">
+        <v>7235</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E647" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F647" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A648" s="2">
+        <v>7236</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E648" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F648" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A649" s="2">
+        <v>7237</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E649" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F649" s="2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A650" s="2">
+        <v>7238</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E650" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F650" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A651" s="2">
+        <v>7239</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E651" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F651" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A652" s="2">
+        <v>7240</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E652" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F652" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A653" s="2">
+        <v>7241</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E653" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F653" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A654" s="2">
+        <v>7242</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E654" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F654" s="2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A655" s="2">
+        <v>7243</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E655" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F655" s="2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A656" s="2">
+        <v>7244</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E656" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F656" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A657" s="2">
+        <v>7245</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E657" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F657" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A658" s="2">
+        <v>7246</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E658" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F658" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A659" s="2">
+        <v>7247</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E659" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F659" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A660" s="2">
+        <v>7248</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E660" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F660" s="2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A661" s="2">
+        <v>7249</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E661" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F661" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A662" s="2">
+        <v>7250</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E662" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F662" s="2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A663" s="2">
+        <v>7251</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E663" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F663" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A664" s="2">
+        <v>7252</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E664" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F664" s="2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A665" s="2">
+        <v>7253</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E665" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F665" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A666" s="2">
+        <v>7254</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E666" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F666" s="2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A667" s="2">
+        <v>7255</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E667" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F667" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A668" s="2">
+        <v>7256</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E668" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F668" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A669" s="2">
+        <v>7257</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E669" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F669" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A670" s="2">
+        <v>7258</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E670" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F670" s="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A671" s="2">
+        <v>7259</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E671" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F671" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A672" s="2">
+        <v>7260</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E672" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F672" s="2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A673" s="2">
+        <v>7261</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E673" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F673" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A674" s="2">
+        <v>7262</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E674" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F674" s="2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A675" s="2">
+        <v>7263</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E675" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F675" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A676" s="2">
+        <v>7264</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E676" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F676" s="2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A677" s="2">
+        <v>7265</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E677" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F677" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A678" s="2">
+        <v>7266</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E678" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F678" s="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A679" s="2">
+        <v>7267</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E679" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F679" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A680" s="2">
+        <v>7268</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E680" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F680" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A681" s="2">
+        <v>7269</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E681" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F681" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A682" s="2">
+        <v>7270</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E682" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F682" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A683" s="2">
+        <v>7271</v>
+      </c>
+      <c r="B683" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C683" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D683" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E683" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F683" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A684" s="2">
+        <v>7272</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E684" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F684" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A685" s="2">
+        <v>7273</v>
+      </c>
+      <c r="B685" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C685" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D685" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E685" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F685" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A686" s="2">
+        <v>7274</v>
+      </c>
+      <c r="B686" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D686" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E686" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F686" s="2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A687" s="2">
+        <v>7275</v>
+      </c>
+      <c r="B687" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D687" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E687" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F687" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A688" s="2">
+        <v>7276</v>
+      </c>
+      <c r="B688" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D688" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E688" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F688" s="2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A689" s="2">
+        <v>7277</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C689" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D689" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E689" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F689" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A690" s="2">
+        <v>7278</v>
+      </c>
+      <c r="B690" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D690" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E690" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F690" s="2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A691" s="2">
+        <v>7279</v>
+      </c>
+      <c r="B691" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C691" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D691" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E691" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F691" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A692" s="2">
+        <v>7280</v>
+      </c>
+      <c r="B692" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D692" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E692" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F692" s="2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A693" s="2">
+        <v>7281</v>
+      </c>
+      <c r="B693" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D693" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E693" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F693" s="2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A694" s="2">
+        <v>7282</v>
+      </c>
+      <c r="B694" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D694" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E694" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F694" s="2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A695" s="2">
+        <v>7283</v>
+      </c>
+      <c r="B695" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C695" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D695" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E695" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F695" s="2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A696" s="2">
+        <v>7284</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D696" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E696" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F696" s="2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A697" s="2">
+        <v>7285</v>
+      </c>
+      <c r="B697" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C697" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D697" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E697" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F697" s="2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A698" s="2">
+        <v>7286</v>
+      </c>
+      <c r="B698" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D698" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E698" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F698" s="2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A699" s="2">
+        <v>7287</v>
+      </c>
+      <c r="B699" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C699" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D699" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E699" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F699" s="2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A700" s="2">
+        <v>7288</v>
+      </c>
+      <c r="B700" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D700" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E700" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F700" s="2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A701" s="2">
+        <v>7289</v>
+      </c>
+      <c r="B701" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C701" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D701" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E701" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F701" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A702" s="2">
+        <v>7290</v>
+      </c>
+      <c r="B702" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D702" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E702" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F702" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A703" s="2">
+        <v>7291</v>
+      </c>
+      <c r="B703" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C703" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D703" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E703" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F703" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A704" s="2">
+        <v>7292</v>
+      </c>
+      <c r="B704" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E704" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F704" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A705" s="2">
+        <v>7293</v>
+      </c>
+      <c r="B705" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C705" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D705" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E705" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F705" s="2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A706" s="2">
+        <v>7294</v>
+      </c>
+      <c r="B706" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D706" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E706" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F706" s="2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A707" s="2">
+        <v>7295</v>
+      </c>
+      <c r="B707" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C707" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D707" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E707" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F707" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A708" s="2">
+        <v>7296</v>
+      </c>
+      <c r="B708" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D708" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E708" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F708" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A709" s="2">
+        <v>7297</v>
+      </c>
+      <c r="B709" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C709" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D709" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E709" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F709" s="2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A710" s="2">
+        <v>7298</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D710" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E710" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F710" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A711" s="2">
+        <v>7299</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C711" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D711" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E711" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F711" s="2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A712" s="2">
+        <v>7300</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D712" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E712" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F712" s="2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A713" s="2">
+        <v>7301</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C713" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D713" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E713" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F713" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A714" s="2">
+        <v>7302</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D714" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E714" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F714" s="2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A715" s="2">
+        <v>7303</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C715" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D715" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E715" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F715" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A716" s="2">
+        <v>7304</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D716" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E716" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F716" s="2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A717" s="2">
+        <v>7305</v>
+      </c>
+      <c r="B717" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C717" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D717" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E717" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F717" s="2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A718" s="2">
+        <v>7306</v>
+      </c>
+      <c r="B718" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C718" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D718" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E718" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F718" s="2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A719" s="2">
+        <v>7307</v>
+      </c>
+      <c r="B719" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C719" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D719" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E719" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F719" s="2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A720" s="2">
+        <v>7308</v>
+      </c>
+      <c r="B720" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C720" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D720" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E720" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F720" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A721" s="2">
+        <v>7309</v>
+      </c>
+      <c r="B721" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C721" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D721" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E721" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F721" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A722" s="2">
+        <v>7310</v>
+      </c>
+      <c r="B722" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C722" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D722" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E722" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F722" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A723" s="2">
+        <v>7311</v>
+      </c>
+      <c r="B723" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C723" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D723" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E723" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F723" s="2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A724" s="2">
+        <v>7312</v>
+      </c>
+      <c r="B724" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C724" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D724" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E724" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F724" s="2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A725" s="2">
+        <v>7313</v>
+      </c>
+      <c r="B725" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C725" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D725" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E725" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F725" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A726" s="2">
+        <v>7314</v>
+      </c>
+      <c r="B726" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D726" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E726" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F726" s="2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A727" s="2">
+        <v>7315</v>
+      </c>
+      <c r="B727" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C727" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D727" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E727" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F727" s="2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A728" s="2">
+        <v>7316</v>
+      </c>
+      <c r="B728" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C728" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D728" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E728" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F728" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A729" s="2">
+        <v>7317</v>
+      </c>
+      <c r="B729" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C729" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D729" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E729" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F729" s="2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A730" s="2">
+        <v>7318</v>
+      </c>
+      <c r="B730" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C730" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D730" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E730" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F730" s="2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A731" s="2">
+        <v>7319</v>
+      </c>
+      <c r="B731" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C731" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D731" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E731" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F731" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A732" s="2">
+        <v>7320</v>
+      </c>
+      <c r="B732" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C732" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D732" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E732" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F732" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A733" s="2">
+        <v>7321</v>
+      </c>
+      <c r="B733" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C733" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D733" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E733" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F733" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A734" s="2">
+        <v>7322</v>
+      </c>
+      <c r="B734" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C734" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D734" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E734" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F734" s="2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A735" s="2">
+        <v>7323</v>
+      </c>
+      <c r="B735" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C735" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D735" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E735" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F735" s="2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A736" s="2">
+        <v>7324</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C736" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D736" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E736" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F736" s="2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A737" s="2">
+        <v>7325</v>
+      </c>
+      <c r="B737" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C737" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D737" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E737" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F737" s="2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A738" s="2">
+        <v>7326</v>
+      </c>
+      <c r="B738" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C738" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D738" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E738" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F738" s="2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A739" s="2">
+        <v>7327</v>
+      </c>
+      <c r="B739" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D739" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E739" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F739" s="2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A740" s="2">
+        <v>7328</v>
+      </c>
+      <c r="B740" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C740" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D740" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E740" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F740" s="2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A741" s="2">
+        <v>7329</v>
+      </c>
+      <c r="B741" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C741" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D741" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E741" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F741" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A742" s="2">
+        <v>7330</v>
+      </c>
+      <c r="B742" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C742" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D742" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E742" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F742" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A743" s="2">
+        <v>7331</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C743" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D743" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E743" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F743" s="2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A744" s="2">
+        <v>7332</v>
+      </c>
+      <c r="B744" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C744" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D744" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E744" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F744" s="2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A745" s="2">
+        <v>7333</v>
+      </c>
+      <c r="B745" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C745" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D745" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E745" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F745" s="2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A746" s="2">
+        <v>7334</v>
+      </c>
+      <c r="B746" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C746" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D746" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E746" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F746" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A747" s="2">
+        <v>7335</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D747" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E747" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F747" s="2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A748" s="2">
+        <v>7336</v>
+      </c>
+      <c r="B748" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C748" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D748" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E748" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F748" s="2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A749" s="2">
+        <v>7337</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D749" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E749" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F749" s="2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A750" s="2">
+        <v>7338</v>
+      </c>
+      <c r="B750" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D750" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E750" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F750" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A751" s="2">
+        <v>7339</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C751" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D751" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E751" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F751" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A752" s="2">
+        <v>7340</v>
+      </c>
+      <c r="B752" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C752" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D752" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E752" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F752" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A753" s="2">
+        <v>7341</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C753" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D753" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E753" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F753" s="2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A754" s="2">
+        <v>7342</v>
+      </c>
+      <c r="B754" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C754" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D754" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E754" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F754" s="2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A755" s="2">
+        <v>7343</v>
+      </c>
+      <c r="B755" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C755" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D755" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E755" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F755" s="2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A756" s="2">
+        <v>7344</v>
+      </c>
+      <c r="B756" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C756" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D756" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E756" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F756" s="2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A757" s="2">
+        <v>7345</v>
+      </c>
+      <c r="B757" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C757" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D757" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E757" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F757" s="2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A758" s="2">
+        <v>7346</v>
+      </c>
+      <c r="B758" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C758" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D758" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E758" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F758" s="2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A759" s="2">
+        <v>7347</v>
+      </c>
+      <c r="B759" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C759" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D759" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E759" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F759" s="2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A760" s="2">
+        <v>7348</v>
+      </c>
+      <c r="B760" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C760" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D760" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E760" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F760" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A761" s="2">
+        <v>7349</v>
+      </c>
+      <c r="B761" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C761" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D761" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E761" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F761" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A762" s="2">
+        <v>7350</v>
+      </c>
+      <c r="B762" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C762" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D762" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E762" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F762" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A763" s="2">
+        <v>7351</v>
+      </c>
+      <c r="B763" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C763" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D763" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E763" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F763" s="2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A764" s="2">
+        <v>7352</v>
+      </c>
+      <c r="B764" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C764" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D764" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E764" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F764" s="2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A765" s="2">
+        <v>7353</v>
+      </c>
+      <c r="B765" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C765" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E765" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F765" s="2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A766" s="2">
+        <v>7354</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E766" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F766" s="2">
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leesangmin\Documents\Unity\RealRealShimCheong\RealRealShimeCheong\Assets\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82362F72-3F37-478D-8856-36CCF83751DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEABED-64EF-4A79-A728-5AF73ACEF75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="533">
   <si>
     <t>NPC</t>
   </si>
@@ -1838,6 +1838,14 @@
   </si>
   <si>
     <t>단서에 대해 향리 댁 부인과 대화를 해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2279,24 +2287,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:F766"/>
+  <dimension ref="A1:F767"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A743" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H762" sqref="H762"/>
+    <sheetView tabSelected="1" topLeftCell="C764" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D767" sqref="D767"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="95.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="11.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="95.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.09765625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>294</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>4999</v>
       </c>
@@ -2336,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>5000</v>
       </c>
@@ -2356,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>5001</v>
       </c>
@@ -2376,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>5002</v>
       </c>
@@ -2396,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5003</v>
       </c>
@@ -2416,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5004</v>
       </c>
@@ -2436,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>5005</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5006</v>
       </c>
@@ -2476,7 +2484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>5007</v>
       </c>
@@ -2496,7 +2504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5010</v>
       </c>
@@ -2516,7 +2524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5011</v>
       </c>
@@ -2536,7 +2544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>5012</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>5013</v>
       </c>
@@ -2576,7 +2584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>5014</v>
       </c>
@@ -2596,7 +2604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>5015</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>5016</v>
       </c>
@@ -2636,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>5017</v>
       </c>
@@ -2656,7 +2664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>5018</v>
       </c>
@@ -2676,7 +2684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>5019</v>
       </c>
@@ -2696,7 +2704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>5020</v>
       </c>
@@ -2716,7 +2724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>5021</v>
       </c>
@@ -2736,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>5022</v>
       </c>
@@ -2756,7 +2764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>5030</v>
       </c>
@@ -2776,7 +2784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>5031</v>
       </c>
@@ -2796,7 +2804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>5032</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>5033</v>
       </c>
@@ -2836,7 +2844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>5034</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>5035</v>
       </c>
@@ -2876,7 +2884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>5036</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>5037</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>5050</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>5051</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>5052</v>
       </c>
@@ -2976,7 +2984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>5053</v>
       </c>
@@ -2996,7 +3004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>5054</v>
       </c>
@@ -3016,7 +3024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>5055</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>5056</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>5057</v>
       </c>
@@ -3076,7 +3084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>5070</v>
       </c>
@@ -3096,7 +3104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>5071</v>
       </c>
@@ -3116,7 +3124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>5072</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>5073</v>
       </c>
@@ -3156,7 +3164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>5074</v>
       </c>
@@ -3176,7 +3184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>5075</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>5076</v>
       </c>
@@ -3216,7 +3224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>5077</v>
       </c>
@@ -3236,7 +3244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>5090</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>5091</v>
       </c>
@@ -3276,7 +3284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>5092</v>
       </c>
@@ -3296,7 +3304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>5093</v>
       </c>
@@ -3316,7 +3324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>5094</v>
       </c>
@@ -3336,7 +3344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>5095</v>
       </c>
@@ -3356,7 +3364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>5096</v>
       </c>
@@ -3376,7 +3384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>5097</v>
       </c>
@@ -3396,7 +3404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>5098</v>
       </c>
@@ -3416,7 +3424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>5099</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>5100</v>
       </c>
@@ -3456,7 +3464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>5110</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>5111</v>
       </c>
@@ -3496,7 +3504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>5112</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>5113</v>
       </c>
@@ -3536,7 +3544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>5114</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>5115</v>
       </c>
@@ -3576,7 +3584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>5116</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>5117</v>
       </c>
@@ -3616,7 +3624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>5130</v>
       </c>
@@ -3636,7 +3644,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>5131</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>5132</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>5133</v>
       </c>
@@ -3696,7 +3704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>5134</v>
       </c>
@@ -3716,7 +3724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>5135</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>5136</v>
       </c>
@@ -3756,7 +3764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>5137</v>
       </c>
@@ -3776,7 +3784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>5138</v>
       </c>
@@ -3796,7 +3804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>5139</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>5140</v>
       </c>
@@ -3836,7 +3844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>5141</v>
       </c>
@@ -3856,7 +3864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>5142</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>5150</v>
       </c>
@@ -3896,7 +3904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>5151</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>5152</v>
       </c>
@@ -3936,7 +3944,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>5153</v>
       </c>
@@ -3956,7 +3964,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>5154</v>
       </c>
@@ -3976,7 +3984,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>5155</v>
       </c>
@@ -3996,7 +4004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>5156</v>
       </c>
@@ -4016,7 +4024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>5157</v>
       </c>
@@ -4036,7 +4044,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>5170</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>5171</v>
       </c>
@@ -4076,7 +4084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>5172</v>
       </c>
@@ -4096,7 +4104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>5173</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>5174</v>
       </c>
@@ -4136,7 +4144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>5175</v>
       </c>
@@ -4156,7 +4164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>5176</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>5177</v>
       </c>
@@ -4196,7 +4204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>5190</v>
       </c>
@@ -4216,7 +4224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>5191</v>
       </c>
@@ -4236,7 +4244,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>5192</v>
       </c>
@@ -4256,7 +4264,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>5193</v>
       </c>
@@ -4276,7 +4284,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>5194</v>
       </c>
@@ -4296,7 +4304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>5195</v>
       </c>
@@ -4316,7 +4324,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>5196</v>
       </c>
@@ -4336,7 +4344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>5197</v>
       </c>
@@ -4356,7 +4364,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>5198</v>
       </c>
@@ -4376,7 +4384,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>5199</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>5210</v>
       </c>
@@ -4416,7 +4424,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>5211</v>
       </c>
@@ -4436,7 +4444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>5212</v>
       </c>
@@ -4456,7 +4464,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>5213</v>
       </c>
@@ -4476,7 +4484,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>5214</v>
       </c>
@@ -4496,7 +4504,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>5215</v>
       </c>
@@ -4516,7 +4524,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>5216</v>
       </c>
@@ -4536,7 +4544,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>5217</v>
       </c>
@@ -4556,7 +4564,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>5218</v>
       </c>
@@ -4576,7 +4584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>5230</v>
       </c>
@@ -4596,7 +4604,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>5231</v>
       </c>
@@ -4616,7 +4624,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>5232</v>
       </c>
@@ -4636,7 +4644,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>5233</v>
       </c>
@@ -4656,7 +4664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>5234</v>
       </c>
@@ -4676,7 +4684,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>5235</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>5236</v>
       </c>
@@ -4716,7 +4724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>5237</v>
       </c>
@@ -4736,7 +4744,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>5250</v>
       </c>
@@ -4756,7 +4764,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>5251</v>
       </c>
@@ -4776,7 +4784,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>5252</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>5253</v>
       </c>
@@ -4816,7 +4824,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>5254</v>
       </c>
@@ -4836,7 +4844,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>5255</v>
       </c>
@@ -4856,7 +4864,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>5256</v>
       </c>
@@ -4876,7 +4884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>5257</v>
       </c>
@@ -4896,7 +4904,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>5270</v>
       </c>
@@ -4916,7 +4924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>5271</v>
       </c>
@@ -4936,7 +4944,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>5272</v>
       </c>
@@ -4956,7 +4964,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>5273</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>5274</v>
       </c>
@@ -4996,7 +5004,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>5275</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>5276</v>
       </c>
@@ -5036,7 +5044,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>5277</v>
       </c>
@@ -5056,7 +5064,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>5290</v>
       </c>
@@ -5076,7 +5084,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>5291</v>
       </c>
@@ -5096,7 +5104,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>5292</v>
       </c>
@@ -5116,7 +5124,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>5293</v>
       </c>
@@ -5136,7 +5144,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>5294</v>
       </c>
@@ -5156,7 +5164,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>5295</v>
       </c>
@@ -5176,7 +5184,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>5296</v>
       </c>
@@ -5196,7 +5204,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>5297</v>
       </c>
@@ -5216,7 +5224,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>5310</v>
       </c>
@@ -5236,7 +5244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>5311</v>
       </c>
@@ -5256,7 +5264,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>5312</v>
       </c>
@@ -5276,7 +5284,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>5313</v>
       </c>
@@ -5296,7 +5304,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>5314</v>
       </c>
@@ -5316,7 +5324,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>5315</v>
       </c>
@@ -5336,7 +5344,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>5316</v>
       </c>
@@ -5356,7 +5364,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>5317</v>
       </c>
@@ -5376,7 +5384,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>5318</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>5319</v>
       </c>
@@ -5416,7 +5424,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>5330</v>
       </c>
@@ -5436,7 +5444,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>5331</v>
       </c>
@@ -5456,7 +5464,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>5332</v>
       </c>
@@ -5476,7 +5484,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>5333</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>5334</v>
       </c>
@@ -5516,7 +5524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>5335</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>5336</v>
       </c>
@@ -5556,7 +5564,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>5337</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>5350</v>
       </c>
@@ -5596,7 +5604,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>5351</v>
       </c>
@@ -5616,7 +5624,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>5352</v>
       </c>
@@ -5636,7 +5644,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>5353</v>
       </c>
@@ -5656,7 +5664,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>5354</v>
       </c>
@@ -5676,7 +5684,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>5355</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>5356</v>
       </c>
@@ -5716,7 +5724,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>5357</v>
       </c>
@@ -5736,7 +5744,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>5358</v>
       </c>
@@ -5756,7 +5764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>5359</v>
       </c>
@@ -5776,7 +5784,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>5360</v>
       </c>
@@ -5796,7 +5804,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>5361</v>
       </c>
@@ -5816,7 +5824,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>5362</v>
       </c>
@@ -5836,7 +5844,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>5363</v>
       </c>
@@ -5856,7 +5864,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>5364</v>
       </c>
@@ -5876,7 +5884,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>5365</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>5366</v>
       </c>
@@ -5916,7 +5924,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>5367</v>
       </c>
@@ -5936,7 +5944,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>5368</v>
       </c>
@@ -5956,7 +5964,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>5370</v>
       </c>
@@ -5976,7 +5984,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>5371</v>
       </c>
@@ -5996,7 +6004,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>5372</v>
       </c>
@@ -6016,7 +6024,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>5373</v>
       </c>
@@ -6036,7 +6044,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>5374</v>
       </c>
@@ -6056,7 +6064,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>5375</v>
       </c>
@@ -6076,7 +6084,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>5376</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>5377</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>5390</v>
       </c>
@@ -6136,7 +6144,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>5391</v>
       </c>
@@ -6156,7 +6164,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>5392</v>
       </c>
@@ -6176,7 +6184,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>5393</v>
       </c>
@@ -6196,7 +6204,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>5394</v>
       </c>
@@ -6216,7 +6224,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>5395</v>
       </c>
@@ -6236,7 +6244,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>5396</v>
       </c>
@@ -6256,7 +6264,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>5397</v>
       </c>
@@ -6276,7 +6284,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>5398</v>
       </c>
@@ -6296,7 +6304,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>5410</v>
       </c>
@@ -6316,7 +6324,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>5411</v>
       </c>
@@ -6336,7 +6344,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>5412</v>
       </c>
@@ -6356,7 +6364,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>5413</v>
       </c>
@@ -6376,7 +6384,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>5414</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>5415</v>
       </c>
@@ -6416,7 +6424,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>5416</v>
       </c>
@@ -6436,7 +6444,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>5417</v>
       </c>
@@ -6456,7 +6464,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>5430</v>
       </c>
@@ -6476,7 +6484,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>5431</v>
       </c>
@@ -6496,7 +6504,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>5432</v>
       </c>
@@ -6516,7 +6524,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>5433</v>
       </c>
@@ -6536,7 +6544,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>5434</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>5435</v>
       </c>
@@ -6576,7 +6584,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>5436</v>
       </c>
@@ -6596,7 +6604,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>5437</v>
       </c>
@@ -6616,7 +6624,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>5438</v>
       </c>
@@ -6636,7 +6644,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>5439</v>
       </c>
@@ -6656,7 +6664,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>5440</v>
       </c>
@@ -6676,7 +6684,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>5441</v>
       </c>
@@ -6696,7 +6704,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>5442</v>
       </c>
@@ -6716,7 +6724,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>5443</v>
       </c>
@@ -6736,7 +6744,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>5450</v>
       </c>
@@ -6756,7 +6764,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>5451</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>5452</v>
       </c>
@@ -6796,7 +6804,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>5453</v>
       </c>
@@ -6816,7 +6824,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>5454</v>
       </c>
@@ -6836,7 +6844,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>5455</v>
       </c>
@@ -6856,7 +6864,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>5456</v>
       </c>
@@ -6876,7 +6884,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>5457</v>
       </c>
@@ -6896,7 +6904,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>5470</v>
       </c>
@@ -6916,7 +6924,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>5471</v>
       </c>
@@ -6936,7 +6944,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>5472</v>
       </c>
@@ -6956,7 +6964,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>5473</v>
       </c>
@@ -6976,7 +6984,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>5474</v>
       </c>
@@ -6996,7 +7004,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>5475</v>
       </c>
@@ -7016,7 +7024,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>5476</v>
       </c>
@@ -7036,7 +7044,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>5477</v>
       </c>
@@ -7056,7 +7064,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>5478</v>
       </c>
@@ -7076,7 +7084,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>5479</v>
       </c>
@@ -7096,7 +7104,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>5480</v>
       </c>
@@ -7116,7 +7124,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>5481</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>5482</v>
       </c>
@@ -7156,7 +7164,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>5483</v>
       </c>
@@ -7176,7 +7184,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>5484</v>
       </c>
@@ -7196,7 +7204,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>5485</v>
       </c>
@@ -7216,7 +7224,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>5486</v>
       </c>
@@ -7236,7 +7244,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>5487</v>
       </c>
@@ -7256,7 +7264,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>5488</v>
       </c>
@@ -7276,7 +7284,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>5489</v>
       </c>
@@ -7296,7 +7304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>5700</v>
       </c>
@@ -7316,7 +7324,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>5701</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>5702</v>
       </c>
@@ -7356,7 +7364,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>5703</v>
       </c>
@@ -7376,7 +7384,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>5704</v>
       </c>
@@ -7396,7 +7404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>5705</v>
       </c>
@@ -7416,7 +7424,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>5706</v>
       </c>
@@ -7436,7 +7444,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>5707</v>
       </c>
@@ -7456,7 +7464,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>5708</v>
       </c>
@@ -7476,7 +7484,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>5709</v>
       </c>
@@ -7496,7 +7504,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>5710</v>
       </c>
@@ -7516,7 +7524,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>5711</v>
       </c>
@@ -7536,7 +7544,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>5712</v>
       </c>
@@ -7556,7 +7564,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>5713</v>
       </c>
@@ -7576,7 +7584,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>5714</v>
       </c>
@@ -7596,7 +7604,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>5715</v>
       </c>
@@ -7616,7 +7624,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>5716</v>
       </c>
@@ -7636,7 +7644,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>5717</v>
       </c>
@@ -7656,7 +7664,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>5718</v>
       </c>
@@ -7676,7 +7684,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>5719</v>
       </c>
@@ -7696,7 +7704,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>5720</v>
       </c>
@@ -7716,7 +7724,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>5721</v>
       </c>
@@ -7736,7 +7744,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>5722</v>
       </c>
@@ -7756,7 +7764,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>5723</v>
       </c>
@@ -7776,7 +7784,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>5724</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>5725</v>
       </c>
@@ -7816,7 +7824,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>5726</v>
       </c>
@@ -7836,7 +7844,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>5727</v>
       </c>
@@ -7856,7 +7864,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>5728</v>
       </c>
@@ -7876,7 +7884,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>5729</v>
       </c>
@@ -7896,7 +7904,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>5730</v>
       </c>
@@ -7916,7 +7924,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>5731</v>
       </c>
@@ -7936,7 +7944,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>5732</v>
       </c>
@@ -7956,7 +7964,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>5733</v>
       </c>
@@ -7976,7 +7984,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>5734</v>
       </c>
@@ -7996,7 +8004,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>5735</v>
       </c>
@@ -8016,7 +8024,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>5736</v>
       </c>
@@ -8036,7 +8044,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>5737</v>
       </c>
@@ -8056,7 +8064,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>5738</v>
       </c>
@@ -8076,7 +8084,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>5739</v>
       </c>
@@ -8096,7 +8104,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>5740</v>
       </c>
@@ -8116,7 +8124,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>5741</v>
       </c>
@@ -8136,7 +8144,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>5742</v>
       </c>
@@ -8156,7 +8164,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>5743</v>
       </c>
@@ -8176,7 +8184,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>5744</v>
       </c>
@@ -8196,7 +8204,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>5745</v>
       </c>
@@ -8216,7 +8224,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>5746</v>
       </c>
@@ -8236,7 +8244,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>5747</v>
       </c>
@@ -8256,7 +8264,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>5748</v>
       </c>
@@ -8276,7 +8284,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>5749</v>
       </c>
@@ -8296,7 +8304,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>5750</v>
       </c>
@@ -8316,7 +8324,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>5751</v>
       </c>
@@ -8336,7 +8344,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>5752</v>
       </c>
@@ -8356,7 +8364,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>5753</v>
       </c>
@@ -8376,7 +8384,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>5754</v>
       </c>
@@ -8396,7 +8404,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>5755</v>
       </c>
@@ -8416,7 +8424,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>5756</v>
       </c>
@@ -8436,7 +8444,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>5757</v>
       </c>
@@ -8456,7 +8464,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>5758</v>
       </c>
@@ -8476,7 +8484,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>5759</v>
       </c>
@@ -8496,7 +8504,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>5760</v>
       </c>
@@ -8516,7 +8524,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>5761</v>
       </c>
@@ -8536,7 +8544,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>5762</v>
       </c>
@@ -8556,7 +8564,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>5763</v>
       </c>
@@ -8576,7 +8584,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>5764</v>
       </c>
@@ -8596,7 +8604,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>5765</v>
       </c>
@@ -8616,7 +8624,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>5766</v>
       </c>
@@ -8636,7 +8644,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>5767</v>
       </c>
@@ -8656,7 +8664,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>5768</v>
       </c>
@@ -8676,7 +8684,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>5769</v>
       </c>
@@ -8696,7 +8704,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>5770</v>
       </c>
@@ -8716,7 +8724,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>5771</v>
       </c>
@@ -8736,7 +8744,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>5772</v>
       </c>
@@ -8756,7 +8764,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>5773</v>
       </c>
@@ -8776,7 +8784,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>5774</v>
       </c>
@@ -8796,7 +8804,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>5775</v>
       </c>
@@ -8816,7 +8824,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>5776</v>
       </c>
@@ -8836,7 +8844,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>5777</v>
       </c>
@@ -8856,7 +8864,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>5778</v>
       </c>
@@ -8876,7 +8884,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>5779</v>
       </c>
@@ -8896,7 +8904,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>5780</v>
       </c>
@@ -8916,7 +8924,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>5781</v>
       </c>
@@ -8936,7 +8944,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>5782</v>
       </c>
@@ -8956,7 +8964,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>5783</v>
       </c>
@@ -8976,7 +8984,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>5784</v>
       </c>
@@ -8996,7 +9004,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>5785</v>
       </c>
@@ -9016,7 +9024,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>5786</v>
       </c>
@@ -9036,7 +9044,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>5787</v>
       </c>
@@ -9056,7 +9064,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>5788</v>
       </c>
@@ -9076,7 +9084,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>5789</v>
       </c>
@@ -9096,7 +9104,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>5790</v>
       </c>
@@ -9116,7 +9124,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>5791</v>
       </c>
@@ -9136,7 +9144,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>5792</v>
       </c>
@@ -9156,7 +9164,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>5793</v>
       </c>
@@ -9176,7 +9184,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>5794</v>
       </c>
@@ -9196,7 +9204,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>5795</v>
       </c>
@@ -9216,7 +9224,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>5796</v>
       </c>
@@ -9236,7 +9244,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>5797</v>
       </c>
@@ -9256,7 +9264,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>5798</v>
       </c>
@@ -9276,7 +9284,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>5799</v>
       </c>
@@ -9296,7 +9304,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>6010</v>
       </c>
@@ -9316,7 +9324,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>6011</v>
       </c>
@@ -9336,7 +9344,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>6012</v>
       </c>
@@ -9356,7 +9364,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>6013</v>
       </c>
@@ -9376,7 +9384,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>6014</v>
       </c>
@@ -9396,7 +9404,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>6015</v>
       </c>
@@ -9416,7 +9424,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>6016</v>
       </c>
@@ -9436,7 +9444,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>6017</v>
       </c>
@@ -9456,7 +9464,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>6030</v>
       </c>
@@ -9476,7 +9484,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>6031</v>
       </c>
@@ -9496,7 +9504,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>6032</v>
       </c>
@@ -9516,7 +9524,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>6033</v>
       </c>
@@ -9536,7 +9544,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>6034</v>
       </c>
@@ -9556,7 +9564,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>6035</v>
       </c>
@@ -9576,7 +9584,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>6036</v>
       </c>
@@ -9596,7 +9604,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>6037</v>
       </c>
@@ -9616,7 +9624,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>6050</v>
       </c>
@@ -9636,7 +9644,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>6051</v>
       </c>
@@ -9656,7 +9664,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>6052</v>
       </c>
@@ -9676,7 +9684,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>6053</v>
       </c>
@@ -9696,7 +9704,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>6054</v>
       </c>
@@ -9716,7 +9724,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>6055</v>
       </c>
@@ -9736,7 +9744,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>6056</v>
       </c>
@@ -9756,7 +9764,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>6057</v>
       </c>
@@ -9776,7 +9784,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>6070</v>
       </c>
@@ -9796,7 +9804,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>6071</v>
       </c>
@@ -9816,7 +9824,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>6072</v>
       </c>
@@ -9836,7 +9844,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>6073</v>
       </c>
@@ -9856,7 +9864,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>6074</v>
       </c>
@@ -9876,7 +9884,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>6075</v>
       </c>
@@ -9896,7 +9904,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>6076</v>
       </c>
@@ -9916,7 +9924,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>6077</v>
       </c>
@@ -9936,7 +9944,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>6090</v>
       </c>
@@ -9956,7 +9964,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>6091</v>
       </c>
@@ -9976,7 +9984,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>6092</v>
       </c>
@@ -9996,7 +10004,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>6093</v>
       </c>
@@ -10016,7 +10024,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>6094</v>
       </c>
@@ -10036,7 +10044,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>6095</v>
       </c>
@@ -10056,7 +10064,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>6096</v>
       </c>
@@ -10076,7 +10084,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>6097</v>
       </c>
@@ -10096,7 +10104,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>6098</v>
       </c>
@@ -10116,7 +10124,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>6099</v>
       </c>
@@ -10136,7 +10144,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>6110</v>
       </c>
@@ -10156,7 +10164,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>6111</v>
       </c>
@@ -10176,7 +10184,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>6112</v>
       </c>
@@ -10196,7 +10204,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>6113</v>
       </c>
@@ -10216,7 +10224,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>6114</v>
       </c>
@@ -10236,7 +10244,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>6115</v>
       </c>
@@ -10256,7 +10264,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>6116</v>
       </c>
@@ -10276,7 +10284,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>6117</v>
       </c>
@@ -10296,7 +10304,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>6500</v>
       </c>
@@ -10316,7 +10324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>6501</v>
       </c>
@@ -10336,7 +10344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>6502</v>
       </c>
@@ -10356,7 +10364,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>6503</v>
       </c>
@@ -10376,7 +10384,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>6504</v>
       </c>
@@ -10396,7 +10404,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>6505</v>
       </c>
@@ -10416,7 +10424,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>6506</v>
       </c>
@@ -10436,7 +10444,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>6507</v>
       </c>
@@ -10456,7 +10464,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>6508</v>
       </c>
@@ -10476,7 +10484,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>6509</v>
       </c>
@@ -10496,7 +10504,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>6510</v>
       </c>
@@ -10516,7 +10524,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <v>7000</v>
       </c>
@@ -10536,7 +10544,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>7001</v>
       </c>
@@ -10556,7 +10564,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>7002</v>
       </c>
@@ -10576,7 +10584,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>7003</v>
       </c>
@@ -10596,7 +10604,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>7004</v>
       </c>
@@ -10616,7 +10624,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>7005</v>
       </c>
@@ -10636,7 +10644,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>7006</v>
       </c>
@@ -10656,7 +10664,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <v>7007</v>
       </c>
@@ -10676,7 +10684,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>7008</v>
       </c>
@@ -10696,7 +10704,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>7009</v>
       </c>
@@ -10716,7 +10724,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>7010</v>
       </c>
@@ -10736,7 +10744,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>7011</v>
       </c>
@@ -10756,7 +10764,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>7012</v>
       </c>
@@ -10776,7 +10784,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>7013</v>
       </c>
@@ -10796,7 +10804,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>7014</v>
       </c>
@@ -10816,7 +10824,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>7015</v>
       </c>
@@ -10836,7 +10844,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>7016</v>
       </c>
@@ -10856,7 +10864,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>7017</v>
       </c>
@@ -10876,7 +10884,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>7018</v>
       </c>
@@ -10896,7 +10904,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>7019</v>
       </c>
@@ -10916,7 +10924,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>7020</v>
       </c>
@@ -10936,7 +10944,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>7021</v>
       </c>
@@ -10956,7 +10964,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>7022</v>
       </c>
@@ -10976,7 +10984,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>7023</v>
       </c>
@@ -10996,7 +11004,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <v>7024</v>
       </c>
@@ -11016,7 +11024,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <v>7025</v>
       </c>
@@ -11036,7 +11044,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>7026</v>
       </c>
@@ -11056,7 +11064,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>7027</v>
       </c>
@@ -11076,7 +11084,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>7028</v>
       </c>
@@ -11096,7 +11104,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>7029</v>
       </c>
@@ -11116,7 +11124,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>7030</v>
       </c>
@@ -11136,7 +11144,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>7031</v>
       </c>
@@ -11156,7 +11164,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>7032</v>
       </c>
@@ -11176,7 +11184,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>7033</v>
       </c>
@@ -11196,7 +11204,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>7034</v>
       </c>
@@ -11216,7 +11224,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>7035</v>
       </c>
@@ -11236,7 +11244,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>7036</v>
       </c>
@@ -11256,7 +11264,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>7037</v>
       </c>
@@ -11276,7 +11284,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>7038</v>
       </c>
@@ -11296,7 +11304,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>7039</v>
       </c>
@@ -11316,7 +11324,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>7040</v>
       </c>
@@ -11336,7 +11344,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>7041</v>
       </c>
@@ -11356,7 +11364,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <v>7042</v>
       </c>
@@ -11376,7 +11384,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <v>7043</v>
       </c>
@@ -11396,7 +11404,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <v>7044</v>
       </c>
@@ -11416,7 +11424,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>7045</v>
       </c>
@@ -11436,7 +11444,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>7046</v>
       </c>
@@ -11456,7 +11464,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>7047</v>
       </c>
@@ -11476,7 +11484,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>7048</v>
       </c>
@@ -11496,7 +11504,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>7049</v>
       </c>
@@ -11516,7 +11524,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>7050</v>
       </c>
@@ -11536,7 +11544,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>7051</v>
       </c>
@@ -11556,7 +11564,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <v>7052</v>
       </c>
@@ -11576,7 +11584,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>7053</v>
       </c>
@@ -11596,7 +11604,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>7054</v>
       </c>
@@ -11616,7 +11624,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>7055</v>
       </c>
@@ -11636,7 +11644,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>7056</v>
       </c>
@@ -11656,7 +11664,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>7057</v>
       </c>
@@ -11676,7 +11684,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>7058</v>
       </c>
@@ -11696,7 +11704,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>7059</v>
       </c>
@@ -11716,7 +11724,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>7060</v>
       </c>
@@ -11736,7 +11744,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>7061</v>
       </c>
@@ -11756,7 +11764,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>7062</v>
       </c>
@@ -11776,7 +11784,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <v>7063</v>
       </c>
@@ -11796,7 +11804,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>7064</v>
       </c>
@@ -11816,7 +11824,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>7065</v>
       </c>
@@ -11836,7 +11844,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>7066</v>
       </c>
@@ -11856,7 +11864,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <v>7067</v>
       </c>
@@ -11876,7 +11884,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>7068</v>
       </c>
@@ -11896,7 +11904,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <v>7069</v>
       </c>
@@ -11916,7 +11924,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>7070</v>
       </c>
@@ -11936,7 +11944,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <v>7071</v>
       </c>
@@ -11956,7 +11964,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>7072</v>
       </c>
@@ -11976,7 +11984,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>7073</v>
       </c>
@@ -11996,7 +12004,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <v>7074</v>
       </c>
@@ -12016,7 +12024,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <v>7075</v>
       </c>
@@ -12036,7 +12044,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <v>7076</v>
       </c>
@@ -12056,7 +12064,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <v>7077</v>
       </c>
@@ -12076,7 +12084,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <v>7078</v>
       </c>
@@ -12096,7 +12104,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <v>7079</v>
       </c>
@@ -12116,7 +12124,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <v>7080</v>
       </c>
@@ -12136,7 +12144,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <v>7081</v>
       </c>
@@ -12156,7 +12164,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <v>7082</v>
       </c>
@@ -12176,7 +12184,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <v>7083</v>
       </c>
@@ -12196,7 +12204,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <v>7084</v>
       </c>
@@ -12216,7 +12224,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <v>7085</v>
       </c>
@@ -12236,7 +12244,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>7086</v>
       </c>
@@ -12256,7 +12264,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <v>7087</v>
       </c>
@@ -12276,7 +12284,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <v>7088</v>
       </c>
@@ -12296,7 +12304,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <v>7089</v>
       </c>
@@ -12316,7 +12324,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <v>7090</v>
       </c>
@@ -12336,7 +12344,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <v>7091</v>
       </c>
@@ -12356,7 +12364,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <v>7092</v>
       </c>
@@ -12376,7 +12384,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <v>7093</v>
       </c>
@@ -12396,7 +12404,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <v>7094</v>
       </c>
@@ -12416,7 +12424,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <v>7095</v>
       </c>
@@ -12436,7 +12444,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <v>7096</v>
       </c>
@@ -12456,7 +12464,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <v>7097</v>
       </c>
@@ -12476,7 +12484,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <v>7098</v>
       </c>
@@ -12496,7 +12504,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <v>7099</v>
       </c>
@@ -12516,7 +12524,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <v>7100</v>
       </c>
@@ -12536,7 +12544,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <v>7101</v>
       </c>
@@ -12556,7 +12564,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <v>7102</v>
       </c>
@@ -12576,7 +12584,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <v>7103</v>
       </c>
@@ -12596,7 +12604,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <v>7104</v>
       </c>
@@ -12616,7 +12624,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <v>7105</v>
       </c>
@@ -12636,7 +12644,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <v>7106</v>
       </c>
@@ -12656,7 +12664,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <v>7107</v>
       </c>
@@ -12676,7 +12684,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <v>7108</v>
       </c>
@@ -12696,7 +12704,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <v>7109</v>
       </c>
@@ -12716,7 +12724,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <v>7110</v>
       </c>
@@ -12736,7 +12744,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <v>7111</v>
       </c>
@@ -12756,7 +12764,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <v>7112</v>
       </c>
@@ -12776,7 +12784,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <v>7113</v>
       </c>
@@ -12796,7 +12804,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <v>7114</v>
       </c>
@@ -12816,7 +12824,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <v>7115</v>
       </c>
@@ -12836,7 +12844,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <v>7116</v>
       </c>
@@ -12856,7 +12864,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <v>7117</v>
       </c>
@@ -12876,7 +12884,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <v>7118</v>
       </c>
@@ -12896,7 +12904,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <v>7119</v>
       </c>
@@ -12916,7 +12924,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <v>7120</v>
       </c>
@@ -12936,7 +12944,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <v>7121</v>
       </c>
@@ -12956,7 +12964,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <v>7122</v>
       </c>
@@ -12976,7 +12984,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <v>7123</v>
       </c>
@@ -12996,7 +13004,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <v>7124</v>
       </c>
@@ -13016,7 +13024,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <v>7125</v>
       </c>
@@ -13036,7 +13044,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <v>7126</v>
       </c>
@@ -13056,7 +13064,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <v>7127</v>
       </c>
@@ -13076,7 +13084,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <v>7128</v>
       </c>
@@ -13096,7 +13104,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <v>7129</v>
       </c>
@@ -13116,7 +13124,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <v>7130</v>
       </c>
@@ -13136,7 +13144,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <v>7131</v>
       </c>
@@ -13156,7 +13164,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <v>7132</v>
       </c>
@@ -13176,7 +13184,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <v>7133</v>
       </c>
@@ -13196,7 +13204,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <v>7134</v>
       </c>
@@ -13216,7 +13224,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <v>7135</v>
       </c>
@@ -13236,7 +13244,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <v>7136</v>
       </c>
@@ -13256,7 +13264,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549" s="2">
         <v>7137</v>
       </c>
@@ -13276,7 +13284,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <v>7138</v>
       </c>
@@ -13296,7 +13304,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <v>7139</v>
       </c>
@@ -13316,7 +13324,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552" s="2">
         <v>7140</v>
       </c>
@@ -13336,7 +13344,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553" s="2">
         <v>7141</v>
       </c>
@@ -13356,7 +13364,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
         <v>7142</v>
       </c>
@@ -13376,7 +13384,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555" s="2">
         <v>7143</v>
       </c>
@@ -13396,7 +13404,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556" s="2">
         <v>7144</v>
       </c>
@@ -13416,7 +13424,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557" s="2">
         <v>7145</v>
       </c>
@@ -13436,7 +13444,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558" s="2">
         <v>7146</v>
       </c>
@@ -13456,7 +13464,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559" s="2">
         <v>7147</v>
       </c>
@@ -13476,7 +13484,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560" s="2">
         <v>7148</v>
       </c>
@@ -13496,7 +13504,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561" s="2">
         <v>7149</v>
       </c>
@@ -13516,7 +13524,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562" s="2">
         <v>7150</v>
       </c>
@@ -13536,7 +13544,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563" s="2">
         <v>7151</v>
       </c>
@@ -13556,7 +13564,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564" s="2">
         <v>7152</v>
       </c>
@@ -13576,7 +13584,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565" s="2">
         <v>7153</v>
       </c>
@@ -13596,7 +13604,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566" s="2">
         <v>7154</v>
       </c>
@@ -13616,7 +13624,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567" s="2">
         <v>7155</v>
       </c>
@@ -13636,7 +13644,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568" s="2">
         <v>7156</v>
       </c>
@@ -13656,7 +13664,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569" s="2">
         <v>7157</v>
       </c>
@@ -13676,7 +13684,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570" s="2">
         <v>7158</v>
       </c>
@@ -13696,7 +13704,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571" s="2">
         <v>7159</v>
       </c>
@@ -13716,7 +13724,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
         <v>7160</v>
       </c>
@@ -13736,7 +13744,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573" s="2">
         <v>7161</v>
       </c>
@@ -13756,7 +13764,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574" s="2">
         <v>7162</v>
       </c>
@@ -13776,7 +13784,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575" s="2">
         <v>7163</v>
       </c>
@@ -13796,7 +13804,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576" s="2">
         <v>7164</v>
       </c>
@@ -13816,7 +13824,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577" s="2">
         <v>7165</v>
       </c>
@@ -13836,7 +13844,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578" s="2">
         <v>7166</v>
       </c>
@@ -13856,7 +13864,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579" s="2">
         <v>7167</v>
       </c>
@@ -13876,7 +13884,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580" s="2">
         <v>7168</v>
       </c>
@@ -13896,7 +13904,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581" s="2">
         <v>7169</v>
       </c>
@@ -13916,7 +13924,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582" s="2">
         <v>7170</v>
       </c>
@@ -13936,7 +13944,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583" s="2">
         <v>7171</v>
       </c>
@@ -13956,7 +13964,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584" s="2">
         <v>7172</v>
       </c>
@@ -13976,7 +13984,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585" s="2">
         <v>7173</v>
       </c>
@@ -13996,7 +14004,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586" s="2">
         <v>7174</v>
       </c>
@@ -14016,7 +14024,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587" s="2">
         <v>7175</v>
       </c>
@@ -14036,7 +14044,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588" s="2">
         <v>7176</v>
       </c>
@@ -14056,7 +14064,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589" s="2">
         <v>7177</v>
       </c>
@@ -14076,7 +14084,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590" s="2">
         <v>7178</v>
       </c>
@@ -14096,7 +14104,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591" s="2">
         <v>7179</v>
       </c>
@@ -14116,7 +14124,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592" s="2">
         <v>7180</v>
       </c>
@@ -14136,7 +14144,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593" s="2">
         <v>7181</v>
       </c>
@@ -14156,7 +14164,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594" s="2">
         <v>7182</v>
       </c>
@@ -14176,7 +14184,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595" s="2">
         <v>7183</v>
       </c>
@@ -14196,7 +14204,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596" s="2">
         <v>7184</v>
       </c>
@@ -14216,7 +14224,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597" s="2">
         <v>7185</v>
       </c>
@@ -14236,7 +14244,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598" s="2">
         <v>7186</v>
       </c>
@@ -14256,7 +14264,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599" s="2">
         <v>7187</v>
       </c>
@@ -14276,7 +14284,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600" s="2">
         <v>7188</v>
       </c>
@@ -14296,7 +14304,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601" s="2">
         <v>7189</v>
       </c>
@@ -14316,7 +14324,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602" s="2">
         <v>7190</v>
       </c>
@@ -14336,7 +14344,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603" s="2">
         <v>7191</v>
       </c>
@@ -14356,7 +14364,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604" s="2">
         <v>7192</v>
       </c>
@@ -14376,7 +14384,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605" s="2">
         <v>7193</v>
       </c>
@@ -14396,7 +14404,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606" s="2">
         <v>7194</v>
       </c>
@@ -14416,7 +14424,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607" s="2">
         <v>7195</v>
       </c>
@@ -14436,7 +14444,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608" s="2">
         <v>7196</v>
       </c>
@@ -14456,7 +14464,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609" s="2">
         <v>7197</v>
       </c>
@@ -14476,7 +14484,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610" s="2">
         <v>7198</v>
       </c>
@@ -14496,7 +14504,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611" s="2">
         <v>7199</v>
       </c>
@@ -14516,7 +14524,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612" s="2">
         <v>7200</v>
       </c>
@@ -14536,7 +14544,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613" s="2">
         <v>7201</v>
       </c>
@@ -14556,7 +14564,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614" s="2">
         <v>7202</v>
       </c>
@@ -14576,7 +14584,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615" s="2">
         <v>7203</v>
       </c>
@@ -14596,7 +14604,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616" s="2">
         <v>7204</v>
       </c>
@@ -14616,7 +14624,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617" s="2">
         <v>7205</v>
       </c>
@@ -14636,7 +14644,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618" s="2">
         <v>7206</v>
       </c>
@@ -14656,7 +14664,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619" s="2">
         <v>7207</v>
       </c>
@@ -14676,7 +14684,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620" s="2">
         <v>7208</v>
       </c>
@@ -14696,7 +14704,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621" s="2">
         <v>7209</v>
       </c>
@@ -14716,7 +14724,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622" s="2">
         <v>7210</v>
       </c>
@@ -14736,7 +14744,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623" s="2">
         <v>7211</v>
       </c>
@@ -14756,7 +14764,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624" s="2">
         <v>7212</v>
       </c>
@@ -14776,7 +14784,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625" s="2">
         <v>7213</v>
       </c>
@@ -14796,7 +14804,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626" s="2">
         <v>7214</v>
       </c>
@@ -14816,7 +14824,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627" s="2">
         <v>7215</v>
       </c>
@@ -14836,7 +14844,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628" s="2">
         <v>7216</v>
       </c>
@@ -14856,7 +14864,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629" s="2">
         <v>7217</v>
       </c>
@@ -14876,7 +14884,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630" s="2">
         <v>7218</v>
       </c>
@@ -14896,7 +14904,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631" s="2">
         <v>7219</v>
       </c>
@@ -14916,7 +14924,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632" s="2">
         <v>7220</v>
       </c>
@@ -14936,7 +14944,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633" s="2">
         <v>7221</v>
       </c>
@@ -14956,7 +14964,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634" s="2">
         <v>7222</v>
       </c>
@@ -14976,7 +14984,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635" s="2">
         <v>7223</v>
       </c>
@@ -14996,7 +15004,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636" s="2">
         <v>7224</v>
       </c>
@@ -15016,7 +15024,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637" s="2">
         <v>7225</v>
       </c>
@@ -15036,7 +15044,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638" s="2">
         <v>7226</v>
       </c>
@@ -15056,7 +15064,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639" s="2">
         <v>7227</v>
       </c>
@@ -15076,7 +15084,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640" s="2">
         <v>7228</v>
       </c>
@@ -15096,7 +15104,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641" s="2">
         <v>7229</v>
       </c>
@@ -15116,7 +15124,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642" s="2">
         <v>7230</v>
       </c>
@@ -15136,7 +15144,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643" s="2">
         <v>7231</v>
       </c>
@@ -15156,7 +15164,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644" s="2">
         <v>7232</v>
       </c>
@@ -15176,7 +15184,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645" s="2">
         <v>7233</v>
       </c>
@@ -15196,7 +15204,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646" s="2">
         <v>7234</v>
       </c>
@@ -15216,7 +15224,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647" s="2">
         <v>7235</v>
       </c>
@@ -15236,7 +15244,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648" s="2">
         <v>7236</v>
       </c>
@@ -15256,7 +15264,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649" s="2">
         <v>7237</v>
       </c>
@@ -15276,7 +15284,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650" s="2">
         <v>7238</v>
       </c>
@@ -15296,7 +15304,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651" s="2">
         <v>7239</v>
       </c>
@@ -15316,7 +15324,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652" s="2">
         <v>7240</v>
       </c>
@@ -15336,7 +15344,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653" s="2">
         <v>7241</v>
       </c>
@@ -15356,7 +15364,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654" s="2">
         <v>7242</v>
       </c>
@@ -15376,7 +15384,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655" s="2">
         <v>7243</v>
       </c>
@@ -15396,7 +15404,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656" s="2">
         <v>7244</v>
       </c>
@@ -15416,7 +15424,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657" s="2">
         <v>7245</v>
       </c>
@@ -15436,7 +15444,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658" s="2">
         <v>7246</v>
       </c>
@@ -15456,7 +15464,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659" s="2">
         <v>7247</v>
       </c>
@@ -15476,7 +15484,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660" s="2">
         <v>7248</v>
       </c>
@@ -15496,7 +15504,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661" s="2">
         <v>7249</v>
       </c>
@@ -15516,7 +15524,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662" s="2">
         <v>7250</v>
       </c>
@@ -15536,7 +15544,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663" s="2">
         <v>7251</v>
       </c>
@@ -15556,7 +15564,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664" s="2">
         <v>7252</v>
       </c>
@@ -15576,7 +15584,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665" s="2">
         <v>7253</v>
       </c>
@@ -15596,7 +15604,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666" s="2">
         <v>7254</v>
       </c>
@@ -15616,7 +15624,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667" s="2">
         <v>7255</v>
       </c>
@@ -15636,7 +15644,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668" s="2">
         <v>7256</v>
       </c>
@@ -15656,7 +15664,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669" s="2">
         <v>7257</v>
       </c>
@@ -15676,7 +15684,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670" s="2">
         <v>7258</v>
       </c>
@@ -15696,7 +15704,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671" s="2">
         <v>7259</v>
       </c>
@@ -15716,7 +15724,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672" s="2">
         <v>7260</v>
       </c>
@@ -15736,7 +15744,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673" s="2">
         <v>7261</v>
       </c>
@@ -15756,7 +15764,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674" s="2">
         <v>7262</v>
       </c>
@@ -15776,7 +15784,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675" s="2">
         <v>7263</v>
       </c>
@@ -15796,7 +15804,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676" s="2">
         <v>7264</v>
       </c>
@@ -15816,7 +15824,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677" s="2">
         <v>7265</v>
       </c>
@@ -15836,7 +15844,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678" s="2">
         <v>7266</v>
       </c>
@@ -15856,7 +15864,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679" s="2">
         <v>7267</v>
       </c>
@@ -15876,7 +15884,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680" s="2">
         <v>7268</v>
       </c>
@@ -15896,7 +15904,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681" s="2">
         <v>7269</v>
       </c>
@@ -15916,7 +15924,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682" s="2">
         <v>7270</v>
       </c>
@@ -15936,7 +15944,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683" s="2">
         <v>7271</v>
       </c>
@@ -15956,7 +15964,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684" s="2">
         <v>7272</v>
       </c>
@@ -15976,7 +15984,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685" s="2">
         <v>7273</v>
       </c>
@@ -15996,7 +16004,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686" s="2">
         <v>7274</v>
       </c>
@@ -16016,7 +16024,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687" s="2">
         <v>7275</v>
       </c>
@@ -16036,7 +16044,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688" s="2">
         <v>7276</v>
       </c>
@@ -16056,7 +16064,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689" s="2">
         <v>7277</v>
       </c>
@@ -16076,7 +16084,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690" s="2">
         <v>7278</v>
       </c>
@@ -16096,7 +16104,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691" s="2">
         <v>7279</v>
       </c>
@@ -16116,7 +16124,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692" s="2">
         <v>7280</v>
       </c>
@@ -16136,7 +16144,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693" s="2">
         <v>7281</v>
       </c>
@@ -16156,7 +16164,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694" s="2">
         <v>7282</v>
       </c>
@@ -16176,7 +16184,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695" s="2">
         <v>7283</v>
       </c>
@@ -16196,7 +16204,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696" s="2">
         <v>7284</v>
       </c>
@@ -16216,7 +16224,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697" s="2">
         <v>7285</v>
       </c>
@@ -16236,7 +16244,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698" s="2">
         <v>7286</v>
       </c>
@@ -16256,7 +16264,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699" s="2">
         <v>7287</v>
       </c>
@@ -16276,7 +16284,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700" s="2">
         <v>7288</v>
       </c>
@@ -16296,7 +16304,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701" s="2">
         <v>7289</v>
       </c>
@@ -16316,7 +16324,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702" s="2">
         <v>7290</v>
       </c>
@@ -16336,7 +16344,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703" s="2">
         <v>7291</v>
       </c>
@@ -16356,7 +16364,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704" s="2">
         <v>7292</v>
       </c>
@@ -16376,7 +16384,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705" s="2">
         <v>7293</v>
       </c>
@@ -16396,7 +16404,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706" s="2">
         <v>7294</v>
       </c>
@@ -16416,7 +16424,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707" s="2">
         <v>7295</v>
       </c>
@@ -16436,7 +16444,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708" s="2">
         <v>7296</v>
       </c>
@@ -16456,7 +16464,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709" s="2">
         <v>7297</v>
       </c>
@@ -16476,7 +16484,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710" s="2">
         <v>7298</v>
       </c>
@@ -16496,7 +16504,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711" s="2">
         <v>7299</v>
       </c>
@@ -16516,7 +16524,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712" s="2">
         <v>7300</v>
       </c>
@@ -16536,7 +16544,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713" s="2">
         <v>7301</v>
       </c>
@@ -16556,7 +16564,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714" s="2">
         <v>7302</v>
       </c>
@@ -16576,7 +16584,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715" s="2">
         <v>7303</v>
       </c>
@@ -16596,7 +16604,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716" s="2">
         <v>7304</v>
       </c>
@@ -16616,7 +16624,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717" s="2">
         <v>7305</v>
       </c>
@@ -16636,7 +16644,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718" s="2">
         <v>7306</v>
       </c>
@@ -16656,7 +16664,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719" s="2">
         <v>7307</v>
       </c>
@@ -16676,7 +16684,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720" s="2">
         <v>7308</v>
       </c>
@@ -16696,7 +16704,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721" s="2">
         <v>7309</v>
       </c>
@@ -16716,7 +16724,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722" s="2">
         <v>7310</v>
       </c>
@@ -16736,7 +16744,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723" s="2">
         <v>7311</v>
       </c>
@@ -16756,7 +16764,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724" s="2">
         <v>7312</v>
       </c>
@@ -16776,7 +16784,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725" s="2">
         <v>7313</v>
       </c>
@@ -16796,7 +16804,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726" s="2">
         <v>7314</v>
       </c>
@@ -16816,7 +16824,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727" s="2">
         <v>7315</v>
       </c>
@@ -16836,7 +16844,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728" s="2">
         <v>7316</v>
       </c>
@@ -16856,7 +16864,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729" s="2">
         <v>7317</v>
       </c>
@@ -16876,7 +16884,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730" s="2">
         <v>7318</v>
       </c>
@@ -16896,7 +16904,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731" s="2">
         <v>7319</v>
       </c>
@@ -16916,7 +16924,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732" s="2">
         <v>7320</v>
       </c>
@@ -16936,7 +16944,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733" s="2">
         <v>7321</v>
       </c>
@@ -16956,7 +16964,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734" s="2">
         <v>7322</v>
       </c>
@@ -16976,7 +16984,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735" s="2">
         <v>7323</v>
       </c>
@@ -16996,7 +17004,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736" s="2">
         <v>7324</v>
       </c>
@@ -17016,7 +17024,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737" s="2">
         <v>7325</v>
       </c>
@@ -17036,7 +17044,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738" s="2">
         <v>7326</v>
       </c>
@@ -17056,7 +17064,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739" s="2">
         <v>7327</v>
       </c>
@@ -17076,7 +17084,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740" s="2">
         <v>7328</v>
       </c>
@@ -17096,7 +17104,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741" s="2">
         <v>7329</v>
       </c>
@@ -17116,7 +17124,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742" s="2">
         <v>7330</v>
       </c>
@@ -17136,7 +17144,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A743" s="2">
         <v>7331</v>
       </c>
@@ -17156,7 +17164,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A744" s="2">
         <v>7332</v>
       </c>
@@ -17176,7 +17184,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A745" s="2">
         <v>7333</v>
       </c>
@@ -17196,7 +17204,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A746" s="2">
         <v>7334</v>
       </c>
@@ -17216,7 +17224,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A747" s="2">
         <v>7335</v>
       </c>
@@ -17236,7 +17244,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A748" s="2">
         <v>7336</v>
       </c>
@@ -17256,7 +17264,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A749" s="2">
         <v>7337</v>
       </c>
@@ -17276,7 +17284,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A750" s="2">
         <v>7338</v>
       </c>
@@ -17296,7 +17304,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A751" s="2">
         <v>7339</v>
       </c>
@@ -17316,7 +17324,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A752" s="2">
         <v>7340</v>
       </c>
@@ -17336,7 +17344,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A753" s="2">
         <v>7341</v>
       </c>
@@ -17356,7 +17364,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A754" s="2">
         <v>7342</v>
       </c>
@@ -17376,7 +17384,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A755" s="2">
         <v>7343</v>
       </c>
@@ -17396,7 +17404,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A756" s="2">
         <v>7344</v>
       </c>
@@ -17416,7 +17424,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A757" s="2">
         <v>7345</v>
       </c>
@@ -17436,7 +17444,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758" s="2">
         <v>7346</v>
       </c>
@@ -17456,7 +17464,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A759" s="2">
         <v>7347</v>
       </c>
@@ -17476,7 +17484,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A760" s="2">
         <v>7348</v>
       </c>
@@ -17496,7 +17504,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A761" s="2">
         <v>7349</v>
       </c>
@@ -17516,7 +17524,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A762" s="2">
         <v>7350</v>
       </c>
@@ -17536,7 +17544,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A763" s="2">
         <v>7351</v>
       </c>
@@ -17556,7 +17564,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A764" s="2">
         <v>7352</v>
       </c>
@@ -17576,7 +17584,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A765" s="2">
         <v>7353</v>
       </c>
@@ -17596,7 +17604,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A766" s="2">
         <v>7354</v>
       </c>
@@ -17614,6 +17622,26 @@
       </c>
       <c r="F766" s="2">
         <v>764</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A767" s="2">
+        <v>7355</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E767" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F767" s="2">
+        <v>765</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dfcdd5a0059d54a/바탕 화면/프로젝트 S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEABED-64EF-4A79-A728-5AF73ACEF75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{FDEE07F2-F471-4CE4-A28F-8D4960C96115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D65607F6-58DF-45FB-9274-5ED02E55D322}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="564">
   <si>
     <t>NPC</t>
   </si>
@@ -1841,11 +1841,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시</t>
+    <t>사공</t>
+  </si>
+  <si>
+    <t>이 밤에 배를 타시는 건가요?</t>
+  </si>
+  <si>
+    <t>배에 올라타려는데, 아이의 목소리가 들려왔다.</t>
+  </si>
+  <si>
+    <t>이런,, 이 시간에 웬 아이가..</t>
+  </si>
+  <si>
+    <t>...아이야. 오늘 밤은 위험하니 얼른 집으로 가거라.</t>
+  </si>
+  <si>
+    <t>상인 아저씨들이 오늘 배를 타는 사람은 나쁜 사람이랬어요.</t>
+  </si>
+  <si>
+    <t>나쁜 사람들을 잡으면 맛있는 걸 잔뜩 준다고 하셨어요.</t>
+  </si>
+  <si>
+    <t>왠지 조금 이상한 것 같소.</t>
+  </si>
+  <si>
+    <t>사공이 내게 속삭이자마자 사람 셋이 달려들었다.</t>
+  </si>
+  <si>
+    <t>나는 그 이후로 청이를 다신 볼 수 없었다.</t>
+  </si>
+  <si>
+    <t>조용한 시간에 소란이었나 주변에 마을 사람이 한 둘 나타났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배를 타실 건가 봐요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이의 목소리가 꽤나 음산하게 느껴졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 이제 출발하겠소.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달아난 뱃사공과 어떤 사내를 두 사람이 좇아갔고, 나는 너무나 쉽게 잡혀버렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생생한 흉몽임에 틀림없다. 고약하게 풍기는 물 비린내를 뒤로하며 쏟아지는 잠에 몸을 맡겼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀덕어멈</t>
+  </si>
+  <si>
+    <t>그만 좀 물어보게!! 댁도 이젠 알지 않소? 청이 찾기 힘들걸세.</t>
+  </si>
+  <si>
+    <t>청이 누님이 보고 싶어요. 정말 찾으시는 건 맞아요?</t>
+  </si>
+  <si>
+    <t>따님이 어디 멀리 간다고 이야기했던 것은 아닙니까? 저는 아는 건 다 말씀드렸수다.</t>
+  </si>
+  <si>
+    <t>뺑덕어멈</t>
+  </si>
+  <si>
+    <t>하아암~ 이제 그만하시어요. 나 바빠요.</t>
+  </si>
+  <si>
+    <t>신경을 일찍 썼어야지. 내게 다신 말 걸지 마시오.</t>
+  </si>
+  <si>
+    <t>부처의 뜻에 답이 있습니다.</t>
+  </si>
+  <si>
+    <t>사람들이 날 싸늘하게 대한다. 나는 청이 없이는 아무것도 아닌 걸까..</t>
+  </si>
+  <si>
+    <t>청아.. 내 딸 심청아..</t>
+  </si>
+  <si>
+    <t>청이를 찾기 위해 마을 바깥으로 걸었다.</t>
+  </si>
+  <si>
+    <t>얼마나 걸었을까, 언제부터인지 발이 쓰라리지 않았다.</t>
+  </si>
+  <si>
+    <t>먹지 않아도 고프지 않았고 목도 타들어가지 않는다.</t>
+  </si>
+  <si>
+    <t>청아.. 심청아.. 청아.. 내 딸 심청아...</t>
+  </si>
+  <si>
+    <t>[고립무원]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[계란유골]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달아난 뱃사공을 두 사람이 좇아갔고, 나는 너무나 쉽게 잡혀버렸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2287,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:F767"/>
+  <dimension ref="A1:F809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C764" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D767" sqref="D767"/>
+    <sheetView tabSelected="1" topLeftCell="A790" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E811" sqref="E811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -10915,7 +11015,7 @@
         <v>150</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>259</v>
+        <v>546</v>
       </c>
       <c r="E431" s="2" t="b">
         <v>0</v>
@@ -17628,20 +17728,860 @@
       <c r="A767" s="2">
         <v>7355</v>
       </c>
-      <c r="B767" s="2" t="s">
+      <c r="B767" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C767" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C767" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="D767" s="2" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="E767" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F767" s="2">
         <v>765</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A768" s="2">
+        <v>7356</v>
+      </c>
+      <c r="B768" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E768" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F768" s="2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A769" s="2">
+        <v>7357</v>
+      </c>
+      <c r="B769" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E769" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F769" s="2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A770" s="2">
+        <v>7358</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E770" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F770" s="2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A771" s="2">
+        <v>7359</v>
+      </c>
+      <c r="B771" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E771" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F771" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A772" s="2">
+        <v>7360</v>
+      </c>
+      <c r="B772" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E772" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F772" s="2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A773" s="2">
+        <v>7361</v>
+      </c>
+      <c r="B773" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E773" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F773" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A774" s="2">
+        <v>7362</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E774" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F774" s="2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A775" s="2">
+        <v>7363</v>
+      </c>
+      <c r="B775" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E775" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F775" s="2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A776" s="2">
+        <v>7364</v>
+      </c>
+      <c r="B776" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E776" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F776" s="2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A777" s="2">
+        <v>7365</v>
+      </c>
+      <c r="B777" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E777" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F777" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A778" s="2">
+        <v>7366</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E778" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F778" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A779" s="2">
+        <v>7367</v>
+      </c>
+      <c r="B779" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E779" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F779" s="2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A780" s="2">
+        <v>7368</v>
+      </c>
+      <c r="B780" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E780" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F780" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A781" s="2">
+        <v>7369</v>
+      </c>
+      <c r="B781" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E781" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F781" s="2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A782" s="2">
+        <v>7370</v>
+      </c>
+      <c r="B782" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E782" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F782" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A783" s="2">
+        <v>7371</v>
+      </c>
+      <c r="B783" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E783" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F783" s="2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A784" s="2">
+        <v>7372</v>
+      </c>
+      <c r="B784" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E784" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F784" s="2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A785" s="2">
+        <v>7373</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E785" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F785" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A786" s="2">
+        <v>7374</v>
+      </c>
+      <c r="B786" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E786" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F786" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A787" s="2">
+        <v>7375</v>
+      </c>
+      <c r="B787" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E787" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F787" s="2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A788" s="2">
+        <v>7376</v>
+      </c>
+      <c r="B788" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E788" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F788" s="2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A789" s="2">
+        <v>7377</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E789" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F789" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A790" s="2">
+        <v>7378</v>
+      </c>
+      <c r="B790" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E790" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F790" s="2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A791" s="2">
+        <v>7379</v>
+      </c>
+      <c r="B791" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E791" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F791" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A792" s="2">
+        <v>7380</v>
+      </c>
+      <c r="B792" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E792" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F792" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A793" s="2">
+        <v>7381</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E793" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F793" s="2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A794" s="2">
+        <v>7382</v>
+      </c>
+      <c r="B794" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E794" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F794" s="2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A795" s="2">
+        <v>7383</v>
+      </c>
+      <c r="B795" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E795" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F795" s="2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A796" s="2">
+        <v>7384</v>
+      </c>
+      <c r="B796" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E796" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F796" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A797" s="2">
+        <v>7385</v>
+      </c>
+      <c r="B797" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E797" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F797" s="2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A798" s="2">
+        <v>7386</v>
+      </c>
+      <c r="B798" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E798" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F798" s="2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A799" s="2">
+        <v>7387</v>
+      </c>
+      <c r="B799" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E799" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F799" s="2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A800" s="2">
+        <v>7388</v>
+      </c>
+      <c r="B800" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E800" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F800" s="2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A801" s="2">
+        <v>7389</v>
+      </c>
+      <c r="B801" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E801" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F801" s="2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A802" s="2">
+        <v>7390</v>
+      </c>
+      <c r="B802" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E802" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F802" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A803" s="2">
+        <v>7391</v>
+      </c>
+      <c r="B803" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E803" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F803" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A804" s="2">
+        <v>7392</v>
+      </c>
+      <c r="B804" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E804" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F804" s="2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A805" s="2">
+        <v>7393</v>
+      </c>
+      <c r="B805" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E805" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F805" s="2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A806" s="2">
+        <v>7394</v>
+      </c>
+      <c r="B806" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E806" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F806" s="2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A807" s="2">
+        <v>7395</v>
+      </c>
+      <c r="B807" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E807" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F807" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A808" s="2">
+        <v>7396</v>
+      </c>
+      <c r="B808" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E808" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F808" s="2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A809" s="2">
+        <v>7397</v>
+      </c>
+      <c r="B809" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E809" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F809" s="2">
+        <v>807</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dfcdd5a0059d54a/바탕 화면/프로젝트 S/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{FDEE07F2-F471-4CE4-A28F-8D4960C96115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D65607F6-58DF-45FB-9274-5ED02E55D322}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1B6179-6D33-4182-ADCA-2F6476B0939B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="565">
   <si>
     <t>NPC</t>
   </si>
@@ -1946,6 +1946,10 @@
   </si>
   <si>
     <t>달아난 뱃사공을 두 사람이 좇아갔고, 나는 너무나 쉽게 잡혀버렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2387,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:F809"/>
+  <dimension ref="A1:F810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A790" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E811" sqref="E811"/>
+    <sheetView tabSelected="1" topLeftCell="A799" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A810" sqref="A810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -18584,6 +18588,26 @@
         <v>807</v>
       </c>
     </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A810" s="2">
+        <v>7398</v>
+      </c>
+      <c r="B810" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E810" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F810" s="2">
+        <v>808</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F606" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dfcdd5a0059d54a/바탕 화면/프로젝트 S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1B6179-6D33-4182-ADCA-2F6476B0939B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{FDEE07F2-F471-4CE4-A28F-8D4960C96115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCB21AF-1752-48C1-BD83-BA41CD254820}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="564">
   <si>
     <t>NPC</t>
   </si>
@@ -844,9 +844,6 @@
   </si>
   <si>
     <t>묻고 싶은 게 오만가지였지만 그런 나의 마음을 알아챘는지 그가 이야기를 이어갔다.</t>
-  </si>
-  <si>
-    <t>제게 물어보고 싶으신 게 꽤 많으실 겁니다. 천천히 물어보시지요,</t>
   </si>
   <si>
     <t>장지언</t>
@@ -1949,7 +1946,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>임시</t>
+    <t>제게 물어보고 싶으신 게 꽤 많으실 겁니다. 천천히 물어보시지요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2092,6 +2089,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2391,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:F810"/>
+  <dimension ref="A1:F809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A799" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A810" sqref="A810"/>
+    <sheetView tabSelected="1" topLeftCell="A794" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B658" sqref="B658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -2410,22 +2411,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2439,7 +2440,7 @@
         <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -2459,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -2479,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -2499,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -2519,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -2539,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -2559,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -2579,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -2599,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -2659,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -2679,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -2699,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -2719,7 +2720,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2739,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -2759,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -2813,7 +2814,7 @@
         <v>5020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>150</v>
@@ -2839,7 +2840,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -3019,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -3059,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -3159,7 +3160,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -3179,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -3199,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -3259,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -3339,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -3379,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -3419,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
@@ -3439,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
@@ -3459,7 +3460,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -3479,7 +3480,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -3499,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -3519,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -3533,7 +3534,7 @@
         <v>5099</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>150</v>
@@ -3559,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -3579,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -3599,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -3619,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -3719,7 +3720,7 @@
         <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -3879,7 +3880,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -3919,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
@@ -3999,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -4099,7 +4100,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
@@ -4119,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
@@ -4139,7 +4140,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
@@ -4219,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
@@ -4239,7 +4240,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
@@ -4299,7 +4300,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
@@ -4379,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
@@ -4399,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
@@ -4499,7 +4500,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -4539,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -4639,7 +4640,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
@@ -4659,7 +4660,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
@@ -4673,7 +4674,7 @@
         <v>5218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>150</v>
@@ -4779,7 +4780,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E119" s="2" t="b">
         <v>0</v>
@@ -4859,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E123" s="2" t="b">
         <v>0</v>
@@ -5039,7 +5040,7 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E132" s="2" t="b">
         <v>0</v>
@@ -5079,7 +5080,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -5099,7 +5100,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E135" s="2" t="b">
         <v>0</v>
@@ -5139,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E137" s="2" t="b">
         <v>0</v>
@@ -5159,7 +5160,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E138" s="2" t="b">
         <v>0</v>
@@ -5179,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E139" s="2" t="b">
         <v>0</v>
@@ -5299,7 +5300,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E145" s="2" t="b">
         <v>0</v>
@@ -5519,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -5619,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E161" s="2" t="b">
         <v>0</v>
@@ -5659,7 +5660,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E163" s="2" t="b">
         <v>0</v>
@@ -5679,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
@@ -5993,13 +5994,13 @@
         <v>5365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>
@@ -6013,7 +6014,7 @@
         <v>5366</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>150</v>
@@ -6039,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E182" s="2" t="b">
         <v>0</v>
@@ -6099,7 +6100,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E185" s="2" t="b">
         <v>0</v>
@@ -6159,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E188" s="2" t="b">
         <v>0</v>
@@ -6179,7 +6180,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E189" s="2" t="b">
         <v>0</v>
@@ -6259,7 +6260,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E193" s="2" t="b">
         <v>0</v>
@@ -6319,7 +6320,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E196" s="2" t="b">
         <v>0</v>
@@ -6339,7 +6340,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E197" s="2" t="b">
         <v>0</v>
@@ -6379,7 +6380,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E199" s="2" t="b">
         <v>0</v>
@@ -6399,7 +6400,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E200" s="2" t="b">
         <v>0</v>
@@ -6419,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E201" s="2" t="b">
         <v>0</v>
@@ -6499,7 +6500,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E205" s="2" t="b">
         <v>0</v>
@@ -6539,7 +6540,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E207" s="2" t="b">
         <v>0</v>
@@ -6773,7 +6774,7 @@
         <v>5440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>150</v>
@@ -6813,7 +6814,7 @@
         <v>5442</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>150</v>
@@ -6859,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E223" s="2" t="b">
         <v>0</v>
@@ -6879,7 +6880,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E224" s="2" t="b">
         <v>0</v>
@@ -6919,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E226" s="2" t="b">
         <v>0</v>
@@ -6939,7 +6940,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E227" s="2" t="b">
         <v>0</v>
@@ -6959,7 +6960,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E228" s="2" t="b">
         <v>0</v>
@@ -7133,7 +7134,7 @@
         <v>5476</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>150</v>
@@ -7193,7 +7194,7 @@
         <v>5479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>150</v>
@@ -7253,7 +7254,7 @@
         <v>5482</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>150</v>
@@ -7273,7 +7274,7 @@
         <v>5483</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>150</v>
@@ -7299,7 +7300,7 @@
         <v>237</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E245" s="2" t="b">
         <v>0</v>
@@ -7316,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E246" s="2" t="b">
         <v>0</v>
@@ -7333,7 +7334,7 @@
         <v>5486</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>150</v>
@@ -7353,7 +7354,7 @@
         <v>5487</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>150</v>
@@ -7376,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>240</v>
+        <v>563</v>
       </c>
       <c r="E249" s="2" t="b">
         <v>0</v>
@@ -7459,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E253" s="2" t="b">
         <v>0</v>
@@ -7479,7 +7480,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E254" s="2" t="b">
         <v>0</v>
@@ -7499,7 +7500,7 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E255" s="2" t="b">
         <v>0</v>
@@ -7519,7 +7520,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E256" s="2" t="b">
         <v>0</v>
@@ -7539,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E257" s="2" t="b">
         <v>0</v>
@@ -7559,7 +7560,7 @@
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E258" s="2" t="b">
         <v>0</v>
@@ -7579,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E259" s="2" t="b">
         <v>0</v>
@@ -7599,7 +7600,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E260" s="2" t="b">
         <v>0</v>
@@ -7619,7 +7620,7 @@
         <v>3</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E261" s="2" t="b">
         <v>0</v>
@@ -7639,7 +7640,7 @@
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E262" s="2" t="b">
         <v>0</v>
@@ -7659,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E263" s="2" t="b">
         <v>0</v>
@@ -7679,7 +7680,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E264" s="2" t="b">
         <v>0</v>
@@ -7699,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E265" s="2" t="b">
         <v>0</v>
@@ -7719,7 +7720,7 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E266" s="2" t="b">
         <v>0</v>
@@ -7733,7 +7734,7 @@
         <v>5716</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>150</v>
@@ -7759,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E268" s="2" t="b">
         <v>0</v>
@@ -7799,7 +7800,7 @@
         <v>3</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E270" s="2" t="b">
         <v>0</v>
@@ -7819,7 +7820,7 @@
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E271" s="2" t="b">
         <v>0</v>
@@ -7839,7 +7840,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E272" s="2" t="b">
         <v>0</v>
@@ -7859,7 +7860,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E273" s="2" t="b">
         <v>0</v>
@@ -7879,7 +7880,7 @@
         <v>7</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E274" s="2" t="b">
         <v>0</v>
@@ -7899,7 +7900,7 @@
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E275" s="2" t="b">
         <v>0</v>
@@ -7919,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E276" s="2" t="b">
         <v>0</v>
@@ -7939,7 +7940,7 @@
         <v>2</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E277" s="2" t="b">
         <v>0</v>
@@ -7959,7 +7960,7 @@
         <v>3</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E278" s="2" t="b">
         <v>0</v>
@@ -7979,7 +7980,7 @@
         <v>4</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E279" s="2" t="b">
         <v>0</v>
@@ -7999,7 +8000,7 @@
         <v>5</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E280" s="2" t="b">
         <v>0</v>
@@ -8019,7 +8020,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E281" s="2" t="b">
         <v>0</v>
@@ -8039,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E282" s="2" t="b">
         <v>0</v>
@@ -8059,7 +8060,7 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E283" s="2" t="b">
         <v>0</v>
@@ -8073,7 +8074,7 @@
         <v>5733</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>150</v>
@@ -8239,7 +8240,7 @@
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E292" s="2" t="b">
         <v>0</v>
@@ -8253,7 +8254,7 @@
         <v>5742</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>150</v>
@@ -8399,7 +8400,7 @@
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E300" s="2" t="b">
         <v>0</v>
@@ -8459,7 +8460,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E303" s="2" t="b">
         <v>0</v>
@@ -8499,7 +8500,7 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E305" s="2" t="b">
         <v>0</v>
@@ -8739,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E317" s="2" t="b">
         <v>0</v>
@@ -8779,7 +8780,7 @@
         <v>3</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E319" s="2" t="b">
         <v>0</v>
@@ -8799,7 +8800,7 @@
         <v>4</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E320" s="2" t="b">
         <v>0</v>
@@ -8819,7 +8820,7 @@
         <v>5</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E321" s="2" t="b">
         <v>0</v>
@@ -8839,7 +8840,7 @@
         <v>7</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E322" s="2" t="b">
         <v>0</v>
@@ -8859,7 +8860,7 @@
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E323" s="2" t="b">
         <v>0</v>
@@ -9039,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E332" s="2" t="b">
         <v>0</v>
@@ -9059,7 +9060,7 @@
         <v>2</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E333" s="2" t="b">
         <v>0</v>
@@ -9079,7 +9080,7 @@
         <v>3</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E334" s="2" t="b">
         <v>0</v>
@@ -9099,7 +9100,7 @@
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E335" s="2" t="b">
         <v>0</v>
@@ -9119,7 +9120,7 @@
         <v>5</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E336" s="2" t="b">
         <v>0</v>
@@ -9139,7 +9140,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E337" s="2" t="b">
         <v>0</v>
@@ -9159,7 +9160,7 @@
         <v>7</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E338" s="2" t="b">
         <v>0</v>
@@ -9179,7 +9180,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E339" s="2" t="b">
         <v>0</v>
@@ -9299,7 +9300,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E345" s="2" t="b">
         <v>0</v>
@@ -9393,13 +9394,13 @@
         <v>5799</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E350" s="2" t="b">
         <v>0</v>
@@ -9599,7 +9600,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E360" s="2" t="b">
         <v>0</v>
@@ -9639,7 +9640,7 @@
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E362" s="2" t="b">
         <v>0</v>
@@ -9659,7 +9660,7 @@
         <v>5</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E363" s="2" t="b">
         <v>0</v>
@@ -9719,7 +9720,7 @@
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E366" s="2" t="b">
         <v>0</v>
@@ -9799,7 +9800,7 @@
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E370" s="2" t="b">
         <v>0</v>
@@ -9819,7 +9820,7 @@
         <v>5</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E371" s="2" t="b">
         <v>0</v>
@@ -9879,7 +9880,7 @@
         <v>8</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E374" s="2" t="b">
         <v>0</v>
@@ -9979,7 +9980,7 @@
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E379" s="2" t="b">
         <v>0</v>
@@ -10039,7 +10040,7 @@
         <v>7</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E382" s="2" t="b">
         <v>0</v>
@@ -10099,7 +10100,7 @@
         <v>3</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E385" s="2" t="b">
         <v>0</v>
@@ -10119,7 +10120,7 @@
         <v>4</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E386" s="2" t="b">
         <v>0</v>
@@ -10219,7 +10220,7 @@
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E391" s="2" t="b">
         <v>0</v>
@@ -10419,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E401" s="2" t="b">
         <v>0</v>
@@ -10439,7 +10440,7 @@
         <v>2</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E402" s="2" t="b">
         <v>0</v>
@@ -10459,7 +10460,7 @@
         <v>3</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E403" s="2" t="b">
         <v>0</v>
@@ -10479,7 +10480,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -10499,7 +10500,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E405" s="2" t="b">
         <v>0</v>
@@ -10519,7 +10520,7 @@
         <v>7</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E406" s="2" t="b">
         <v>0</v>
@@ -10539,7 +10540,7 @@
         <v>10</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E407" s="2" t="b">
         <v>0</v>
@@ -10559,7 +10560,7 @@
         <v>10</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E408" s="2" t="b">
         <v>0</v>
@@ -10579,7 +10580,7 @@
         <v>5</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -10599,7 +10600,7 @@
         <v>7</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E410" s="2" t="b">
         <v>0</v>
@@ -10619,7 +10620,7 @@
         <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E411" s="2" t="b">
         <v>0</v>
@@ -10639,7 +10640,7 @@
         <v>125</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E412" s="2" t="b">
         <v>0</v>
@@ -10653,13 +10654,13 @@
         <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E413" s="2" t="b">
         <v>0</v>
@@ -10673,13 +10674,13 @@
         <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E414" s="2" t="b">
         <v>0</v>
@@ -10693,13 +10694,13 @@
         <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -10719,7 +10720,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E416" s="2" t="b">
         <v>0</v>
@@ -10733,13 +10734,13 @@
         <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E417" s="2" t="b">
         <v>0</v>
@@ -10753,13 +10754,13 @@
         <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E418" s="2" t="b">
         <v>0</v>
@@ -10773,13 +10774,13 @@
         <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E419" s="2" t="b">
         <v>0</v>
@@ -10793,13 +10794,13 @@
         <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E420" s="2" t="b">
         <v>0</v>
@@ -10813,13 +10814,13 @@
         <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E421" s="2" t="b">
         <v>0</v>
@@ -10833,13 +10834,13 @@
         <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E422" s="2" t="b">
         <v>0</v>
@@ -10853,13 +10854,13 @@
         <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E423" s="2" t="b">
         <v>0</v>
@@ -10873,13 +10874,13 @@
         <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E424" s="2" t="b">
         <v>0</v>
@@ -10893,13 +10894,13 @@
         <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E425" s="2" t="b">
         <v>0</v>
@@ -10913,13 +10914,13 @@
         <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>
@@ -10933,13 +10934,13 @@
         <v>7015</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E427" s="2" t="b">
         <v>0</v>
@@ -10953,13 +10954,13 @@
         <v>7016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E428" s="2" t="b">
         <v>0</v>
@@ -10979,7 +10980,7 @@
         <v>237</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E429" s="2" t="b">
         <v>0</v>
@@ -10993,13 +10994,13 @@
         <v>7018</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E430" s="2" t="b">
         <v>0</v>
@@ -11013,13 +11014,13 @@
         <v>7019</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E431" s="2" t="b">
         <v>0</v>
@@ -11033,13 +11034,13 @@
         <v>7020</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E432" s="2" t="b">
         <v>0</v>
@@ -11053,13 +11054,13 @@
         <v>7021</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E433" s="2" t="b">
         <v>0</v>
@@ -11073,13 +11074,13 @@
         <v>7022</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E434" s="2" t="b">
         <v>0</v>
@@ -11093,13 +11094,13 @@
         <v>7023</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E435" s="2" t="b">
         <v>0</v>
@@ -11113,13 +11114,13 @@
         <v>7024</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E436" s="2" t="b">
         <v>0</v>
@@ -11133,13 +11134,13 @@
         <v>7025</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E437" s="2" t="b">
         <v>0</v>
@@ -11159,7 +11160,7 @@
         <v>7</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E438" s="2" t="b">
         <v>0</v>
@@ -11173,13 +11174,13 @@
         <v>7027</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E439" s="2" t="b">
         <v>0</v>
@@ -11196,10 +11197,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E440" s="2" t="b">
         <v>0</v>
@@ -11219,7 +11220,7 @@
         <v>7</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E441" s="2" t="b">
         <v>0</v>
@@ -11233,13 +11234,13 @@
         <v>7030</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E442" s="2" t="b">
         <v>0</v>
@@ -11253,13 +11254,13 @@
         <v>7031</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E443" s="2" t="b">
         <v>0</v>
@@ -11273,13 +11274,13 @@
         <v>7032</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E444" s="2" t="b">
         <v>0</v>
@@ -11293,13 +11294,13 @@
         <v>7033</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E445" s="2" t="b">
         <v>0</v>
@@ -11313,13 +11314,13 @@
         <v>7034</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E446" s="2" t="b">
         <v>0</v>
@@ -11339,7 +11340,7 @@
         <v>8</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E447" s="2" t="b">
         <v>0</v>
@@ -11353,13 +11354,13 @@
         <v>7036</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E448" s="2" t="b">
         <v>0</v>
@@ -11376,10 +11377,10 @@
         <v>0</v>
       </c>
       <c r="C449" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D449" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="D449" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="E449" s="2" t="b">
         <v>0</v>
@@ -11399,7 +11400,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E450" s="2" t="b">
         <v>0</v>
@@ -11413,13 +11414,13 @@
         <v>7039</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E451" s="2" t="b">
         <v>0</v>
@@ -11433,13 +11434,13 @@
         <v>7040</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E452" s="2" t="b">
         <v>0</v>
@@ -11453,13 +11454,13 @@
         <v>7041</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E453" s="2" t="b">
         <v>0</v>
@@ -11473,13 +11474,13 @@
         <v>7042</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E454" s="2" t="b">
         <v>0</v>
@@ -11496,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E455" s="2" t="b">
         <v>0</v>
@@ -11513,13 +11514,13 @@
         <v>7044</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E456" s="2" t="b">
         <v>0</v>
@@ -11533,13 +11534,13 @@
         <v>7045</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E457" s="2" t="b">
         <v>0</v>
@@ -11553,13 +11554,13 @@
         <v>7046</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E458" s="2" t="b">
         <v>0</v>
@@ -11573,13 +11574,13 @@
         <v>7047</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E459" s="2" t="b">
         <v>0</v>
@@ -11593,13 +11594,13 @@
         <v>7048</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E460" s="2" t="b">
         <v>0</v>
@@ -11613,13 +11614,13 @@
         <v>7049</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E461" s="2" t="b">
         <v>0</v>
@@ -11633,13 +11634,13 @@
         <v>7050</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E462" s="2" t="b">
         <v>0</v>
@@ -11653,13 +11654,13 @@
         <v>7051</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E463" s="2" t="b">
         <v>0</v>
@@ -11673,13 +11674,13 @@
         <v>7052</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E464" s="2" t="b">
         <v>0</v>
@@ -11696,10 +11697,10 @@
         <v>0</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E465" s="2" t="b">
         <v>0</v>
@@ -11713,13 +11714,13 @@
         <v>7054</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E466" s="2" t="b">
         <v>0</v>
@@ -11736,10 +11737,10 @@
         <v>0</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E467" s="2" t="b">
         <v>0</v>
@@ -11753,13 +11754,13 @@
         <v>7056</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E468" s="2" t="b">
         <v>0</v>
@@ -11776,10 +11777,10 @@
         <v>0</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E469" s="2" t="b">
         <v>0</v>
@@ -11796,10 +11797,10 @@
         <v>0</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E470" s="2" t="b">
         <v>0</v>
@@ -11813,13 +11814,13 @@
         <v>7059</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E471" s="2" t="b">
         <v>0</v>
@@ -11833,13 +11834,13 @@
         <v>7060</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E472" s="2" t="b">
         <v>0</v>
@@ -11856,10 +11857,10 @@
         <v>0</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E473" s="2" t="b">
         <v>0</v>
@@ -11879,7 +11880,7 @@
         <v>7</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E474" s="2" t="b">
         <v>0</v>
@@ -11896,10 +11897,10 @@
         <v>0</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E475" s="2" t="b">
         <v>0</v>
@@ -11919,7 +11920,7 @@
         <v>7</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E476" s="2" t="b">
         <v>0</v>
@@ -11933,13 +11934,13 @@
         <v>7065</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E477" s="2" t="b">
         <v>0</v>
@@ -11953,13 +11954,13 @@
         <v>7066</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E478" s="2" t="b">
         <v>0</v>
@@ -11973,13 +11974,13 @@
         <v>7067</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E479" s="2" t="b">
         <v>0</v>
@@ -11993,13 +11994,13 @@
         <v>7068</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E480" s="2" t="b">
         <v>0</v>
@@ -12016,10 +12017,10 @@
         <v>0</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E481" s="2" t="b">
         <v>0</v>
@@ -12033,13 +12034,13 @@
         <v>7070</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E482" s="2" t="b">
         <v>0</v>
@@ -12056,10 +12057,10 @@
         <v>0</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E483" s="2" t="b">
         <v>0</v>
@@ -12076,10 +12077,10 @@
         <v>0</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E484" s="2" t="b">
         <v>0</v>
@@ -12096,10 +12097,10 @@
         <v>0</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E485" s="2" t="b">
         <v>0</v>
@@ -12113,13 +12114,13 @@
         <v>7074</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E486" s="2" t="b">
         <v>0</v>
@@ -12133,13 +12134,13 @@
         <v>7075</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E487" s="2" t="b">
         <v>0</v>
@@ -12156,10 +12157,10 @@
         <v>0</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E488" s="2" t="b">
         <v>0</v>
@@ -12179,7 +12180,7 @@
         <v>7</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E489" s="2" t="b">
         <v>0</v>
@@ -12196,10 +12197,10 @@
         <v>0</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E490" s="2" t="b">
         <v>0</v>
@@ -12219,7 +12220,7 @@
         <v>7</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E491" s="2" t="b">
         <v>0</v>
@@ -12233,13 +12234,13 @@
         <v>7080</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E492" s="2" t="b">
         <v>0</v>
@@ -12253,13 +12254,13 @@
         <v>7081</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E493" s="2" t="b">
         <v>0</v>
@@ -12273,13 +12274,13 @@
         <v>7082</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E494" s="2" t="b">
         <v>0</v>
@@ -12293,13 +12294,13 @@
         <v>7083</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E495" s="2" t="b">
         <v>0</v>
@@ -12316,10 +12317,10 @@
         <v>0</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E496" s="2" t="b">
         <v>0</v>
@@ -12333,13 +12334,13 @@
         <v>7085</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E497" s="2" t="b">
         <v>0</v>
@@ -12353,13 +12354,13 @@
         <v>7086</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E498" s="2" t="b">
         <v>0</v>
@@ -12373,13 +12374,13 @@
         <v>7087</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E499" s="2" t="b">
         <v>0</v>
@@ -12393,13 +12394,13 @@
         <v>7088</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E500" s="2" t="b">
         <v>0</v>
@@ -12416,10 +12417,10 @@
         <v>0</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D501" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E501" s="2" t="b">
         <v>0</v>
@@ -12436,10 +12437,10 @@
         <v>0</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E502" s="2" t="b">
         <v>0</v>
@@ -12453,13 +12454,13 @@
         <v>7091</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E503" s="2" t="b">
         <v>0</v>
@@ -12473,13 +12474,13 @@
         <v>7092</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E504" s="2" t="b">
         <v>0</v>
@@ -12493,13 +12494,13 @@
         <v>7093</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E505" s="2" t="b">
         <v>0</v>
@@ -12513,13 +12514,13 @@
         <v>7094</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E506" s="2" t="b">
         <v>0</v>
@@ -12536,10 +12537,10 @@
         <v>0</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E507" s="2" t="b">
         <v>0</v>
@@ -12556,10 +12557,10 @@
         <v>0</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E508" s="2" t="b">
         <v>0</v>
@@ -12576,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D509" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E509" s="2" t="b">
         <v>0</v>
@@ -12596,10 +12597,10 @@
         <v>0</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E510" s="2" t="b">
         <v>0</v>
@@ -12616,10 +12617,10 @@
         <v>0</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E511" s="2" t="b">
         <v>0</v>
@@ -12636,10 +12637,10 @@
         <v>0</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D512" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E512" s="2" t="b">
         <v>0</v>
@@ -12656,10 +12657,10 @@
         <v>0</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D513" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E513" s="2" t="b">
         <v>0</v>
@@ -12676,10 +12677,10 @@
         <v>0</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D514" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E514" s="2" t="b">
         <v>0</v>
@@ -12693,13 +12694,13 @@
         <v>7103</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D515" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E515" s="2" t="b">
         <v>0</v>
@@ -12713,13 +12714,13 @@
         <v>7104</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D516" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E516" s="2" t="b">
         <v>0</v>
@@ -12733,13 +12734,13 @@
         <v>7105</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D517" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E517" s="2" t="b">
         <v>0</v>
@@ -12753,13 +12754,13 @@
         <v>7106</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D518" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E518" s="2" t="b">
         <v>0</v>
@@ -12773,13 +12774,13 @@
         <v>7107</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D519" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E519" s="2" t="b">
         <v>0</v>
@@ -12793,13 +12794,13 @@
         <v>7108</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E520" s="2" t="b">
         <v>0</v>
@@ -12813,13 +12814,13 @@
         <v>7109</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C521" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D521" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="D521" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="E521" s="2" t="b">
         <v>0</v>
@@ -12833,13 +12834,13 @@
         <v>7110</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D522" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E522" s="2" t="b">
         <v>0</v>
@@ -12853,13 +12854,13 @@
         <v>7111</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D523" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E523" s="2" t="b">
         <v>0</v>
@@ -12873,13 +12874,13 @@
         <v>7112</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D524" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E524" s="2" t="b">
         <v>0</v>
@@ -12893,13 +12894,13 @@
         <v>7113</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D525" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E525" s="2" t="b">
         <v>0</v>
@@ -12913,13 +12914,13 @@
         <v>7114</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D526" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E526" s="2" t="b">
         <v>0</v>
@@ -12933,13 +12934,13 @@
         <v>7115</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D527" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E527" s="2" t="b">
         <v>0</v>
@@ -12953,13 +12954,13 @@
         <v>7116</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D528" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E528" s="2" t="b">
         <v>0</v>
@@ -12973,13 +12974,13 @@
         <v>7117</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D529" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E529" s="2" t="b">
         <v>0</v>
@@ -12993,13 +12994,13 @@
         <v>7118</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D530" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E530" s="2" t="b">
         <v>0</v>
@@ -13013,13 +13014,13 @@
         <v>7119</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D531" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E531" s="2" t="b">
         <v>0</v>
@@ -13033,13 +13034,13 @@
         <v>7120</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D532" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E532" s="2" t="b">
         <v>0</v>
@@ -13053,13 +13054,13 @@
         <v>7121</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D533" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E533" s="2" t="b">
         <v>0</v>
@@ -13073,13 +13074,13 @@
         <v>7122</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E534" s="2" t="b">
         <v>0</v>
@@ -13093,13 +13094,13 @@
         <v>7123</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D535" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E535" s="2" t="b">
         <v>0</v>
@@ -13113,13 +13114,13 @@
         <v>7124</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D536" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E536" s="2" t="b">
         <v>0</v>
@@ -13133,13 +13134,13 @@
         <v>7125</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D537" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E537" s="2" t="b">
         <v>0</v>
@@ -13153,13 +13154,13 @@
         <v>7126</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D538" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E538" s="2" t="b">
         <v>0</v>
@@ -13173,13 +13174,13 @@
         <v>7127</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D539" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E539" s="2" t="b">
         <v>0</v>
@@ -13193,13 +13194,13 @@
         <v>7128</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D540" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E540" s="2" t="b">
         <v>0</v>
@@ -13213,13 +13214,13 @@
         <v>7129</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D541" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E541" s="2" t="b">
         <v>0</v>
@@ -13233,13 +13234,13 @@
         <v>7130</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D542" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E542" s="2" t="b">
         <v>0</v>
@@ -13253,13 +13254,13 @@
         <v>7131</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D543" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E543" s="2" t="b">
         <v>0</v>
@@ -13273,13 +13274,13 @@
         <v>7132</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D544" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E544" s="2" t="b">
         <v>0</v>
@@ -13293,13 +13294,13 @@
         <v>7133</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D545" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E545" s="2" t="b">
         <v>0</v>
@@ -13313,13 +13314,13 @@
         <v>7134</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D546" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E546" s="2" t="b">
         <v>0</v>
@@ -13333,13 +13334,13 @@
         <v>7135</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D547" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E547" s="2" t="b">
         <v>0</v>
@@ -13353,13 +13354,13 @@
         <v>7136</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D548" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E548" s="2" t="b">
         <v>0</v>
@@ -13373,13 +13374,13 @@
         <v>7137</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D549" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E549" s="2" t="b">
         <v>0</v>
@@ -13393,13 +13394,13 @@
         <v>7138</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D550" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E550" s="2" t="b">
         <v>0</v>
@@ -13413,13 +13414,13 @@
         <v>7139</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D551" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E551" s="2" t="b">
         <v>0</v>
@@ -13433,13 +13434,13 @@
         <v>7140</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D552" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E552" s="2" t="b">
         <v>0</v>
@@ -13453,13 +13454,13 @@
         <v>7141</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D553" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E553" s="2" t="b">
         <v>0</v>
@@ -13473,13 +13474,13 @@
         <v>7142</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D554" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E554" s="2" t="b">
         <v>0</v>
@@ -13493,13 +13494,13 @@
         <v>7143</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D555" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E555" s="2" t="b">
         <v>0</v>
@@ -13513,13 +13514,13 @@
         <v>7144</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D556" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E556" s="2" t="b">
         <v>0</v>
@@ -13533,13 +13534,13 @@
         <v>7145</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D557" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E557" s="2" t="b">
         <v>0</v>
@@ -13553,13 +13554,13 @@
         <v>7146</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D558" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E558" s="2" t="b">
         <v>0</v>
@@ -13573,13 +13574,13 @@
         <v>7147</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D559" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E559" s="2" t="b">
         <v>0</v>
@@ -13593,13 +13594,13 @@
         <v>7148</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D560" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E560" s="2" t="b">
         <v>0</v>
@@ -13613,13 +13614,13 @@
         <v>7149</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D561" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E561" s="2" t="b">
         <v>0</v>
@@ -13633,13 +13634,13 @@
         <v>7150</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D562" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E562" s="2" t="b">
         <v>0</v>
@@ -13653,13 +13654,13 @@
         <v>7151</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D563" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E563" s="2" t="b">
         <v>0</v>
@@ -13673,13 +13674,13 @@
         <v>7152</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D564" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E564" s="2" t="b">
         <v>0</v>
@@ -13696,10 +13697,10 @@
         <v>0</v>
       </c>
       <c r="C565" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D565" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="D565" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="E565" s="2" t="b">
         <v>0</v>
@@ -13716,10 +13717,10 @@
         <v>0</v>
       </c>
       <c r="C566" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E566" s="2" t="b">
         <v>0</v>
@@ -13736,10 +13737,10 @@
         <v>0</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E567" s="2" t="b">
         <v>0</v>
@@ -13756,10 +13757,10 @@
         <v>0</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E568" s="2" t="b">
         <v>0</v>
@@ -13776,10 +13777,10 @@
         <v>0</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E569" s="2" t="b">
         <v>0</v>
@@ -13796,10 +13797,10 @@
         <v>0</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E570" s="2" t="b">
         <v>0</v>
@@ -13816,10 +13817,10 @@
         <v>0</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D571" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E571" s="2" t="b">
         <v>0</v>
@@ -13836,10 +13837,10 @@
         <v>0</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E572" s="2" t="b">
         <v>0</v>
@@ -13856,10 +13857,10 @@
         <v>0</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D573" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E573" s="2" t="b">
         <v>0</v>
@@ -13876,10 +13877,10 @@
         <v>0</v>
       </c>
       <c r="C574" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D574" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E574" s="2" t="b">
         <v>0</v>
@@ -13896,10 +13897,10 @@
         <v>0</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E575" s="2" t="b">
         <v>0</v>
@@ -13916,10 +13917,10 @@
         <v>0</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E576" s="2" t="b">
         <v>0</v>
@@ -13936,10 +13937,10 @@
         <v>0</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D577" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E577" s="2" t="b">
         <v>0</v>
@@ -13956,10 +13957,10 @@
         <v>0</v>
       </c>
       <c r="C578" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E578" s="2" t="b">
         <v>0</v>
@@ -13976,10 +13977,10 @@
         <v>0</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D579" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E579" s="2" t="b">
         <v>0</v>
@@ -13996,10 +13997,10 @@
         <v>0</v>
       </c>
       <c r="C580" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D580" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E580" s="2" t="b">
         <v>0</v>
@@ -14016,10 +14017,10 @@
         <v>0</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D581" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E581" s="2" t="b">
         <v>0</v>
@@ -14036,10 +14037,10 @@
         <v>0</v>
       </c>
       <c r="C582" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D582" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E582" s="2" t="b">
         <v>0</v>
@@ -14056,10 +14057,10 @@
         <v>0</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E583" s="2" t="b">
         <v>0</v>
@@ -14076,10 +14077,10 @@
         <v>0</v>
       </c>
       <c r="C584" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D584" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E584" s="2" t="b">
         <v>0</v>
@@ -14096,10 +14097,10 @@
         <v>0</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E585" s="2" t="b">
         <v>0</v>
@@ -14116,10 +14117,10 @@
         <v>0</v>
       </c>
       <c r="C586" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D586" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E586" s="2" t="b">
         <v>0</v>
@@ -14136,10 +14137,10 @@
         <v>0</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E587" s="2" t="b">
         <v>0</v>
@@ -14156,10 +14157,10 @@
         <v>0</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D588" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E588" s="2" t="b">
         <v>0</v>
@@ -14176,10 +14177,10 @@
         <v>0</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E589" s="2" t="b">
         <v>0</v>
@@ -14196,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="C590" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E590" s="2" t="b">
         <v>0</v>
@@ -14216,10 +14217,10 @@
         <v>0</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D591" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E591" s="2" t="b">
         <v>0</v>
@@ -14236,10 +14237,10 @@
         <v>0</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D592" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E592" s="2" t="b">
         <v>0</v>
@@ -14256,10 +14257,10 @@
         <v>0</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D593" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E593" s="2" t="b">
         <v>0</v>
@@ -14276,10 +14277,10 @@
         <v>0</v>
       </c>
       <c r="C594" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D594" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E594" s="2" t="b">
         <v>0</v>
@@ -14296,10 +14297,10 @@
         <v>0</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D595" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E595" s="2" t="b">
         <v>0</v>
@@ -14316,10 +14317,10 @@
         <v>0</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D596" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E596" s="2" t="b">
         <v>0</v>
@@ -14336,10 +14337,10 @@
         <v>0</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D597" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E597" s="2" t="b">
         <v>0</v>
@@ -14356,10 +14357,10 @@
         <v>0</v>
       </c>
       <c r="C598" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D598" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E598" s="2" t="b">
         <v>0</v>
@@ -14376,10 +14377,10 @@
         <v>0</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E599" s="2" t="b">
         <v>0</v>
@@ -14396,10 +14397,10 @@
         <v>0</v>
       </c>
       <c r="C600" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D600" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E600" s="2" t="b">
         <v>0</v>
@@ -14416,10 +14417,10 @@
         <v>0</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D601" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E601" s="2" t="b">
         <v>0</v>
@@ -14436,10 +14437,10 @@
         <v>0</v>
       </c>
       <c r="C602" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D602" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E602" s="2" t="b">
         <v>0</v>
@@ -14456,10 +14457,10 @@
         <v>0</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D603" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E603" s="2" t="b">
         <v>0</v>
@@ -14476,10 +14477,10 @@
         <v>0</v>
       </c>
       <c r="C604" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D604" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E604" s="2" t="b">
         <v>0</v>
@@ -14496,10 +14497,10 @@
         <v>0</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>240</v>
+        <v>563</v>
       </c>
       <c r="E605" s="2" t="b">
         <v>0</v>
@@ -14513,13 +14514,13 @@
         <v>7194</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E606" s="2" t="b">
         <v>0</v>
@@ -14719,7 +14720,7 @@
         <v>2</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E616" s="2" t="b">
         <v>0</v>
@@ -14759,7 +14760,7 @@
         <v>4</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E618" s="2" t="b">
         <v>0</v>
@@ -14839,7 +14840,7 @@
         <v>8</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E622" s="2" t="b">
         <v>0</v>
@@ -14919,7 +14920,7 @@
         <v>4</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E626" s="2" t="b">
         <v>0</v>
@@ -14999,7 +15000,7 @@
         <v>8</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E630" s="2" t="b">
         <v>0</v>
@@ -15159,7 +15160,7 @@
         <v>7</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E638" s="2" t="b">
         <v>0</v>
@@ -15219,7 +15220,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E641" s="2" t="b">
         <v>0</v>
@@ -15239,7 +15240,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E642" s="2" t="b">
         <v>0</v>
@@ -15339,7 +15340,7 @@
         <v>7</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E647" s="2" t="b">
         <v>0</v>
@@ -15539,7 +15540,7 @@
         <v>125</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E657" s="2" t="b">
         <v>0</v>
@@ -15553,13 +15554,13 @@
         <v>7246</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E658" s="2" t="b">
         <v>0</v>
@@ -15573,13 +15574,13 @@
         <v>7247</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E659" s="2" t="b">
         <v>0</v>
@@ -15593,13 +15594,13 @@
         <v>7248</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E660" s="2" t="b">
         <v>0</v>
@@ -15619,7 +15620,7 @@
         <v>9</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E661" s="2" t="b">
         <v>0</v>
@@ -15633,13 +15634,13 @@
         <v>7250</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E662" s="2" t="b">
         <v>0</v>
@@ -15653,13 +15654,13 @@
         <v>7251</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E663" s="2" t="b">
         <v>0</v>
@@ -15673,13 +15674,13 @@
         <v>7252</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E664" s="2" t="b">
         <v>0</v>
@@ -15693,13 +15694,13 @@
         <v>7253</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E665" s="2" t="b">
         <v>0</v>
@@ -15713,13 +15714,13 @@
         <v>7254</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E666" s="2" t="b">
         <v>0</v>
@@ -15733,13 +15734,13 @@
         <v>7255</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E667" s="2" t="b">
         <v>0</v>
@@ -15753,13 +15754,13 @@
         <v>7256</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E668" s="2" t="b">
         <v>0</v>
@@ -15773,13 +15774,13 @@
         <v>7257</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E669" s="2" t="b">
         <v>0</v>
@@ -15793,13 +15794,13 @@
         <v>7258</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E670" s="2" t="b">
         <v>0</v>
@@ -15813,13 +15814,13 @@
         <v>7259</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E671" s="2" t="b">
         <v>0</v>
@@ -15833,13 +15834,13 @@
         <v>7260</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E672" s="2" t="b">
         <v>0</v>
@@ -15853,13 +15854,13 @@
         <v>7261</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E673" s="2" t="b">
         <v>0</v>
@@ -15879,7 +15880,7 @@
         <v>237</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E674" s="2" t="b">
         <v>0</v>
@@ -15893,13 +15894,13 @@
         <v>7263</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E675" s="2" t="b">
         <v>0</v>
@@ -15913,13 +15914,13 @@
         <v>7264</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E676" s="2" t="b">
         <v>0</v>
@@ -15933,13 +15934,13 @@
         <v>7265</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E677" s="2" t="b">
         <v>0</v>
@@ -15953,13 +15954,13 @@
         <v>7266</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E678" s="2" t="b">
         <v>0</v>
@@ -15973,13 +15974,13 @@
         <v>7267</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E679" s="2" t="b">
         <v>0</v>
@@ -15993,13 +15994,13 @@
         <v>7268</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E680" s="2" t="b">
         <v>0</v>
@@ -16013,13 +16014,13 @@
         <v>7269</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E681" s="2" t="b">
         <v>0</v>
@@ -16033,13 +16034,13 @@
         <v>7270</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E682" s="2" t="b">
         <v>0</v>
@@ -16059,7 +16060,7 @@
         <v>7</v>
       </c>
       <c r="D683" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E683" s="2" t="b">
         <v>0</v>
@@ -16072,14 +16073,14 @@
       <c r="A684" s="2">
         <v>7272</v>
       </c>
-      <c r="B684" s="5" t="s">
-        <v>80</v>
+      <c r="B684" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D684" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E684" s="2" t="b">
         <v>0</v>
@@ -16096,10 +16097,10 @@
         <v>80</v>
       </c>
       <c r="C685" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D685" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E685" s="2" t="b">
         <v>0</v>
@@ -16119,7 +16120,7 @@
         <v>7</v>
       </c>
       <c r="D686" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E686" s="2" t="b">
         <v>0</v>
@@ -16132,14 +16133,14 @@
       <c r="A687" s="2">
         <v>7275</v>
       </c>
-      <c r="B687" s="5" t="s">
-        <v>80</v>
+      <c r="B687" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D687" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E687" s="2" t="b">
         <v>0</v>
@@ -16152,14 +16153,14 @@
       <c r="A688" s="2">
         <v>7276</v>
       </c>
-      <c r="B688" s="5" t="s">
-        <v>80</v>
+      <c r="B688" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D688" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E688" s="2" t="b">
         <v>0</v>
@@ -16172,14 +16173,14 @@
       <c r="A689" s="2">
         <v>7277</v>
       </c>
-      <c r="B689" s="5" t="s">
-        <v>80</v>
+      <c r="B689" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D689" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E689" s="2" t="b">
         <v>0</v>
@@ -16192,14 +16193,14 @@
       <c r="A690" s="2">
         <v>7278</v>
       </c>
-      <c r="B690" s="5" t="s">
-        <v>80</v>
+      <c r="B690" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D690" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E690" s="2" t="b">
         <v>0</v>
@@ -16212,14 +16213,14 @@
       <c r="A691" s="2">
         <v>7279</v>
       </c>
-      <c r="B691" s="5" t="s">
-        <v>80</v>
+      <c r="B691" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E691" s="2" t="b">
         <v>0</v>
@@ -16239,7 +16240,7 @@
         <v>8</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E692" s="2" t="b">
         <v>0</v>
@@ -16252,14 +16253,14 @@
       <c r="A693" s="2">
         <v>7281</v>
       </c>
-      <c r="B693" s="5" t="s">
-        <v>80</v>
+      <c r="B693" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E693" s="2" t="b">
         <v>0</v>
@@ -16276,10 +16277,10 @@
         <v>80</v>
       </c>
       <c r="C694" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D694" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="D694" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="E694" s="2" t="b">
         <v>0</v>
@@ -16299,7 +16300,7 @@
         <v>7</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E695" s="2" t="b">
         <v>0</v>
@@ -16312,14 +16313,14 @@
       <c r="A696" s="2">
         <v>7284</v>
       </c>
-      <c r="B696" s="5" t="s">
-        <v>80</v>
+      <c r="B696" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E696" s="2" t="b">
         <v>0</v>
@@ -16332,14 +16333,14 @@
       <c r="A697" s="2">
         <v>7285</v>
       </c>
-      <c r="B697" s="5" t="s">
-        <v>80</v>
+      <c r="B697" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E697" s="2" t="b">
         <v>0</v>
@@ -16352,14 +16353,14 @@
       <c r="A698" s="2">
         <v>7286</v>
       </c>
-      <c r="B698" s="5" t="s">
-        <v>80</v>
+      <c r="B698" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E698" s="2" t="b">
         <v>0</v>
@@ -16372,14 +16373,14 @@
       <c r="A699" s="2">
         <v>7287</v>
       </c>
-      <c r="B699" s="5" t="s">
-        <v>80</v>
+      <c r="B699" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E699" s="2" t="b">
         <v>0</v>
@@ -16396,10 +16397,10 @@
         <v>80</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E700" s="2" t="b">
         <v>0</v>
@@ -16412,14 +16413,14 @@
       <c r="A701" s="2">
         <v>7289</v>
       </c>
-      <c r="B701" s="5" t="s">
-        <v>80</v>
+      <c r="B701" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E701" s="2" t="b">
         <v>0</v>
@@ -16432,14 +16433,14 @@
       <c r="A702" s="2">
         <v>7290</v>
       </c>
-      <c r="B702" s="5" t="s">
-        <v>80</v>
+      <c r="B702" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E702" s="2" t="b">
         <v>0</v>
@@ -16452,14 +16453,14 @@
       <c r="A703" s="2">
         <v>7291</v>
       </c>
-      <c r="B703" s="5" t="s">
-        <v>80</v>
+      <c r="B703" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E703" s="2" t="b">
         <v>0</v>
@@ -16472,14 +16473,14 @@
       <c r="A704" s="2">
         <v>7292</v>
       </c>
-      <c r="B704" s="5" t="s">
-        <v>80</v>
+      <c r="B704" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C704" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E704" s="2" t="b">
         <v>0</v>
@@ -16492,14 +16493,14 @@
       <c r="A705" s="2">
         <v>7293</v>
       </c>
-      <c r="B705" s="5" t="s">
-        <v>80</v>
+      <c r="B705" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C705" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E705" s="2" t="b">
         <v>0</v>
@@ -16512,14 +16513,14 @@
       <c r="A706" s="2">
         <v>7294</v>
       </c>
-      <c r="B706" s="5" t="s">
-        <v>80</v>
+      <c r="B706" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E706" s="2" t="b">
         <v>0</v>
@@ -16532,14 +16533,14 @@
       <c r="A707" s="2">
         <v>7295</v>
       </c>
-      <c r="B707" s="5" t="s">
-        <v>80</v>
+      <c r="B707" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E707" s="2" t="b">
         <v>0</v>
@@ -16552,14 +16553,14 @@
       <c r="A708" s="2">
         <v>7296</v>
       </c>
-      <c r="B708" s="5" t="s">
-        <v>80</v>
+      <c r="B708" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E708" s="2" t="b">
         <v>0</v>
@@ -16572,14 +16573,14 @@
       <c r="A709" s="2">
         <v>7297</v>
       </c>
-      <c r="B709" s="5" t="s">
-        <v>80</v>
+      <c r="B709" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E709" s="2" t="b">
         <v>0</v>
@@ -16596,10 +16597,10 @@
         <v>80</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E710" s="2" t="b">
         <v>0</v>
@@ -16612,14 +16613,14 @@
       <c r="A711" s="2">
         <v>7299</v>
       </c>
-      <c r="B711" s="5" t="s">
-        <v>80</v>
+      <c r="B711" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E711" s="2" t="b">
         <v>0</v>
@@ -16636,10 +16637,10 @@
         <v>80</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E712" s="2" t="b">
         <v>0</v>
@@ -16652,14 +16653,14 @@
       <c r="A713" s="2">
         <v>7301</v>
       </c>
-      <c r="B713" s="5" t="s">
-        <v>80</v>
+      <c r="B713" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E713" s="2" t="b">
         <v>0</v>
@@ -16676,10 +16677,10 @@
         <v>80</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E714" s="2" t="b">
         <v>0</v>
@@ -16696,10 +16697,10 @@
         <v>80</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E715" s="2" t="b">
         <v>0</v>
@@ -16712,14 +16713,14 @@
       <c r="A716" s="2">
         <v>7304</v>
       </c>
-      <c r="B716" s="5" t="s">
-        <v>80</v>
+      <c r="B716" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D716" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E716" s="2" t="b">
         <v>0</v>
@@ -16732,14 +16733,14 @@
       <c r="A717" s="2">
         <v>7305</v>
       </c>
-      <c r="B717" s="5" t="s">
-        <v>80</v>
+      <c r="B717" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D717" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E717" s="2" t="b">
         <v>0</v>
@@ -16756,10 +16757,10 @@
         <v>80</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D718" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E718" s="2" t="b">
         <v>0</v>
@@ -16779,7 +16780,7 @@
         <v>7</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E719" s="2" t="b">
         <v>0</v>
@@ -16796,10 +16797,10 @@
         <v>80</v>
       </c>
       <c r="C720" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E720" s="2" t="b">
         <v>0</v>
@@ -16819,7 +16820,7 @@
         <v>7</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E721" s="2" t="b">
         <v>0</v>
@@ -16832,14 +16833,14 @@
       <c r="A722" s="2">
         <v>7310</v>
       </c>
-      <c r="B722" s="5" t="s">
-        <v>80</v>
+      <c r="B722" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E722" s="2" t="b">
         <v>0</v>
@@ -16852,14 +16853,14 @@
       <c r="A723" s="2">
         <v>7311</v>
       </c>
-      <c r="B723" s="5" t="s">
-        <v>80</v>
+      <c r="B723" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D723" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E723" s="2" t="b">
         <v>0</v>
@@ -16872,14 +16873,14 @@
       <c r="A724" s="2">
         <v>7312</v>
       </c>
-      <c r="B724" s="5" t="s">
-        <v>80</v>
+      <c r="B724" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D724" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E724" s="2" t="b">
         <v>0</v>
@@ -16892,14 +16893,14 @@
       <c r="A725" s="2">
         <v>7313</v>
       </c>
-      <c r="B725" s="5" t="s">
-        <v>80</v>
+      <c r="B725" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E725" s="2" t="b">
         <v>0</v>
@@ -16916,10 +16917,10 @@
         <v>80</v>
       </c>
       <c r="C726" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D726" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E726" s="2" t="b">
         <v>0</v>
@@ -16932,14 +16933,14 @@
       <c r="A727" s="2">
         <v>7315</v>
       </c>
-      <c r="B727" s="5" t="s">
-        <v>80</v>
+      <c r="B727" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D727" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E727" s="2" t="b">
         <v>0</v>
@@ -16956,10 +16957,10 @@
         <v>80</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D728" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E728" s="2" t="b">
         <v>0</v>
@@ -16976,10 +16977,10 @@
         <v>80</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D729" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E729" s="2" t="b">
         <v>0</v>
@@ -16996,10 +16997,10 @@
         <v>80</v>
       </c>
       <c r="C730" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D730" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E730" s="2" t="b">
         <v>0</v>
@@ -17012,14 +17013,14 @@
       <c r="A731" s="2">
         <v>7319</v>
       </c>
-      <c r="B731" s="5" t="s">
-        <v>80</v>
+      <c r="B731" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E731" s="2" t="b">
         <v>0</v>
@@ -17032,14 +17033,14 @@
       <c r="A732" s="2">
         <v>7320</v>
       </c>
-      <c r="B732" s="5" t="s">
-        <v>80</v>
+      <c r="B732" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E732" s="2" t="b">
         <v>0</v>
@@ -17056,10 +17057,10 @@
         <v>80</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E733" s="2" t="b">
         <v>0</v>
@@ -17079,7 +17080,7 @@
         <v>7</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E734" s="2" t="b">
         <v>0</v>
@@ -17096,10 +17097,10 @@
         <v>80</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E735" s="2" t="b">
         <v>0</v>
@@ -17119,7 +17120,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E736" s="2" t="b">
         <v>0</v>
@@ -17132,14 +17133,14 @@
       <c r="A737" s="2">
         <v>7325</v>
       </c>
-      <c r="B737" s="5" t="s">
-        <v>80</v>
+      <c r="B737" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E737" s="2" t="b">
         <v>0</v>
@@ -17152,14 +17153,14 @@
       <c r="A738" s="2">
         <v>7326</v>
       </c>
-      <c r="B738" s="5" t="s">
-        <v>80</v>
+      <c r="B738" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E738" s="2" t="b">
         <v>0</v>
@@ -17172,14 +17173,14 @@
       <c r="A739" s="2">
         <v>7327</v>
       </c>
-      <c r="B739" s="5" t="s">
-        <v>80</v>
+      <c r="B739" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E739" s="2" t="b">
         <v>0</v>
@@ -17192,14 +17193,14 @@
       <c r="A740" s="2">
         <v>7328</v>
       </c>
-      <c r="B740" s="5" t="s">
-        <v>80</v>
+      <c r="B740" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C740" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E740" s="2" t="b">
         <v>0</v>
@@ -17216,10 +17217,10 @@
         <v>80</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E741" s="2" t="b">
         <v>0</v>
@@ -17232,14 +17233,14 @@
       <c r="A742" s="2">
         <v>7330</v>
       </c>
-      <c r="B742" s="5" t="s">
-        <v>80</v>
+      <c r="B742" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C742" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E742" s="2" t="b">
         <v>0</v>
@@ -17252,14 +17253,14 @@
       <c r="A743" s="2">
         <v>7331</v>
       </c>
-      <c r="B743" s="5" t="s">
-        <v>80</v>
+      <c r="B743" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C743" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E743" s="2" t="b">
         <v>0</v>
@@ -17272,14 +17273,14 @@
       <c r="A744" s="2">
         <v>7332</v>
       </c>
-      <c r="B744" s="5" t="s">
-        <v>80</v>
+      <c r="B744" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C744" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E744" s="2" t="b">
         <v>0</v>
@@ -17292,14 +17293,14 @@
       <c r="A745" s="2">
         <v>7333</v>
       </c>
-      <c r="B745" s="5" t="s">
-        <v>80</v>
+      <c r="B745" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C745" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E745" s="2" t="b">
         <v>0</v>
@@ -17316,10 +17317,10 @@
         <v>80</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E746" s="2" t="b">
         <v>0</v>
@@ -17336,10 +17337,10 @@
         <v>80</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E747" s="2" t="b">
         <v>0</v>
@@ -17352,14 +17353,14 @@
       <c r="A748" s="2">
         <v>7336</v>
       </c>
-      <c r="B748" s="5" t="s">
-        <v>80</v>
+      <c r="B748" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C748" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E748" s="2" t="b">
         <v>0</v>
@@ -17372,14 +17373,14 @@
       <c r="A749" s="2">
         <v>7337</v>
       </c>
-      <c r="B749" s="5" t="s">
-        <v>80</v>
+      <c r="B749" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C749" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E749" s="2" t="b">
         <v>0</v>
@@ -17392,14 +17393,14 @@
       <c r="A750" s="2">
         <v>7338</v>
       </c>
-      <c r="B750" s="5" t="s">
-        <v>80</v>
+      <c r="B750" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C750" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E750" s="2" t="b">
         <v>0</v>
@@ -17412,14 +17413,14 @@
       <c r="A751" s="2">
         <v>7339</v>
       </c>
-      <c r="B751" s="5" t="s">
-        <v>80</v>
+      <c r="B751" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C751" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E751" s="2" t="b">
         <v>0</v>
@@ -17436,10 +17437,10 @@
         <v>80</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E752" s="2" t="b">
         <v>0</v>
@@ -17456,10 +17457,10 @@
         <v>80</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E753" s="2" t="b">
         <v>0</v>
@@ -17476,10 +17477,10 @@
         <v>80</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E754" s="2" t="b">
         <v>0</v>
@@ -17496,10 +17497,10 @@
         <v>80</v>
       </c>
       <c r="C755" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E755" s="2" t="b">
         <v>0</v>
@@ -17516,10 +17517,10 @@
         <v>80</v>
       </c>
       <c r="C756" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E756" s="2" t="b">
         <v>0</v>
@@ -17536,10 +17537,10 @@
         <v>80</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E757" s="2" t="b">
         <v>0</v>
@@ -17556,10 +17557,10 @@
         <v>80</v>
       </c>
       <c r="C758" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E758" s="2" t="b">
         <v>0</v>
@@ -17576,10 +17577,10 @@
         <v>80</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E759" s="2" t="b">
         <v>0</v>
@@ -17592,14 +17593,14 @@
       <c r="A760" s="2">
         <v>7348</v>
       </c>
-      <c r="B760" s="5" t="s">
-        <v>80</v>
+      <c r="B760" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C760" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E760" s="2" t="b">
         <v>0</v>
@@ -17612,14 +17613,14 @@
       <c r="A761" s="2">
         <v>7349</v>
       </c>
-      <c r="B761" s="5" t="s">
-        <v>80</v>
+      <c r="B761" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C761" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E761" s="2" t="b">
         <v>0</v>
@@ -17632,14 +17633,14 @@
       <c r="A762" s="2">
         <v>7350</v>
       </c>
-      <c r="B762" s="5" t="s">
-        <v>80</v>
+      <c r="B762" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C762" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E762" s="2" t="b">
         <v>0</v>
@@ -17652,14 +17653,14 @@
       <c r="A763" s="2">
         <v>7351</v>
       </c>
-      <c r="B763" s="5" t="s">
-        <v>80</v>
+      <c r="B763" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C763" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E763" s="2" t="b">
         <v>0</v>
@@ -17672,14 +17673,14 @@
       <c r="A764" s="2">
         <v>7352</v>
       </c>
-      <c r="B764" s="5" t="s">
-        <v>80</v>
+      <c r="B764" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C764" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E764" s="2" t="b">
         <v>0</v>
@@ -17692,14 +17693,14 @@
       <c r="A765" s="2">
         <v>7353</v>
       </c>
-      <c r="B765" s="5" t="s">
-        <v>80</v>
+      <c r="B765" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C765" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E765" s="2" t="b">
         <v>0</v>
@@ -17713,13 +17714,13 @@
         <v>7354</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E766" s="2" t="b">
         <v>0</v>
@@ -17736,10 +17737,10 @@
         <v>80</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E767" s="2" t="b">
         <v>0</v>
@@ -17759,7 +17760,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E768" s="2" t="b">
         <v>0</v>
@@ -17772,14 +17773,14 @@
       <c r="A769" s="2">
         <v>7357</v>
       </c>
-      <c r="B769" s="5" t="s">
-        <v>80</v>
+      <c r="B769" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E769" s="2" t="b">
         <v>0</v>
@@ -17796,10 +17797,10 @@
         <v>80</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E770" s="2" t="b">
         <v>0</v>
@@ -17819,7 +17820,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E771" s="2" t="b">
         <v>0</v>
@@ -17832,14 +17833,14 @@
       <c r="A772" s="2">
         <v>7360</v>
       </c>
-      <c r="B772" s="5" t="s">
-        <v>80</v>
+      <c r="B772" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E772" s="2" t="b">
         <v>0</v>
@@ -17856,10 +17857,10 @@
         <v>80</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E773" s="2" t="b">
         <v>0</v>
@@ -17879,7 +17880,7 @@
         <v>6</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E774" s="2" t="b">
         <v>0</v>
@@ -17899,7 +17900,7 @@
         <v>6</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E775" s="2" t="b">
         <v>0</v>
@@ -17912,14 +17913,14 @@
       <c r="A776" s="2">
         <v>7364</v>
       </c>
-      <c r="B776" s="5" t="s">
-        <v>80</v>
+      <c r="B776" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E776" s="2" t="b">
         <v>0</v>
@@ -17936,10 +17937,10 @@
         <v>80</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E777" s="2" t="b">
         <v>0</v>
@@ -17953,13 +17954,13 @@
         <v>7366</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E778" s="2" t="b">
         <v>0</v>
@@ -17972,14 +17973,14 @@
       <c r="A779" s="2">
         <v>7367</v>
       </c>
-      <c r="B779" s="5" t="s">
-        <v>80</v>
+      <c r="B779" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E779" s="2" t="b">
         <v>0</v>
@@ -17992,14 +17993,14 @@
       <c r="A780" s="2">
         <v>7368</v>
       </c>
-      <c r="B780" s="5" t="s">
-        <v>80</v>
+      <c r="B780" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E780" s="2" t="b">
         <v>0</v>
@@ -18012,14 +18013,14 @@
       <c r="A781" s="2">
         <v>7369</v>
       </c>
-      <c r="B781" s="5" t="s">
-        <v>80</v>
+      <c r="B781" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E781" s="2" t="b">
         <v>0</v>
@@ -18036,7 +18037,7 @@
         <v>80</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D782" s="2" t="s">
         <v>234</v>
@@ -18059,7 +18060,7 @@
         <v>6</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E783" s="2" t="b">
         <v>0</v>
@@ -18072,14 +18073,14 @@
       <c r="A784" s="2">
         <v>7372</v>
       </c>
-      <c r="B784" s="5" t="s">
-        <v>80</v>
+      <c r="B784" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E784" s="2" t="b">
         <v>0</v>
@@ -18096,10 +18097,10 @@
         <v>80</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E785" s="2" t="b">
         <v>0</v>
@@ -18119,7 +18120,7 @@
         <v>6</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E786" s="2" t="b">
         <v>0</v>
@@ -18132,14 +18133,14 @@
       <c r="A787" s="2">
         <v>7375</v>
       </c>
-      <c r="B787" s="5" t="s">
-        <v>80</v>
+      <c r="B787" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E787" s="2" t="b">
         <v>0</v>
@@ -18156,10 +18157,10 @@
         <v>80</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E788" s="2" t="b">
         <v>0</v>
@@ -18179,7 +18180,7 @@
         <v>6</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E789" s="2" t="b">
         <v>0</v>
@@ -18199,7 +18200,7 @@
         <v>6</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E790" s="2" t="b">
         <v>0</v>
@@ -18212,14 +18213,14 @@
       <c r="A791" s="2">
         <v>7379</v>
       </c>
-      <c r="B791" s="5" t="s">
-        <v>80</v>
+      <c r="B791" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E791" s="2" t="b">
         <v>0</v>
@@ -18236,10 +18237,10 @@
         <v>80</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E792" s="2" t="b">
         <v>0</v>
@@ -18253,13 +18254,13 @@
         <v>7381</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E793" s="2" t="b">
         <v>0</v>
@@ -18272,14 +18273,14 @@
       <c r="A794" s="2">
         <v>7382</v>
       </c>
-      <c r="B794" s="5" t="s">
-        <v>80</v>
+      <c r="B794" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E794" s="2" t="b">
         <v>0</v>
@@ -18292,14 +18293,14 @@
       <c r="A795" s="2">
         <v>7383</v>
       </c>
-      <c r="B795" s="5" t="s">
-        <v>80</v>
+      <c r="B795" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E795" s="2" t="b">
         <v>0</v>
@@ -18312,14 +18313,14 @@
       <c r="A796" s="2">
         <v>7384</v>
       </c>
-      <c r="B796" s="5" t="s">
-        <v>80</v>
+      <c r="B796" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E796" s="2" t="b">
         <v>0</v>
@@ -18336,10 +18337,10 @@
         <v>80</v>
       </c>
       <c r="C797" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D797" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="D797" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="E797" s="2" t="b">
         <v>0</v>
@@ -18359,7 +18360,7 @@
         <v>6</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E798" s="2" t="b">
         <v>0</v>
@@ -18379,7 +18380,7 @@
         <v>4</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E799" s="2" t="b">
         <v>0</v>
@@ -18396,10 +18397,10 @@
         <v>80</v>
       </c>
       <c r="C800" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D800" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="D800" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="E800" s="2" t="b">
         <v>0</v>
@@ -18419,7 +18420,7 @@
         <v>7</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E801" s="2" t="b">
         <v>0</v>
@@ -18439,7 +18440,7 @@
         <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E802" s="2" t="b">
         <v>0</v>
@@ -18452,14 +18453,14 @@
       <c r="A803" s="2">
         <v>7391</v>
       </c>
-      <c r="B803" s="5" t="s">
-        <v>80</v>
+      <c r="B803" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E803" s="2" t="b">
         <v>0</v>
@@ -18472,14 +18473,14 @@
       <c r="A804" s="2">
         <v>7392</v>
       </c>
-      <c r="B804" s="5" t="s">
-        <v>80</v>
+      <c r="B804" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E804" s="2" t="b">
         <v>0</v>
@@ -18492,14 +18493,14 @@
       <c r="A805" s="2">
         <v>7393</v>
       </c>
-      <c r="B805" s="5" t="s">
-        <v>80</v>
+      <c r="B805" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E805" s="2" t="b">
         <v>0</v>
@@ -18512,14 +18513,14 @@
       <c r="A806" s="2">
         <v>7394</v>
       </c>
-      <c r="B806" s="5" t="s">
-        <v>80</v>
+      <c r="B806" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E806" s="2" t="b">
         <v>0</v>
@@ -18532,14 +18533,14 @@
       <c r="A807" s="2">
         <v>7395</v>
       </c>
-      <c r="B807" s="5" t="s">
-        <v>80</v>
+      <c r="B807" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E807" s="2" t="b">
         <v>0</v>
@@ -18552,14 +18553,14 @@
       <c r="A808" s="2">
         <v>7396</v>
       </c>
-      <c r="B808" s="5" t="s">
-        <v>80</v>
+      <c r="B808" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E808" s="2" t="b">
         <v>0</v>
@@ -18572,40 +18573,20 @@
       <c r="A809" s="2">
         <v>7397</v>
       </c>
-      <c r="B809" s="5" t="s">
-        <v>80</v>
+      <c r="B809" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E809" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F809" s="2">
         <v>807</v>
-      </c>
-    </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A810" s="2">
-        <v>7398</v>
-      </c>
-      <c r="B810" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C810" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D810" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E810" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F810" s="2">
-        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dfcdd5a0059d54a/바탕 화면/프로젝트 S/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{FDEE07F2-F471-4CE4-A28F-8D4960C96115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCB21AF-1752-48C1-BD83-BA41CD254820}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01502D69-81C0-43AD-A112-01F173DE7864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="565">
   <si>
     <t>NPC</t>
   </si>
@@ -1947,6 +1947,10 @@
   </si>
   <si>
     <t>제게 물어보고 싶으신 게 꽤 많으실 겁니다. 천천히 물어보시지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2392,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:F809"/>
+  <dimension ref="A1:F810"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A794" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B658" sqref="B658"/>
+      <selection activeCell="A810" sqref="A810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -18589,6 +18593,26 @@
         <v>807</v>
       </c>
     </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A810" s="2">
+        <v>7398</v>
+      </c>
+      <c r="B810" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E810" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F810" s="2">
+        <v>808</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F606" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01502D69-81C0-43AD-A112-01F173DE7864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9EA0E-4DC8-4CB9-87B0-CF1342E81FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="567">
   <si>
     <t>NPC</t>
   </si>
@@ -1269,9 +1269,6 @@
   </si>
   <si>
     <t>청이의 행방에 대하여 말을 걸었다.</t>
-  </si>
-  <si>
-    <t>청이와 장터에 대하여 말을 걸었다.</t>
   </si>
   <si>
     <t>청이와 사내에 대하여 말을 걸었다.</t>
@@ -1947,6 +1944,18 @@
   </si>
   <si>
     <t>제게 물어보고 싶으신 게 꽤 많으실 겁니다. 천천히 물어보시지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약초를 달이려면 물도 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이보게!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청이와 장터에 대하여 말을 걸었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2040,7 +2049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2070,6 +2079,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2396,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
-  <dimension ref="A1:F810"/>
+  <dimension ref="A1:F811"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A794" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A810" sqref="A810"/>
+      <selection activeCell="A812" sqref="A812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -2818,7 +2830,7 @@
         <v>5020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>150</v>
@@ -3538,7 +3550,7 @@
         <v>5099</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>150</v>
@@ -4678,7 +4690,7 @@
         <v>5218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>150</v>
@@ -5998,7 +6010,7 @@
         <v>5365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>150</v>
@@ -6018,7 +6030,7 @@
         <v>5366</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>150</v>
@@ -6778,7 +6790,7 @@
         <v>5440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>150</v>
@@ -6818,7 +6830,7 @@
         <v>5442</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>150</v>
@@ -7138,7 +7150,7 @@
         <v>5476</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>150</v>
@@ -7198,7 +7210,7 @@
         <v>5479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>150</v>
@@ -7258,7 +7270,7 @@
         <v>5482</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>150</v>
@@ -7278,7 +7290,7 @@
         <v>5483</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>150</v>
@@ -7338,7 +7350,7 @@
         <v>5486</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>150</v>
@@ -7358,7 +7370,7 @@
         <v>5487</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>150</v>
@@ -7384,7 +7396,7 @@
         <v>240</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E249" s="2" t="b">
         <v>0</v>
@@ -7738,7 +7750,7 @@
         <v>5716</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>150</v>
@@ -8078,7 +8090,7 @@
         <v>5733</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>150</v>
@@ -8258,7 +8270,7 @@
         <v>5742</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>150</v>
@@ -9398,7 +9410,7 @@
         <v>5799</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>150</v>
@@ -9644,7 +9656,7 @@
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E362" s="2" t="b">
         <v>0</v>
@@ -10658,7 +10670,7 @@
         <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>150</v>
@@ -10678,7 +10690,7 @@
         <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>150</v>
@@ -10698,7 +10710,7 @@
         <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>150</v>
@@ -10738,7 +10750,7 @@
         <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>150</v>
@@ -10758,7 +10770,7 @@
         <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>150</v>
@@ -10778,7 +10790,7 @@
         <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>150</v>
@@ -10798,7 +10810,7 @@
         <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>150</v>
@@ -10818,7 +10830,7 @@
         <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>150</v>
@@ -10838,7 +10850,7 @@
         <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>150</v>
@@ -10858,7 +10870,7 @@
         <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>150</v>
@@ -10878,7 +10890,7 @@
         <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>150</v>
@@ -10898,7 +10910,7 @@
         <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>150</v>
@@ -10918,7 +10930,7 @@
         <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>150</v>
@@ -10938,7 +10950,7 @@
         <v>7015</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>150</v>
@@ -10958,7 +10970,7 @@
         <v>7016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>150</v>
@@ -10998,7 +11010,7 @@
         <v>7018</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>150</v>
@@ -11018,13 +11030,13 @@
         <v>7019</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E431" s="2" t="b">
         <v>0</v>
@@ -11038,7 +11050,7 @@
         <v>7020</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>150</v>
@@ -11058,7 +11070,7 @@
         <v>7021</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>150</v>
@@ -11078,7 +11090,7 @@
         <v>7022</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>150</v>
@@ -11098,7 +11110,7 @@
         <v>7023</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>150</v>
@@ -11118,7 +11130,7 @@
         <v>7024</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>150</v>
@@ -11138,7 +11150,7 @@
         <v>7025</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>150</v>
@@ -11164,7 +11176,7 @@
         <v>7</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E438" s="2" t="b">
         <v>0</v>
@@ -11178,13 +11190,13 @@
         <v>7027</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E439" s="2" t="b">
         <v>0</v>
@@ -11201,10 +11213,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E440" s="2" t="b">
         <v>0</v>
@@ -11224,7 +11236,7 @@
         <v>7</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E441" s="2" t="b">
         <v>0</v>
@@ -11238,13 +11250,13 @@
         <v>7030</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E442" s="2" t="b">
         <v>0</v>
@@ -11258,13 +11270,13 @@
         <v>7031</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E443" s="2" t="b">
         <v>0</v>
@@ -11278,13 +11290,13 @@
         <v>7032</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E444" s="2" t="b">
         <v>0</v>
@@ -11298,13 +11310,13 @@
         <v>7033</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E445" s="2" t="b">
         <v>0</v>
@@ -11318,13 +11330,13 @@
         <v>7034</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E446" s="2" t="b">
         <v>0</v>
@@ -11344,7 +11356,7 @@
         <v>8</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E447" s="2" t="b">
         <v>0</v>
@@ -11358,13 +11370,13 @@
         <v>7036</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E448" s="2" t="b">
         <v>0</v>
@@ -11381,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="C449" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D449" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D449" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="E449" s="2" t="b">
         <v>0</v>
@@ -11404,7 +11416,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E450" s="2" t="b">
         <v>0</v>
@@ -11418,13 +11430,13 @@
         <v>7039</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E451" s="2" t="b">
         <v>0</v>
@@ -11438,13 +11450,13 @@
         <v>7040</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E452" s="2" t="b">
         <v>0</v>
@@ -11458,13 +11470,13 @@
         <v>7041</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E453" s="2" t="b">
         <v>0</v>
@@ -11478,13 +11490,13 @@
         <v>7042</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E454" s="2" t="b">
         <v>0</v>
@@ -11501,10 +11513,10 @@
         <v>0</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E455" s="2" t="b">
         <v>0</v>
@@ -11518,13 +11530,13 @@
         <v>7044</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E456" s="2" t="b">
         <v>0</v>
@@ -11538,13 +11550,13 @@
         <v>7045</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E457" s="2" t="b">
         <v>0</v>
@@ -11558,13 +11570,13 @@
         <v>7046</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E458" s="2" t="b">
         <v>0</v>
@@ -11578,13 +11590,13 @@
         <v>7047</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E459" s="2" t="b">
         <v>0</v>
@@ -11598,13 +11610,13 @@
         <v>7048</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E460" s="2" t="b">
         <v>0</v>
@@ -11618,13 +11630,13 @@
         <v>7049</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E461" s="2" t="b">
         <v>0</v>
@@ -11638,13 +11650,13 @@
         <v>7050</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E462" s="2" t="b">
         <v>0</v>
@@ -11658,13 +11670,13 @@
         <v>7051</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E463" s="2" t="b">
         <v>0</v>
@@ -11678,13 +11690,13 @@
         <v>7052</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E464" s="2" t="b">
         <v>0</v>
@@ -11701,10 +11713,10 @@
         <v>0</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E465" s="2" t="b">
         <v>0</v>
@@ -11718,13 +11730,13 @@
         <v>7054</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E466" s="2" t="b">
         <v>0</v>
@@ -11741,10 +11753,10 @@
         <v>0</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E467" s="2" t="b">
         <v>0</v>
@@ -11758,13 +11770,13 @@
         <v>7056</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E468" s="2" t="b">
         <v>0</v>
@@ -11781,10 +11793,10 @@
         <v>0</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E469" s="2" t="b">
         <v>0</v>
@@ -11801,10 +11813,10 @@
         <v>0</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E470" s="2" t="b">
         <v>0</v>
@@ -11818,13 +11830,13 @@
         <v>7059</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E471" s="2" t="b">
         <v>0</v>
@@ -11838,13 +11850,13 @@
         <v>7060</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E472" s="2" t="b">
         <v>0</v>
@@ -11861,10 +11873,10 @@
         <v>0</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E473" s="2" t="b">
         <v>0</v>
@@ -11884,7 +11896,7 @@
         <v>7</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E474" s="2" t="b">
         <v>0</v>
@@ -11901,10 +11913,10 @@
         <v>0</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E475" s="2" t="b">
         <v>0</v>
@@ -11924,7 +11936,7 @@
         <v>7</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E476" s="2" t="b">
         <v>0</v>
@@ -11938,13 +11950,13 @@
         <v>7065</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E477" s="2" t="b">
         <v>0</v>
@@ -11958,13 +11970,13 @@
         <v>7066</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E478" s="2" t="b">
         <v>0</v>
@@ -11978,13 +11990,13 @@
         <v>7067</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E479" s="2" t="b">
         <v>0</v>
@@ -11998,13 +12010,13 @@
         <v>7068</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E480" s="2" t="b">
         <v>0</v>
@@ -12021,10 +12033,10 @@
         <v>0</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E481" s="2" t="b">
         <v>0</v>
@@ -12038,13 +12050,13 @@
         <v>7070</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E482" s="2" t="b">
         <v>0</v>
@@ -12061,10 +12073,10 @@
         <v>0</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E483" s="2" t="b">
         <v>0</v>
@@ -12081,10 +12093,10 @@
         <v>0</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E484" s="2" t="b">
         <v>0</v>
@@ -12101,10 +12113,10 @@
         <v>0</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E485" s="2" t="b">
         <v>0</v>
@@ -12118,13 +12130,13 @@
         <v>7074</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E486" s="2" t="b">
         <v>0</v>
@@ -12138,13 +12150,13 @@
         <v>7075</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E487" s="2" t="b">
         <v>0</v>
@@ -12161,10 +12173,10 @@
         <v>0</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E488" s="2" t="b">
         <v>0</v>
@@ -12184,7 +12196,7 @@
         <v>7</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>461</v>
+        <v>564</v>
       </c>
       <c r="E489" s="2" t="b">
         <v>0</v>
@@ -12201,10 +12213,10 @@
         <v>0</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E490" s="2" t="b">
         <v>0</v>
@@ -12224,7 +12236,7 @@
         <v>7</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E491" s="2" t="b">
         <v>0</v>
@@ -12238,13 +12250,13 @@
         <v>7080</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E492" s="2" t="b">
         <v>0</v>
@@ -12258,13 +12270,13 @@
         <v>7081</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E493" s="2" t="b">
         <v>0</v>
@@ -12278,13 +12290,13 @@
         <v>7082</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E494" s="2" t="b">
         <v>0</v>
@@ -12298,13 +12310,13 @@
         <v>7083</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E495" s="2" t="b">
         <v>0</v>
@@ -12321,10 +12333,10 @@
         <v>0</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E496" s="2" t="b">
         <v>0</v>
@@ -12338,13 +12350,13 @@
         <v>7085</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E497" s="2" t="b">
         <v>0</v>
@@ -12358,13 +12370,13 @@
         <v>7086</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E498" s="2" t="b">
         <v>0</v>
@@ -12378,13 +12390,13 @@
         <v>7087</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E499" s="2" t="b">
         <v>0</v>
@@ -12398,13 +12410,13 @@
         <v>7088</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E500" s="2" t="b">
         <v>0</v>
@@ -12421,10 +12433,10 @@
         <v>0</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D501" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E501" s="2" t="b">
         <v>0</v>
@@ -12441,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E502" s="2" t="b">
         <v>0</v>
@@ -12458,13 +12470,13 @@
         <v>7091</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E503" s="2" t="b">
         <v>0</v>
@@ -12478,13 +12490,13 @@
         <v>7092</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E504" s="2" t="b">
         <v>0</v>
@@ -12498,13 +12510,13 @@
         <v>7093</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E505" s="2" t="b">
         <v>0</v>
@@ -12518,13 +12530,13 @@
         <v>7094</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E506" s="2" t="b">
         <v>0</v>
@@ -12541,10 +12553,10 @@
         <v>0</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E507" s="2" t="b">
         <v>0</v>
@@ -12561,10 +12573,10 @@
         <v>0</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E508" s="2" t="b">
         <v>0</v>
@@ -12581,10 +12593,10 @@
         <v>0</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D509" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E509" s="2" t="b">
         <v>0</v>
@@ -12601,10 +12613,10 @@
         <v>0</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E510" s="2" t="b">
         <v>0</v>
@@ -12621,10 +12633,10 @@
         <v>0</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E511" s="2" t="b">
         <v>0</v>
@@ -12641,10 +12653,10 @@
         <v>0</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D512" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E512" s="2" t="b">
         <v>0</v>
@@ -12661,10 +12673,10 @@
         <v>0</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D513" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E513" s="2" t="b">
         <v>0</v>
@@ -12681,10 +12693,10 @@
         <v>0</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D514" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E514" s="2" t="b">
         <v>0</v>
@@ -12698,13 +12710,13 @@
         <v>7103</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D515" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E515" s="2" t="b">
         <v>0</v>
@@ -12718,13 +12730,13 @@
         <v>7104</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D516" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E516" s="2" t="b">
         <v>0</v>
@@ -12738,13 +12750,13 @@
         <v>7105</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D517" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E517" s="2" t="b">
         <v>0</v>
@@ -12758,13 +12770,13 @@
         <v>7106</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D518" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E518" s="2" t="b">
         <v>0</v>
@@ -12778,13 +12790,13 @@
         <v>7107</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D519" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E519" s="2" t="b">
         <v>0</v>
@@ -12798,13 +12810,13 @@
         <v>7108</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E520" s="2" t="b">
         <v>0</v>
@@ -12818,7 +12830,7 @@
         <v>7109</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>337</v>
@@ -12838,7 +12850,7 @@
         <v>7110</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>337</v>
@@ -12858,7 +12870,7 @@
         <v>7111</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>337</v>
@@ -12878,7 +12890,7 @@
         <v>7112</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C524" s="7" t="s">
         <v>337</v>
@@ -12898,7 +12910,7 @@
         <v>7113</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C525" s="7" t="s">
         <v>337</v>
@@ -12918,7 +12930,7 @@
         <v>7114</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>337</v>
@@ -12938,7 +12950,7 @@
         <v>7115</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C527" s="7" t="s">
         <v>337</v>
@@ -12958,7 +12970,7 @@
         <v>7116</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>337</v>
@@ -12978,7 +12990,7 @@
         <v>7117</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C529" s="7" t="s">
         <v>337</v>
@@ -12998,7 +13010,7 @@
         <v>7118</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>337</v>
@@ -13018,7 +13030,7 @@
         <v>7119</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C531" s="7" t="s">
         <v>337</v>
@@ -13038,7 +13050,7 @@
         <v>7120</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C532" s="7" t="s">
         <v>337</v>
@@ -13058,7 +13070,7 @@
         <v>7121</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>337</v>
@@ -13078,7 +13090,7 @@
         <v>7122</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>337</v>
@@ -13098,7 +13110,7 @@
         <v>7123</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>337</v>
@@ -13118,7 +13130,7 @@
         <v>7124</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>337</v>
@@ -13138,13 +13150,13 @@
         <v>7125</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D537" s="8" t="s">
-        <v>354</v>
+        <v>565</v>
       </c>
       <c r="E537" s="2" t="b">
         <v>0</v>
@@ -13158,13 +13170,13 @@
         <v>7126</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D538" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E538" s="2" t="b">
         <v>0</v>
@@ -13178,13 +13190,13 @@
         <v>7127</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D539" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E539" s="2" t="b">
         <v>0</v>
@@ -13198,13 +13210,13 @@
         <v>7128</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D540" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E540" s="2" t="b">
         <v>0</v>
@@ -13218,13 +13230,13 @@
         <v>7129</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D541" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E541" s="2" t="b">
         <v>0</v>
@@ -13238,13 +13250,13 @@
         <v>7130</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D542" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E542" s="2" t="b">
         <v>0</v>
@@ -13258,13 +13270,13 @@
         <v>7131</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C543" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D543" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E543" s="2" t="b">
         <v>0</v>
@@ -13278,13 +13290,13 @@
         <v>7132</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D544" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E544" s="2" t="b">
         <v>0</v>
@@ -13298,13 +13310,13 @@
         <v>7133</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C545" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D545" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E545" s="2" t="b">
         <v>0</v>
@@ -13318,13 +13330,13 @@
         <v>7134</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C546" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D546" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E546" s="2" t="b">
         <v>0</v>
@@ -13338,13 +13350,13 @@
         <v>7135</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C547" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D547" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E547" s="2" t="b">
         <v>0</v>
@@ -13358,13 +13370,13 @@
         <v>7136</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C548" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D548" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E548" s="2" t="b">
         <v>0</v>
@@ -13378,13 +13390,13 @@
         <v>7137</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C549" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D549" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E549" s="2" t="b">
         <v>0</v>
@@ -13398,13 +13410,13 @@
         <v>7138</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C550" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D550" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E550" s="2" t="b">
         <v>0</v>
@@ -13418,13 +13430,13 @@
         <v>7139</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C551" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D551" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E551" s="2" t="b">
         <v>0</v>
@@ -13438,13 +13450,13 @@
         <v>7140</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C552" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D552" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E552" s="2" t="b">
         <v>0</v>
@@ -13458,13 +13470,13 @@
         <v>7141</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C553" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D553" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E553" s="2" t="b">
         <v>0</v>
@@ -13478,13 +13490,13 @@
         <v>7142</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C554" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D554" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E554" s="2" t="b">
         <v>0</v>
@@ -13498,13 +13510,13 @@
         <v>7143</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C555" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D555" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E555" s="2" t="b">
         <v>0</v>
@@ -13518,13 +13530,13 @@
         <v>7144</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C556" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D556" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E556" s="2" t="b">
         <v>0</v>
@@ -13538,13 +13550,13 @@
         <v>7145</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C557" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D557" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E557" s="2" t="b">
         <v>0</v>
@@ -13558,13 +13570,13 @@
         <v>7146</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C558" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D558" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E558" s="2" t="b">
         <v>0</v>
@@ -13578,13 +13590,13 @@
         <v>7147</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C559" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D559" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E559" s="2" t="b">
         <v>0</v>
@@ -13598,13 +13610,13 @@
         <v>7148</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C560" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D560" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E560" s="2" t="b">
         <v>0</v>
@@ -13618,13 +13630,13 @@
         <v>7149</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C561" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D561" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E561" s="2" t="b">
         <v>0</v>
@@ -13638,13 +13650,13 @@
         <v>7150</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C562" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D562" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E562" s="2" t="b">
         <v>0</v>
@@ -13658,13 +13670,13 @@
         <v>7151</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C563" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D563" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E563" s="2" t="b">
         <v>0</v>
@@ -13678,13 +13690,13 @@
         <v>7152</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C564" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D564" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E564" s="2" t="b">
         <v>0</v>
@@ -13701,10 +13713,10 @@
         <v>0</v>
       </c>
       <c r="C565" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D565" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="D565" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="E565" s="2" t="b">
         <v>0</v>
@@ -13721,10 +13733,10 @@
         <v>0</v>
       </c>
       <c r="C566" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E566" s="2" t="b">
         <v>0</v>
@@ -13741,10 +13753,10 @@
         <v>0</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E567" s="2" t="b">
         <v>0</v>
@@ -13761,10 +13773,10 @@
         <v>0</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E568" s="2" t="b">
         <v>0</v>
@@ -13781,10 +13793,10 @@
         <v>0</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E569" s="2" t="b">
         <v>0</v>
@@ -13801,10 +13813,10 @@
         <v>0</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E570" s="2" t="b">
         <v>0</v>
@@ -13821,10 +13833,10 @@
         <v>0</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D571" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E571" s="2" t="b">
         <v>0</v>
@@ -13841,10 +13853,10 @@
         <v>0</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E572" s="2" t="b">
         <v>0</v>
@@ -13861,10 +13873,10 @@
         <v>0</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D573" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E573" s="2" t="b">
         <v>0</v>
@@ -13881,10 +13893,10 @@
         <v>0</v>
       </c>
       <c r="C574" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D574" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E574" s="2" t="b">
         <v>0</v>
@@ -13901,10 +13913,10 @@
         <v>0</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E575" s="2" t="b">
         <v>0</v>
@@ -13921,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E576" s="2" t="b">
         <v>0</v>
@@ -13941,10 +13953,10 @@
         <v>0</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D577" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E577" s="2" t="b">
         <v>0</v>
@@ -13961,10 +13973,10 @@
         <v>0</v>
       </c>
       <c r="C578" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E578" s="2" t="b">
         <v>0</v>
@@ -13981,10 +13993,10 @@
         <v>0</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D579" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E579" s="2" t="b">
         <v>0</v>
@@ -14001,10 +14013,10 @@
         <v>0</v>
       </c>
       <c r="C580" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D580" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E580" s="2" t="b">
         <v>0</v>
@@ -14021,10 +14033,10 @@
         <v>0</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D581" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E581" s="2" t="b">
         <v>0</v>
@@ -14041,10 +14053,10 @@
         <v>0</v>
       </c>
       <c r="C582" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D582" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E582" s="2" t="b">
         <v>0</v>
@@ -14061,10 +14073,10 @@
         <v>0</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E583" s="2" t="b">
         <v>0</v>
@@ -14081,10 +14093,10 @@
         <v>0</v>
       </c>
       <c r="C584" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D584" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E584" s="2" t="b">
         <v>0</v>
@@ -14101,10 +14113,10 @@
         <v>0</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E585" s="2" t="b">
         <v>0</v>
@@ -14121,10 +14133,10 @@
         <v>0</v>
       </c>
       <c r="C586" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D586" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E586" s="2" t="b">
         <v>0</v>
@@ -14141,10 +14153,10 @@
         <v>0</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E587" s="2" t="b">
         <v>0</v>
@@ -14161,10 +14173,10 @@
         <v>0</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D588" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E588" s="2" t="b">
         <v>0</v>
@@ -14181,10 +14193,10 @@
         <v>0</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E589" s="2" t="b">
         <v>0</v>
@@ -14201,10 +14213,10 @@
         <v>0</v>
       </c>
       <c r="C590" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E590" s="2" t="b">
         <v>0</v>
@@ -14221,10 +14233,10 @@
         <v>0</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D591" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E591" s="2" t="b">
         <v>0</v>
@@ -14241,10 +14253,10 @@
         <v>0</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D592" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E592" s="2" t="b">
         <v>0</v>
@@ -14261,10 +14273,10 @@
         <v>0</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D593" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E593" s="2" t="b">
         <v>0</v>
@@ -14281,10 +14293,10 @@
         <v>0</v>
       </c>
       <c r="C594" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D594" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E594" s="2" t="b">
         <v>0</v>
@@ -14301,10 +14313,10 @@
         <v>0</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D595" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E595" s="2" t="b">
         <v>0</v>
@@ -14321,10 +14333,10 @@
         <v>0</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D596" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E596" s="2" t="b">
         <v>0</v>
@@ -14341,10 +14353,10 @@
         <v>0</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D597" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E597" s="2" t="b">
         <v>0</v>
@@ -14361,10 +14373,10 @@
         <v>0</v>
       </c>
       <c r="C598" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D598" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E598" s="2" t="b">
         <v>0</v>
@@ -14381,10 +14393,10 @@
         <v>0</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E599" s="2" t="b">
         <v>0</v>
@@ -14401,10 +14413,10 @@
         <v>0</v>
       </c>
       <c r="C600" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D600" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E600" s="2" t="b">
         <v>0</v>
@@ -14421,10 +14433,10 @@
         <v>0</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D601" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E601" s="2" t="b">
         <v>0</v>
@@ -14441,10 +14453,10 @@
         <v>0</v>
       </c>
       <c r="C602" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D602" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E602" s="2" t="b">
         <v>0</v>
@@ -14461,10 +14473,10 @@
         <v>0</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D603" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E603" s="2" t="b">
         <v>0</v>
@@ -14481,10 +14493,10 @@
         <v>0</v>
       </c>
       <c r="C604" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D604" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E604" s="2" t="b">
         <v>0</v>
@@ -14501,10 +14513,10 @@
         <v>0</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E605" s="2" t="b">
         <v>0</v>
@@ -14518,13 +14530,13 @@
         <v>7194</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C606" s="6" t="s">
         <v>337</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E606" s="2" t="b">
         <v>0</v>
@@ -14764,7 +14776,7 @@
         <v>4</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E618" s="2" t="b">
         <v>0</v>
@@ -14844,7 +14856,7 @@
         <v>8</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E622" s="2" t="b">
         <v>0</v>
@@ -14924,7 +14936,7 @@
         <v>4</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E626" s="2" t="b">
         <v>0</v>
@@ -15004,7 +15016,7 @@
         <v>8</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E630" s="2" t="b">
         <v>0</v>
@@ -15164,7 +15176,7 @@
         <v>7</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E638" s="2" t="b">
         <v>0</v>
@@ -15224,7 +15236,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E641" s="2" t="b">
         <v>0</v>
@@ -15244,7 +15256,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E642" s="2" t="b">
         <v>0</v>
@@ -15558,7 +15570,7 @@
         <v>7246</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>150</v>
@@ -15578,7 +15590,7 @@
         <v>7247</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>150</v>
@@ -15598,7 +15610,7 @@
         <v>7248</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>150</v>
@@ -15638,7 +15650,7 @@
         <v>7250</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>150</v>
@@ -15658,7 +15670,7 @@
         <v>7251</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>150</v>
@@ -15678,7 +15690,7 @@
         <v>7252</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>150</v>
@@ -15698,7 +15710,7 @@
         <v>7253</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>150</v>
@@ -15718,7 +15730,7 @@
         <v>7254</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>150</v>
@@ -15738,7 +15750,7 @@
         <v>7255</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>150</v>
@@ -15758,7 +15770,7 @@
         <v>7256</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>150</v>
@@ -15778,7 +15790,7 @@
         <v>7257</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>150</v>
@@ -15798,7 +15810,7 @@
         <v>7258</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>150</v>
@@ -15818,7 +15830,7 @@
         <v>7259</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>150</v>
@@ -15838,7 +15850,7 @@
         <v>7260</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>150</v>
@@ -15858,7 +15870,7 @@
         <v>7261</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>150</v>
@@ -15898,7 +15910,7 @@
         <v>7263</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>150</v>
@@ -15918,7 +15930,7 @@
         <v>7264</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>150</v>
@@ -15938,7 +15950,7 @@
         <v>7265</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>150</v>
@@ -15958,7 +15970,7 @@
         <v>7266</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>150</v>
@@ -15978,7 +15990,7 @@
         <v>7267</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>150</v>
@@ -15998,7 +16010,7 @@
         <v>7268</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>150</v>
@@ -16018,7 +16030,7 @@
         <v>7269</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>150</v>
@@ -16038,7 +16050,7 @@
         <v>7270</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>150</v>
@@ -16064,7 +16076,7 @@
         <v>7</v>
       </c>
       <c r="D683" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E683" s="2" t="b">
         <v>0</v>
@@ -16078,13 +16090,13 @@
         <v>7272</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D684" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E684" s="2" t="b">
         <v>0</v>
@@ -16101,10 +16113,10 @@
         <v>80</v>
       </c>
       <c r="C685" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D685" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E685" s="2" t="b">
         <v>0</v>
@@ -16124,7 +16136,7 @@
         <v>7</v>
       </c>
       <c r="D686" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E686" s="2" t="b">
         <v>0</v>
@@ -16138,13 +16150,13 @@
         <v>7275</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D687" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E687" s="2" t="b">
         <v>0</v>
@@ -16158,13 +16170,13 @@
         <v>7276</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D688" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E688" s="2" t="b">
         <v>0</v>
@@ -16178,13 +16190,13 @@
         <v>7277</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D689" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E689" s="2" t="b">
         <v>0</v>
@@ -16198,13 +16210,13 @@
         <v>7278</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D690" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E690" s="2" t="b">
         <v>0</v>
@@ -16218,13 +16230,13 @@
         <v>7279</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E691" s="2" t="b">
         <v>0</v>
@@ -16244,7 +16256,7 @@
         <v>8</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E692" s="2" t="b">
         <v>0</v>
@@ -16258,13 +16270,13 @@
         <v>7281</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E693" s="2" t="b">
         <v>0</v>
@@ -16281,10 +16293,10 @@
         <v>80</v>
       </c>
       <c r="C694" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D694" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D694" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="E694" s="2" t="b">
         <v>0</v>
@@ -16304,7 +16316,7 @@
         <v>7</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E695" s="2" t="b">
         <v>0</v>
@@ -16318,13 +16330,13 @@
         <v>7284</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E696" s="2" t="b">
         <v>0</v>
@@ -16338,13 +16350,13 @@
         <v>7285</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E697" s="2" t="b">
         <v>0</v>
@@ -16358,13 +16370,13 @@
         <v>7286</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E698" s="2" t="b">
         <v>0</v>
@@ -16378,13 +16390,13 @@
         <v>7287</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E699" s="2" t="b">
         <v>0</v>
@@ -16401,10 +16413,10 @@
         <v>80</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E700" s="2" t="b">
         <v>0</v>
@@ -16418,13 +16430,13 @@
         <v>7289</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E701" s="2" t="b">
         <v>0</v>
@@ -16438,13 +16450,13 @@
         <v>7290</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E702" s="2" t="b">
         <v>0</v>
@@ -16458,13 +16470,13 @@
         <v>7291</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E703" s="2" t="b">
         <v>0</v>
@@ -16478,13 +16490,13 @@
         <v>7292</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C704" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E704" s="2" t="b">
         <v>0</v>
@@ -16498,13 +16510,13 @@
         <v>7293</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C705" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E705" s="2" t="b">
         <v>0</v>
@@ -16518,13 +16530,13 @@
         <v>7294</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E706" s="2" t="b">
         <v>0</v>
@@ -16538,13 +16550,13 @@
         <v>7295</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E707" s="2" t="b">
         <v>0</v>
@@ -16558,13 +16570,13 @@
         <v>7296</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E708" s="2" t="b">
         <v>0</v>
@@ -16578,13 +16590,13 @@
         <v>7297</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E709" s="2" t="b">
         <v>0</v>
@@ -16601,10 +16613,10 @@
         <v>80</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E710" s="2" t="b">
         <v>0</v>
@@ -16618,13 +16630,13 @@
         <v>7299</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E711" s="2" t="b">
         <v>0</v>
@@ -16641,10 +16653,10 @@
         <v>80</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E712" s="2" t="b">
         <v>0</v>
@@ -16658,13 +16670,13 @@
         <v>7301</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E713" s="2" t="b">
         <v>0</v>
@@ -16681,10 +16693,10 @@
         <v>80</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E714" s="2" t="b">
         <v>0</v>
@@ -16701,10 +16713,10 @@
         <v>80</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E715" s="2" t="b">
         <v>0</v>
@@ -16718,13 +16730,13 @@
         <v>7304</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D716" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E716" s="2" t="b">
         <v>0</v>
@@ -16738,13 +16750,13 @@
         <v>7305</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D717" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E717" s="2" t="b">
         <v>0</v>
@@ -16761,10 +16773,10 @@
         <v>80</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D718" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E718" s="2" t="b">
         <v>0</v>
@@ -16784,7 +16796,7 @@
         <v>7</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E719" s="2" t="b">
         <v>0</v>
@@ -16801,10 +16813,10 @@
         <v>80</v>
       </c>
       <c r="C720" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E720" s="2" t="b">
         <v>0</v>
@@ -16824,7 +16836,7 @@
         <v>7</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E721" s="2" t="b">
         <v>0</v>
@@ -16838,13 +16850,13 @@
         <v>7310</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E722" s="2" t="b">
         <v>0</v>
@@ -16858,13 +16870,13 @@
         <v>7311</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D723" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E723" s="2" t="b">
         <v>0</v>
@@ -16878,13 +16890,13 @@
         <v>7312</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D724" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E724" s="2" t="b">
         <v>0</v>
@@ -16898,13 +16910,13 @@
         <v>7313</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E725" s="2" t="b">
         <v>0</v>
@@ -16921,10 +16933,10 @@
         <v>80</v>
       </c>
       <c r="C726" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D726" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E726" s="2" t="b">
         <v>0</v>
@@ -16938,13 +16950,13 @@
         <v>7315</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D727" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E727" s="2" t="b">
         <v>0</v>
@@ -16961,10 +16973,10 @@
         <v>80</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D728" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E728" s="2" t="b">
         <v>0</v>
@@ -16981,10 +16993,10 @@
         <v>80</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D729" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E729" s="2" t="b">
         <v>0</v>
@@ -17001,10 +17013,10 @@
         <v>80</v>
       </c>
       <c r="C730" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D730" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E730" s="2" t="b">
         <v>0</v>
@@ -17018,13 +17030,13 @@
         <v>7319</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E731" s="2" t="b">
         <v>0</v>
@@ -17038,13 +17050,13 @@
         <v>7320</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E732" s="2" t="b">
         <v>0</v>
@@ -17061,10 +17073,10 @@
         <v>80</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E733" s="2" t="b">
         <v>0</v>
@@ -17084,7 +17096,7 @@
         <v>7</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E734" s="2" t="b">
         <v>0</v>
@@ -17101,10 +17113,10 @@
         <v>80</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E735" s="2" t="b">
         <v>0</v>
@@ -17124,7 +17136,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E736" s="2" t="b">
         <v>0</v>
@@ -17138,13 +17150,13 @@
         <v>7325</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E737" s="2" t="b">
         <v>0</v>
@@ -17158,13 +17170,13 @@
         <v>7326</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E738" s="2" t="b">
         <v>0</v>
@@ -17178,13 +17190,13 @@
         <v>7327</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E739" s="2" t="b">
         <v>0</v>
@@ -17198,13 +17210,13 @@
         <v>7328</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C740" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E740" s="2" t="b">
         <v>0</v>
@@ -17221,10 +17233,10 @@
         <v>80</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E741" s="2" t="b">
         <v>0</v>
@@ -17238,13 +17250,13 @@
         <v>7330</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C742" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E742" s="2" t="b">
         <v>0</v>
@@ -17258,13 +17270,13 @@
         <v>7331</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C743" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E743" s="2" t="b">
         <v>0</v>
@@ -17278,13 +17290,13 @@
         <v>7332</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C744" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E744" s="2" t="b">
         <v>0</v>
@@ -17298,13 +17310,13 @@
         <v>7333</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C745" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E745" s="2" t="b">
         <v>0</v>
@@ -17321,10 +17333,10 @@
         <v>80</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E746" s="2" t="b">
         <v>0</v>
@@ -17341,10 +17353,10 @@
         <v>80</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E747" s="2" t="b">
         <v>0</v>
@@ -17358,13 +17370,13 @@
         <v>7336</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C748" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E748" s="2" t="b">
         <v>0</v>
@@ -17378,13 +17390,13 @@
         <v>7337</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C749" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E749" s="2" t="b">
         <v>0</v>
@@ -17398,13 +17410,13 @@
         <v>7338</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C750" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E750" s="2" t="b">
         <v>0</v>
@@ -17418,13 +17430,13 @@
         <v>7339</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C751" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E751" s="2" t="b">
         <v>0</v>
@@ -17441,10 +17453,10 @@
         <v>80</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E752" s="2" t="b">
         <v>0</v>
@@ -17461,10 +17473,10 @@
         <v>80</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E753" s="2" t="b">
         <v>0</v>
@@ -17481,10 +17493,10 @@
         <v>80</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E754" s="2" t="b">
         <v>0</v>
@@ -17501,10 +17513,10 @@
         <v>80</v>
       </c>
       <c r="C755" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E755" s="2" t="b">
         <v>0</v>
@@ -17521,10 +17533,10 @@
         <v>80</v>
       </c>
       <c r="C756" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E756" s="2" t="b">
         <v>0</v>
@@ -17541,10 +17553,10 @@
         <v>80</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E757" s="2" t="b">
         <v>0</v>
@@ -17561,10 +17573,10 @@
         <v>80</v>
       </c>
       <c r="C758" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E758" s="2" t="b">
         <v>0</v>
@@ -17581,10 +17593,10 @@
         <v>80</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E759" s="2" t="b">
         <v>0</v>
@@ -17598,13 +17610,13 @@
         <v>7348</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C760" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E760" s="2" t="b">
         <v>0</v>
@@ -17618,13 +17630,13 @@
         <v>7349</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C761" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E761" s="2" t="b">
         <v>0</v>
@@ -17638,13 +17650,13 @@
         <v>7350</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C762" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E762" s="2" t="b">
         <v>0</v>
@@ -17658,13 +17670,13 @@
         <v>7351</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C763" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E763" s="2" t="b">
         <v>0</v>
@@ -17678,13 +17690,13 @@
         <v>7352</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C764" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E764" s="2" t="b">
         <v>0</v>
@@ -17698,13 +17710,13 @@
         <v>7353</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C765" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E765" s="2" t="b">
         <v>0</v>
@@ -17718,13 +17730,13 @@
         <v>7354</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E766" s="2" t="b">
         <v>0</v>
@@ -17741,10 +17753,10 @@
         <v>80</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E767" s="2" t="b">
         <v>0</v>
@@ -17764,7 +17776,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E768" s="2" t="b">
         <v>0</v>
@@ -17778,13 +17790,13 @@
         <v>7357</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E769" s="2" t="b">
         <v>0</v>
@@ -17801,10 +17813,10 @@
         <v>80</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E770" s="2" t="b">
         <v>0</v>
@@ -17824,7 +17836,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E771" s="2" t="b">
         <v>0</v>
@@ -17838,13 +17850,13 @@
         <v>7360</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E772" s="2" t="b">
         <v>0</v>
@@ -17861,10 +17873,10 @@
         <v>80</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E773" s="2" t="b">
         <v>0</v>
@@ -17884,7 +17896,7 @@
         <v>6</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E774" s="2" t="b">
         <v>0</v>
@@ -17904,7 +17916,7 @@
         <v>6</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E775" s="2" t="b">
         <v>0</v>
@@ -17918,13 +17930,13 @@
         <v>7364</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E776" s="2" t="b">
         <v>0</v>
@@ -17941,10 +17953,10 @@
         <v>80</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E777" s="2" t="b">
         <v>0</v>
@@ -17958,13 +17970,13 @@
         <v>7366</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E778" s="2" t="b">
         <v>0</v>
@@ -17978,13 +17990,13 @@
         <v>7367</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E779" s="2" t="b">
         <v>0</v>
@@ -17998,13 +18010,13 @@
         <v>7368</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C780" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E780" s="2" t="b">
         <v>0</v>
@@ -18018,13 +18030,13 @@
         <v>7369</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E781" s="2" t="b">
         <v>0</v>
@@ -18041,7 +18053,7 @@
         <v>80</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D782" s="2" t="s">
         <v>234</v>
@@ -18064,7 +18076,7 @@
         <v>6</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E783" s="2" t="b">
         <v>0</v>
@@ -18078,13 +18090,13 @@
         <v>7372</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E784" s="2" t="b">
         <v>0</v>
@@ -18101,10 +18113,10 @@
         <v>80</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E785" s="2" t="b">
         <v>0</v>
@@ -18124,7 +18136,7 @@
         <v>6</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E786" s="2" t="b">
         <v>0</v>
@@ -18138,13 +18150,13 @@
         <v>7375</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E787" s="2" t="b">
         <v>0</v>
@@ -18161,10 +18173,10 @@
         <v>80</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E788" s="2" t="b">
         <v>0</v>
@@ -18184,7 +18196,7 @@
         <v>6</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E789" s="2" t="b">
         <v>0</v>
@@ -18204,7 +18216,7 @@
         <v>6</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E790" s="2" t="b">
         <v>0</v>
@@ -18218,13 +18230,13 @@
         <v>7379</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E791" s="2" t="b">
         <v>0</v>
@@ -18241,10 +18253,10 @@
         <v>80</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E792" s="2" t="b">
         <v>0</v>
@@ -18258,13 +18270,13 @@
         <v>7381</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E793" s="2" t="b">
         <v>0</v>
@@ -18278,13 +18290,13 @@
         <v>7382</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E794" s="2" t="b">
         <v>0</v>
@@ -18298,13 +18310,13 @@
         <v>7383</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E795" s="2" t="b">
         <v>0</v>
@@ -18318,13 +18330,13 @@
         <v>7384</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C796" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E796" s="2" t="b">
         <v>0</v>
@@ -18341,10 +18353,10 @@
         <v>80</v>
       </c>
       <c r="C797" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D797" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="D797" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="E797" s="2" t="b">
         <v>0</v>
@@ -18364,7 +18376,7 @@
         <v>6</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E798" s="2" t="b">
         <v>0</v>
@@ -18384,7 +18396,7 @@
         <v>4</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E799" s="2" t="b">
         <v>0</v>
@@ -18401,10 +18413,10 @@
         <v>80</v>
       </c>
       <c r="C800" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D800" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="D800" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="E800" s="2" t="b">
         <v>0</v>
@@ -18424,7 +18436,7 @@
         <v>7</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E801" s="2" t="b">
         <v>0</v>
@@ -18444,7 +18456,7 @@
         <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E802" s="2" t="b">
         <v>0</v>
@@ -18458,13 +18470,13 @@
         <v>7391</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E803" s="2" t="b">
         <v>0</v>
@@ -18478,13 +18490,13 @@
         <v>7392</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C804" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E804" s="2" t="b">
         <v>0</v>
@@ -18498,13 +18510,13 @@
         <v>7393</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E805" s="2" t="b">
         <v>0</v>
@@ -18518,13 +18530,13 @@
         <v>7394</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E806" s="2" t="b">
         <v>0</v>
@@ -18538,13 +18550,13 @@
         <v>7395</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E807" s="2" t="b">
         <v>0</v>
@@ -18558,13 +18570,13 @@
         <v>7396</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E808" s="2" t="b">
         <v>0</v>
@@ -18578,13 +18590,13 @@
         <v>7397</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E809" s="2" t="b">
         <v>0</v>
@@ -18597,20 +18609,40 @@
       <c r="A810" s="2">
         <v>7398</v>
       </c>
-      <c r="B810" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C810" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D810" s="2" t="s">
-        <v>564</v>
+      <c r="B810" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C810" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D810" s="10" t="s">
+        <v>563</v>
       </c>
       <c r="E810" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F810" s="2">
         <v>808</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A811" s="2">
+        <v>7399</v>
+      </c>
+      <c r="B811" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E811" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F811" s="2">
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9EA0E-4DC8-4CB9-87B0-CF1342E81FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE4A35-5F26-4A51-9E49-86F8F4D99DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NPC_01!$A$1:$F$606</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NPC_01!$A$1:$F$811</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -939,10 +939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청이에게 수양딸로 들어오라는 말은 했지만, 청이는 한사코 거절했소. 듣도 보도 못한 말이오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">청이 누님을 못 본 지 이틀 되었나...누님이 요 근래 저잣거리를 자주 돌아다녔습니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,10 +963,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아, 그렇지. 청이가 송나라 상인들과 떠드는 걸 보았소. 송에서 신품이라도 들어왔나...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>첫째 둘째는 벼슬길에 올랐고, 셋째는 이틀 전에 과거를 보러 갔소.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,10 +979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승려가 마을에 자주 내려오는 걸 보니 땡중이오. 청이에게 연정을 품은 건 아니오?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래서 말인데, 배가 다시 송으로 가는 때를 알아봐줄 수 있는가? 이유는 나중에 말해주겠네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1027,10 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공양미 삼백 석은 몽운사로 잘 시주 받았습니다. 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>귀덕 어멈은 너무 바빠 보인다. 아직인듯싶다. 청이의 행방에 관련하여 더 알아보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,9 +1244,6 @@
   </si>
   <si>
     <t>사공의 물건을 건넸다.</t>
-  </si>
-  <si>
-    <t>향리 댁의 수양딸에 대하여 말을 걸었다.</t>
   </si>
   <si>
     <t>청이의 거짓말에 대하여 말을 걸었다.</t>
@@ -1961,6 +1942,24 @@
   <si>
     <t>임시</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공양미 삼백 석은 몽운사로 잘 시주 받았습니다. 부처님께서 어엿비 여기시어 조만간 눈을 뜨실 수 있으실겁니다.</t>
+  </si>
+  <si>
+    <t>ⓦ아, 그렇지. ⓡ청이가 송나라 상인들과 떠드는 걸 보았소. ⓦ송에서 신품이라도 들어왔나...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ승려가 마을에 자주 내려오는 걸 보니 땡중이오. ⓡ청이에게 연정을 품은 건 아니오?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ청이에게 ⓡ수양딸로 들어오라는 말은 했지만, 청이는 한사코 거절했소. ⓦ듣도 보도 못한 말이오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ향리 댁의 수양딸에 대하여 말을 걸었다.</t>
   </si>
 </sst>
 </file>
@@ -2410,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
   <dimension ref="A1:F811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A794" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A812" sqref="A812"/>
+    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D533" sqref="D533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -2427,22 +2426,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2456,7 +2455,7 @@
         <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>287</v>
+        <v>562</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -2476,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -2496,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -2516,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -2536,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -2556,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -2576,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -2596,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -2616,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -2676,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>265</v>
+        <v>565</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -2696,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -2716,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -2736,7 +2735,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2756,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -2776,7 +2775,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -2830,7 +2829,7 @@
         <v>5020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>150</v>
@@ -2856,7 +2855,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -3036,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -3076,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -3176,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -3196,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -3216,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -3276,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -3356,7 +3355,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -3396,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -3436,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
@@ -3456,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
@@ -3476,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -3496,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -3516,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -3536,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -3550,7 +3549,7 @@
         <v>5099</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>150</v>
@@ -3576,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>272</v>
+        <v>563</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -3596,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -3616,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -3636,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -3736,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -3896,7 +3895,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -3936,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
@@ -4016,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>277</v>
+        <v>564</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -4116,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
@@ -4136,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
@@ -4156,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
@@ -4236,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
@@ -4256,7 +4255,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
@@ -4316,7 +4315,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
@@ -4396,7 +4395,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
@@ -4416,7 +4415,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
@@ -4516,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -4556,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -4656,7 +4655,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
@@ -4676,7 +4675,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
@@ -4690,7 +4689,7 @@
         <v>5218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>150</v>
@@ -4796,7 +4795,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E119" s="2" t="b">
         <v>0</v>
@@ -4876,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E123" s="2" t="b">
         <v>0</v>
@@ -5056,7 +5055,7 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E132" s="2" t="b">
         <v>0</v>
@@ -5096,7 +5095,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -5116,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E135" s="2" t="b">
         <v>0</v>
@@ -5156,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E137" s="2" t="b">
         <v>0</v>
@@ -5176,7 +5175,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E138" s="2" t="b">
         <v>0</v>
@@ -5196,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E139" s="2" t="b">
         <v>0</v>
@@ -5316,7 +5315,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E145" s="2" t="b">
         <v>0</v>
@@ -5536,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -5636,7 +5635,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E161" s="2" t="b">
         <v>0</v>
@@ -5676,7 +5675,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E163" s="2" t="b">
         <v>0</v>
@@ -5696,7 +5695,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
@@ -6010,13 +6009,13 @@
         <v>5365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>
@@ -6030,7 +6029,7 @@
         <v>5366</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>150</v>
@@ -6056,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E182" s="2" t="b">
         <v>0</v>
@@ -6116,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E185" s="2" t="b">
         <v>0</v>
@@ -6176,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E188" s="2" t="b">
         <v>0</v>
@@ -6196,7 +6195,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E189" s="2" t="b">
         <v>0</v>
@@ -6276,7 +6275,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E193" s="2" t="b">
         <v>0</v>
@@ -6336,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E196" s="2" t="b">
         <v>0</v>
@@ -6356,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E197" s="2" t="b">
         <v>0</v>
@@ -6396,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E199" s="2" t="b">
         <v>0</v>
@@ -6416,7 +6415,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E200" s="2" t="b">
         <v>0</v>
@@ -6436,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E201" s="2" t="b">
         <v>0</v>
@@ -6516,7 +6515,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E205" s="2" t="b">
         <v>0</v>
@@ -6556,7 +6555,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E207" s="2" t="b">
         <v>0</v>
@@ -6790,7 +6789,7 @@
         <v>5440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>150</v>
@@ -6830,7 +6829,7 @@
         <v>5442</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>150</v>
@@ -6876,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E223" s="2" t="b">
         <v>0</v>
@@ -6896,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E224" s="2" t="b">
         <v>0</v>
@@ -6936,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E226" s="2" t="b">
         <v>0</v>
@@ -6956,7 +6955,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E227" s="2" t="b">
         <v>0</v>
@@ -6976,7 +6975,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E228" s="2" t="b">
         <v>0</v>
@@ -7150,7 +7149,7 @@
         <v>5476</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>150</v>
@@ -7210,7 +7209,7 @@
         <v>5479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>150</v>
@@ -7270,7 +7269,7 @@
         <v>5482</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>150</v>
@@ -7290,7 +7289,7 @@
         <v>5483</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>150</v>
@@ -7350,7 +7349,7 @@
         <v>5486</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>150</v>
@@ -7370,7 +7369,7 @@
         <v>5487</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>150</v>
@@ -7396,7 +7395,7 @@
         <v>240</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E249" s="2" t="b">
         <v>0</v>
@@ -7476,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E253" s="2" t="b">
         <v>0</v>
@@ -7496,7 +7495,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E254" s="2" t="b">
         <v>0</v>
@@ -7516,7 +7515,7 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E255" s="2" t="b">
         <v>0</v>
@@ -7536,7 +7535,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E256" s="2" t="b">
         <v>0</v>
@@ -7556,7 +7555,7 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E257" s="2" t="b">
         <v>0</v>
@@ -7576,7 +7575,7 @@
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E258" s="2" t="b">
         <v>0</v>
@@ -7596,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E259" s="2" t="b">
         <v>0</v>
@@ -7616,7 +7615,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E260" s="2" t="b">
         <v>0</v>
@@ -7636,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E261" s="2" t="b">
         <v>0</v>
@@ -7656,7 +7655,7 @@
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E262" s="2" t="b">
         <v>0</v>
@@ -7676,7 +7675,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E263" s="2" t="b">
         <v>0</v>
@@ -7696,7 +7695,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E264" s="2" t="b">
         <v>0</v>
@@ -7716,7 +7715,7 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E265" s="2" t="b">
         <v>0</v>
@@ -7736,7 +7735,7 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E266" s="2" t="b">
         <v>0</v>
@@ -7750,7 +7749,7 @@
         <v>5716</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>150</v>
@@ -7776,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E268" s="2" t="b">
         <v>0</v>
@@ -7816,7 +7815,7 @@
         <v>3</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E270" s="2" t="b">
         <v>0</v>
@@ -7836,7 +7835,7 @@
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E271" s="2" t="b">
         <v>0</v>
@@ -7856,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E272" s="2" t="b">
         <v>0</v>
@@ -7876,7 +7875,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E273" s="2" t="b">
         <v>0</v>
@@ -7896,7 +7895,7 @@
         <v>7</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E274" s="2" t="b">
         <v>0</v>
@@ -7916,7 +7915,7 @@
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E275" s="2" t="b">
         <v>0</v>
@@ -7936,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E276" s="2" t="b">
         <v>0</v>
@@ -7956,7 +7955,7 @@
         <v>2</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E277" s="2" t="b">
         <v>0</v>
@@ -7976,7 +7975,7 @@
         <v>3</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E278" s="2" t="b">
         <v>0</v>
@@ -7996,7 +7995,7 @@
         <v>4</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E279" s="2" t="b">
         <v>0</v>
@@ -8016,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E280" s="2" t="b">
         <v>0</v>
@@ -8036,7 +8035,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E281" s="2" t="b">
         <v>0</v>
@@ -8056,7 +8055,7 @@
         <v>7</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E282" s="2" t="b">
         <v>0</v>
@@ -8076,7 +8075,7 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E283" s="2" t="b">
         <v>0</v>
@@ -8090,7 +8089,7 @@
         <v>5733</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>150</v>
@@ -8256,7 +8255,7 @@
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E292" s="2" t="b">
         <v>0</v>
@@ -8270,7 +8269,7 @@
         <v>5742</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>150</v>
@@ -8416,7 +8415,7 @@
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E300" s="2" t="b">
         <v>0</v>
@@ -8476,7 +8475,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E303" s="2" t="b">
         <v>0</v>
@@ -8516,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E305" s="2" t="b">
         <v>0</v>
@@ -8756,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E317" s="2" t="b">
         <v>0</v>
@@ -8796,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E319" s="2" t="b">
         <v>0</v>
@@ -8816,7 +8815,7 @@
         <v>4</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E320" s="2" t="b">
         <v>0</v>
@@ -8836,7 +8835,7 @@
         <v>5</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E321" s="2" t="b">
         <v>0</v>
@@ -8856,7 +8855,7 @@
         <v>7</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E322" s="2" t="b">
         <v>0</v>
@@ -8876,7 +8875,7 @@
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E323" s="2" t="b">
         <v>0</v>
@@ -9056,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E332" s="2" t="b">
         <v>0</v>
@@ -9076,7 +9075,7 @@
         <v>2</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E333" s="2" t="b">
         <v>0</v>
@@ -9096,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E334" s="2" t="b">
         <v>0</v>
@@ -9116,7 +9115,7 @@
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E335" s="2" t="b">
         <v>0</v>
@@ -9136,7 +9135,7 @@
         <v>5</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E336" s="2" t="b">
         <v>0</v>
@@ -9156,7 +9155,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E337" s="2" t="b">
         <v>0</v>
@@ -9176,7 +9175,7 @@
         <v>7</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E338" s="2" t="b">
         <v>0</v>
@@ -9196,7 +9195,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E339" s="2" t="b">
         <v>0</v>
@@ -9316,7 +9315,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E345" s="2" t="b">
         <v>0</v>
@@ -9410,7 +9409,7 @@
         <v>5799</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>150</v>
@@ -9616,7 +9615,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E360" s="2" t="b">
         <v>0</v>
@@ -9656,7 +9655,7 @@
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E362" s="2" t="b">
         <v>0</v>
@@ -9676,7 +9675,7 @@
         <v>5</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E363" s="2" t="b">
         <v>0</v>
@@ -9736,7 +9735,7 @@
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E366" s="2" t="b">
         <v>0</v>
@@ -9816,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E370" s="2" t="b">
         <v>0</v>
@@ -9836,7 +9835,7 @@
         <v>5</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E371" s="2" t="b">
         <v>0</v>
@@ -9896,7 +9895,7 @@
         <v>8</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E374" s="2" t="b">
         <v>0</v>
@@ -9996,7 +9995,7 @@
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E379" s="2" t="b">
         <v>0</v>
@@ -10056,7 +10055,7 @@
         <v>7</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E382" s="2" t="b">
         <v>0</v>
@@ -10116,7 +10115,7 @@
         <v>3</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E385" s="2" t="b">
         <v>0</v>
@@ -10136,7 +10135,7 @@
         <v>4</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E386" s="2" t="b">
         <v>0</v>
@@ -10236,7 +10235,7 @@
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E391" s="2" t="b">
         <v>0</v>
@@ -10436,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E401" s="2" t="b">
         <v>0</v>
@@ -10456,7 +10455,7 @@
         <v>2</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E402" s="2" t="b">
         <v>0</v>
@@ -10476,7 +10475,7 @@
         <v>3</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E403" s="2" t="b">
         <v>0</v>
@@ -10496,7 +10495,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -10516,7 +10515,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E405" s="2" t="b">
         <v>0</v>
@@ -10536,7 +10535,7 @@
         <v>7</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E406" s="2" t="b">
         <v>0</v>
@@ -10556,7 +10555,7 @@
         <v>10</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E407" s="2" t="b">
         <v>0</v>
@@ -10576,7 +10575,7 @@
         <v>10</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E408" s="2" t="b">
         <v>0</v>
@@ -10596,7 +10595,7 @@
         <v>5</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -10616,7 +10615,7 @@
         <v>7</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E410" s="2" t="b">
         <v>0</v>
@@ -10636,7 +10635,7 @@
         <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E411" s="2" t="b">
         <v>0</v>
@@ -10670,7 +10669,7 @@
         <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>150</v>
@@ -10690,7 +10689,7 @@
         <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>150</v>
@@ -10710,13 +10709,13 @@
         <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -10750,7 +10749,7 @@
         <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>150</v>
@@ -10770,7 +10769,7 @@
         <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>150</v>
@@ -10790,7 +10789,7 @@
         <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>150</v>
@@ -10810,13 +10809,13 @@
         <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E420" s="2" t="b">
         <v>0</v>
@@ -10830,7 +10829,7 @@
         <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>150</v>
@@ -10850,7 +10849,7 @@
         <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>150</v>
@@ -10870,7 +10869,7 @@
         <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>150</v>
@@ -10890,7 +10889,7 @@
         <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>150</v>
@@ -10910,7 +10909,7 @@
         <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>150</v>
@@ -10930,13 +10929,13 @@
         <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>
@@ -10950,7 +10949,7 @@
         <v>7015</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>150</v>
@@ -10970,7 +10969,7 @@
         <v>7016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>150</v>
@@ -11010,7 +11009,7 @@
         <v>7018</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>150</v>
@@ -11030,13 +11029,13 @@
         <v>7019</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E431" s="2" t="b">
         <v>0</v>
@@ -11050,13 +11049,13 @@
         <v>7020</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E432" s="2" t="b">
         <v>0</v>
@@ -11070,7 +11069,7 @@
         <v>7021</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>150</v>
@@ -11090,7 +11089,7 @@
         <v>7022</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>150</v>
@@ -11110,7 +11109,7 @@
         <v>7023</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>150</v>
@@ -11130,7 +11129,7 @@
         <v>7024</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>150</v>
@@ -11150,13 +11149,13 @@
         <v>7025</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E437" s="2" t="b">
         <v>0</v>
@@ -11176,7 +11175,7 @@
         <v>7</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E438" s="2" t="b">
         <v>0</v>
@@ -11190,13 +11189,13 @@
         <v>7027</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E439" s="2" t="b">
         <v>0</v>
@@ -11213,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E440" s="2" t="b">
         <v>0</v>
@@ -11236,7 +11235,7 @@
         <v>7</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E441" s="2" t="b">
         <v>0</v>
@@ -11250,13 +11249,13 @@
         <v>7030</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E442" s="2" t="b">
         <v>0</v>
@@ -11270,13 +11269,13 @@
         <v>7031</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E443" s="2" t="b">
         <v>0</v>
@@ -11290,13 +11289,13 @@
         <v>7032</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E444" s="2" t="b">
         <v>0</v>
@@ -11310,13 +11309,13 @@
         <v>7033</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E445" s="2" t="b">
         <v>0</v>
@@ -11330,13 +11329,13 @@
         <v>7034</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E446" s="2" t="b">
         <v>0</v>
@@ -11356,7 +11355,7 @@
         <v>8</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E447" s="2" t="b">
         <v>0</v>
@@ -11370,13 +11369,13 @@
         <v>7036</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E448" s="2" t="b">
         <v>0</v>
@@ -11393,10 +11392,10 @@
         <v>0</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D449" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E449" s="2" t="b">
         <v>0</v>
@@ -11416,7 +11415,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E450" s="2" t="b">
         <v>0</v>
@@ -11430,13 +11429,13 @@
         <v>7039</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E451" s="2" t="b">
         <v>0</v>
@@ -11450,13 +11449,13 @@
         <v>7040</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E452" s="2" t="b">
         <v>0</v>
@@ -11470,13 +11469,13 @@
         <v>7041</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E453" s="2" t="b">
         <v>0</v>
@@ -11490,13 +11489,13 @@
         <v>7042</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E454" s="2" t="b">
         <v>0</v>
@@ -11513,10 +11512,10 @@
         <v>0</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E455" s="2" t="b">
         <v>0</v>
@@ -11530,13 +11529,13 @@
         <v>7044</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E456" s="2" t="b">
         <v>0</v>
@@ -11550,13 +11549,13 @@
         <v>7045</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E457" s="2" t="b">
         <v>0</v>
@@ -11570,13 +11569,13 @@
         <v>7046</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E458" s="2" t="b">
         <v>0</v>
@@ -11590,13 +11589,13 @@
         <v>7047</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E459" s="2" t="b">
         <v>0</v>
@@ -11610,13 +11609,13 @@
         <v>7048</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E460" s="2" t="b">
         <v>0</v>
@@ -11630,13 +11629,13 @@
         <v>7049</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E461" s="2" t="b">
         <v>0</v>
@@ -11650,13 +11649,13 @@
         <v>7050</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E462" s="2" t="b">
         <v>0</v>
@@ -11670,13 +11669,13 @@
         <v>7051</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E463" s="2" t="b">
         <v>0</v>
@@ -11690,13 +11689,13 @@
         <v>7052</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E464" s="2" t="b">
         <v>0</v>
@@ -11713,10 +11712,10 @@
         <v>0</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E465" s="2" t="b">
         <v>0</v>
@@ -11730,13 +11729,13 @@
         <v>7054</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E466" s="2" t="b">
         <v>0</v>
@@ -11753,10 +11752,10 @@
         <v>0</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E467" s="2" t="b">
         <v>0</v>
@@ -11770,13 +11769,13 @@
         <v>7056</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E468" s="2" t="b">
         <v>0</v>
@@ -11793,10 +11792,10 @@
         <v>0</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E469" s="2" t="b">
         <v>0</v>
@@ -11813,10 +11812,10 @@
         <v>0</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E470" s="2" t="b">
         <v>0</v>
@@ -11830,13 +11829,13 @@
         <v>7059</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E471" s="2" t="b">
         <v>0</v>
@@ -11850,13 +11849,13 @@
         <v>7060</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E472" s="2" t="b">
         <v>0</v>
@@ -11873,10 +11872,10 @@
         <v>0</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E473" s="2" t="b">
         <v>0</v>
@@ -11896,7 +11895,7 @@
         <v>7</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E474" s="2" t="b">
         <v>0</v>
@@ -11913,10 +11912,10 @@
         <v>0</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E475" s="2" t="b">
         <v>0</v>
@@ -11936,7 +11935,7 @@
         <v>7</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E476" s="2" t="b">
         <v>0</v>
@@ -11950,13 +11949,13 @@
         <v>7065</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E477" s="2" t="b">
         <v>0</v>
@@ -11970,13 +11969,13 @@
         <v>7066</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E478" s="2" t="b">
         <v>0</v>
@@ -11990,13 +11989,13 @@
         <v>7067</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E479" s="2" t="b">
         <v>0</v>
@@ -12010,13 +12009,13 @@
         <v>7068</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E480" s="2" t="b">
         <v>0</v>
@@ -12033,10 +12032,10 @@
         <v>0</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E481" s="2" t="b">
         <v>0</v>
@@ -12050,13 +12049,13 @@
         <v>7070</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E482" s="2" t="b">
         <v>0</v>
@@ -12073,10 +12072,10 @@
         <v>0</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E483" s="2" t="b">
         <v>0</v>
@@ -12093,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E484" s="2" t="b">
         <v>0</v>
@@ -12113,10 +12112,10 @@
         <v>0</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E485" s="2" t="b">
         <v>0</v>
@@ -12130,13 +12129,13 @@
         <v>7074</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E486" s="2" t="b">
         <v>0</v>
@@ -12150,13 +12149,13 @@
         <v>7075</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E487" s="2" t="b">
         <v>0</v>
@@ -12173,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E488" s="2" t="b">
         <v>0</v>
@@ -12196,7 +12195,7 @@
         <v>7</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E489" s="2" t="b">
         <v>0</v>
@@ -12213,10 +12212,10 @@
         <v>0</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E490" s="2" t="b">
         <v>0</v>
@@ -12236,7 +12235,7 @@
         <v>7</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E491" s="2" t="b">
         <v>0</v>
@@ -12250,13 +12249,13 @@
         <v>7080</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E492" s="2" t="b">
         <v>0</v>
@@ -12270,13 +12269,13 @@
         <v>7081</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E493" s="2" t="b">
         <v>0</v>
@@ -12290,13 +12289,13 @@
         <v>7082</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E494" s="2" t="b">
         <v>0</v>
@@ -12310,13 +12309,13 @@
         <v>7083</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E495" s="2" t="b">
         <v>0</v>
@@ -12333,10 +12332,10 @@
         <v>0</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E496" s="2" t="b">
         <v>0</v>
@@ -12350,13 +12349,13 @@
         <v>7085</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E497" s="2" t="b">
         <v>0</v>
@@ -12370,13 +12369,13 @@
         <v>7086</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E498" s="2" t="b">
         <v>0</v>
@@ -12390,13 +12389,13 @@
         <v>7087</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E499" s="2" t="b">
         <v>0</v>
@@ -12410,13 +12409,13 @@
         <v>7088</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E500" s="2" t="b">
         <v>0</v>
@@ -12433,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D501" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E501" s="2" t="b">
         <v>0</v>
@@ -12453,10 +12452,10 @@
         <v>0</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E502" s="2" t="b">
         <v>0</v>
@@ -12470,13 +12469,13 @@
         <v>7091</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E503" s="2" t="b">
         <v>0</v>
@@ -12490,13 +12489,13 @@
         <v>7092</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E504" s="2" t="b">
         <v>0</v>
@@ -12510,13 +12509,13 @@
         <v>7093</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E505" s="2" t="b">
         <v>0</v>
@@ -12530,13 +12529,13 @@
         <v>7094</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E506" s="2" t="b">
         <v>0</v>
@@ -12553,10 +12552,10 @@
         <v>0</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E507" s="2" t="b">
         <v>0</v>
@@ -12573,10 +12572,10 @@
         <v>0</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E508" s="2" t="b">
         <v>0</v>
@@ -12593,10 +12592,10 @@
         <v>0</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D509" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E509" s="2" t="b">
         <v>0</v>
@@ -12613,10 +12612,10 @@
         <v>0</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E510" s="2" t="b">
         <v>0</v>
@@ -12633,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E511" s="2" t="b">
         <v>0</v>
@@ -12653,10 +12652,10 @@
         <v>0</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D512" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E512" s="2" t="b">
         <v>0</v>
@@ -12673,10 +12672,10 @@
         <v>0</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D513" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E513" s="2" t="b">
         <v>0</v>
@@ -12693,10 +12692,10 @@
         <v>0</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D514" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E514" s="2" t="b">
         <v>0</v>
@@ -12710,13 +12709,13 @@
         <v>7103</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D515" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E515" s="2" t="b">
         <v>0</v>
@@ -12730,13 +12729,13 @@
         <v>7104</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D516" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E516" s="2" t="b">
         <v>0</v>
@@ -12750,13 +12749,13 @@
         <v>7105</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D517" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E517" s="2" t="b">
         <v>0</v>
@@ -12770,13 +12769,13 @@
         <v>7106</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D518" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E518" s="2" t="b">
         <v>0</v>
@@ -12790,13 +12789,13 @@
         <v>7107</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D519" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E519" s="2" t="b">
         <v>0</v>
@@ -12810,13 +12809,13 @@
         <v>7108</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E520" s="2" t="b">
         <v>0</v>
@@ -12830,13 +12829,13 @@
         <v>7109</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D521" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E521" s="2" t="b">
         <v>0</v>
@@ -12850,13 +12849,13 @@
         <v>7110</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D522" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E522" s="2" t="b">
         <v>0</v>
@@ -12870,13 +12869,13 @@
         <v>7111</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D523" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E523" s="2" t="b">
         <v>0</v>
@@ -12890,13 +12889,13 @@
         <v>7112</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C524" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D524" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="D524" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="E524" s="2" t="b">
         <v>0</v>
@@ -12910,13 +12909,13 @@
         <v>7113</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D525" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E525" s="2" t="b">
         <v>0</v>
@@ -12930,13 +12929,13 @@
         <v>7114</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D526" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E526" s="2" t="b">
         <v>0</v>
@@ -12950,13 +12949,13 @@
         <v>7115</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D527" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E527" s="2" t="b">
         <v>0</v>
@@ -12970,13 +12969,13 @@
         <v>7116</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D528" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E528" s="2" t="b">
         <v>0</v>
@@ -12990,13 +12989,13 @@
         <v>7117</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D529" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E529" s="2" t="b">
         <v>0</v>
@@ -13010,13 +13009,13 @@
         <v>7118</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D530" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E530" s="2" t="b">
         <v>0</v>
@@ -13030,13 +13029,13 @@
         <v>7119</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D531" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E531" s="2" t="b">
         <v>0</v>
@@ -13050,13 +13049,13 @@
         <v>7120</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D532" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E532" s="2" t="b">
         <v>0</v>
@@ -13070,13 +13069,13 @@
         <v>7121</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D533" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E533" s="2" t="b">
         <v>0</v>
@@ -13090,13 +13089,13 @@
         <v>7122</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>351</v>
+        <v>566</v>
       </c>
       <c r="E534" s="2" t="b">
         <v>0</v>
@@ -13110,13 +13109,13 @@
         <v>7123</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D535" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E535" s="2" t="b">
         <v>0</v>
@@ -13130,13 +13129,13 @@
         <v>7124</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D536" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E536" s="2" t="b">
         <v>0</v>
@@ -13150,13 +13149,13 @@
         <v>7125</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D537" s="8" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E537" s="2" t="b">
         <v>0</v>
@@ -13170,13 +13169,13 @@
         <v>7126</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D538" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E538" s="2" t="b">
         <v>0</v>
@@ -13190,13 +13189,13 @@
         <v>7127</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D539" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E539" s="2" t="b">
         <v>0</v>
@@ -13210,13 +13209,13 @@
         <v>7128</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D540" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E540" s="2" t="b">
         <v>0</v>
@@ -13230,13 +13229,13 @@
         <v>7129</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D541" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E541" s="2" t="b">
         <v>0</v>
@@ -13250,13 +13249,13 @@
         <v>7130</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D542" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E542" s="2" t="b">
         <v>0</v>
@@ -13270,13 +13269,13 @@
         <v>7131</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D543" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E543" s="2" t="b">
         <v>0</v>
@@ -13290,13 +13289,13 @@
         <v>7132</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D544" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E544" s="2" t="b">
         <v>0</v>
@@ -13310,13 +13309,13 @@
         <v>7133</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D545" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E545" s="2" t="b">
         <v>0</v>
@@ -13330,13 +13329,13 @@
         <v>7134</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D546" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E546" s="2" t="b">
         <v>0</v>
@@ -13350,13 +13349,13 @@
         <v>7135</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D547" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E547" s="2" t="b">
         <v>0</v>
@@ -13370,13 +13369,13 @@
         <v>7136</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D548" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E548" s="2" t="b">
         <v>0</v>
@@ -13390,13 +13389,13 @@
         <v>7137</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D549" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E549" s="2" t="b">
         <v>0</v>
@@ -13410,13 +13409,13 @@
         <v>7138</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D550" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E550" s="2" t="b">
         <v>0</v>
@@ -13430,13 +13429,13 @@
         <v>7139</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D551" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E551" s="2" t="b">
         <v>0</v>
@@ -13450,13 +13449,13 @@
         <v>7140</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D552" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E552" s="2" t="b">
         <v>0</v>
@@ -13470,13 +13469,13 @@
         <v>7141</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D553" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E553" s="2" t="b">
         <v>0</v>
@@ -13490,13 +13489,13 @@
         <v>7142</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D554" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E554" s="2" t="b">
         <v>0</v>
@@ -13510,13 +13509,13 @@
         <v>7143</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D555" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E555" s="2" t="b">
         <v>0</v>
@@ -13530,13 +13529,13 @@
         <v>7144</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D556" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E556" s="2" t="b">
         <v>0</v>
@@ -13550,13 +13549,13 @@
         <v>7145</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D557" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E557" s="2" t="b">
         <v>0</v>
@@ -13570,13 +13569,13 @@
         <v>7146</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D558" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E558" s="2" t="b">
         <v>0</v>
@@ -13590,13 +13589,13 @@
         <v>7147</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D559" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E559" s="2" t="b">
         <v>0</v>
@@ -13610,13 +13609,13 @@
         <v>7148</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D560" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E560" s="2" t="b">
         <v>0</v>
@@ -13630,13 +13629,13 @@
         <v>7149</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D561" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E561" s="2" t="b">
         <v>0</v>
@@ -13650,13 +13649,13 @@
         <v>7150</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D562" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E562" s="2" t="b">
         <v>0</v>
@@ -13670,13 +13669,13 @@
         <v>7151</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D563" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E563" s="2" t="b">
         <v>0</v>
@@ -13690,13 +13689,13 @@
         <v>7152</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D564" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E564" s="2" t="b">
         <v>0</v>
@@ -13713,10 +13712,10 @@
         <v>0</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D565" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E565" s="2" t="b">
         <v>0</v>
@@ -13733,10 +13732,10 @@
         <v>0</v>
       </c>
       <c r="C566" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E566" s="2" t="b">
         <v>0</v>
@@ -13753,10 +13752,10 @@
         <v>0</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E567" s="2" t="b">
         <v>0</v>
@@ -13773,10 +13772,10 @@
         <v>0</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E568" s="2" t="b">
         <v>0</v>
@@ -13793,10 +13792,10 @@
         <v>0</v>
       </c>
       <c r="C569" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D569" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="D569" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="E569" s="2" t="b">
         <v>0</v>
@@ -13813,10 +13812,10 @@
         <v>0</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E570" s="2" t="b">
         <v>0</v>
@@ -13833,10 +13832,10 @@
         <v>0</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D571" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E571" s="2" t="b">
         <v>0</v>
@@ -13853,10 +13852,10 @@
         <v>0</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E572" s="2" t="b">
         <v>0</v>
@@ -13873,10 +13872,10 @@
         <v>0</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D573" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E573" s="2" t="b">
         <v>0</v>
@@ -13893,10 +13892,10 @@
         <v>0</v>
       </c>
       <c r="C574" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D574" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E574" s="2" t="b">
         <v>0</v>
@@ -13913,10 +13912,10 @@
         <v>0</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E575" s="2" t="b">
         <v>0</v>
@@ -13933,10 +13932,10 @@
         <v>0</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E576" s="2" t="b">
         <v>0</v>
@@ -13953,10 +13952,10 @@
         <v>0</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D577" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E577" s="2" t="b">
         <v>0</v>
@@ -13973,10 +13972,10 @@
         <v>0</v>
       </c>
       <c r="C578" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E578" s="2" t="b">
         <v>0</v>
@@ -13993,10 +13992,10 @@
         <v>0</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D579" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E579" s="2" t="b">
         <v>0</v>
@@ -14013,10 +14012,10 @@
         <v>0</v>
       </c>
       <c r="C580" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D580" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E580" s="2" t="b">
         <v>0</v>
@@ -14033,10 +14032,10 @@
         <v>0</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D581" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E581" s="2" t="b">
         <v>0</v>
@@ -14053,10 +14052,10 @@
         <v>0</v>
       </c>
       <c r="C582" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D582" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E582" s="2" t="b">
         <v>0</v>
@@ -14073,10 +14072,10 @@
         <v>0</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E583" s="2" t="b">
         <v>0</v>
@@ -14093,10 +14092,10 @@
         <v>0</v>
       </c>
       <c r="C584" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D584" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E584" s="2" t="b">
         <v>0</v>
@@ -14113,10 +14112,10 @@
         <v>0</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E585" s="2" t="b">
         <v>0</v>
@@ -14133,10 +14132,10 @@
         <v>0</v>
       </c>
       <c r="C586" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D586" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E586" s="2" t="b">
         <v>0</v>
@@ -14153,10 +14152,10 @@
         <v>0</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E587" s="2" t="b">
         <v>0</v>
@@ -14173,10 +14172,10 @@
         <v>0</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D588" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E588" s="2" t="b">
         <v>0</v>
@@ -14193,10 +14192,10 @@
         <v>0</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E589" s="2" t="b">
         <v>0</v>
@@ -14213,10 +14212,10 @@
         <v>0</v>
       </c>
       <c r="C590" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E590" s="2" t="b">
         <v>0</v>
@@ -14233,10 +14232,10 @@
         <v>0</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D591" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E591" s="2" t="b">
         <v>0</v>
@@ -14253,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D592" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E592" s="2" t="b">
         <v>0</v>
@@ -14273,10 +14272,10 @@
         <v>0</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D593" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E593" s="2" t="b">
         <v>0</v>
@@ -14293,10 +14292,10 @@
         <v>0</v>
       </c>
       <c r="C594" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D594" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E594" s="2" t="b">
         <v>0</v>
@@ -14313,10 +14312,10 @@
         <v>0</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D595" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E595" s="2" t="b">
         <v>0</v>
@@ -14333,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D596" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E596" s="2" t="b">
         <v>0</v>
@@ -14353,10 +14352,10 @@
         <v>0</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D597" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E597" s="2" t="b">
         <v>0</v>
@@ -14373,10 +14372,10 @@
         <v>0</v>
       </c>
       <c r="C598" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D598" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E598" s="2" t="b">
         <v>0</v>
@@ -14393,10 +14392,10 @@
         <v>0</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E599" s="2" t="b">
         <v>0</v>
@@ -14413,10 +14412,10 @@
         <v>0</v>
       </c>
       <c r="C600" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D600" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E600" s="2" t="b">
         <v>0</v>
@@ -14433,10 +14432,10 @@
         <v>0</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D601" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E601" s="2" t="b">
         <v>0</v>
@@ -14453,10 +14452,10 @@
         <v>0</v>
       </c>
       <c r="C602" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D602" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E602" s="2" t="b">
         <v>0</v>
@@ -14473,10 +14472,10 @@
         <v>0</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D603" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E603" s="2" t="b">
         <v>0</v>
@@ -14493,10 +14492,10 @@
         <v>0</v>
       </c>
       <c r="C604" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D604" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E604" s="2" t="b">
         <v>0</v>
@@ -14513,10 +14512,10 @@
         <v>0</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E605" s="2" t="b">
         <v>0</v>
@@ -14530,13 +14529,13 @@
         <v>7194</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E606" s="2" t="b">
         <v>0</v>
@@ -14736,7 +14735,7 @@
         <v>2</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E616" s="2" t="b">
         <v>0</v>
@@ -14776,7 +14775,7 @@
         <v>4</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E618" s="2" t="b">
         <v>0</v>
@@ -14856,7 +14855,7 @@
         <v>8</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E622" s="2" t="b">
         <v>0</v>
@@ -14936,7 +14935,7 @@
         <v>4</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E626" s="2" t="b">
         <v>0</v>
@@ -15016,7 +15015,7 @@
         <v>8</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E630" s="2" t="b">
         <v>0</v>
@@ -15176,7 +15175,7 @@
         <v>7</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E638" s="2" t="b">
         <v>0</v>
@@ -15236,7 +15235,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E641" s="2" t="b">
         <v>0</v>
@@ -15256,7 +15255,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E642" s="2" t="b">
         <v>0</v>
@@ -15356,7 +15355,7 @@
         <v>7</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E647" s="2" t="b">
         <v>0</v>
@@ -15570,7 +15569,7 @@
         <v>7246</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>150</v>
@@ -15590,7 +15589,7 @@
         <v>7247</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>150</v>
@@ -15610,13 +15609,13 @@
         <v>7248</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E660" s="2" t="b">
         <v>0</v>
@@ -15650,7 +15649,7 @@
         <v>7250</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>150</v>
@@ -15670,7 +15669,7 @@
         <v>7251</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>150</v>
@@ -15690,7 +15689,7 @@
         <v>7252</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>150</v>
@@ -15710,13 +15709,13 @@
         <v>7253</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E665" s="2" t="b">
         <v>0</v>
@@ -15730,7 +15729,7 @@
         <v>7254</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>150</v>
@@ -15750,7 +15749,7 @@
         <v>7255</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>150</v>
@@ -15770,7 +15769,7 @@
         <v>7256</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>150</v>
@@ -15790,7 +15789,7 @@
         <v>7257</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>150</v>
@@ -15810,7 +15809,7 @@
         <v>7258</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>150</v>
@@ -15830,13 +15829,13 @@
         <v>7259</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E671" s="2" t="b">
         <v>0</v>
@@ -15850,7 +15849,7 @@
         <v>7260</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>150</v>
@@ -15870,7 +15869,7 @@
         <v>7261</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>150</v>
@@ -15910,7 +15909,7 @@
         <v>7263</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>150</v>
@@ -15930,7 +15929,7 @@
         <v>7264</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>150</v>
@@ -15950,13 +15949,13 @@
         <v>7265</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E677" s="2" t="b">
         <v>0</v>
@@ -15970,7 +15969,7 @@
         <v>7266</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>150</v>
@@ -15990,7 +15989,7 @@
         <v>7267</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>150</v>
@@ -16010,7 +16009,7 @@
         <v>7268</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>150</v>
@@ -16030,7 +16029,7 @@
         <v>7269</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>150</v>
@@ -16050,13 +16049,13 @@
         <v>7270</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E682" s="2" t="b">
         <v>0</v>
@@ -16076,7 +16075,7 @@
         <v>7</v>
       </c>
       <c r="D683" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E683" s="2" t="b">
         <v>0</v>
@@ -16090,13 +16089,13 @@
         <v>7272</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D684" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E684" s="2" t="b">
         <v>0</v>
@@ -16113,10 +16112,10 @@
         <v>80</v>
       </c>
       <c r="C685" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D685" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E685" s="2" t="b">
         <v>0</v>
@@ -16136,7 +16135,7 @@
         <v>7</v>
       </c>
       <c r="D686" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E686" s="2" t="b">
         <v>0</v>
@@ -16150,13 +16149,13 @@
         <v>7275</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D687" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E687" s="2" t="b">
         <v>0</v>
@@ -16170,13 +16169,13 @@
         <v>7276</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D688" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E688" s="2" t="b">
         <v>0</v>
@@ -16190,13 +16189,13 @@
         <v>7277</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D689" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E689" s="2" t="b">
         <v>0</v>
@@ -16210,13 +16209,13 @@
         <v>7278</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D690" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E690" s="2" t="b">
         <v>0</v>
@@ -16230,13 +16229,13 @@
         <v>7279</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E691" s="2" t="b">
         <v>0</v>
@@ -16256,7 +16255,7 @@
         <v>8</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E692" s="2" t="b">
         <v>0</v>
@@ -16270,13 +16269,13 @@
         <v>7281</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E693" s="2" t="b">
         <v>0</v>
@@ -16293,10 +16292,10 @@
         <v>80</v>
       </c>
       <c r="C694" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D694" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E694" s="2" t="b">
         <v>0</v>
@@ -16316,7 +16315,7 @@
         <v>7</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E695" s="2" t="b">
         <v>0</v>
@@ -16330,13 +16329,13 @@
         <v>7284</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E696" s="2" t="b">
         <v>0</v>
@@ -16350,13 +16349,13 @@
         <v>7285</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E697" s="2" t="b">
         <v>0</v>
@@ -16370,13 +16369,13 @@
         <v>7286</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E698" s="2" t="b">
         <v>0</v>
@@ -16390,13 +16389,13 @@
         <v>7287</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E699" s="2" t="b">
         <v>0</v>
@@ -16413,10 +16412,10 @@
         <v>80</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E700" s="2" t="b">
         <v>0</v>
@@ -16430,13 +16429,13 @@
         <v>7289</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E701" s="2" t="b">
         <v>0</v>
@@ -16450,13 +16449,13 @@
         <v>7290</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E702" s="2" t="b">
         <v>0</v>
@@ -16470,13 +16469,13 @@
         <v>7291</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E703" s="2" t="b">
         <v>0</v>
@@ -16490,13 +16489,13 @@
         <v>7292</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C704" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E704" s="2" t="b">
         <v>0</v>
@@ -16510,13 +16509,13 @@
         <v>7293</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C705" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E705" s="2" t="b">
         <v>0</v>
@@ -16530,13 +16529,13 @@
         <v>7294</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E706" s="2" t="b">
         <v>0</v>
@@ -16550,13 +16549,13 @@
         <v>7295</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E707" s="2" t="b">
         <v>0</v>
@@ -16570,13 +16569,13 @@
         <v>7296</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E708" s="2" t="b">
         <v>0</v>
@@ -16590,13 +16589,13 @@
         <v>7297</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E709" s="2" t="b">
         <v>0</v>
@@ -16613,10 +16612,10 @@
         <v>80</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E710" s="2" t="b">
         <v>0</v>
@@ -16630,13 +16629,13 @@
         <v>7299</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E711" s="2" t="b">
         <v>0</v>
@@ -16653,10 +16652,10 @@
         <v>80</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E712" s="2" t="b">
         <v>0</v>
@@ -16670,13 +16669,13 @@
         <v>7301</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E713" s="2" t="b">
         <v>0</v>
@@ -16693,10 +16692,10 @@
         <v>80</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E714" s="2" t="b">
         <v>0</v>
@@ -16713,10 +16712,10 @@
         <v>80</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E715" s="2" t="b">
         <v>0</v>
@@ -16730,13 +16729,13 @@
         <v>7304</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D716" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E716" s="2" t="b">
         <v>0</v>
@@ -16750,13 +16749,13 @@
         <v>7305</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D717" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E717" s="2" t="b">
         <v>0</v>
@@ -16773,10 +16772,10 @@
         <v>80</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D718" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E718" s="2" t="b">
         <v>0</v>
@@ -16796,7 +16795,7 @@
         <v>7</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E719" s="2" t="b">
         <v>0</v>
@@ -16813,10 +16812,10 @@
         <v>80</v>
       </c>
       <c r="C720" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E720" s="2" t="b">
         <v>0</v>
@@ -16836,7 +16835,7 @@
         <v>7</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E721" s="2" t="b">
         <v>0</v>
@@ -16850,13 +16849,13 @@
         <v>7310</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E722" s="2" t="b">
         <v>0</v>
@@ -16870,13 +16869,13 @@
         <v>7311</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D723" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E723" s="2" t="b">
         <v>0</v>
@@ -16890,13 +16889,13 @@
         <v>7312</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D724" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E724" s="2" t="b">
         <v>0</v>
@@ -16910,13 +16909,13 @@
         <v>7313</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E725" s="2" t="b">
         <v>0</v>
@@ -16933,10 +16932,10 @@
         <v>80</v>
       </c>
       <c r="C726" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D726" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E726" s="2" t="b">
         <v>0</v>
@@ -16950,13 +16949,13 @@
         <v>7315</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D727" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E727" s="2" t="b">
         <v>0</v>
@@ -16973,10 +16972,10 @@
         <v>80</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D728" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E728" s="2" t="b">
         <v>0</v>
@@ -16993,10 +16992,10 @@
         <v>80</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D729" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E729" s="2" t="b">
         <v>0</v>
@@ -17013,10 +17012,10 @@
         <v>80</v>
       </c>
       <c r="C730" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D730" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E730" s="2" t="b">
         <v>0</v>
@@ -17030,13 +17029,13 @@
         <v>7319</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E731" s="2" t="b">
         <v>0</v>
@@ -17050,13 +17049,13 @@
         <v>7320</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E732" s="2" t="b">
         <v>0</v>
@@ -17073,10 +17072,10 @@
         <v>80</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E733" s="2" t="b">
         <v>0</v>
@@ -17096,7 +17095,7 @@
         <v>7</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E734" s="2" t="b">
         <v>0</v>
@@ -17113,10 +17112,10 @@
         <v>80</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E735" s="2" t="b">
         <v>0</v>
@@ -17136,7 +17135,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E736" s="2" t="b">
         <v>0</v>
@@ -17150,13 +17149,13 @@
         <v>7325</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E737" s="2" t="b">
         <v>0</v>
@@ -17170,13 +17169,13 @@
         <v>7326</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E738" s="2" t="b">
         <v>0</v>
@@ -17190,13 +17189,13 @@
         <v>7327</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E739" s="2" t="b">
         <v>0</v>
@@ -17210,13 +17209,13 @@
         <v>7328</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C740" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E740" s="2" t="b">
         <v>0</v>
@@ -17233,10 +17232,10 @@
         <v>80</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E741" s="2" t="b">
         <v>0</v>
@@ -17250,13 +17249,13 @@
         <v>7330</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C742" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E742" s="2" t="b">
         <v>0</v>
@@ -17270,13 +17269,13 @@
         <v>7331</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C743" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E743" s="2" t="b">
         <v>0</v>
@@ -17290,13 +17289,13 @@
         <v>7332</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C744" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E744" s="2" t="b">
         <v>0</v>
@@ -17310,13 +17309,13 @@
         <v>7333</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C745" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E745" s="2" t="b">
         <v>0</v>
@@ -17333,10 +17332,10 @@
         <v>80</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E746" s="2" t="b">
         <v>0</v>
@@ -17353,10 +17352,10 @@
         <v>80</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E747" s="2" t="b">
         <v>0</v>
@@ -17370,13 +17369,13 @@
         <v>7336</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C748" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E748" s="2" t="b">
         <v>0</v>
@@ -17390,13 +17389,13 @@
         <v>7337</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C749" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E749" s="2" t="b">
         <v>0</v>
@@ -17410,13 +17409,13 @@
         <v>7338</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C750" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E750" s="2" t="b">
         <v>0</v>
@@ -17430,13 +17429,13 @@
         <v>7339</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C751" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E751" s="2" t="b">
         <v>0</v>
@@ -17453,10 +17452,10 @@
         <v>80</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E752" s="2" t="b">
         <v>0</v>
@@ -17473,10 +17472,10 @@
         <v>80</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E753" s="2" t="b">
         <v>0</v>
@@ -17493,10 +17492,10 @@
         <v>80</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E754" s="2" t="b">
         <v>0</v>
@@ -17513,10 +17512,10 @@
         <v>80</v>
       </c>
       <c r="C755" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E755" s="2" t="b">
         <v>0</v>
@@ -17533,10 +17532,10 @@
         <v>80</v>
       </c>
       <c r="C756" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E756" s="2" t="b">
         <v>0</v>
@@ -17553,10 +17552,10 @@
         <v>80</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E757" s="2" t="b">
         <v>0</v>
@@ -17573,10 +17572,10 @@
         <v>80</v>
       </c>
       <c r="C758" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E758" s="2" t="b">
         <v>0</v>
@@ -17593,10 +17592,10 @@
         <v>80</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E759" s="2" t="b">
         <v>0</v>
@@ -17610,13 +17609,13 @@
         <v>7348</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C760" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E760" s="2" t="b">
         <v>0</v>
@@ -17630,13 +17629,13 @@
         <v>7349</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C761" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E761" s="2" t="b">
         <v>0</v>
@@ -17650,13 +17649,13 @@
         <v>7350</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C762" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E762" s="2" t="b">
         <v>0</v>
@@ -17670,13 +17669,13 @@
         <v>7351</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C763" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E763" s="2" t="b">
         <v>0</v>
@@ -17690,13 +17689,13 @@
         <v>7352</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C764" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E764" s="2" t="b">
         <v>0</v>
@@ -17710,13 +17709,13 @@
         <v>7353</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C765" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E765" s="2" t="b">
         <v>0</v>
@@ -17730,13 +17729,13 @@
         <v>7354</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E766" s="2" t="b">
         <v>0</v>
@@ -17753,10 +17752,10 @@
         <v>80</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E767" s="2" t="b">
         <v>0</v>
@@ -17776,7 +17775,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E768" s="2" t="b">
         <v>0</v>
@@ -17790,13 +17789,13 @@
         <v>7357</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E769" s="2" t="b">
         <v>0</v>
@@ -17813,10 +17812,10 @@
         <v>80</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E770" s="2" t="b">
         <v>0</v>
@@ -17836,7 +17835,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E771" s="2" t="b">
         <v>0</v>
@@ -17850,13 +17849,13 @@
         <v>7360</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E772" s="2" t="b">
         <v>0</v>
@@ -17873,10 +17872,10 @@
         <v>80</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E773" s="2" t="b">
         <v>0</v>
@@ -17896,7 +17895,7 @@
         <v>6</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E774" s="2" t="b">
         <v>0</v>
@@ -17916,7 +17915,7 @@
         <v>6</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E775" s="2" t="b">
         <v>0</v>
@@ -17930,13 +17929,13 @@
         <v>7364</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E776" s="2" t="b">
         <v>0</v>
@@ -17953,10 +17952,10 @@
         <v>80</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E777" s="2" t="b">
         <v>0</v>
@@ -17970,13 +17969,13 @@
         <v>7366</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E778" s="2" t="b">
         <v>0</v>
@@ -17990,13 +17989,13 @@
         <v>7367</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E779" s="2" t="b">
         <v>0</v>
@@ -18010,13 +18009,13 @@
         <v>7368</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E780" s="2" t="b">
         <v>0</v>
@@ -18030,13 +18029,13 @@
         <v>7369</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E781" s="2" t="b">
         <v>0</v>
@@ -18053,7 +18052,7 @@
         <v>80</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D782" s="2" t="s">
         <v>234</v>
@@ -18076,7 +18075,7 @@
         <v>6</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E783" s="2" t="b">
         <v>0</v>
@@ -18090,13 +18089,13 @@
         <v>7372</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E784" s="2" t="b">
         <v>0</v>
@@ -18113,10 +18112,10 @@
         <v>80</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E785" s="2" t="b">
         <v>0</v>
@@ -18136,7 +18135,7 @@
         <v>6</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E786" s="2" t="b">
         <v>0</v>
@@ -18150,13 +18149,13 @@
         <v>7375</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E787" s="2" t="b">
         <v>0</v>
@@ -18173,10 +18172,10 @@
         <v>80</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E788" s="2" t="b">
         <v>0</v>
@@ -18196,7 +18195,7 @@
         <v>6</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E789" s="2" t="b">
         <v>0</v>
@@ -18216,7 +18215,7 @@
         <v>6</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E790" s="2" t="b">
         <v>0</v>
@@ -18230,13 +18229,13 @@
         <v>7379</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E791" s="2" t="b">
         <v>0</v>
@@ -18253,10 +18252,10 @@
         <v>80</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E792" s="2" t="b">
         <v>0</v>
@@ -18270,13 +18269,13 @@
         <v>7381</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E793" s="2" t="b">
         <v>0</v>
@@ -18290,13 +18289,13 @@
         <v>7382</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E794" s="2" t="b">
         <v>0</v>
@@ -18310,13 +18309,13 @@
         <v>7383</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E795" s="2" t="b">
         <v>0</v>
@@ -18330,13 +18329,13 @@
         <v>7384</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E796" s="2" t="b">
         <v>0</v>
@@ -18353,10 +18352,10 @@
         <v>80</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E797" s="2" t="b">
         <v>0</v>
@@ -18376,7 +18375,7 @@
         <v>6</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E798" s="2" t="b">
         <v>0</v>
@@ -18396,7 +18395,7 @@
         <v>4</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E799" s="2" t="b">
         <v>0</v>
@@ -18413,10 +18412,10 @@
         <v>80</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D800" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E800" s="2" t="b">
         <v>0</v>
@@ -18436,7 +18435,7 @@
         <v>7</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E801" s="2" t="b">
         <v>0</v>
@@ -18456,7 +18455,7 @@
         <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E802" s="2" t="b">
         <v>0</v>
@@ -18470,13 +18469,13 @@
         <v>7391</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E803" s="2" t="b">
         <v>0</v>
@@ -18490,13 +18489,13 @@
         <v>7392</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E804" s="2" t="b">
         <v>0</v>
@@ -18510,13 +18509,13 @@
         <v>7393</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E805" s="2" t="b">
         <v>0</v>
@@ -18530,13 +18529,13 @@
         <v>7394</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E806" s="2" t="b">
         <v>0</v>
@@ -18550,13 +18549,13 @@
         <v>7395</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E807" s="2" t="b">
         <v>0</v>
@@ -18570,13 +18569,13 @@
         <v>7396</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E808" s="2" t="b">
         <v>0</v>
@@ -18590,13 +18589,13 @@
         <v>7397</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E809" s="2" t="b">
         <v>0</v>
@@ -18610,13 +18609,13 @@
         <v>7398</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E810" s="2" t="b">
         <v>0</v>
@@ -18633,10 +18632,10 @@
         <v>80</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E811" s="2" t="b">
         <v>0</v>
@@ -18646,7 +18645,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F606" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}"/>
+  <autoFilter ref="A1:F811" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE4A35-5F26-4A51-9E49-86F8F4D99DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F222826C-3880-4899-A581-43C2CF4D8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
   <dimension ref="A1:F811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D533" sqref="D533"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F222826C-3880-4899-A581-43C2CF4D8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE56A41-4D90-4E70-871E-33DE919CE31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청이가 향리 댁으로 간 게 아니라는 말이지?? 알겠네. 나도 찾아봄세.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1960,6 +1956,10 @@
   </si>
   <si>
     <t>ⓦ향리 댁의 수양딸에 대하여 말을 걸었다.</t>
+  </si>
+  <si>
+    <t>ⓦ청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2410,7 +2410,7 @@
   <dimension ref="A1:F811"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -2426,22 +2426,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>566</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -2829,13 +2829,13 @@
         <v>5020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         <v>5099</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" s="2" t="b">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77" s="2" t="b">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" s="2" t="b">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" s="2" t="b">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
@@ -4235,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2" t="b">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E104" s="2" t="b">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
@@ -4689,13 +4689,13 @@
         <v>5218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E114" s="2" t="b">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E119" s="2" t="b">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="b">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E123" s="2" t="b">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E132" s="2" t="b">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E135" s="2" t="b">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E137" s="2" t="b">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E138" s="2" t="b">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E139" s="2" t="b">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E145" s="2" t="b">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E155" s="2" t="b">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -5635,7 +5635,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E161" s="2" t="b">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E163" s="2" t="b">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E166" s="2" t="b">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E173" s="2" t="b">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E174" s="2" t="b">
         <v>0</v>
@@ -5915,7 +5915,7 @@
         <v>79</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E175" s="2" t="b">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>79</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E176" s="2" t="b">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E177" s="2" t="b">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E178" s="2" t="b">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E179" s="2" t="b">
         <v>0</v>
@@ -6009,13 +6009,13 @@
         <v>5365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>
@@ -6029,13 +6029,13 @@
         <v>5366</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E181" s="2" t="b">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E182" s="2" t="b">
         <v>0</v>
@@ -6075,7 +6075,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E183" s="2" t="b">
         <v>0</v>
@@ -6115,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E185" s="2" t="b">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E188" s="2" t="b">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E189" s="2" t="b">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E192" s="2" t="b">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E193" s="2" t="b">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E194" s="2" t="b">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E195" s="2" t="b">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E196" s="2" t="b">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E197" s="2" t="b">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E198" s="2" t="b">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E199" s="2" t="b">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E200" s="2" t="b">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E201" s="2" t="b">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E202" s="2" t="b">
         <v>0</v>
@@ -6515,7 +6515,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E205" s="2" t="b">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E207" s="2" t="b">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E209" s="2" t="b">
         <v>0</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E210" s="2" t="b">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E211" s="2" t="b">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E212" s="2" t="b">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E213" s="2" t="b">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E214" s="2" t="b">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>7</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E215" s="2" t="b">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E216" s="2" t="b">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E217" s="2" t="b">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E218" s="2" t="b">
         <v>0</v>
@@ -6789,13 +6789,13 @@
         <v>5440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E219" s="2" t="b">
         <v>0</v>
@@ -6812,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E220" s="2" t="b">
         <v>0</v>
@@ -6829,13 +6829,13 @@
         <v>5442</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E221" s="2" t="b">
         <v>0</v>
@@ -6852,10 +6852,10 @@
         <v>80</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E222" s="2" t="b">
         <v>0</v>
@@ -6875,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E223" s="2" t="b">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E224" s="2" t="b">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E225" s="2" t="b">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E226" s="2" t="b">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E227" s="2" t="b">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E228" s="2" t="b">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E229" s="2" t="b">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E230" s="2" t="b">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E231" s="2" t="b">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E232" s="2" t="b">
         <v>0</v>
@@ -7075,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E233" s="2" t="b">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E234" s="2" t="b">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E235" s="2" t="b">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E236" s="2" t="b">
         <v>0</v>
@@ -7149,13 +7149,13 @@
         <v>5476</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E237" s="2" t="b">
         <v>0</v>
@@ -7175,7 +7175,7 @@
         <v>7</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E238" s="2" t="b">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>7</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E239" s="2" t="b">
         <v>0</v>
@@ -7209,13 +7209,13 @@
         <v>5479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E240" s="2" t="b">
         <v>0</v>
@@ -7235,7 +7235,7 @@
         <v>7</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E241" s="2" t="b">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>7</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E242" s="2" t="b">
         <v>0</v>
@@ -7269,13 +7269,13 @@
         <v>5482</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E243" s="2" t="b">
         <v>0</v>
@@ -7289,13 +7289,13 @@
         <v>5483</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E244" s="2" t="b">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E245" s="2" t="b">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E246" s="2" t="b">
         <v>0</v>
@@ -7349,13 +7349,13 @@
         <v>5486</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E247" s="2" t="b">
         <v>0</v>
@@ -7369,13 +7369,13 @@
         <v>5487</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E248" s="2" t="b">
         <v>0</v>
@@ -7392,10 +7392,10 @@
         <v>0</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E249" s="2" t="b">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E250" s="2" t="b">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E251" s="2" t="b">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E252" s="2" t="b">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E253" s="2" t="b">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E254" s="2" t="b">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E255" s="2" t="b">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E256" s="2" t="b">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E257" s="2" t="b">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E258" s="2" t="b">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E259" s="2" t="b">
         <v>0</v>
@@ -7615,7 +7615,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E260" s="2" t="b">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E261" s="2" t="b">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E262" s="2" t="b">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E263" s="2" t="b">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E264" s="2" t="b">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E265" s="2" t="b">
         <v>0</v>
@@ -7735,7 +7735,7 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E266" s="2" t="b">
         <v>0</v>
@@ -7749,13 +7749,13 @@
         <v>5716</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E267" s="2" t="b">
         <v>0</v>
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E268" s="2" t="b">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E269" s="2" t="b">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>3</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E270" s="2" t="b">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E271" s="2" t="b">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E272" s="2" t="b">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E273" s="2" t="b">
         <v>0</v>
@@ -7895,7 +7895,7 @@
         <v>7</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E274" s="2" t="b">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E275" s="2" t="b">
         <v>0</v>
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E276" s="2" t="b">
         <v>0</v>
@@ -7955,7 +7955,7 @@
         <v>2</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E277" s="2" t="b">
         <v>0</v>
@@ -7975,7 +7975,7 @@
         <v>3</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E278" s="2" t="b">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>4</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E279" s="2" t="b">
         <v>0</v>
@@ -8015,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E280" s="2" t="b">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E281" s="2" t="b">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>7</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E282" s="2" t="b">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E283" s="2" t="b">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         <v>5733</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E284" s="2" t="b">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E285" s="2" t="b">
         <v>0</v>
@@ -8135,7 +8135,7 @@
         <v>2</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E286" s="2" t="b">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E287" s="2" t="b">
         <v>0</v>
@@ -8175,7 +8175,7 @@
         <v>4</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E288" s="2" t="b">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>5</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E289" s="2" t="b">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E290" s="2" t="b">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>7</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E291" s="2" t="b">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E292" s="2" t="b">
         <v>0</v>
@@ -8269,13 +8269,13 @@
         <v>5742</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E293" s="2" t="b">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E294" s="2" t="b">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E295" s="2" t="b">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>3</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E296" s="2" t="b">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>4</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E297" s="2" t="b">
         <v>0</v>
@@ -8375,7 +8375,7 @@
         <v>5</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E298" s="2" t="b">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>7</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E299" s="2" t="b">
         <v>0</v>
@@ -8415,7 +8415,7 @@
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E300" s="2" t="b">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E301" s="2" t="b">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E302" s="2" t="b">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E303" s="2" t="b">
         <v>0</v>
@@ -8495,7 +8495,7 @@
         <v>4</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E304" s="2" t="b">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E305" s="2" t="b">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>6</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E306" s="2" t="b">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E307" s="2" t="b">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E308" s="2" t="b">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E309" s="2" t="b">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>2</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E310" s="2" t="b">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>3</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E311" s="2" t="b">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>4</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E312" s="2" t="b">
         <v>0</v>
@@ -8675,7 +8675,7 @@
         <v>5</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E313" s="2" t="b">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>6</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E314" s="2" t="b">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>7</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E315" s="2" t="b">
         <v>0</v>
@@ -8735,7 +8735,7 @@
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E316" s="2" t="b">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E317" s="2" t="b">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E318" s="2" t="b">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E319" s="2" t="b">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         <v>4</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E320" s="2" t="b">
         <v>0</v>
@@ -8835,7 +8835,7 @@
         <v>5</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E321" s="2" t="b">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>7</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E322" s="2" t="b">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E323" s="2" t="b">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E324" s="2" t="b">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>2</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E325" s="2" t="b">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E326" s="2" t="b">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>4</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E327" s="2" t="b">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>5</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E328" s="2" t="b">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E329" s="2" t="b">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>7</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E330" s="2" t="b">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E331" s="2" t="b">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E332" s="2" t="b">
         <v>0</v>
@@ -9075,7 +9075,7 @@
         <v>2</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E333" s="2" t="b">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E334" s="2" t="b">
         <v>0</v>
@@ -9115,7 +9115,7 @@
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E335" s="2" t="b">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>5</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E336" s="2" t="b">
         <v>0</v>
@@ -9155,7 +9155,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E337" s="2" t="b">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>7</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E338" s="2" t="b">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E339" s="2" t="b">
         <v>0</v>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E340" s="2" t="b">
         <v>0</v>
@@ -9235,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E341" s="2" t="b">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E342" s="2" t="b">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         <v>4</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E343" s="2" t="b">
         <v>0</v>
@@ -9295,7 +9295,7 @@
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E344" s="2" t="b">
         <v>0</v>
@@ -9315,7 +9315,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E345" s="2" t="b">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>7</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E346" s="2" t="b">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>7</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E347" s="2" t="b">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>7</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E348" s="2" t="b">
         <v>0</v>
@@ -9395,7 +9395,7 @@
         <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E349" s="2" t="b">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>5799</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E350" s="2" t="b">
         <v>0</v>
@@ -9435,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E351" s="2" t="b">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>2</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E352" s="2" t="b">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>3</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E353" s="2" t="b">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>4</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E354" s="2" t="b">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>5</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E355" s="2" t="b">
         <v>0</v>
@@ -9535,7 +9535,7 @@
         <v>6</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E356" s="2" t="b">
         <v>0</v>
@@ -9555,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E357" s="2" t="b">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>8</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E358" s="2" t="b">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E359" s="2" t="b">
         <v>0</v>
@@ -9615,7 +9615,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E360" s="2" t="b">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>3</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E361" s="2" t="b">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E362" s="2" t="b">
         <v>0</v>
@@ -9675,7 +9675,7 @@
         <v>5</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E363" s="2" t="b">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>6</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E364" s="2" t="b">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>7</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E365" s="2" t="b">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E366" s="2" t="b">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E367" s="2" t="b">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>2</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E368" s="2" t="b">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E369" s="2" t="b">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E370" s="2" t="b">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>5</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E371" s="2" t="b">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>6</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E372" s="2" t="b">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>7</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E373" s="2" t="b">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>8</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E374" s="2" t="b">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E375" s="2" t="b">
         <v>0</v>
@@ -9935,7 +9935,7 @@
         <v>2</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E376" s="2" t="b">
         <v>0</v>
@@ -9955,7 +9955,7 @@
         <v>3</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E377" s="2" t="b">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>4</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E378" s="2" t="b">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E379" s="2" t="b">
         <v>0</v>
@@ -10015,7 +10015,7 @@
         <v>6</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E380" s="2" t="b">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>8</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E381" s="2" t="b">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>7</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E382" s="2" t="b">
         <v>0</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E383" s="2" t="b">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E384" s="2" t="b">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>3</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E385" s="2" t="b">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>4</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E386" s="2" t="b">
         <v>0</v>
@@ -10155,7 +10155,7 @@
         <v>6</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E387" s="2" t="b">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>5</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E388" s="2" t="b">
         <v>0</v>
@@ -10195,7 +10195,7 @@
         <v>7</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E389" s="2" t="b">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>8</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E390" s="2" t="b">
         <v>0</v>
@@ -10235,7 +10235,7 @@
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E391" s="2" t="b">
         <v>0</v>
@@ -10255,7 +10255,7 @@
         <v>7</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E392" s="2" t="b">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E393" s="2" t="b">
         <v>0</v>
@@ -10295,7 +10295,7 @@
         <v>2</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E394" s="2" t="b">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>3</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E395" s="2" t="b">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>4</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E396" s="2" t="b">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>6</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E397" s="2" t="b">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>5</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E398" s="2" t="b">
         <v>0</v>
@@ -10395,7 +10395,7 @@
         <v>7</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E399" s="2" t="b">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>8</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E400" s="2" t="b">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E401" s="2" t="b">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>2</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E402" s="2" t="b">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>3</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E403" s="2" t="b">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E405" s="2" t="b">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>7</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E406" s="2" t="b">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         <v>10</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E407" s="2" t="b">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>10</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E408" s="2" t="b">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>5</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>7</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E410" s="2" t="b">
         <v>0</v>
@@ -10635,7 +10635,7 @@
         <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E411" s="2" t="b">
         <v>0</v>
@@ -10652,10 +10652,10 @@
         <v>80</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E412" s="2" t="b">
         <v>0</v>
@@ -10669,13 +10669,13 @@
         <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E413" s="2" t="b">
         <v>0</v>
@@ -10689,13 +10689,13 @@
         <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E414" s="2" t="b">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -10735,7 +10735,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E416" s="2" t="b">
         <v>0</v>
@@ -10749,13 +10749,13 @@
         <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E417" s="2" t="b">
         <v>0</v>
@@ -10769,13 +10769,13 @@
         <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E418" s="2" t="b">
         <v>0</v>
@@ -10789,13 +10789,13 @@
         <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E419" s="2" t="b">
         <v>0</v>
@@ -10809,13 +10809,13 @@
         <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E420" s="2" t="b">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E421" s="2" t="b">
         <v>0</v>
@@ -10849,13 +10849,13 @@
         <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E422" s="2" t="b">
         <v>0</v>
@@ -10869,13 +10869,13 @@
         <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E423" s="2" t="b">
         <v>0</v>
@@ -10889,13 +10889,13 @@
         <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E424" s="2" t="b">
         <v>0</v>
@@ -10909,13 +10909,13 @@
         <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E425" s="2" t="b">
         <v>0</v>
@@ -10929,13 +10929,13 @@
         <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>
@@ -10949,13 +10949,13 @@
         <v>7015</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E427" s="2" t="b">
         <v>0</v>
@@ -10969,13 +10969,13 @@
         <v>7016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E428" s="2" t="b">
         <v>0</v>
@@ -10992,10 +10992,10 @@
         <v>80</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E429" s="2" t="b">
         <v>0</v>
@@ -11009,13 +11009,13 @@
         <v>7018</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E430" s="2" t="b">
         <v>0</v>
@@ -11029,13 +11029,13 @@
         <v>7019</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E431" s="2" t="b">
         <v>0</v>
@@ -11049,13 +11049,13 @@
         <v>7020</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E432" s="2" t="b">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>7021</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E433" s="2" t="b">
         <v>0</v>
@@ -11089,13 +11089,13 @@
         <v>7022</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E434" s="2" t="b">
         <v>0</v>
@@ -11109,13 +11109,13 @@
         <v>7023</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E435" s="2" t="b">
         <v>0</v>
@@ -11129,13 +11129,13 @@
         <v>7024</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E436" s="2" t="b">
         <v>0</v>
@@ -11149,13 +11149,13 @@
         <v>7025</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E437" s="2" t="b">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>7</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E438" s="2" t="b">
         <v>0</v>
@@ -11189,13 +11189,13 @@
         <v>7027</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E439" s="2" t="b">
         <v>0</v>
@@ -11212,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E440" s="2" t="b">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>7</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E441" s="2" t="b">
         <v>0</v>
@@ -11249,13 +11249,13 @@
         <v>7030</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E442" s="2" t="b">
         <v>0</v>
@@ -11269,13 +11269,13 @@
         <v>7031</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E443" s="2" t="b">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         <v>7032</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E444" s="2" t="b">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>7033</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E445" s="2" t="b">
         <v>0</v>
@@ -11329,13 +11329,13 @@
         <v>7034</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E446" s="2" t="b">
         <v>0</v>
@@ -11355,7 +11355,7 @@
         <v>8</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E447" s="2" t="b">
         <v>0</v>
@@ -11369,13 +11369,13 @@
         <v>7036</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E448" s="2" t="b">
         <v>0</v>
@@ -11392,10 +11392,10 @@
         <v>0</v>
       </c>
       <c r="C449" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D449" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="D449" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="E449" s="2" t="b">
         <v>0</v>
@@ -11415,7 +11415,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E450" s="2" t="b">
         <v>0</v>
@@ -11429,13 +11429,13 @@
         <v>7039</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E451" s="2" t="b">
         <v>0</v>
@@ -11449,13 +11449,13 @@
         <v>7040</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E452" s="2" t="b">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>7041</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E453" s="2" t="b">
         <v>0</v>
@@ -11489,13 +11489,13 @@
         <v>7042</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E454" s="2" t="b">
         <v>0</v>
@@ -11512,10 +11512,10 @@
         <v>0</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E455" s="2" t="b">
         <v>0</v>
@@ -11529,13 +11529,13 @@
         <v>7044</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E456" s="2" t="b">
         <v>0</v>
@@ -11549,13 +11549,13 @@
         <v>7045</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E457" s="2" t="b">
         <v>0</v>
@@ -11569,13 +11569,13 @@
         <v>7046</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E458" s="2" t="b">
         <v>0</v>
@@ -11589,13 +11589,13 @@
         <v>7047</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E459" s="2" t="b">
         <v>0</v>
@@ -11609,13 +11609,13 @@
         <v>7048</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E460" s="2" t="b">
         <v>0</v>
@@ -11629,13 +11629,13 @@
         <v>7049</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E461" s="2" t="b">
         <v>0</v>
@@ -11649,13 +11649,13 @@
         <v>7050</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E462" s="2" t="b">
         <v>0</v>
@@ -11669,13 +11669,13 @@
         <v>7051</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E463" s="2" t="b">
         <v>0</v>
@@ -11689,13 +11689,13 @@
         <v>7052</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E464" s="2" t="b">
         <v>0</v>
@@ -11712,10 +11712,10 @@
         <v>0</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E465" s="2" t="b">
         <v>0</v>
@@ -11729,13 +11729,13 @@
         <v>7054</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E466" s="2" t="b">
         <v>0</v>
@@ -11752,10 +11752,10 @@
         <v>0</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E467" s="2" t="b">
         <v>0</v>
@@ -11769,13 +11769,13 @@
         <v>7056</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E468" s="2" t="b">
         <v>0</v>
@@ -11792,10 +11792,10 @@
         <v>0</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E469" s="2" t="b">
         <v>0</v>
@@ -11812,10 +11812,10 @@
         <v>0</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E470" s="2" t="b">
         <v>0</v>
@@ -11829,13 +11829,13 @@
         <v>7059</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E471" s="2" t="b">
         <v>0</v>
@@ -11849,13 +11849,13 @@
         <v>7060</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E472" s="2" t="b">
         <v>0</v>
@@ -11872,10 +11872,10 @@
         <v>0</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E473" s="2" t="b">
         <v>0</v>
@@ -11895,7 +11895,7 @@
         <v>7</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E474" s="2" t="b">
         <v>0</v>
@@ -11912,10 +11912,10 @@
         <v>0</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E475" s="2" t="b">
         <v>0</v>
@@ -11935,7 +11935,7 @@
         <v>7</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E476" s="2" t="b">
         <v>0</v>
@@ -11949,13 +11949,13 @@
         <v>7065</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E477" s="2" t="b">
         <v>0</v>
@@ -11969,13 +11969,13 @@
         <v>7066</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E478" s="2" t="b">
         <v>0</v>
@@ -11989,13 +11989,13 @@
         <v>7067</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E479" s="2" t="b">
         <v>0</v>
@@ -12009,13 +12009,13 @@
         <v>7068</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E480" s="2" t="b">
         <v>0</v>
@@ -12032,10 +12032,10 @@
         <v>0</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E481" s="2" t="b">
         <v>0</v>
@@ -12049,13 +12049,13 @@
         <v>7070</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E482" s="2" t="b">
         <v>0</v>
@@ -12072,10 +12072,10 @@
         <v>0</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E483" s="2" t="b">
         <v>0</v>
@@ -12092,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E484" s="2" t="b">
         <v>0</v>
@@ -12112,10 +12112,10 @@
         <v>0</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E485" s="2" t="b">
         <v>0</v>
@@ -12129,13 +12129,13 @@
         <v>7074</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E486" s="2" t="b">
         <v>0</v>
@@ -12149,13 +12149,13 @@
         <v>7075</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E487" s="2" t="b">
         <v>0</v>
@@ -12172,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E488" s="2" t="b">
         <v>0</v>
@@ -12195,7 +12195,7 @@
         <v>7</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E489" s="2" t="b">
         <v>0</v>
@@ -12212,10 +12212,10 @@
         <v>0</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E490" s="2" t="b">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>7</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E491" s="2" t="b">
         <v>0</v>
@@ -12249,13 +12249,13 @@
         <v>7080</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E492" s="2" t="b">
         <v>0</v>
@@ -12269,13 +12269,13 @@
         <v>7081</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E493" s="2" t="b">
         <v>0</v>
@@ -12289,13 +12289,13 @@
         <v>7082</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E494" s="2" t="b">
         <v>0</v>
@@ -12309,13 +12309,13 @@
         <v>7083</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E495" s="2" t="b">
         <v>0</v>
@@ -12332,10 +12332,10 @@
         <v>0</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E496" s="2" t="b">
         <v>0</v>
@@ -12349,13 +12349,13 @@
         <v>7085</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E497" s="2" t="b">
         <v>0</v>
@@ -12369,13 +12369,13 @@
         <v>7086</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E498" s="2" t="b">
         <v>0</v>
@@ -12389,13 +12389,13 @@
         <v>7087</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E499" s="2" t="b">
         <v>0</v>
@@ -12409,13 +12409,13 @@
         <v>7088</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E500" s="2" t="b">
         <v>0</v>
@@ -12432,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D501" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E501" s="2" t="b">
         <v>0</v>
@@ -12452,10 +12452,10 @@
         <v>0</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E502" s="2" t="b">
         <v>0</v>
@@ -12469,13 +12469,13 @@
         <v>7091</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E503" s="2" t="b">
         <v>0</v>
@@ -12489,13 +12489,13 @@
         <v>7092</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E504" s="2" t="b">
         <v>0</v>
@@ -12509,13 +12509,13 @@
         <v>7093</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E505" s="2" t="b">
         <v>0</v>
@@ -12529,13 +12529,13 @@
         <v>7094</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E506" s="2" t="b">
         <v>0</v>
@@ -12552,10 +12552,10 @@
         <v>0</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E507" s="2" t="b">
         <v>0</v>
@@ -12572,10 +12572,10 @@
         <v>0</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E508" s="2" t="b">
         <v>0</v>
@@ -12592,10 +12592,10 @@
         <v>0</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D509" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E509" s="2" t="b">
         <v>0</v>
@@ -12612,10 +12612,10 @@
         <v>0</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E510" s="2" t="b">
         <v>0</v>
@@ -12632,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E511" s="2" t="b">
         <v>0</v>
@@ -12652,10 +12652,10 @@
         <v>0</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D512" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E512" s="2" t="b">
         <v>0</v>
@@ -12672,10 +12672,10 @@
         <v>0</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D513" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E513" s="2" t="b">
         <v>0</v>
@@ -12692,10 +12692,10 @@
         <v>0</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D514" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E514" s="2" t="b">
         <v>0</v>
@@ -12709,13 +12709,13 @@
         <v>7103</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D515" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E515" s="2" t="b">
         <v>0</v>
@@ -12729,13 +12729,13 @@
         <v>7104</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D516" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E516" s="2" t="b">
         <v>0</v>
@@ -12749,13 +12749,13 @@
         <v>7105</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D517" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E517" s="2" t="b">
         <v>0</v>
@@ -12769,13 +12769,13 @@
         <v>7106</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D518" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E518" s="2" t="b">
         <v>0</v>
@@ -12789,13 +12789,13 @@
         <v>7107</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D519" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E519" s="2" t="b">
         <v>0</v>
@@ -12809,13 +12809,13 @@
         <v>7108</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E520" s="2" t="b">
         <v>0</v>
@@ -12829,13 +12829,13 @@
         <v>7109</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C521" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D521" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="D521" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="E521" s="2" t="b">
         <v>0</v>
@@ -12849,13 +12849,13 @@
         <v>7110</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D522" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E522" s="2" t="b">
         <v>0</v>
@@ -12869,13 +12869,13 @@
         <v>7111</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D523" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E523" s="2" t="b">
         <v>0</v>
@@ -12889,13 +12889,13 @@
         <v>7112</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D524" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E524" s="2" t="b">
         <v>0</v>
@@ -12909,13 +12909,13 @@
         <v>7113</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D525" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E525" s="2" t="b">
         <v>0</v>
@@ -12929,13 +12929,13 @@
         <v>7114</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D526" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E526" s="2" t="b">
         <v>0</v>
@@ -12949,13 +12949,13 @@
         <v>7115</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D527" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E527" s="2" t="b">
         <v>0</v>
@@ -12969,13 +12969,13 @@
         <v>7116</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D528" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E528" s="2" t="b">
         <v>0</v>
@@ -12989,13 +12989,13 @@
         <v>7117</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D529" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E529" s="2" t="b">
         <v>0</v>
@@ -13009,13 +13009,13 @@
         <v>7118</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D530" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E530" s="2" t="b">
         <v>0</v>
@@ -13029,13 +13029,13 @@
         <v>7119</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D531" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E531" s="2" t="b">
         <v>0</v>
@@ -13049,13 +13049,13 @@
         <v>7120</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D532" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E532" s="2" t="b">
         <v>0</v>
@@ -13069,13 +13069,13 @@
         <v>7121</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D533" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E533" s="2" t="b">
         <v>0</v>
@@ -13089,13 +13089,13 @@
         <v>7122</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E534" s="2" t="b">
         <v>0</v>
@@ -13109,13 +13109,13 @@
         <v>7123</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D535" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E535" s="2" t="b">
         <v>0</v>
@@ -13129,13 +13129,13 @@
         <v>7124</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D536" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E536" s="2" t="b">
         <v>0</v>
@@ -13149,13 +13149,13 @@
         <v>7125</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D537" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E537" s="2" t="b">
         <v>0</v>
@@ -13169,13 +13169,13 @@
         <v>7126</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D538" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E538" s="2" t="b">
         <v>0</v>
@@ -13189,13 +13189,13 @@
         <v>7127</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D539" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E539" s="2" t="b">
         <v>0</v>
@@ -13209,13 +13209,13 @@
         <v>7128</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D540" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E540" s="2" t="b">
         <v>0</v>
@@ -13229,13 +13229,13 @@
         <v>7129</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D541" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E541" s="2" t="b">
         <v>0</v>
@@ -13249,13 +13249,13 @@
         <v>7130</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D542" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E542" s="2" t="b">
         <v>0</v>
@@ -13269,13 +13269,13 @@
         <v>7131</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D543" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E543" s="2" t="b">
         <v>0</v>
@@ -13289,13 +13289,13 @@
         <v>7132</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D544" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E544" s="2" t="b">
         <v>0</v>
@@ -13309,13 +13309,13 @@
         <v>7133</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D545" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E545" s="2" t="b">
         <v>0</v>
@@ -13329,13 +13329,13 @@
         <v>7134</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D546" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E546" s="2" t="b">
         <v>0</v>
@@ -13349,13 +13349,13 @@
         <v>7135</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D547" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E547" s="2" t="b">
         <v>0</v>
@@ -13369,13 +13369,13 @@
         <v>7136</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D548" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E548" s="2" t="b">
         <v>0</v>
@@ -13389,13 +13389,13 @@
         <v>7137</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D549" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E549" s="2" t="b">
         <v>0</v>
@@ -13409,13 +13409,13 @@
         <v>7138</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D550" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E550" s="2" t="b">
         <v>0</v>
@@ -13429,13 +13429,13 @@
         <v>7139</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D551" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E551" s="2" t="b">
         <v>0</v>
@@ -13449,13 +13449,13 @@
         <v>7140</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D552" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E552" s="2" t="b">
         <v>0</v>
@@ -13469,13 +13469,13 @@
         <v>7141</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D553" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E553" s="2" t="b">
         <v>0</v>
@@ -13489,13 +13489,13 @@
         <v>7142</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D554" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E554" s="2" t="b">
         <v>0</v>
@@ -13509,13 +13509,13 @@
         <v>7143</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D555" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E555" s="2" t="b">
         <v>0</v>
@@ -13529,13 +13529,13 @@
         <v>7144</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D556" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E556" s="2" t="b">
         <v>0</v>
@@ -13549,13 +13549,13 @@
         <v>7145</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D557" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E557" s="2" t="b">
         <v>0</v>
@@ -13569,13 +13569,13 @@
         <v>7146</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D558" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E558" s="2" t="b">
         <v>0</v>
@@ -13589,13 +13589,13 @@
         <v>7147</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D559" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E559" s="2" t="b">
         <v>0</v>
@@ -13609,13 +13609,13 @@
         <v>7148</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D560" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E560" s="2" t="b">
         <v>0</v>
@@ -13629,13 +13629,13 @@
         <v>7149</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D561" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E561" s="2" t="b">
         <v>0</v>
@@ -13649,13 +13649,13 @@
         <v>7150</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D562" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E562" s="2" t="b">
         <v>0</v>
@@ -13669,13 +13669,13 @@
         <v>7151</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D563" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E563" s="2" t="b">
         <v>0</v>
@@ -13689,13 +13689,13 @@
         <v>7152</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D564" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E564" s="2" t="b">
         <v>0</v>
@@ -13712,10 +13712,10 @@
         <v>0</v>
       </c>
       <c r="C565" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D565" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="D565" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="E565" s="2" t="b">
         <v>0</v>
@@ -13732,10 +13732,10 @@
         <v>0</v>
       </c>
       <c r="C566" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E566" s="2" t="b">
         <v>0</v>
@@ -13752,10 +13752,10 @@
         <v>0</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E567" s="2" t="b">
         <v>0</v>
@@ -13772,10 +13772,10 @@
         <v>0</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E568" s="2" t="b">
         <v>0</v>
@@ -13792,10 +13792,10 @@
         <v>0</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E569" s="2" t="b">
         <v>0</v>
@@ -13812,10 +13812,10 @@
         <v>0</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E570" s="2" t="b">
         <v>0</v>
@@ -13832,10 +13832,10 @@
         <v>0</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D571" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E571" s="2" t="b">
         <v>0</v>
@@ -13852,10 +13852,10 @@
         <v>0</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E572" s="2" t="b">
         <v>0</v>
@@ -13872,10 +13872,10 @@
         <v>0</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D573" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E573" s="2" t="b">
         <v>0</v>
@@ -13892,10 +13892,10 @@
         <v>0</v>
       </c>
       <c r="C574" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D574" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E574" s="2" t="b">
         <v>0</v>
@@ -13912,10 +13912,10 @@
         <v>0</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E575" s="2" t="b">
         <v>0</v>
@@ -13932,10 +13932,10 @@
         <v>0</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E576" s="2" t="b">
         <v>0</v>
@@ -13952,10 +13952,10 @@
         <v>0</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D577" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E577" s="2" t="b">
         <v>0</v>
@@ -13972,10 +13972,10 @@
         <v>0</v>
       </c>
       <c r="C578" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E578" s="2" t="b">
         <v>0</v>
@@ -13992,10 +13992,10 @@
         <v>0</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D579" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E579" s="2" t="b">
         <v>0</v>
@@ -14012,10 +14012,10 @@
         <v>0</v>
       </c>
       <c r="C580" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D580" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E580" s="2" t="b">
         <v>0</v>
@@ -14032,10 +14032,10 @@
         <v>0</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D581" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E581" s="2" t="b">
         <v>0</v>
@@ -14052,10 +14052,10 @@
         <v>0</v>
       </c>
       <c r="C582" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D582" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E582" s="2" t="b">
         <v>0</v>
@@ -14072,10 +14072,10 @@
         <v>0</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E583" s="2" t="b">
         <v>0</v>
@@ -14092,10 +14092,10 @@
         <v>0</v>
       </c>
       <c r="C584" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D584" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E584" s="2" t="b">
         <v>0</v>
@@ -14112,10 +14112,10 @@
         <v>0</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E585" s="2" t="b">
         <v>0</v>
@@ -14132,10 +14132,10 @@
         <v>0</v>
       </c>
       <c r="C586" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D586" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E586" s="2" t="b">
         <v>0</v>
@@ -14152,10 +14152,10 @@
         <v>0</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E587" s="2" t="b">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>0</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D588" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E588" s="2" t="b">
         <v>0</v>
@@ -14192,10 +14192,10 @@
         <v>0</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E589" s="2" t="b">
         <v>0</v>
@@ -14212,10 +14212,10 @@
         <v>0</v>
       </c>
       <c r="C590" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E590" s="2" t="b">
         <v>0</v>
@@ -14232,10 +14232,10 @@
         <v>0</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D591" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E591" s="2" t="b">
         <v>0</v>
@@ -14252,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D592" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E592" s="2" t="b">
         <v>0</v>
@@ -14272,10 +14272,10 @@
         <v>0</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D593" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E593" s="2" t="b">
         <v>0</v>
@@ -14292,10 +14292,10 @@
         <v>0</v>
       </c>
       <c r="C594" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D594" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E594" s="2" t="b">
         <v>0</v>
@@ -14312,10 +14312,10 @@
         <v>0</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D595" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E595" s="2" t="b">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D596" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E596" s="2" t="b">
         <v>0</v>
@@ -14352,10 +14352,10 @@
         <v>0</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D597" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E597" s="2" t="b">
         <v>0</v>
@@ -14372,10 +14372,10 @@
         <v>0</v>
       </c>
       <c r="C598" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D598" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E598" s="2" t="b">
         <v>0</v>
@@ -14392,10 +14392,10 @@
         <v>0</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E599" s="2" t="b">
         <v>0</v>
@@ -14412,10 +14412,10 @@
         <v>0</v>
       </c>
       <c r="C600" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D600" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E600" s="2" t="b">
         <v>0</v>
@@ -14432,10 +14432,10 @@
         <v>0</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D601" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E601" s="2" t="b">
         <v>0</v>
@@ -14452,10 +14452,10 @@
         <v>0</v>
       </c>
       <c r="C602" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D602" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E602" s="2" t="b">
         <v>0</v>
@@ -14472,10 +14472,10 @@
         <v>0</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D603" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E603" s="2" t="b">
         <v>0</v>
@@ -14492,10 +14492,10 @@
         <v>0</v>
       </c>
       <c r="C604" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D604" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E604" s="2" t="b">
         <v>0</v>
@@ -14512,10 +14512,10 @@
         <v>0</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E605" s="2" t="b">
         <v>0</v>
@@ -14529,13 +14529,13 @@
         <v>7194</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E606" s="2" t="b">
         <v>0</v>
@@ -14555,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E607" s="2" t="b">
         <v>0</v>
@@ -14575,7 +14575,7 @@
         <v>2</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E608" s="2" t="b">
         <v>0</v>
@@ -14595,7 +14595,7 @@
         <v>3</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E609" s="2" t="b">
         <v>0</v>
@@ -14615,7 +14615,7 @@
         <v>4</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E610" s="2" t="b">
         <v>0</v>
@@ -14635,7 +14635,7 @@
         <v>5</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E611" s="2" t="b">
         <v>0</v>
@@ -14655,7 +14655,7 @@
         <v>6</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E612" s="2" t="b">
         <v>0</v>
@@ -14675,7 +14675,7 @@
         <v>7</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E613" s="2" t="b">
         <v>0</v>
@@ -14695,7 +14695,7 @@
         <v>8</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E614" s="2" t="b">
         <v>0</v>
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E615" s="2" t="b">
         <v>0</v>
@@ -14735,7 +14735,7 @@
         <v>2</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E616" s="2" t="b">
         <v>0</v>
@@ -14755,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E617" s="2" t="b">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>4</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E618" s="2" t="b">
         <v>0</v>
@@ -14815,7 +14815,7 @@
         <v>6</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E620" s="2" t="b">
         <v>0</v>
@@ -14835,7 +14835,7 @@
         <v>7</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E621" s="2" t="b">
         <v>0</v>
@@ -14855,7 +14855,7 @@
         <v>8</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E622" s="2" t="b">
         <v>0</v>
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E623" s="2" t="b">
         <v>0</v>
@@ -14895,7 +14895,7 @@
         <v>2</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E624" s="2" t="b">
         <v>0</v>
@@ -14915,7 +14915,7 @@
         <v>3</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E625" s="2" t="b">
         <v>0</v>
@@ -14935,7 +14935,7 @@
         <v>4</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E626" s="2" t="b">
         <v>0</v>
@@ -14975,7 +14975,7 @@
         <v>6</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E628" s="2" t="b">
         <v>0</v>
@@ -14995,7 +14995,7 @@
         <v>7</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E629" s="2" t="b">
         <v>0</v>
@@ -15015,7 +15015,7 @@
         <v>8</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E630" s="2" t="b">
         <v>0</v>
@@ -15035,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E631" s="2" t="b">
         <v>0</v>
@@ -15055,7 +15055,7 @@
         <v>2</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E632" s="2" t="b">
         <v>0</v>
@@ -15075,7 +15075,7 @@
         <v>3</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E633" s="2" t="b">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>4</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E634" s="2" t="b">
         <v>0</v>
@@ -15135,7 +15135,7 @@
         <v>6</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E636" s="2" t="b">
         <v>0</v>
@@ -15155,7 +15155,7 @@
         <v>8</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E637" s="2" t="b">
         <v>0</v>
@@ -15175,7 +15175,7 @@
         <v>7</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E638" s="2" t="b">
         <v>0</v>
@@ -15195,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E639" s="2" t="b">
         <v>0</v>
@@ -15215,7 +15215,7 @@
         <v>2</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E640" s="2" t="b">
         <v>0</v>
@@ -15235,7 +15235,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E641" s="2" t="b">
         <v>0</v>
@@ -15255,7 +15255,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E642" s="2" t="b">
         <v>0</v>
@@ -15275,7 +15275,7 @@
         <v>6</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E643" s="2" t="b">
         <v>0</v>
@@ -15295,7 +15295,7 @@
         <v>5</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E644" s="2" t="b">
         <v>0</v>
@@ -15315,7 +15315,7 @@
         <v>7</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E645" s="2" t="b">
         <v>0</v>
@@ -15335,7 +15335,7 @@
         <v>8</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E646" s="2" t="b">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>7</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E647" s="2" t="b">
         <v>0</v>
@@ -15375,7 +15375,7 @@
         <v>7</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E648" s="2" t="b">
         <v>0</v>
@@ -15395,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E649" s="2" t="b">
         <v>0</v>
@@ -15415,7 +15415,7 @@
         <v>2</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E650" s="2" t="b">
         <v>0</v>
@@ -15435,7 +15435,7 @@
         <v>3</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E651" s="2" t="b">
         <v>0</v>
@@ -15455,7 +15455,7 @@
         <v>4</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E652" s="2" t="b">
         <v>0</v>
@@ -15475,7 +15475,7 @@
         <v>6</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E653" s="2" t="b">
         <v>0</v>
@@ -15495,7 +15495,7 @@
         <v>5</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E654" s="2" t="b">
         <v>0</v>
@@ -15515,7 +15515,7 @@
         <v>7</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E655" s="2" t="b">
         <v>0</v>
@@ -15535,7 +15535,7 @@
         <v>8</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E656" s="2" t="b">
         <v>0</v>
@@ -15552,10 +15552,10 @@
         <v>80</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E657" s="2" t="b">
         <v>0</v>
@@ -15569,13 +15569,13 @@
         <v>7246</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E658" s="2" t="b">
         <v>0</v>
@@ -15589,13 +15589,13 @@
         <v>7247</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E659" s="2" t="b">
         <v>0</v>
@@ -15609,13 +15609,13 @@
         <v>7248</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E660" s="2" t="b">
         <v>0</v>
@@ -15635,7 +15635,7 @@
         <v>9</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E661" s="2" t="b">
         <v>0</v>
@@ -15649,13 +15649,13 @@
         <v>7250</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E662" s="2" t="b">
         <v>0</v>
@@ -15669,13 +15669,13 @@
         <v>7251</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E663" s="2" t="b">
         <v>0</v>
@@ -15689,13 +15689,13 @@
         <v>7252</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E664" s="2" t="b">
         <v>0</v>
@@ -15709,13 +15709,13 @@
         <v>7253</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E665" s="2" t="b">
         <v>0</v>
@@ -15729,13 +15729,13 @@
         <v>7254</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E666" s="2" t="b">
         <v>0</v>
@@ -15749,13 +15749,13 @@
         <v>7255</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E667" s="2" t="b">
         <v>0</v>
@@ -15769,13 +15769,13 @@
         <v>7256</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E668" s="2" t="b">
         <v>0</v>
@@ -15789,13 +15789,13 @@
         <v>7257</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E669" s="2" t="b">
         <v>0</v>
@@ -15809,13 +15809,13 @@
         <v>7258</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E670" s="2" t="b">
         <v>0</v>
@@ -15829,13 +15829,13 @@
         <v>7259</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E671" s="2" t="b">
         <v>0</v>
@@ -15849,13 +15849,13 @@
         <v>7260</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E672" s="2" t="b">
         <v>0</v>
@@ -15869,13 +15869,13 @@
         <v>7261</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E673" s="2" t="b">
         <v>0</v>
@@ -15892,10 +15892,10 @@
         <v>80</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E674" s="2" t="b">
         <v>0</v>
@@ -15909,13 +15909,13 @@
         <v>7263</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E675" s="2" t="b">
         <v>0</v>
@@ -15929,13 +15929,13 @@
         <v>7264</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E676" s="2" t="b">
         <v>0</v>
@@ -15949,13 +15949,13 @@
         <v>7265</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E677" s="2" t="b">
         <v>0</v>
@@ -15969,13 +15969,13 @@
         <v>7266</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E678" s="2" t="b">
         <v>0</v>
@@ -15989,13 +15989,13 @@
         <v>7267</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E679" s="2" t="b">
         <v>0</v>
@@ -16009,13 +16009,13 @@
         <v>7268</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E680" s="2" t="b">
         <v>0</v>
@@ -16029,13 +16029,13 @@
         <v>7269</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E681" s="2" t="b">
         <v>0</v>
@@ -16049,13 +16049,13 @@
         <v>7270</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E682" s="2" t="b">
         <v>0</v>
@@ -16075,7 +16075,7 @@
         <v>7</v>
       </c>
       <c r="D683" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E683" s="2" t="b">
         <v>0</v>
@@ -16089,13 +16089,13 @@
         <v>7272</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C684" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D684" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E684" s="2" t="b">
         <v>0</v>
@@ -16112,10 +16112,10 @@
         <v>80</v>
       </c>
       <c r="C685" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D685" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E685" s="2" t="b">
         <v>0</v>
@@ -16135,7 +16135,7 @@
         <v>7</v>
       </c>
       <c r="D686" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E686" s="2" t="b">
         <v>0</v>
@@ -16149,13 +16149,13 @@
         <v>7275</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C687" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D687" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E687" s="2" t="b">
         <v>0</v>
@@ -16169,13 +16169,13 @@
         <v>7276</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D688" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E688" s="2" t="b">
         <v>0</v>
@@ -16189,13 +16189,13 @@
         <v>7277</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D689" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E689" s="2" t="b">
         <v>0</v>
@@ -16209,13 +16209,13 @@
         <v>7278</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D690" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E690" s="2" t="b">
         <v>0</v>
@@ -16229,13 +16229,13 @@
         <v>7279</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C691" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E691" s="2" t="b">
         <v>0</v>
@@ -16255,7 +16255,7 @@
         <v>8</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E692" s="2" t="b">
         <v>0</v>
@@ -16269,13 +16269,13 @@
         <v>7281</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C693" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E693" s="2" t="b">
         <v>0</v>
@@ -16292,10 +16292,10 @@
         <v>80</v>
       </c>
       <c r="C694" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D694" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="D694" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="E694" s="2" t="b">
         <v>0</v>
@@ -16315,7 +16315,7 @@
         <v>7</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E695" s="2" t="b">
         <v>0</v>
@@ -16329,13 +16329,13 @@
         <v>7284</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E696" s="2" t="b">
         <v>0</v>
@@ -16349,13 +16349,13 @@
         <v>7285</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E697" s="2" t="b">
         <v>0</v>
@@ -16369,13 +16369,13 @@
         <v>7286</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E698" s="2" t="b">
         <v>0</v>
@@ -16389,13 +16389,13 @@
         <v>7287</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C699" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E699" s="2" t="b">
         <v>0</v>
@@ -16412,10 +16412,10 @@
         <v>80</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E700" s="2" t="b">
         <v>0</v>
@@ -16429,13 +16429,13 @@
         <v>7289</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E701" s="2" t="b">
         <v>0</v>
@@ -16449,13 +16449,13 @@
         <v>7290</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E702" s="2" t="b">
         <v>0</v>
@@ -16469,13 +16469,13 @@
         <v>7291</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E703" s="2" t="b">
         <v>0</v>
@@ -16489,13 +16489,13 @@
         <v>7292</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E704" s="2" t="b">
         <v>0</v>
@@ -16509,13 +16509,13 @@
         <v>7293</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E705" s="2" t="b">
         <v>0</v>
@@ -16529,13 +16529,13 @@
         <v>7294</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E706" s="2" t="b">
         <v>0</v>
@@ -16549,13 +16549,13 @@
         <v>7295</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E707" s="2" t="b">
         <v>0</v>
@@ -16569,13 +16569,13 @@
         <v>7296</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E708" s="2" t="b">
         <v>0</v>
@@ -16589,13 +16589,13 @@
         <v>7297</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E709" s="2" t="b">
         <v>0</v>
@@ -16612,10 +16612,10 @@
         <v>80</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E710" s="2" t="b">
         <v>0</v>
@@ -16629,13 +16629,13 @@
         <v>7299</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C711" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E711" s="2" t="b">
         <v>0</v>
@@ -16652,10 +16652,10 @@
         <v>80</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E712" s="2" t="b">
         <v>0</v>
@@ -16669,13 +16669,13 @@
         <v>7301</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E713" s="2" t="b">
         <v>0</v>
@@ -16692,10 +16692,10 @@
         <v>80</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E714" s="2" t="b">
         <v>0</v>
@@ -16712,10 +16712,10 @@
         <v>80</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E715" s="2" t="b">
         <v>0</v>
@@ -16729,13 +16729,13 @@
         <v>7304</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D716" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E716" s="2" t="b">
         <v>0</v>
@@ -16749,13 +16749,13 @@
         <v>7305</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C717" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D717" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E717" s="2" t="b">
         <v>0</v>
@@ -16772,10 +16772,10 @@
         <v>80</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D718" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E718" s="2" t="b">
         <v>0</v>
@@ -16795,7 +16795,7 @@
         <v>7</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E719" s="2" t="b">
         <v>0</v>
@@ -16812,10 +16812,10 @@
         <v>80</v>
       </c>
       <c r="C720" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E720" s="2" t="b">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>7</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E721" s="2" t="b">
         <v>0</v>
@@ -16849,13 +16849,13 @@
         <v>7310</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C722" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E722" s="2" t="b">
         <v>0</v>
@@ -16869,13 +16869,13 @@
         <v>7311</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C723" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D723" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E723" s="2" t="b">
         <v>0</v>
@@ -16889,13 +16889,13 @@
         <v>7312</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C724" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D724" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E724" s="2" t="b">
         <v>0</v>
@@ -16909,13 +16909,13 @@
         <v>7313</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C725" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E725" s="2" t="b">
         <v>0</v>
@@ -16932,10 +16932,10 @@
         <v>80</v>
       </c>
       <c r="C726" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D726" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E726" s="2" t="b">
         <v>0</v>
@@ -16949,13 +16949,13 @@
         <v>7315</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C727" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D727" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E727" s="2" t="b">
         <v>0</v>
@@ -16972,10 +16972,10 @@
         <v>80</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D728" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E728" s="2" t="b">
         <v>0</v>
@@ -16992,10 +16992,10 @@
         <v>80</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D729" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E729" s="2" t="b">
         <v>0</v>
@@ -17012,10 +17012,10 @@
         <v>80</v>
       </c>
       <c r="C730" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D730" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E730" s="2" t="b">
         <v>0</v>
@@ -17029,13 +17029,13 @@
         <v>7319</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C731" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E731" s="2" t="b">
         <v>0</v>
@@ -17049,13 +17049,13 @@
         <v>7320</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C732" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E732" s="2" t="b">
         <v>0</v>
@@ -17072,10 +17072,10 @@
         <v>80</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E733" s="2" t="b">
         <v>0</v>
@@ -17095,7 +17095,7 @@
         <v>7</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E734" s="2" t="b">
         <v>0</v>
@@ -17112,10 +17112,10 @@
         <v>80</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E735" s="2" t="b">
         <v>0</v>
@@ -17135,7 +17135,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E736" s="2" t="b">
         <v>0</v>
@@ -17149,13 +17149,13 @@
         <v>7325</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E737" s="2" t="b">
         <v>0</v>
@@ -17169,13 +17169,13 @@
         <v>7326</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E738" s="2" t="b">
         <v>0</v>
@@ -17189,13 +17189,13 @@
         <v>7327</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E739" s="2" t="b">
         <v>0</v>
@@ -17209,13 +17209,13 @@
         <v>7328</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E740" s="2" t="b">
         <v>0</v>
@@ -17232,10 +17232,10 @@
         <v>80</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E741" s="2" t="b">
         <v>0</v>
@@ -17249,13 +17249,13 @@
         <v>7330</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E742" s="2" t="b">
         <v>0</v>
@@ -17269,13 +17269,13 @@
         <v>7331</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E743" s="2" t="b">
         <v>0</v>
@@ -17289,13 +17289,13 @@
         <v>7332</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E744" s="2" t="b">
         <v>0</v>
@@ -17309,13 +17309,13 @@
         <v>7333</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E745" s="2" t="b">
         <v>0</v>
@@ -17332,10 +17332,10 @@
         <v>80</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E746" s="2" t="b">
         <v>0</v>
@@ -17352,10 +17352,10 @@
         <v>80</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E747" s="2" t="b">
         <v>0</v>
@@ -17369,13 +17369,13 @@
         <v>7336</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C748" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E748" s="2" t="b">
         <v>0</v>
@@ -17389,13 +17389,13 @@
         <v>7337</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C749" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E749" s="2" t="b">
         <v>0</v>
@@ -17409,13 +17409,13 @@
         <v>7338</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C750" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E750" s="2" t="b">
         <v>0</v>
@@ -17429,13 +17429,13 @@
         <v>7339</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C751" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E751" s="2" t="b">
         <v>0</v>
@@ -17452,10 +17452,10 @@
         <v>80</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E752" s="2" t="b">
         <v>0</v>
@@ -17472,10 +17472,10 @@
         <v>80</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E753" s="2" t="b">
         <v>0</v>
@@ -17492,10 +17492,10 @@
         <v>80</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E754" s="2" t="b">
         <v>0</v>
@@ -17512,10 +17512,10 @@
         <v>80</v>
       </c>
       <c r="C755" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E755" s="2" t="b">
         <v>0</v>
@@ -17532,10 +17532,10 @@
         <v>80</v>
       </c>
       <c r="C756" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E756" s="2" t="b">
         <v>0</v>
@@ -17552,10 +17552,10 @@
         <v>80</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E757" s="2" t="b">
         <v>0</v>
@@ -17572,10 +17572,10 @@
         <v>80</v>
       </c>
       <c r="C758" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E758" s="2" t="b">
         <v>0</v>
@@ -17592,10 +17592,10 @@
         <v>80</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E759" s="2" t="b">
         <v>0</v>
@@ -17609,13 +17609,13 @@
         <v>7348</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C760" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E760" s="2" t="b">
         <v>0</v>
@@ -17629,13 +17629,13 @@
         <v>7349</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C761" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E761" s="2" t="b">
         <v>0</v>
@@ -17649,13 +17649,13 @@
         <v>7350</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C762" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E762" s="2" t="b">
         <v>0</v>
@@ -17669,13 +17669,13 @@
         <v>7351</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C763" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E763" s="2" t="b">
         <v>0</v>
@@ -17689,13 +17689,13 @@
         <v>7352</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C764" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E764" s="2" t="b">
         <v>0</v>
@@ -17709,13 +17709,13 @@
         <v>7353</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C765" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E765" s="2" t="b">
         <v>0</v>
@@ -17729,13 +17729,13 @@
         <v>7354</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E766" s="2" t="b">
         <v>0</v>
@@ -17752,10 +17752,10 @@
         <v>80</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E767" s="2" t="b">
         <v>0</v>
@@ -17775,7 +17775,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E768" s="2" t="b">
         <v>0</v>
@@ -17789,13 +17789,13 @@
         <v>7357</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E769" s="2" t="b">
         <v>0</v>
@@ -17812,10 +17812,10 @@
         <v>80</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E770" s="2" t="b">
         <v>0</v>
@@ -17835,7 +17835,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E771" s="2" t="b">
         <v>0</v>
@@ -17849,13 +17849,13 @@
         <v>7360</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E772" s="2" t="b">
         <v>0</v>
@@ -17872,10 +17872,10 @@
         <v>80</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E773" s="2" t="b">
         <v>0</v>
@@ -17895,7 +17895,7 @@
         <v>6</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E774" s="2" t="b">
         <v>0</v>
@@ -17915,7 +17915,7 @@
         <v>6</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E775" s="2" t="b">
         <v>0</v>
@@ -17929,13 +17929,13 @@
         <v>7364</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E776" s="2" t="b">
         <v>0</v>
@@ -17952,10 +17952,10 @@
         <v>80</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E777" s="2" t="b">
         <v>0</v>
@@ -17969,13 +17969,13 @@
         <v>7366</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E778" s="2" t="b">
         <v>0</v>
@@ -17989,13 +17989,13 @@
         <v>7367</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E779" s="2" t="b">
         <v>0</v>
@@ -18009,13 +18009,13 @@
         <v>7368</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E780" s="2" t="b">
         <v>0</v>
@@ -18029,13 +18029,13 @@
         <v>7369</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E781" s="2" t="b">
         <v>0</v>
@@ -18052,10 +18052,10 @@
         <v>80</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E782" s="2" t="b">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>6</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E783" s="2" t="b">
         <v>0</v>
@@ -18089,13 +18089,13 @@
         <v>7372</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E784" s="2" t="b">
         <v>0</v>
@@ -18112,10 +18112,10 @@
         <v>80</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E785" s="2" t="b">
         <v>0</v>
@@ -18135,7 +18135,7 @@
         <v>6</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E786" s="2" t="b">
         <v>0</v>
@@ -18149,13 +18149,13 @@
         <v>7375</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E787" s="2" t="b">
         <v>0</v>
@@ -18172,10 +18172,10 @@
         <v>80</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E788" s="2" t="b">
         <v>0</v>
@@ -18195,7 +18195,7 @@
         <v>6</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E789" s="2" t="b">
         <v>0</v>
@@ -18215,7 +18215,7 @@
         <v>6</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E790" s="2" t="b">
         <v>0</v>
@@ -18229,13 +18229,13 @@
         <v>7379</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E791" s="2" t="b">
         <v>0</v>
@@ -18252,10 +18252,10 @@
         <v>80</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E792" s="2" t="b">
         <v>0</v>
@@ -18269,13 +18269,13 @@
         <v>7381</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E793" s="2" t="b">
         <v>0</v>
@@ -18289,13 +18289,13 @@
         <v>7382</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E794" s="2" t="b">
         <v>0</v>
@@ -18309,13 +18309,13 @@
         <v>7383</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E795" s="2" t="b">
         <v>0</v>
@@ -18329,13 +18329,13 @@
         <v>7384</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E796" s="2" t="b">
         <v>0</v>
@@ -18352,10 +18352,10 @@
         <v>80</v>
       </c>
       <c r="C797" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D797" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="D797" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="E797" s="2" t="b">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>6</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E798" s="2" t="b">
         <v>0</v>
@@ -18395,7 +18395,7 @@
         <v>4</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E799" s="2" t="b">
         <v>0</v>
@@ -18412,10 +18412,10 @@
         <v>80</v>
       </c>
       <c r="C800" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D800" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="D800" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="E800" s="2" t="b">
         <v>0</v>
@@ -18435,7 +18435,7 @@
         <v>7</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E801" s="2" t="b">
         <v>0</v>
@@ -18455,7 +18455,7 @@
         <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E802" s="2" t="b">
         <v>0</v>
@@ -18469,13 +18469,13 @@
         <v>7391</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E803" s="2" t="b">
         <v>0</v>
@@ -18489,13 +18489,13 @@
         <v>7392</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E804" s="2" t="b">
         <v>0</v>
@@ -18509,13 +18509,13 @@
         <v>7393</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E805" s="2" t="b">
         <v>0</v>
@@ -18529,13 +18529,13 @@
         <v>7394</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E806" s="2" t="b">
         <v>0</v>
@@ -18549,13 +18549,13 @@
         <v>7395</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E807" s="2" t="b">
         <v>0</v>
@@ -18569,13 +18569,13 @@
         <v>7396</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E808" s="2" t="b">
         <v>0</v>
@@ -18589,13 +18589,13 @@
         <v>7397</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E809" s="2" t="b">
         <v>0</v>
@@ -18609,13 +18609,13 @@
         <v>7398</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E810" s="2" t="b">
         <v>0</v>
@@ -18632,10 +18632,10 @@
         <v>80</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E811" s="2" t="b">
         <v>0</v>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE56A41-4D90-4E70-871E-33DE919CE31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F222826C-3880-4899-A581-43C2CF4D8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
@@ -401,6 +401,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>청이가 향리 댁으로 간 게 아니라는 말이지?? 알겠네. 나도 찾아봄세.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1956,10 +1960,6 @@
   </si>
   <si>
     <t>ⓦ향리 댁의 수양딸에 대하여 말을 걸었다.</t>
-  </si>
-  <si>
-    <t>ⓦ청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2410,7 +2410,7 @@
   <dimension ref="A1:F811"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -2426,22 +2426,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>566</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -2829,13 +2829,13 @@
         <v>5020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         <v>5099</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E75" s="2" t="b">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E77" s="2" t="b">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E78" s="2" t="b">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E79" s="2" t="b">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
@@ -4235,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E98" s="2" t="b">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E104" s="2" t="b">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
@@ -4689,13 +4689,13 @@
         <v>5218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2" t="b">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E119" s="2" t="b">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E122" s="2" t="b">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E123" s="2" t="b">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E132" s="2" t="b">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E135" s="2" t="b">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E137" s="2" t="b">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E138" s="2" t="b">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E139" s="2" t="b">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E145" s="2" t="b">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E155" s="2" t="b">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -5635,7 +5635,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E161" s="2" t="b">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E163" s="2" t="b">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E166" s="2" t="b">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E173" s="2" t="b">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E174" s="2" t="b">
         <v>0</v>
@@ -5915,7 +5915,7 @@
         <v>79</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E175" s="2" t="b">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>79</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E176" s="2" t="b">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E177" s="2" t="b">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E178" s="2" t="b">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E179" s="2" t="b">
         <v>0</v>
@@ -6009,13 +6009,13 @@
         <v>5365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>
@@ -6029,13 +6029,13 @@
         <v>5366</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E181" s="2" t="b">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E182" s="2" t="b">
         <v>0</v>
@@ -6075,7 +6075,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E183" s="2" t="b">
         <v>0</v>
@@ -6115,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E185" s="2" t="b">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E188" s="2" t="b">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E189" s="2" t="b">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E192" s="2" t="b">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E193" s="2" t="b">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E194" s="2" t="b">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E195" s="2" t="b">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E196" s="2" t="b">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E197" s="2" t="b">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E198" s="2" t="b">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E199" s="2" t="b">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E200" s="2" t="b">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E201" s="2" t="b">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E202" s="2" t="b">
         <v>0</v>
@@ -6515,7 +6515,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E205" s="2" t="b">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E207" s="2" t="b">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E209" s="2" t="b">
         <v>0</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E210" s="2" t="b">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E211" s="2" t="b">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E212" s="2" t="b">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E213" s="2" t="b">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E214" s="2" t="b">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>7</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E215" s="2" t="b">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E216" s="2" t="b">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E217" s="2" t="b">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E218" s="2" t="b">
         <v>0</v>
@@ -6789,13 +6789,13 @@
         <v>5440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E219" s="2" t="b">
         <v>0</v>
@@ -6812,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="C220" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E220" s="2" t="b">
         <v>0</v>
@@ -6829,13 +6829,13 @@
         <v>5442</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E221" s="2" t="b">
         <v>0</v>
@@ -6852,10 +6852,10 @@
         <v>80</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E222" s="2" t="b">
         <v>0</v>
@@ -6875,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E223" s="2" t="b">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E224" s="2" t="b">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E225" s="2" t="b">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E226" s="2" t="b">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E227" s="2" t="b">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E228" s="2" t="b">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E229" s="2" t="b">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E230" s="2" t="b">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E231" s="2" t="b">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E232" s="2" t="b">
         <v>0</v>
@@ -7075,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E233" s="2" t="b">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E234" s="2" t="b">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E235" s="2" t="b">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E236" s="2" t="b">
         <v>0</v>
@@ -7149,13 +7149,13 @@
         <v>5476</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E237" s="2" t="b">
         <v>0</v>
@@ -7175,7 +7175,7 @@
         <v>7</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E238" s="2" t="b">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>7</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E239" s="2" t="b">
         <v>0</v>
@@ -7209,13 +7209,13 @@
         <v>5479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E240" s="2" t="b">
         <v>0</v>
@@ -7235,7 +7235,7 @@
         <v>7</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E241" s="2" t="b">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>7</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E242" s="2" t="b">
         <v>0</v>
@@ -7269,13 +7269,13 @@
         <v>5482</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E243" s="2" t="b">
         <v>0</v>
@@ -7289,13 +7289,13 @@
         <v>5483</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E244" s="2" t="b">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E245" s="2" t="b">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E246" s="2" t="b">
         <v>0</v>
@@ -7349,13 +7349,13 @@
         <v>5486</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E247" s="2" t="b">
         <v>0</v>
@@ -7369,13 +7369,13 @@
         <v>5487</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E248" s="2" t="b">
         <v>0</v>
@@ -7392,10 +7392,10 @@
         <v>0</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E249" s="2" t="b">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E250" s="2" t="b">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E251" s="2" t="b">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E252" s="2" t="b">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E253" s="2" t="b">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E254" s="2" t="b">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E255" s="2" t="b">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E256" s="2" t="b">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E257" s="2" t="b">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E258" s="2" t="b">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E259" s="2" t="b">
         <v>0</v>
@@ -7615,7 +7615,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E260" s="2" t="b">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E261" s="2" t="b">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E262" s="2" t="b">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E263" s="2" t="b">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E264" s="2" t="b">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E265" s="2" t="b">
         <v>0</v>
@@ -7735,7 +7735,7 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E266" s="2" t="b">
         <v>0</v>
@@ -7749,13 +7749,13 @@
         <v>5716</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E267" s="2" t="b">
         <v>0</v>
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E268" s="2" t="b">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E269" s="2" t="b">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>3</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E270" s="2" t="b">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E271" s="2" t="b">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E272" s="2" t="b">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E273" s="2" t="b">
         <v>0</v>
@@ -7895,7 +7895,7 @@
         <v>7</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E274" s="2" t="b">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E275" s="2" t="b">
         <v>0</v>
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E276" s="2" t="b">
         <v>0</v>
@@ -7955,7 +7955,7 @@
         <v>2</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E277" s="2" t="b">
         <v>0</v>
@@ -7975,7 +7975,7 @@
         <v>3</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E278" s="2" t="b">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>4</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E279" s="2" t="b">
         <v>0</v>
@@ -8015,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E280" s="2" t="b">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E281" s="2" t="b">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>7</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E282" s="2" t="b">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E283" s="2" t="b">
         <v>0</v>
@@ -8089,13 +8089,13 @@
         <v>5733</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E284" s="2" t="b">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E285" s="2" t="b">
         <v>0</v>
@@ -8135,7 +8135,7 @@
         <v>2</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E286" s="2" t="b">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E287" s="2" t="b">
         <v>0</v>
@@ -8175,7 +8175,7 @@
         <v>4</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E288" s="2" t="b">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>5</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E289" s="2" t="b">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E290" s="2" t="b">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>7</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E291" s="2" t="b">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E292" s="2" t="b">
         <v>0</v>
@@ -8269,13 +8269,13 @@
         <v>5742</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E293" s="2" t="b">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E294" s="2" t="b">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E295" s="2" t="b">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>3</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E296" s="2" t="b">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>4</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E297" s="2" t="b">
         <v>0</v>
@@ -8375,7 +8375,7 @@
         <v>5</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E298" s="2" t="b">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>7</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E299" s="2" t="b">
         <v>0</v>
@@ -8415,7 +8415,7 @@
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E300" s="2" t="b">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E301" s="2" t="b">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E302" s="2" t="b">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E303" s="2" t="b">
         <v>0</v>
@@ -8495,7 +8495,7 @@
         <v>4</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E304" s="2" t="b">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E305" s="2" t="b">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>6</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E306" s="2" t="b">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E307" s="2" t="b">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E308" s="2" t="b">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E309" s="2" t="b">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>2</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E310" s="2" t="b">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>3</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E311" s="2" t="b">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>4</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E312" s="2" t="b">
         <v>0</v>
@@ -8675,7 +8675,7 @@
         <v>5</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E313" s="2" t="b">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>6</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E314" s="2" t="b">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>7</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E315" s="2" t="b">
         <v>0</v>
@@ -8735,7 +8735,7 @@
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E316" s="2" t="b">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E317" s="2" t="b">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E318" s="2" t="b">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E319" s="2" t="b">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         <v>4</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E320" s="2" t="b">
         <v>0</v>
@@ -8835,7 +8835,7 @@
         <v>5</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E321" s="2" t="b">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>7</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E322" s="2" t="b">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E323" s="2" t="b">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E324" s="2" t="b">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>2</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E325" s="2" t="b">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E326" s="2" t="b">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>4</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E327" s="2" t="b">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>5</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E328" s="2" t="b">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E329" s="2" t="b">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>7</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E330" s="2" t="b">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E331" s="2" t="b">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E332" s="2" t="b">
         <v>0</v>
@@ -9075,7 +9075,7 @@
         <v>2</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E333" s="2" t="b">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E334" s="2" t="b">
         <v>0</v>
@@ -9115,7 +9115,7 @@
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E335" s="2" t="b">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>5</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E336" s="2" t="b">
         <v>0</v>
@@ -9155,7 +9155,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E337" s="2" t="b">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>7</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E338" s="2" t="b">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E339" s="2" t="b">
         <v>0</v>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E340" s="2" t="b">
         <v>0</v>
@@ -9235,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E341" s="2" t="b">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E342" s="2" t="b">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         <v>4</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E343" s="2" t="b">
         <v>0</v>
@@ -9295,7 +9295,7 @@
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E344" s="2" t="b">
         <v>0</v>
@@ -9315,7 +9315,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E345" s="2" t="b">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>7</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E346" s="2" t="b">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>7</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E347" s="2" t="b">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>7</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E348" s="2" t="b">
         <v>0</v>
@@ -9395,7 +9395,7 @@
         <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E349" s="2" t="b">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>5799</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E350" s="2" t="b">
         <v>0</v>
@@ -9435,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E351" s="2" t="b">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>2</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E352" s="2" t="b">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>3</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E353" s="2" t="b">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>4</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E354" s="2" t="b">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>5</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E355" s="2" t="b">
         <v>0</v>
@@ -9535,7 +9535,7 @@
         <v>6</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E356" s="2" t="b">
         <v>0</v>
@@ -9555,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E357" s="2" t="b">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>8</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E358" s="2" t="b">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E359" s="2" t="b">
         <v>0</v>
@@ -9615,7 +9615,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E360" s="2" t="b">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>3</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E361" s="2" t="b">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E362" s="2" t="b">
         <v>0</v>
@@ -9675,7 +9675,7 @@
         <v>5</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E363" s="2" t="b">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>6</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E364" s="2" t="b">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>7</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E365" s="2" t="b">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E366" s="2" t="b">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E367" s="2" t="b">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>2</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E368" s="2" t="b">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E369" s="2" t="b">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E370" s="2" t="b">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>5</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E371" s="2" t="b">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>6</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E372" s="2" t="b">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>7</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E373" s="2" t="b">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>8</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E374" s="2" t="b">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E375" s="2" t="b">
         <v>0</v>
@@ -9935,7 +9935,7 @@
         <v>2</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E376" s="2" t="b">
         <v>0</v>
@@ -9955,7 +9955,7 @@
         <v>3</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E377" s="2" t="b">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>4</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E378" s="2" t="b">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E379" s="2" t="b">
         <v>0</v>
@@ -10015,7 +10015,7 @@
         <v>6</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E380" s="2" t="b">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>8</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E381" s="2" t="b">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>7</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E382" s="2" t="b">
         <v>0</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E383" s="2" t="b">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E384" s="2" t="b">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>3</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E385" s="2" t="b">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>4</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E386" s="2" t="b">
         <v>0</v>
@@ -10155,7 +10155,7 @@
         <v>6</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E387" s="2" t="b">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>5</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E388" s="2" t="b">
         <v>0</v>
@@ -10195,7 +10195,7 @@
         <v>7</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E389" s="2" t="b">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>8</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E390" s="2" t="b">
         <v>0</v>
@@ -10235,7 +10235,7 @@
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E391" s="2" t="b">
         <v>0</v>
@@ -10255,7 +10255,7 @@
         <v>7</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E392" s="2" t="b">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E393" s="2" t="b">
         <v>0</v>
@@ -10295,7 +10295,7 @@
         <v>2</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E394" s="2" t="b">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>3</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E395" s="2" t="b">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>4</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E396" s="2" t="b">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>6</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E397" s="2" t="b">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>5</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E398" s="2" t="b">
         <v>0</v>
@@ -10395,7 +10395,7 @@
         <v>7</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E399" s="2" t="b">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>8</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E400" s="2" t="b">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E401" s="2" t="b">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>2</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E402" s="2" t="b">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>3</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E403" s="2" t="b">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E405" s="2" t="b">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>7</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E406" s="2" t="b">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         <v>10</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E407" s="2" t="b">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>10</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E408" s="2" t="b">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>5</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>7</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E410" s="2" t="b">
         <v>0</v>
@@ -10635,7 +10635,7 @@
         <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E411" s="2" t="b">
         <v>0</v>
@@ -10652,10 +10652,10 @@
         <v>80</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E412" s="2" t="b">
         <v>0</v>
@@ -10669,13 +10669,13 @@
         <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E413" s="2" t="b">
         <v>0</v>
@@ -10689,13 +10689,13 @@
         <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E414" s="2" t="b">
         <v>0</v>
@@ -10709,13 +10709,13 @@
         <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -10735,7 +10735,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E416" s="2" t="b">
         <v>0</v>
@@ -10749,13 +10749,13 @@
         <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E417" s="2" t="b">
         <v>0</v>
@@ -10769,13 +10769,13 @@
         <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E418" s="2" t="b">
         <v>0</v>
@@ -10789,13 +10789,13 @@
         <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E419" s="2" t="b">
         <v>0</v>
@@ -10809,13 +10809,13 @@
         <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E420" s="2" t="b">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E421" s="2" t="b">
         <v>0</v>
@@ -10849,13 +10849,13 @@
         <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E422" s="2" t="b">
         <v>0</v>
@@ -10869,13 +10869,13 @@
         <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E423" s="2" t="b">
         <v>0</v>
@@ -10889,13 +10889,13 @@
         <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E424" s="2" t="b">
         <v>0</v>
@@ -10909,13 +10909,13 @@
         <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E425" s="2" t="b">
         <v>0</v>
@@ -10929,13 +10929,13 @@
         <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>
@@ -10949,13 +10949,13 @@
         <v>7015</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E427" s="2" t="b">
         <v>0</v>
@@ -10969,13 +10969,13 @@
         <v>7016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E428" s="2" t="b">
         <v>0</v>
@@ -10992,10 +10992,10 @@
         <v>80</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E429" s="2" t="b">
         <v>0</v>
@@ -11009,13 +11009,13 @@
         <v>7018</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E430" s="2" t="b">
         <v>0</v>
@@ -11029,13 +11029,13 @@
         <v>7019</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E431" s="2" t="b">
         <v>0</v>
@@ -11049,13 +11049,13 @@
         <v>7020</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E432" s="2" t="b">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>7021</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E433" s="2" t="b">
         <v>0</v>
@@ -11089,13 +11089,13 @@
         <v>7022</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E434" s="2" t="b">
         <v>0</v>
@@ -11109,13 +11109,13 @@
         <v>7023</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E435" s="2" t="b">
         <v>0</v>
@@ -11129,13 +11129,13 @@
         <v>7024</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E436" s="2" t="b">
         <v>0</v>
@@ -11149,13 +11149,13 @@
         <v>7025</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E437" s="2" t="b">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>7</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E438" s="2" t="b">
         <v>0</v>
@@ -11189,13 +11189,13 @@
         <v>7027</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E439" s="2" t="b">
         <v>0</v>
@@ -11212,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E440" s="2" t="b">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>7</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E441" s="2" t="b">
         <v>0</v>
@@ -11249,13 +11249,13 @@
         <v>7030</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E442" s="2" t="b">
         <v>0</v>
@@ -11269,13 +11269,13 @@
         <v>7031</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E443" s="2" t="b">
         <v>0</v>
@@ -11289,13 +11289,13 @@
         <v>7032</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E444" s="2" t="b">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>7033</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E445" s="2" t="b">
         <v>0</v>
@@ -11329,13 +11329,13 @@
         <v>7034</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E446" s="2" t="b">
         <v>0</v>
@@ -11355,7 +11355,7 @@
         <v>8</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E447" s="2" t="b">
         <v>0</v>
@@ -11369,13 +11369,13 @@
         <v>7036</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E448" s="2" t="b">
         <v>0</v>
@@ -11392,10 +11392,10 @@
         <v>0</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D449" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E449" s="2" t="b">
         <v>0</v>
@@ -11415,7 +11415,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E450" s="2" t="b">
         <v>0</v>
@@ -11429,13 +11429,13 @@
         <v>7039</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E451" s="2" t="b">
         <v>0</v>
@@ -11449,13 +11449,13 @@
         <v>7040</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E452" s="2" t="b">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>7041</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E453" s="2" t="b">
         <v>0</v>
@@ -11489,13 +11489,13 @@
         <v>7042</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E454" s="2" t="b">
         <v>0</v>
@@ -11512,10 +11512,10 @@
         <v>0</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E455" s="2" t="b">
         <v>0</v>
@@ -11529,13 +11529,13 @@
         <v>7044</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E456" s="2" t="b">
         <v>0</v>
@@ -11549,13 +11549,13 @@
         <v>7045</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E457" s="2" t="b">
         <v>0</v>
@@ -11569,13 +11569,13 @@
         <v>7046</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E458" s="2" t="b">
         <v>0</v>
@@ -11589,13 +11589,13 @@
         <v>7047</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E459" s="2" t="b">
         <v>0</v>
@@ -11609,13 +11609,13 @@
         <v>7048</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E460" s="2" t="b">
         <v>0</v>
@@ -11629,13 +11629,13 @@
         <v>7049</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E461" s="2" t="b">
         <v>0</v>
@@ -11649,13 +11649,13 @@
         <v>7050</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E462" s="2" t="b">
         <v>0</v>
@@ -11669,13 +11669,13 @@
         <v>7051</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E463" s="2" t="b">
         <v>0</v>
@@ -11689,13 +11689,13 @@
         <v>7052</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E464" s="2" t="b">
         <v>0</v>
@@ -11712,10 +11712,10 @@
         <v>0</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E465" s="2" t="b">
         <v>0</v>
@@ -11729,13 +11729,13 @@
         <v>7054</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E466" s="2" t="b">
         <v>0</v>
@@ -11752,10 +11752,10 @@
         <v>0</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E467" s="2" t="b">
         <v>0</v>
@@ -11769,13 +11769,13 @@
         <v>7056</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E468" s="2" t="b">
         <v>0</v>
@@ -11792,10 +11792,10 @@
         <v>0</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E469" s="2" t="b">
         <v>0</v>
@@ -11812,10 +11812,10 @@
         <v>0</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E470" s="2" t="b">
         <v>0</v>
@@ -11829,13 +11829,13 @@
         <v>7059</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E471" s="2" t="b">
         <v>0</v>
@@ -11849,13 +11849,13 @@
         <v>7060</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E472" s="2" t="b">
         <v>0</v>
@@ -11872,10 +11872,10 @@
         <v>0</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E473" s="2" t="b">
         <v>0</v>
@@ -11895,7 +11895,7 @@
         <v>7</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E474" s="2" t="b">
         <v>0</v>
@@ -11912,10 +11912,10 @@
         <v>0</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E475" s="2" t="b">
         <v>0</v>
@@ -11935,7 +11935,7 @@
         <v>7</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E476" s="2" t="b">
         <v>0</v>
@@ -11949,13 +11949,13 @@
         <v>7065</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E477" s="2" t="b">
         <v>0</v>
@@ -11969,13 +11969,13 @@
         <v>7066</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E478" s="2" t="b">
         <v>0</v>
@@ -11989,13 +11989,13 @@
         <v>7067</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E479" s="2" t="b">
         <v>0</v>
@@ -12009,13 +12009,13 @@
         <v>7068</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E480" s="2" t="b">
         <v>0</v>
@@ -12032,10 +12032,10 @@
         <v>0</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E481" s="2" t="b">
         <v>0</v>
@@ -12049,13 +12049,13 @@
         <v>7070</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E482" s="2" t="b">
         <v>0</v>
@@ -12072,10 +12072,10 @@
         <v>0</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E483" s="2" t="b">
         <v>0</v>
@@ -12092,10 +12092,10 @@
         <v>0</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E484" s="2" t="b">
         <v>0</v>
@@ -12112,10 +12112,10 @@
         <v>0</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E485" s="2" t="b">
         <v>0</v>
@@ -12129,13 +12129,13 @@
         <v>7074</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E486" s="2" t="b">
         <v>0</v>
@@ -12149,13 +12149,13 @@
         <v>7075</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E487" s="2" t="b">
         <v>0</v>
@@ -12172,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E488" s="2" t="b">
         <v>0</v>
@@ -12195,7 +12195,7 @@
         <v>7</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E489" s="2" t="b">
         <v>0</v>
@@ -12212,10 +12212,10 @@
         <v>0</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E490" s="2" t="b">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>7</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E491" s="2" t="b">
         <v>0</v>
@@ -12249,13 +12249,13 @@
         <v>7080</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E492" s="2" t="b">
         <v>0</v>
@@ -12269,13 +12269,13 @@
         <v>7081</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E493" s="2" t="b">
         <v>0</v>
@@ -12289,13 +12289,13 @@
         <v>7082</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E494" s="2" t="b">
         <v>0</v>
@@ -12309,13 +12309,13 @@
         <v>7083</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E495" s="2" t="b">
         <v>0</v>
@@ -12332,10 +12332,10 @@
         <v>0</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E496" s="2" t="b">
         <v>0</v>
@@ -12349,13 +12349,13 @@
         <v>7085</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E497" s="2" t="b">
         <v>0</v>
@@ -12369,13 +12369,13 @@
         <v>7086</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E498" s="2" t="b">
         <v>0</v>
@@ -12389,13 +12389,13 @@
         <v>7087</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E499" s="2" t="b">
         <v>0</v>
@@ -12409,13 +12409,13 @@
         <v>7088</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E500" s="2" t="b">
         <v>0</v>
@@ -12432,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D501" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E501" s="2" t="b">
         <v>0</v>
@@ -12452,10 +12452,10 @@
         <v>0</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E502" s="2" t="b">
         <v>0</v>
@@ -12469,13 +12469,13 @@
         <v>7091</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E503" s="2" t="b">
         <v>0</v>
@@ -12489,13 +12489,13 @@
         <v>7092</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E504" s="2" t="b">
         <v>0</v>
@@ -12509,13 +12509,13 @@
         <v>7093</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E505" s="2" t="b">
         <v>0</v>
@@ -12529,13 +12529,13 @@
         <v>7094</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E506" s="2" t="b">
         <v>0</v>
@@ -12552,10 +12552,10 @@
         <v>0</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E507" s="2" t="b">
         <v>0</v>
@@ -12572,10 +12572,10 @@
         <v>0</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E508" s="2" t="b">
         <v>0</v>
@@ -12592,10 +12592,10 @@
         <v>0</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D509" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E509" s="2" t="b">
         <v>0</v>
@@ -12612,10 +12612,10 @@
         <v>0</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E510" s="2" t="b">
         <v>0</v>
@@ -12632,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E511" s="2" t="b">
         <v>0</v>
@@ -12652,10 +12652,10 @@
         <v>0</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D512" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E512" s="2" t="b">
         <v>0</v>
@@ -12672,10 +12672,10 @@
         <v>0</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D513" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E513" s="2" t="b">
         <v>0</v>
@@ -12692,10 +12692,10 @@
         <v>0</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D514" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E514" s="2" t="b">
         <v>0</v>
@@ -12709,13 +12709,13 @@
         <v>7103</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D515" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E515" s="2" t="b">
         <v>0</v>
@@ -12729,13 +12729,13 @@
         <v>7104</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D516" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E516" s="2" t="b">
         <v>0</v>
@@ -12749,13 +12749,13 @@
         <v>7105</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D517" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E517" s="2" t="b">
         <v>0</v>
@@ -12769,13 +12769,13 @@
         <v>7106</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D518" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E518" s="2" t="b">
         <v>0</v>
@@ -12789,13 +12789,13 @@
         <v>7107</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D519" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E519" s="2" t="b">
         <v>0</v>
@@ -12809,13 +12809,13 @@
         <v>7108</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E520" s="2" t="b">
         <v>0</v>
@@ -12829,13 +12829,13 @@
         <v>7109</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D521" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E521" s="2" t="b">
         <v>0</v>
@@ -12849,13 +12849,13 @@
         <v>7110</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D522" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E522" s="2" t="b">
         <v>0</v>
@@ -12869,13 +12869,13 @@
         <v>7111</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D523" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E523" s="2" t="b">
         <v>0</v>
@@ -12889,13 +12889,13 @@
         <v>7112</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D524" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E524" s="2" t="b">
         <v>0</v>
@@ -12909,13 +12909,13 @@
         <v>7113</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D525" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E525" s="2" t="b">
         <v>0</v>
@@ -12929,13 +12929,13 @@
         <v>7114</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D526" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E526" s="2" t="b">
         <v>0</v>
@@ -12949,13 +12949,13 @@
         <v>7115</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D527" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E527" s="2" t="b">
         <v>0</v>
@@ -12969,13 +12969,13 @@
         <v>7116</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D528" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E528" s="2" t="b">
         <v>0</v>
@@ -12989,13 +12989,13 @@
         <v>7117</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D529" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E529" s="2" t="b">
         <v>0</v>
@@ -13009,13 +13009,13 @@
         <v>7118</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D530" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E530" s="2" t="b">
         <v>0</v>
@@ -13029,13 +13029,13 @@
         <v>7119</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D531" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E531" s="2" t="b">
         <v>0</v>
@@ -13049,13 +13049,13 @@
         <v>7120</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D532" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E532" s="2" t="b">
         <v>0</v>
@@ -13069,13 +13069,13 @@
         <v>7121</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D533" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E533" s="2" t="b">
         <v>0</v>
@@ -13089,13 +13089,13 @@
         <v>7122</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E534" s="2" t="b">
         <v>0</v>
@@ -13109,13 +13109,13 @@
         <v>7123</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D535" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E535" s="2" t="b">
         <v>0</v>
@@ -13129,13 +13129,13 @@
         <v>7124</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D536" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E536" s="2" t="b">
         <v>0</v>
@@ -13149,13 +13149,13 @@
         <v>7125</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D537" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E537" s="2" t="b">
         <v>0</v>
@@ -13169,13 +13169,13 @@
         <v>7126</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D538" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E538" s="2" t="b">
         <v>0</v>
@@ -13189,13 +13189,13 @@
         <v>7127</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D539" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E539" s="2" t="b">
         <v>0</v>
@@ -13209,13 +13209,13 @@
         <v>7128</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D540" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E540" s="2" t="b">
         <v>0</v>
@@ -13229,13 +13229,13 @@
         <v>7129</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D541" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E541" s="2" t="b">
         <v>0</v>
@@ -13249,13 +13249,13 @@
         <v>7130</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D542" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E542" s="2" t="b">
         <v>0</v>
@@ -13269,13 +13269,13 @@
         <v>7131</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D543" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E543" s="2" t="b">
         <v>0</v>
@@ -13289,13 +13289,13 @@
         <v>7132</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D544" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E544" s="2" t="b">
         <v>0</v>
@@ -13309,13 +13309,13 @@
         <v>7133</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D545" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E545" s="2" t="b">
         <v>0</v>
@@ -13329,13 +13329,13 @@
         <v>7134</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D546" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E546" s="2" t="b">
         <v>0</v>
@@ -13349,13 +13349,13 @@
         <v>7135</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D547" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E547" s="2" t="b">
         <v>0</v>
@@ -13369,13 +13369,13 @@
         <v>7136</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D548" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E548" s="2" t="b">
         <v>0</v>
@@ -13389,13 +13389,13 @@
         <v>7137</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D549" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E549" s="2" t="b">
         <v>0</v>
@@ -13409,13 +13409,13 @@
         <v>7138</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D550" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E550" s="2" t="b">
         <v>0</v>
@@ -13429,13 +13429,13 @@
         <v>7139</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D551" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E551" s="2" t="b">
         <v>0</v>
@@ -13449,13 +13449,13 @@
         <v>7140</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D552" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E552" s="2" t="b">
         <v>0</v>
@@ -13469,13 +13469,13 @@
         <v>7141</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D553" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E553" s="2" t="b">
         <v>0</v>
@@ -13489,13 +13489,13 @@
         <v>7142</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D554" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E554" s="2" t="b">
         <v>0</v>
@@ -13509,13 +13509,13 @@
         <v>7143</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D555" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E555" s="2" t="b">
         <v>0</v>
@@ -13529,13 +13529,13 @@
         <v>7144</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D556" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E556" s="2" t="b">
         <v>0</v>
@@ -13549,13 +13549,13 @@
         <v>7145</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D557" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E557" s="2" t="b">
         <v>0</v>
@@ -13569,13 +13569,13 @@
         <v>7146</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D558" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E558" s="2" t="b">
         <v>0</v>
@@ -13589,13 +13589,13 @@
         <v>7147</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D559" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E559" s="2" t="b">
         <v>0</v>
@@ -13609,13 +13609,13 @@
         <v>7148</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D560" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E560" s="2" t="b">
         <v>0</v>
@@ -13629,13 +13629,13 @@
         <v>7149</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D561" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E561" s="2" t="b">
         <v>0</v>
@@ -13649,13 +13649,13 @@
         <v>7150</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D562" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E562" s="2" t="b">
         <v>0</v>
@@ -13669,13 +13669,13 @@
         <v>7151</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D563" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E563" s="2" t="b">
         <v>0</v>
@@ -13689,13 +13689,13 @@
         <v>7152</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D564" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E564" s="2" t="b">
         <v>0</v>
@@ -13712,10 +13712,10 @@
         <v>0</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D565" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E565" s="2" t="b">
         <v>0</v>
@@ -13732,10 +13732,10 @@
         <v>0</v>
       </c>
       <c r="C566" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E566" s="2" t="b">
         <v>0</v>
@@ -13752,10 +13752,10 @@
         <v>0</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E567" s="2" t="b">
         <v>0</v>
@@ -13772,10 +13772,10 @@
         <v>0</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E568" s="2" t="b">
         <v>0</v>
@@ -13792,10 +13792,10 @@
         <v>0</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E569" s="2" t="b">
         <v>0</v>
@@ -13812,10 +13812,10 @@
         <v>0</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E570" s="2" t="b">
         <v>0</v>
@@ -13832,10 +13832,10 @@
         <v>0</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D571" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E571" s="2" t="b">
         <v>0</v>
@@ -13852,10 +13852,10 @@
         <v>0</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E572" s="2" t="b">
         <v>0</v>
@@ -13872,10 +13872,10 @@
         <v>0</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D573" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E573" s="2" t="b">
         <v>0</v>
@@ -13892,10 +13892,10 @@
         <v>0</v>
       </c>
       <c r="C574" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D574" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E574" s="2" t="b">
         <v>0</v>
@@ -13912,10 +13912,10 @@
         <v>0</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E575" s="2" t="b">
         <v>0</v>
@@ -13932,10 +13932,10 @@
         <v>0</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E576" s="2" t="b">
         <v>0</v>
@@ -13952,10 +13952,10 @@
         <v>0</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D577" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E577" s="2" t="b">
         <v>0</v>
@@ -13972,10 +13972,10 @@
         <v>0</v>
       </c>
       <c r="C578" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E578" s="2" t="b">
         <v>0</v>
@@ -13992,10 +13992,10 @@
         <v>0</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D579" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E579" s="2" t="b">
         <v>0</v>
@@ -14012,10 +14012,10 @@
         <v>0</v>
       </c>
       <c r="C580" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D580" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E580" s="2" t="b">
         <v>0</v>
@@ -14032,10 +14032,10 @@
         <v>0</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D581" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E581" s="2" t="b">
         <v>0</v>
@@ -14052,10 +14052,10 @@
         <v>0</v>
       </c>
       <c r="C582" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D582" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E582" s="2" t="b">
         <v>0</v>
@@ -14072,10 +14072,10 @@
         <v>0</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E583" s="2" t="b">
         <v>0</v>
@@ -14092,10 +14092,10 @@
         <v>0</v>
       </c>
       <c r="C584" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D584" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E584" s="2" t="b">
         <v>0</v>
@@ -14112,10 +14112,10 @@
         <v>0</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E585" s="2" t="b">
         <v>0</v>
@@ -14132,10 +14132,10 @@
         <v>0</v>
       </c>
       <c r="C586" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D586" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E586" s="2" t="b">
         <v>0</v>
@@ -14152,10 +14152,10 @@
         <v>0</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E587" s="2" t="b">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>0</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D588" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E588" s="2" t="b">
         <v>0</v>
@@ -14192,10 +14192,10 @@
         <v>0</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E589" s="2" t="b">
         <v>0</v>
@@ -14212,10 +14212,10 @@
         <v>0</v>
       </c>
       <c r="C590" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E590" s="2" t="b">
         <v>0</v>
@@ -14232,10 +14232,10 @@
         <v>0</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D591" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E591" s="2" t="b">
         <v>0</v>
@@ -14252,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D592" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E592" s="2" t="b">
         <v>0</v>
@@ -14272,10 +14272,10 @@
         <v>0</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D593" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E593" s="2" t="b">
         <v>0</v>
@@ -14292,10 +14292,10 @@
         <v>0</v>
       </c>
       <c r="C594" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D594" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E594" s="2" t="b">
         <v>0</v>
@@ -14312,10 +14312,10 @@
         <v>0</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D595" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E595" s="2" t="b">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D596" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E596" s="2" t="b">
         <v>0</v>
@@ -14352,10 +14352,10 @@
         <v>0</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D597" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E597" s="2" t="b">
         <v>0</v>
@@ -14372,10 +14372,10 @@
         <v>0</v>
       </c>
       <c r="C598" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D598" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E598" s="2" t="b">
         <v>0</v>
@@ -14392,10 +14392,10 @@
         <v>0</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E599" s="2" t="b">
         <v>0</v>
@@ -14412,10 +14412,10 @@
         <v>0</v>
       </c>
       <c r="C600" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D600" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E600" s="2" t="b">
         <v>0</v>
@@ -14432,10 +14432,10 @@
         <v>0</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D601" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E601" s="2" t="b">
         <v>0</v>
@@ -14452,10 +14452,10 @@
         <v>0</v>
       </c>
       <c r="C602" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D602" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E602" s="2" t="b">
         <v>0</v>
@@ -14472,10 +14472,10 @@
         <v>0</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D603" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E603" s="2" t="b">
         <v>0</v>
@@ -14492,10 +14492,10 @@
         <v>0</v>
       </c>
       <c r="C604" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D604" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E604" s="2" t="b">
         <v>0</v>
@@ -14512,10 +14512,10 @@
         <v>0</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E605" s="2" t="b">
         <v>0</v>
@@ -14529,13 +14529,13 @@
         <v>7194</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E606" s="2" t="b">
         <v>0</v>
@@ -14555,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E607" s="2" t="b">
         <v>0</v>
@@ -14575,7 +14575,7 @@
         <v>2</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E608" s="2" t="b">
         <v>0</v>
@@ -14595,7 +14595,7 @@
         <v>3</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E609" s="2" t="b">
         <v>0</v>
@@ -14615,7 +14615,7 @@
         <v>4</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E610" s="2" t="b">
         <v>0</v>
@@ -14635,7 +14635,7 @@
         <v>5</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E611" s="2" t="b">
         <v>0</v>
@@ -14655,7 +14655,7 @@
         <v>6</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E612" s="2" t="b">
         <v>0</v>
@@ -14675,7 +14675,7 @@
         <v>7</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E613" s="2" t="b">
         <v>0</v>
@@ -14695,7 +14695,7 @@
         <v>8</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E614" s="2" t="b">
         <v>0</v>
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E615" s="2" t="b">
         <v>0</v>
@@ -14735,7 +14735,7 @@
         <v>2</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E616" s="2" t="b">
         <v>0</v>
@@ -14755,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E617" s="2" t="b">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>4</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E618" s="2" t="b">
         <v>0</v>
@@ -14815,7 +14815,7 @@
         <v>6</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E620" s="2" t="b">
         <v>0</v>
@@ -14835,7 +14835,7 @@
         <v>7</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E621" s="2" t="b">
         <v>0</v>
@@ -14855,7 +14855,7 @@
         <v>8</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E622" s="2" t="b">
         <v>0</v>
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E623" s="2" t="b">
         <v>0</v>
@@ -14895,7 +14895,7 @@
         <v>2</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E624" s="2" t="b">
         <v>0</v>
@@ -14915,7 +14915,7 @@
         <v>3</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E625" s="2" t="b">
         <v>0</v>
@@ -14935,7 +14935,7 @@
         <v>4</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E626" s="2" t="b">
         <v>0</v>
@@ -14975,7 +14975,7 @@
         <v>6</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E628" s="2" t="b">
         <v>0</v>
@@ -14995,7 +14995,7 @@
         <v>7</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E629" s="2" t="b">
         <v>0</v>
@@ -15015,7 +15015,7 @@
         <v>8</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E630" s="2" t="b">
         <v>0</v>
@@ -15035,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E631" s="2" t="b">
         <v>0</v>
@@ -15055,7 +15055,7 @@
         <v>2</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E632" s="2" t="b">
         <v>0</v>
@@ -15075,7 +15075,7 @@
         <v>3</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E633" s="2" t="b">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>4</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E634" s="2" t="b">
         <v>0</v>
@@ -15135,7 +15135,7 @@
         <v>6</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E636" s="2" t="b">
         <v>0</v>
@@ -15155,7 +15155,7 @@
         <v>8</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E637" s="2" t="b">
         <v>0</v>
@@ -15175,7 +15175,7 @@
         <v>7</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E638" s="2" t="b">
         <v>0</v>
@@ -15195,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E639" s="2" t="b">
         <v>0</v>
@@ -15215,7 +15215,7 @@
         <v>2</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E640" s="2" t="b">
         <v>0</v>
@@ -15235,7 +15235,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E641" s="2" t="b">
         <v>0</v>
@@ -15255,7 +15255,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E642" s="2" t="b">
         <v>0</v>
@@ -15275,7 +15275,7 @@
         <v>6</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E643" s="2" t="b">
         <v>0</v>
@@ -15295,7 +15295,7 @@
         <v>5</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E644" s="2" t="b">
         <v>0</v>
@@ -15315,7 +15315,7 @@
         <v>7</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E645" s="2" t="b">
         <v>0</v>
@@ -15335,7 +15335,7 @@
         <v>8</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E646" s="2" t="b">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>7</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E647" s="2" t="b">
         <v>0</v>
@@ -15375,7 +15375,7 @@
         <v>7</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E648" s="2" t="b">
         <v>0</v>
@@ -15395,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E649" s="2" t="b">
         <v>0</v>
@@ -15415,7 +15415,7 @@
         <v>2</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E650" s="2" t="b">
         <v>0</v>
@@ -15435,7 +15435,7 @@
         <v>3</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E651" s="2" t="b">
         <v>0</v>
@@ -15455,7 +15455,7 @@
         <v>4</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E652" s="2" t="b">
         <v>0</v>
@@ -15475,7 +15475,7 @@
         <v>6</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E653" s="2" t="b">
         <v>0</v>
@@ -15495,7 +15495,7 @@
         <v>5</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E654" s="2" t="b">
         <v>0</v>
@@ -15515,7 +15515,7 @@
         <v>7</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E655" s="2" t="b">
         <v>0</v>
@@ -15535,7 +15535,7 @@
         <v>8</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E656" s="2" t="b">
         <v>0</v>
@@ -15552,10 +15552,10 @@
         <v>80</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E657" s="2" t="b">
         <v>0</v>
@@ -15569,13 +15569,13 @@
         <v>7246</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E658" s="2" t="b">
         <v>0</v>
@@ -15589,13 +15589,13 @@
         <v>7247</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E659" s="2" t="b">
         <v>0</v>
@@ -15609,13 +15609,13 @@
         <v>7248</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E660" s="2" t="b">
         <v>0</v>
@@ -15635,7 +15635,7 @@
         <v>9</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E661" s="2" t="b">
         <v>0</v>
@@ -15649,13 +15649,13 @@
         <v>7250</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E662" s="2" t="b">
         <v>0</v>
@@ -15669,13 +15669,13 @@
         <v>7251</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E663" s="2" t="b">
         <v>0</v>
@@ -15689,13 +15689,13 @@
         <v>7252</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E664" s="2" t="b">
         <v>0</v>
@@ -15709,13 +15709,13 @@
         <v>7253</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E665" s="2" t="b">
         <v>0</v>
@@ -15729,13 +15729,13 @@
         <v>7254</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E666" s="2" t="b">
         <v>0</v>
@@ -15749,13 +15749,13 @@
         <v>7255</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E667" s="2" t="b">
         <v>0</v>
@@ -15769,13 +15769,13 @@
         <v>7256</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E668" s="2" t="b">
         <v>0</v>
@@ -15789,13 +15789,13 @@
         <v>7257</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E669" s="2" t="b">
         <v>0</v>
@@ -15809,13 +15809,13 @@
         <v>7258</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E670" s="2" t="b">
         <v>0</v>
@@ -15829,13 +15829,13 @@
         <v>7259</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E671" s="2" t="b">
         <v>0</v>
@@ -15849,13 +15849,13 @@
         <v>7260</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E672" s="2" t="b">
         <v>0</v>
@@ -15869,13 +15869,13 @@
         <v>7261</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E673" s="2" t="b">
         <v>0</v>
@@ -15892,10 +15892,10 @@
         <v>80</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E674" s="2" t="b">
         <v>0</v>
@@ -15909,13 +15909,13 @@
         <v>7263</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E675" s="2" t="b">
         <v>0</v>
@@ -15929,13 +15929,13 @@
         <v>7264</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E676" s="2" t="b">
         <v>0</v>
@@ -15949,13 +15949,13 @@
         <v>7265</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E677" s="2" t="b">
         <v>0</v>
@@ -15969,13 +15969,13 @@
         <v>7266</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E678" s="2" t="b">
         <v>0</v>
@@ -15989,13 +15989,13 @@
         <v>7267</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E679" s="2" t="b">
         <v>0</v>
@@ -16009,13 +16009,13 @@
         <v>7268</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E680" s="2" t="b">
         <v>0</v>
@@ -16029,13 +16029,13 @@
         <v>7269</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E681" s="2" t="b">
         <v>0</v>
@@ -16049,13 +16049,13 @@
         <v>7270</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E682" s="2" t="b">
         <v>0</v>
@@ -16075,7 +16075,7 @@
         <v>7</v>
       </c>
       <c r="D683" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E683" s="2" t="b">
         <v>0</v>
@@ -16089,13 +16089,13 @@
         <v>7272</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C684" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D684" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E684" s="2" t="b">
         <v>0</v>
@@ -16112,10 +16112,10 @@
         <v>80</v>
       </c>
       <c r="C685" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D685" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E685" s="2" t="b">
         <v>0</v>
@@ -16135,7 +16135,7 @@
         <v>7</v>
       </c>
       <c r="D686" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E686" s="2" t="b">
         <v>0</v>
@@ -16149,13 +16149,13 @@
         <v>7275</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C687" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D687" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E687" s="2" t="b">
         <v>0</v>
@@ -16169,13 +16169,13 @@
         <v>7276</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D688" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E688" s="2" t="b">
         <v>0</v>
@@ -16189,13 +16189,13 @@
         <v>7277</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D689" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E689" s="2" t="b">
         <v>0</v>
@@ -16209,13 +16209,13 @@
         <v>7278</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D690" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E690" s="2" t="b">
         <v>0</v>
@@ -16229,13 +16229,13 @@
         <v>7279</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C691" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E691" s="2" t="b">
         <v>0</v>
@@ -16255,7 +16255,7 @@
         <v>8</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E692" s="2" t="b">
         <v>0</v>
@@ -16269,13 +16269,13 @@
         <v>7281</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C693" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E693" s="2" t="b">
         <v>0</v>
@@ -16292,10 +16292,10 @@
         <v>80</v>
       </c>
       <c r="C694" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D694" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E694" s="2" t="b">
         <v>0</v>
@@ -16315,7 +16315,7 @@
         <v>7</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E695" s="2" t="b">
         <v>0</v>
@@ -16329,13 +16329,13 @@
         <v>7284</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E696" s="2" t="b">
         <v>0</v>
@@ -16349,13 +16349,13 @@
         <v>7285</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E697" s="2" t="b">
         <v>0</v>
@@ -16369,13 +16369,13 @@
         <v>7286</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E698" s="2" t="b">
         <v>0</v>
@@ -16389,13 +16389,13 @@
         <v>7287</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C699" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E699" s="2" t="b">
         <v>0</v>
@@ -16412,10 +16412,10 @@
         <v>80</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E700" s="2" t="b">
         <v>0</v>
@@ -16429,13 +16429,13 @@
         <v>7289</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E701" s="2" t="b">
         <v>0</v>
@@ -16449,13 +16449,13 @@
         <v>7290</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E702" s="2" t="b">
         <v>0</v>
@@ -16469,13 +16469,13 @@
         <v>7291</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E703" s="2" t="b">
         <v>0</v>
@@ -16489,13 +16489,13 @@
         <v>7292</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E704" s="2" t="b">
         <v>0</v>
@@ -16509,13 +16509,13 @@
         <v>7293</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E705" s="2" t="b">
         <v>0</v>
@@ -16529,13 +16529,13 @@
         <v>7294</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E706" s="2" t="b">
         <v>0</v>
@@ -16549,13 +16549,13 @@
         <v>7295</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E707" s="2" t="b">
         <v>0</v>
@@ -16569,13 +16569,13 @@
         <v>7296</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E708" s="2" t="b">
         <v>0</v>
@@ -16589,13 +16589,13 @@
         <v>7297</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E709" s="2" t="b">
         <v>0</v>
@@ -16612,10 +16612,10 @@
         <v>80</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E710" s="2" t="b">
         <v>0</v>
@@ -16629,13 +16629,13 @@
         <v>7299</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C711" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E711" s="2" t="b">
         <v>0</v>
@@ -16652,10 +16652,10 @@
         <v>80</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E712" s="2" t="b">
         <v>0</v>
@@ -16669,13 +16669,13 @@
         <v>7301</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E713" s="2" t="b">
         <v>0</v>
@@ -16692,10 +16692,10 @@
         <v>80</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E714" s="2" t="b">
         <v>0</v>
@@ -16712,10 +16712,10 @@
         <v>80</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E715" s="2" t="b">
         <v>0</v>
@@ -16729,13 +16729,13 @@
         <v>7304</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D716" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E716" s="2" t="b">
         <v>0</v>
@@ -16749,13 +16749,13 @@
         <v>7305</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C717" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D717" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E717" s="2" t="b">
         <v>0</v>
@@ -16772,10 +16772,10 @@
         <v>80</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D718" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E718" s="2" t="b">
         <v>0</v>
@@ -16795,7 +16795,7 @@
         <v>7</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E719" s="2" t="b">
         <v>0</v>
@@ -16812,10 +16812,10 @@
         <v>80</v>
       </c>
       <c r="C720" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E720" s="2" t="b">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>7</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E721" s="2" t="b">
         <v>0</v>
@@ -16849,13 +16849,13 @@
         <v>7310</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C722" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E722" s="2" t="b">
         <v>0</v>
@@ -16869,13 +16869,13 @@
         <v>7311</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C723" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D723" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E723" s="2" t="b">
         <v>0</v>
@@ -16889,13 +16889,13 @@
         <v>7312</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C724" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D724" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E724" s="2" t="b">
         <v>0</v>
@@ -16909,13 +16909,13 @@
         <v>7313</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C725" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E725" s="2" t="b">
         <v>0</v>
@@ -16932,10 +16932,10 @@
         <v>80</v>
       </c>
       <c r="C726" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D726" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E726" s="2" t="b">
         <v>0</v>
@@ -16949,13 +16949,13 @@
         <v>7315</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C727" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D727" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E727" s="2" t="b">
         <v>0</v>
@@ -16972,10 +16972,10 @@
         <v>80</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D728" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E728" s="2" t="b">
         <v>0</v>
@@ -16992,10 +16992,10 @@
         <v>80</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D729" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E729" s="2" t="b">
         <v>0</v>
@@ -17012,10 +17012,10 @@
         <v>80</v>
       </c>
       <c r="C730" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D730" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E730" s="2" t="b">
         <v>0</v>
@@ -17029,13 +17029,13 @@
         <v>7319</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C731" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E731" s="2" t="b">
         <v>0</v>
@@ -17049,13 +17049,13 @@
         <v>7320</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C732" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E732" s="2" t="b">
         <v>0</v>
@@ -17072,10 +17072,10 @@
         <v>80</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E733" s="2" t="b">
         <v>0</v>
@@ -17095,7 +17095,7 @@
         <v>7</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E734" s="2" t="b">
         <v>0</v>
@@ -17112,10 +17112,10 @@
         <v>80</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E735" s="2" t="b">
         <v>0</v>
@@ -17135,7 +17135,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E736" s="2" t="b">
         <v>0</v>
@@ -17149,13 +17149,13 @@
         <v>7325</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E737" s="2" t="b">
         <v>0</v>
@@ -17169,13 +17169,13 @@
         <v>7326</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E738" s="2" t="b">
         <v>0</v>
@@ -17189,13 +17189,13 @@
         <v>7327</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E739" s="2" t="b">
         <v>0</v>
@@ -17209,13 +17209,13 @@
         <v>7328</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E740" s="2" t="b">
         <v>0</v>
@@ -17232,10 +17232,10 @@
         <v>80</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E741" s="2" t="b">
         <v>0</v>
@@ -17249,13 +17249,13 @@
         <v>7330</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E742" s="2" t="b">
         <v>0</v>
@@ -17269,13 +17269,13 @@
         <v>7331</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E743" s="2" t="b">
         <v>0</v>
@@ -17289,13 +17289,13 @@
         <v>7332</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E744" s="2" t="b">
         <v>0</v>
@@ -17309,13 +17309,13 @@
         <v>7333</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E745" s="2" t="b">
         <v>0</v>
@@ -17332,10 +17332,10 @@
         <v>80</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E746" s="2" t="b">
         <v>0</v>
@@ -17352,10 +17352,10 @@
         <v>80</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E747" s="2" t="b">
         <v>0</v>
@@ -17369,13 +17369,13 @@
         <v>7336</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C748" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E748" s="2" t="b">
         <v>0</v>
@@ -17389,13 +17389,13 @@
         <v>7337</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C749" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E749" s="2" t="b">
         <v>0</v>
@@ -17409,13 +17409,13 @@
         <v>7338</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C750" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E750" s="2" t="b">
         <v>0</v>
@@ -17429,13 +17429,13 @@
         <v>7339</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C751" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E751" s="2" t="b">
         <v>0</v>
@@ -17452,10 +17452,10 @@
         <v>80</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E752" s="2" t="b">
         <v>0</v>
@@ -17472,10 +17472,10 @@
         <v>80</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E753" s="2" t="b">
         <v>0</v>
@@ -17492,10 +17492,10 @@
         <v>80</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E754" s="2" t="b">
         <v>0</v>
@@ -17512,10 +17512,10 @@
         <v>80</v>
       </c>
       <c r="C755" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E755" s="2" t="b">
         <v>0</v>
@@ -17532,10 +17532,10 @@
         <v>80</v>
       </c>
       <c r="C756" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E756" s="2" t="b">
         <v>0</v>
@@ -17552,10 +17552,10 @@
         <v>80</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E757" s="2" t="b">
         <v>0</v>
@@ -17572,10 +17572,10 @@
         <v>80</v>
       </c>
       <c r="C758" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E758" s="2" t="b">
         <v>0</v>
@@ -17592,10 +17592,10 @@
         <v>80</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E759" s="2" t="b">
         <v>0</v>
@@ -17609,13 +17609,13 @@
         <v>7348</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C760" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E760" s="2" t="b">
         <v>0</v>
@@ -17629,13 +17629,13 @@
         <v>7349</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C761" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E761" s="2" t="b">
         <v>0</v>
@@ -17649,13 +17649,13 @@
         <v>7350</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C762" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E762" s="2" t="b">
         <v>0</v>
@@ -17669,13 +17669,13 @@
         <v>7351</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C763" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E763" s="2" t="b">
         <v>0</v>
@@ -17689,13 +17689,13 @@
         <v>7352</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C764" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E764" s="2" t="b">
         <v>0</v>
@@ -17709,13 +17709,13 @@
         <v>7353</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C765" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E765" s="2" t="b">
         <v>0</v>
@@ -17729,13 +17729,13 @@
         <v>7354</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E766" s="2" t="b">
         <v>0</v>
@@ -17752,10 +17752,10 @@
         <v>80</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E767" s="2" t="b">
         <v>0</v>
@@ -17775,7 +17775,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E768" s="2" t="b">
         <v>0</v>
@@ -17789,13 +17789,13 @@
         <v>7357</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E769" s="2" t="b">
         <v>0</v>
@@ -17812,10 +17812,10 @@
         <v>80</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E770" s="2" t="b">
         <v>0</v>
@@ -17835,7 +17835,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E771" s="2" t="b">
         <v>0</v>
@@ -17849,13 +17849,13 @@
         <v>7360</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E772" s="2" t="b">
         <v>0</v>
@@ -17872,10 +17872,10 @@
         <v>80</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E773" s="2" t="b">
         <v>0</v>
@@ -17895,7 +17895,7 @@
         <v>6</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E774" s="2" t="b">
         <v>0</v>
@@ -17915,7 +17915,7 @@
         <v>6</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E775" s="2" t="b">
         <v>0</v>
@@ -17929,13 +17929,13 @@
         <v>7364</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E776" s="2" t="b">
         <v>0</v>
@@ -17952,10 +17952,10 @@
         <v>80</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E777" s="2" t="b">
         <v>0</v>
@@ -17969,13 +17969,13 @@
         <v>7366</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E778" s="2" t="b">
         <v>0</v>
@@ -17989,13 +17989,13 @@
         <v>7367</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E779" s="2" t="b">
         <v>0</v>
@@ -18009,13 +18009,13 @@
         <v>7368</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E780" s="2" t="b">
         <v>0</v>
@@ -18029,13 +18029,13 @@
         <v>7369</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E781" s="2" t="b">
         <v>0</v>
@@ -18052,10 +18052,10 @@
         <v>80</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E782" s="2" t="b">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>6</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E783" s="2" t="b">
         <v>0</v>
@@ -18089,13 +18089,13 @@
         <v>7372</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E784" s="2" t="b">
         <v>0</v>
@@ -18112,10 +18112,10 @@
         <v>80</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E785" s="2" t="b">
         <v>0</v>
@@ -18135,7 +18135,7 @@
         <v>6</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E786" s="2" t="b">
         <v>0</v>
@@ -18149,13 +18149,13 @@
         <v>7375</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E787" s="2" t="b">
         <v>0</v>
@@ -18172,10 +18172,10 @@
         <v>80</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E788" s="2" t="b">
         <v>0</v>
@@ -18195,7 +18195,7 @@
         <v>6</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E789" s="2" t="b">
         <v>0</v>
@@ -18215,7 +18215,7 @@
         <v>6</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E790" s="2" t="b">
         <v>0</v>
@@ -18229,13 +18229,13 @@
         <v>7379</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E791" s="2" t="b">
         <v>0</v>
@@ -18252,10 +18252,10 @@
         <v>80</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E792" s="2" t="b">
         <v>0</v>
@@ -18269,13 +18269,13 @@
         <v>7381</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E793" s="2" t="b">
         <v>0</v>
@@ -18289,13 +18289,13 @@
         <v>7382</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E794" s="2" t="b">
         <v>0</v>
@@ -18309,13 +18309,13 @@
         <v>7383</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E795" s="2" t="b">
         <v>0</v>
@@ -18329,13 +18329,13 @@
         <v>7384</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E796" s="2" t="b">
         <v>0</v>
@@ -18352,10 +18352,10 @@
         <v>80</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E797" s="2" t="b">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>6</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E798" s="2" t="b">
         <v>0</v>
@@ -18395,7 +18395,7 @@
         <v>4</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E799" s="2" t="b">
         <v>0</v>
@@ -18412,10 +18412,10 @@
         <v>80</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D800" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E800" s="2" t="b">
         <v>0</v>
@@ -18435,7 +18435,7 @@
         <v>7</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E801" s="2" t="b">
         <v>0</v>
@@ -18455,7 +18455,7 @@
         <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E802" s="2" t="b">
         <v>0</v>
@@ -18469,13 +18469,13 @@
         <v>7391</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E803" s="2" t="b">
         <v>0</v>
@@ -18489,13 +18489,13 @@
         <v>7392</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E804" s="2" t="b">
         <v>0</v>
@@ -18509,13 +18509,13 @@
         <v>7393</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E805" s="2" t="b">
         <v>0</v>
@@ -18529,13 +18529,13 @@
         <v>7394</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E806" s="2" t="b">
         <v>0</v>
@@ -18549,13 +18549,13 @@
         <v>7395</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E807" s="2" t="b">
         <v>0</v>
@@ -18569,13 +18569,13 @@
         <v>7396</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E808" s="2" t="b">
         <v>0</v>
@@ -18589,13 +18589,13 @@
         <v>7397</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E809" s="2" t="b">
         <v>0</v>
@@ -18609,13 +18609,13 @@
         <v>7398</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E810" s="2" t="b">
         <v>0</v>
@@ -18632,10 +18632,10 @@
         <v>80</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E811" s="2" t="b">
         <v>0</v>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F222826C-3880-4899-A581-43C2CF4D8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C3193-BAA3-4B60-B8E9-024CA17E34D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{7B594B15-E6F7-40E3-8C22-7C42F4F971ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청이가 향리 댁으로 간 게 아니라는 말이지?? 알겠네. 나도 찾아봄세.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1063,9 +1059,6 @@
   <si>
     <t>혼자서라도 거뜬히 살아야 해.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(노비와 대화를 나눈다.)</t>
   </si>
   <si>
     <t>살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
@@ -1960,6 +1953,14 @@
   </si>
   <si>
     <t>ⓦ향리 댁의 수양딸에 대하여 말을 걸었다.</t>
+  </si>
+  <si>
+    <t>청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(노비와 대화를 나눈다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2409,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FB4EF-C25C-4758-9727-D38BE4993E17}">
   <dimension ref="A1:F811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -2426,22 +2427,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2452,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -2475,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -2495,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -2515,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -2535,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -2555,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -2575,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -2595,7 +2596,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -2615,7 +2616,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -2635,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>565</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -2675,7 +2676,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
@@ -2695,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -2715,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -2735,7 +2736,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -2755,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -2775,7 +2776,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -2795,7 +2796,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -2815,7 +2816,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -2829,13 +2830,13 @@
         <v>5020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -2855,7 +2856,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -2875,7 +2876,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -2915,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -3035,7 +3036,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -3075,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -3175,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -3195,7 +3196,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -3215,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -3275,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -3355,7 +3356,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -3375,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
@@ -3395,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -3435,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
@@ -3455,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
@@ -3475,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -3495,7 +3496,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -3515,7 +3516,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -3535,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -3549,13 +3550,13 @@
         <v>5099</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
@@ -3575,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -3595,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -3615,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -3635,7 +3636,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -3735,7 +3736,7 @@
         <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -3895,7 +3896,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
@@ -3915,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" s="2" t="b">
         <v>0</v>
@@ -3935,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
@@ -3955,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77" s="2" t="b">
         <v>0</v>
@@ -3975,7 +3976,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" s="2" t="b">
         <v>0</v>
@@ -3995,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" s="2" t="b">
         <v>0</v>
@@ -4015,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -4115,7 +4116,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
@@ -4135,7 +4136,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
@@ -4155,7 +4156,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
@@ -4235,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
@@ -4255,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
@@ -4315,7 +4316,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
@@ -4375,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2" t="b">
         <v>0</v>
@@ -4395,7 +4396,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
@@ -4415,7 +4416,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
@@ -4495,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E104" s="2" t="b">
         <v>0</v>
@@ -4515,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -4555,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -4655,7 +4656,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
@@ -4675,7 +4676,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
@@ -4689,13 +4690,13 @@
         <v>5218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E114" s="2" t="b">
         <v>0</v>
@@ -4795,7 +4796,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E119" s="2" t="b">
         <v>0</v>
@@ -4855,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="b">
         <v>0</v>
@@ -4875,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E123" s="2" t="b">
         <v>0</v>
@@ -5055,7 +5056,7 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E132" s="2" t="b">
         <v>0</v>
@@ -5095,7 +5096,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -5115,7 +5116,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E135" s="2" t="b">
         <v>0</v>
@@ -5155,7 +5156,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E137" s="2" t="b">
         <v>0</v>
@@ -5175,7 +5176,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E138" s="2" t="b">
         <v>0</v>
@@ -5195,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E139" s="2" t="b">
         <v>0</v>
@@ -5315,7 +5316,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E145" s="2" t="b">
         <v>0</v>
@@ -5515,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E155" s="2" t="b">
         <v>0</v>
@@ -5535,7 +5536,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E156" s="2" t="b">
         <v>0</v>
@@ -5635,7 +5636,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E161" s="2" t="b">
         <v>0</v>
@@ -5675,7 +5676,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E163" s="2" t="b">
         <v>0</v>
@@ -5695,7 +5696,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E164" s="2" t="b">
         <v>0</v>
@@ -5735,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E166" s="2" t="b">
         <v>0</v>
@@ -5875,7 +5876,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E173" s="2" t="b">
         <v>0</v>
@@ -5895,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E174" s="2" t="b">
         <v>0</v>
@@ -5915,7 +5916,7 @@
         <v>79</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E175" s="2" t="b">
         <v>0</v>
@@ -5935,7 +5936,7 @@
         <v>79</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E176" s="2" t="b">
         <v>0</v>
@@ -5955,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E177" s="2" t="b">
         <v>0</v>
@@ -5975,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E178" s="2" t="b">
         <v>0</v>
@@ -5995,7 +5996,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E179" s="2" t="b">
         <v>0</v>
@@ -6009,13 +6010,13 @@
         <v>5365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E180" s="2" t="b">
         <v>0</v>
@@ -6029,13 +6030,13 @@
         <v>5366</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E181" s="2" t="b">
         <v>0</v>
@@ -6055,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E182" s="2" t="b">
         <v>0</v>
@@ -6075,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E183" s="2" t="b">
         <v>0</v>
@@ -6115,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E185" s="2" t="b">
         <v>0</v>
@@ -6175,7 +6176,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E188" s="2" t="b">
         <v>0</v>
@@ -6195,7 +6196,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E189" s="2" t="b">
         <v>0</v>
@@ -6255,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E192" s="2" t="b">
         <v>0</v>
@@ -6275,7 +6276,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E193" s="2" t="b">
         <v>0</v>
@@ -6295,7 +6296,7 @@
         <v>3</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E194" s="2" t="b">
         <v>0</v>
@@ -6315,7 +6316,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E195" s="2" t="b">
         <v>0</v>
@@ -6335,7 +6336,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E196" s="2" t="b">
         <v>0</v>
@@ -6355,7 +6356,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E197" s="2" t="b">
         <v>0</v>
@@ -6375,7 +6376,7 @@
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E198" s="2" t="b">
         <v>0</v>
@@ -6395,7 +6396,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E199" s="2" t="b">
         <v>0</v>
@@ -6415,7 +6416,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E200" s="2" t="b">
         <v>0</v>
@@ -6435,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E201" s="2" t="b">
         <v>0</v>
@@ -6455,7 +6456,7 @@
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E202" s="2" t="b">
         <v>0</v>
@@ -6515,7 +6516,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E205" s="2" t="b">
         <v>0</v>
@@ -6555,7 +6556,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E207" s="2" t="b">
         <v>0</v>
@@ -6595,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E209" s="2" t="b">
         <v>0</v>
@@ -6615,7 +6616,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E210" s="2" t="b">
         <v>0</v>
@@ -6635,7 +6636,7 @@
         <v>3</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E211" s="2" t="b">
         <v>0</v>
@@ -6655,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E212" s="2" t="b">
         <v>0</v>
@@ -6675,7 +6676,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E213" s="2" t="b">
         <v>0</v>
@@ -6695,7 +6696,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E214" s="2" t="b">
         <v>0</v>
@@ -6715,7 +6716,7 @@
         <v>7</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E215" s="2" t="b">
         <v>0</v>
@@ -6735,7 +6736,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E216" s="2" t="b">
         <v>0</v>
@@ -6755,7 +6756,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E217" s="2" t="b">
         <v>0</v>
@@ -6775,7 +6776,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E218" s="2" t="b">
         <v>0</v>
@@ -6789,13 +6790,13 @@
         <v>5440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E219" s="2" t="b">
         <v>0</v>
@@ -6812,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E220" s="2" t="b">
         <v>0</v>
@@ -6829,13 +6830,13 @@
         <v>5442</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E221" s="2" t="b">
         <v>0</v>
@@ -6852,10 +6853,10 @@
         <v>80</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E222" s="2" t="b">
         <v>0</v>
@@ -6875,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E223" s="2" t="b">
         <v>0</v>
@@ -6895,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E224" s="2" t="b">
         <v>0</v>
@@ -6915,7 +6916,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E225" s="2" t="b">
         <v>0</v>
@@ -6935,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E226" s="2" t="b">
         <v>0</v>
@@ -6955,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E227" s="2" t="b">
         <v>0</v>
@@ -6975,7 +6976,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E228" s="2" t="b">
         <v>0</v>
@@ -6995,7 +6996,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E229" s="2" t="b">
         <v>0</v>
@@ -7015,7 +7016,7 @@
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E230" s="2" t="b">
         <v>0</v>
@@ -7035,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E231" s="2" t="b">
         <v>0</v>
@@ -7055,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E232" s="2" t="b">
         <v>0</v>
@@ -7075,7 +7076,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E233" s="2" t="b">
         <v>0</v>
@@ -7095,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E234" s="2" t="b">
         <v>0</v>
@@ -7115,7 +7116,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E235" s="2" t="b">
         <v>0</v>
@@ -7135,7 +7136,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E236" s="2" t="b">
         <v>0</v>
@@ -7149,13 +7150,13 @@
         <v>5476</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E237" s="2" t="b">
         <v>0</v>
@@ -7175,7 +7176,7 @@
         <v>7</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E238" s="2" t="b">
         <v>0</v>
@@ -7195,7 +7196,7 @@
         <v>7</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E239" s="2" t="b">
         <v>0</v>
@@ -7209,13 +7210,13 @@
         <v>5479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E240" s="2" t="b">
         <v>0</v>
@@ -7235,7 +7236,7 @@
         <v>7</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E241" s="2" t="b">
         <v>0</v>
@@ -7255,7 +7256,7 @@
         <v>7</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E242" s="2" t="b">
         <v>0</v>
@@ -7269,13 +7270,13 @@
         <v>5482</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E243" s="2" t="b">
         <v>0</v>
@@ -7289,13 +7290,13 @@
         <v>5483</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E244" s="2" t="b">
         <v>0</v>
@@ -7312,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E245" s="2" t="b">
         <v>0</v>
@@ -7332,10 +7333,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E246" s="2" t="b">
         <v>0</v>
@@ -7349,13 +7350,13 @@
         <v>5486</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E247" s="2" t="b">
         <v>0</v>
@@ -7369,13 +7370,13 @@
         <v>5487</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E248" s="2" t="b">
         <v>0</v>
@@ -7392,10 +7393,10 @@
         <v>0</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E249" s="2" t="b">
         <v>0</v>
@@ -7415,7 +7416,7 @@
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E250" s="2" t="b">
         <v>0</v>
@@ -7435,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E251" s="2" t="b">
         <v>0</v>
@@ -7455,7 +7456,7 @@
         <v>2</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E252" s="2" t="b">
         <v>0</v>
@@ -7475,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E253" s="2" t="b">
         <v>0</v>
@@ -7495,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E254" s="2" t="b">
         <v>0</v>
@@ -7515,7 +7516,7 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E255" s="2" t="b">
         <v>0</v>
@@ -7535,7 +7536,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E256" s="2" t="b">
         <v>0</v>
@@ -7555,7 +7556,7 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E257" s="2" t="b">
         <v>0</v>
@@ -7575,7 +7576,7 @@
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E258" s="2" t="b">
         <v>0</v>
@@ -7595,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E259" s="2" t="b">
         <v>0</v>
@@ -7615,7 +7616,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E260" s="2" t="b">
         <v>0</v>
@@ -7635,7 +7636,7 @@
         <v>3</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E261" s="2" t="b">
         <v>0</v>
@@ -7655,7 +7656,7 @@
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E262" s="2" t="b">
         <v>0</v>
@@ -7675,7 +7676,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E263" s="2" t="b">
         <v>0</v>
@@ -7695,7 +7696,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E264" s="2" t="b">
         <v>0</v>
@@ -7715,7 +7716,7 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E265" s="2" t="b">
         <v>0</v>
@@ -7735,7 +7736,7 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E266" s="2" t="b">
         <v>0</v>
@@ -7749,13 +7750,13 @@
         <v>5716</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E267" s="2" t="b">
         <v>0</v>
@@ -7775,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E268" s="2" t="b">
         <v>0</v>
@@ -7795,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E269" s="2" t="b">
         <v>0</v>
@@ -7815,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E270" s="2" t="b">
         <v>0</v>
@@ -7835,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E271" s="2" t="b">
         <v>0</v>
@@ -7855,7 +7856,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E272" s="2" t="b">
         <v>0</v>
@@ -7875,7 +7876,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E273" s="2" t="b">
         <v>0</v>
@@ -7895,7 +7896,7 @@
         <v>7</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E274" s="2" t="b">
         <v>0</v>
@@ -7915,7 +7916,7 @@
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E275" s="2" t="b">
         <v>0</v>
@@ -7935,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E276" s="2" t="b">
         <v>0</v>
@@ -7955,7 +7956,7 @@
         <v>2</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E277" s="2" t="b">
         <v>0</v>
@@ -7975,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E278" s="2" t="b">
         <v>0</v>
@@ -7995,7 +7996,7 @@
         <v>4</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E279" s="2" t="b">
         <v>0</v>
@@ -8015,7 +8016,7 @@
         <v>5</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E280" s="2" t="b">
         <v>0</v>
@@ -8035,7 +8036,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E281" s="2" t="b">
         <v>0</v>
@@ -8055,7 +8056,7 @@
         <v>7</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E282" s="2" t="b">
         <v>0</v>
@@ -8075,7 +8076,7 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E283" s="2" t="b">
         <v>0</v>
@@ -8089,13 +8090,13 @@
         <v>5733</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E284" s="2" t="b">
         <v>0</v>
@@ -8115,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E285" s="2" t="b">
         <v>0</v>
@@ -8135,7 +8136,7 @@
         <v>2</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E286" s="2" t="b">
         <v>0</v>
@@ -8155,7 +8156,7 @@
         <v>3</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E287" s="2" t="b">
         <v>0</v>
@@ -8175,7 +8176,7 @@
         <v>4</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E288" s="2" t="b">
         <v>0</v>
@@ -8195,7 +8196,7 @@
         <v>5</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E289" s="2" t="b">
         <v>0</v>
@@ -8215,7 +8216,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E290" s="2" t="b">
         <v>0</v>
@@ -8235,7 +8236,7 @@
         <v>7</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E291" s="2" t="b">
         <v>0</v>
@@ -8255,7 +8256,7 @@
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E292" s="2" t="b">
         <v>0</v>
@@ -8269,13 +8270,13 @@
         <v>5742</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E293" s="2" t="b">
         <v>0</v>
@@ -8295,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E294" s="2" t="b">
         <v>0</v>
@@ -8315,7 +8316,7 @@
         <v>2</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E295" s="2" t="b">
         <v>0</v>
@@ -8335,7 +8336,7 @@
         <v>3</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E296" s="2" t="b">
         <v>0</v>
@@ -8355,7 +8356,7 @@
         <v>4</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E297" s="2" t="b">
         <v>0</v>
@@ -8375,7 +8376,7 @@
         <v>5</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E298" s="2" t="b">
         <v>0</v>
@@ -8395,7 +8396,7 @@
         <v>7</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E299" s="2" t="b">
         <v>0</v>
@@ -8415,7 +8416,7 @@
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E300" s="2" t="b">
         <v>0</v>
@@ -8435,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E301" s="2" t="b">
         <v>0</v>
@@ -8455,7 +8456,7 @@
         <v>2</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E302" s="2" t="b">
         <v>0</v>
@@ -8475,7 +8476,7 @@
         <v>3</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E303" s="2" t="b">
         <v>0</v>
@@ -8495,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E304" s="2" t="b">
         <v>0</v>
@@ -8515,7 +8516,7 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E305" s="2" t="b">
         <v>0</v>
@@ -8535,7 +8536,7 @@
         <v>6</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E306" s="2" t="b">
         <v>0</v>
@@ -8555,7 +8556,7 @@
         <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E307" s="2" t="b">
         <v>0</v>
@@ -8575,7 +8576,7 @@
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E308" s="2" t="b">
         <v>0</v>
@@ -8595,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E309" s="2" t="b">
         <v>0</v>
@@ -8615,7 +8616,7 @@
         <v>2</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E310" s="2" t="b">
         <v>0</v>
@@ -8635,7 +8636,7 @@
         <v>3</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E311" s="2" t="b">
         <v>0</v>
@@ -8655,7 +8656,7 @@
         <v>4</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E312" s="2" t="b">
         <v>0</v>
@@ -8675,7 +8676,7 @@
         <v>5</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E313" s="2" t="b">
         <v>0</v>
@@ -8695,7 +8696,7 @@
         <v>6</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E314" s="2" t="b">
         <v>0</v>
@@ -8715,7 +8716,7 @@
         <v>7</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E315" s="2" t="b">
         <v>0</v>
@@ -8735,7 +8736,7 @@
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E316" s="2" t="b">
         <v>0</v>
@@ -8755,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E317" s="2" t="b">
         <v>0</v>
@@ -8775,7 +8776,7 @@
         <v>2</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E318" s="2" t="b">
         <v>0</v>
@@ -8795,7 +8796,7 @@
         <v>3</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E319" s="2" t="b">
         <v>0</v>
@@ -8815,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E320" s="2" t="b">
         <v>0</v>
@@ -8835,7 +8836,7 @@
         <v>5</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E321" s="2" t="b">
         <v>0</v>
@@ -8855,7 +8856,7 @@
         <v>7</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E322" s="2" t="b">
         <v>0</v>
@@ -8875,7 +8876,7 @@
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E323" s="2" t="b">
         <v>0</v>
@@ -8895,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E324" s="2" t="b">
         <v>0</v>
@@ -8915,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E325" s="2" t="b">
         <v>0</v>
@@ -8935,7 +8936,7 @@
         <v>3</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E326" s="2" t="b">
         <v>0</v>
@@ -8955,7 +8956,7 @@
         <v>4</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E327" s="2" t="b">
         <v>0</v>
@@ -8975,7 +8976,7 @@
         <v>5</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E328" s="2" t="b">
         <v>0</v>
@@ -8995,7 +8996,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E329" s="2" t="b">
         <v>0</v>
@@ -9015,7 +9016,7 @@
         <v>7</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E330" s="2" t="b">
         <v>0</v>
@@ -9035,7 +9036,7 @@
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E331" s="2" t="b">
         <v>0</v>
@@ -9055,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E332" s="2" t="b">
         <v>0</v>
@@ -9075,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E333" s="2" t="b">
         <v>0</v>
@@ -9095,7 +9096,7 @@
         <v>3</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E334" s="2" t="b">
         <v>0</v>
@@ -9115,7 +9116,7 @@
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E335" s="2" t="b">
         <v>0</v>
@@ -9135,7 +9136,7 @@
         <v>5</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E336" s="2" t="b">
         <v>0</v>
@@ -9155,7 +9156,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E337" s="2" t="b">
         <v>0</v>
@@ -9175,7 +9176,7 @@
         <v>7</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E338" s="2" t="b">
         <v>0</v>
@@ -9195,7 +9196,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E339" s="2" t="b">
         <v>0</v>
@@ -9215,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E340" s="2" t="b">
         <v>0</v>
@@ -9235,7 +9236,7 @@
         <v>2</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E341" s="2" t="b">
         <v>0</v>
@@ -9255,7 +9256,7 @@
         <v>3</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E342" s="2" t="b">
         <v>0</v>
@@ -9275,7 +9276,7 @@
         <v>4</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E343" s="2" t="b">
         <v>0</v>
@@ -9295,7 +9296,7 @@
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E344" s="2" t="b">
         <v>0</v>
@@ -9315,7 +9316,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E345" s="2" t="b">
         <v>0</v>
@@ -9335,7 +9336,7 @@
         <v>7</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E346" s="2" t="b">
         <v>0</v>
@@ -9355,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E347" s="2" t="b">
         <v>0</v>
@@ -9375,7 +9376,7 @@
         <v>7</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E348" s="2" t="b">
         <v>0</v>
@@ -9395,7 +9396,7 @@
         <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E349" s="2" t="b">
         <v>0</v>
@@ -9409,13 +9410,13 @@
         <v>5799</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E350" s="2" t="b">
         <v>0</v>
@@ -9435,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E351" s="2" t="b">
         <v>0</v>
@@ -9455,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E352" s="2" t="b">
         <v>0</v>
@@ -9475,7 +9476,7 @@
         <v>3</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E353" s="2" t="b">
         <v>0</v>
@@ -9495,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E354" s="2" t="b">
         <v>0</v>
@@ -9515,7 +9516,7 @@
         <v>5</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E355" s="2" t="b">
         <v>0</v>
@@ -9535,7 +9536,7 @@
         <v>6</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E356" s="2" t="b">
         <v>0</v>
@@ -9555,7 +9556,7 @@
         <v>7</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E357" s="2" t="b">
         <v>0</v>
@@ -9575,7 +9576,7 @@
         <v>8</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E358" s="2" t="b">
         <v>0</v>
@@ -9595,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E359" s="2" t="b">
         <v>0</v>
@@ -9615,7 +9616,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E360" s="2" t="b">
         <v>0</v>
@@ -9635,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E361" s="2" t="b">
         <v>0</v>
@@ -9655,7 +9656,7 @@
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E362" s="2" t="b">
         <v>0</v>
@@ -9675,7 +9676,7 @@
         <v>5</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E363" s="2" t="b">
         <v>0</v>
@@ -9695,7 +9696,7 @@
         <v>6</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E364" s="2" t="b">
         <v>0</v>
@@ -9715,7 +9716,7 @@
         <v>7</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E365" s="2" t="b">
         <v>0</v>
@@ -9735,7 +9736,7 @@
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E366" s="2" t="b">
         <v>0</v>
@@ -9755,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E367" s="2" t="b">
         <v>0</v>
@@ -9775,7 +9776,7 @@
         <v>2</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E368" s="2" t="b">
         <v>0</v>
@@ -9795,7 +9796,7 @@
         <v>3</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E369" s="2" t="b">
         <v>0</v>
@@ -9815,7 +9816,7 @@
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E370" s="2" t="b">
         <v>0</v>
@@ -9835,7 +9836,7 @@
         <v>5</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E371" s="2" t="b">
         <v>0</v>
@@ -9855,7 +9856,7 @@
         <v>6</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E372" s="2" t="b">
         <v>0</v>
@@ -9875,7 +9876,7 @@
         <v>7</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E373" s="2" t="b">
         <v>0</v>
@@ -9895,7 +9896,7 @@
         <v>8</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E374" s="2" t="b">
         <v>0</v>
@@ -9915,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E375" s="2" t="b">
         <v>0</v>
@@ -9935,7 +9936,7 @@
         <v>2</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E376" s="2" t="b">
         <v>0</v>
@@ -9955,7 +9956,7 @@
         <v>3</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E377" s="2" t="b">
         <v>0</v>
@@ -9975,7 +9976,7 @@
         <v>4</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E378" s="2" t="b">
         <v>0</v>
@@ -9995,7 +9996,7 @@
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E379" s="2" t="b">
         <v>0</v>
@@ -10015,7 +10016,7 @@
         <v>6</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E380" s="2" t="b">
         <v>0</v>
@@ -10035,7 +10036,7 @@
         <v>8</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E381" s="2" t="b">
         <v>0</v>
@@ -10055,7 +10056,7 @@
         <v>7</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E382" s="2" t="b">
         <v>0</v>
@@ -10075,7 +10076,7 @@
         <v>1</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E383" s="2" t="b">
         <v>0</v>
@@ -10095,7 +10096,7 @@
         <v>2</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E384" s="2" t="b">
         <v>0</v>
@@ -10115,7 +10116,7 @@
         <v>3</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E385" s="2" t="b">
         <v>0</v>
@@ -10135,7 +10136,7 @@
         <v>4</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E386" s="2" t="b">
         <v>0</v>
@@ -10155,7 +10156,7 @@
         <v>6</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E387" s="2" t="b">
         <v>0</v>
@@ -10175,7 +10176,7 @@
         <v>5</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E388" s="2" t="b">
         <v>0</v>
@@ -10195,7 +10196,7 @@
         <v>7</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E389" s="2" t="b">
         <v>0</v>
@@ -10215,7 +10216,7 @@
         <v>8</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E390" s="2" t="b">
         <v>0</v>
@@ -10235,7 +10236,7 @@
         <v>7</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E391" s="2" t="b">
         <v>0</v>
@@ -10255,7 +10256,7 @@
         <v>7</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E392" s="2" t="b">
         <v>0</v>
@@ -10275,7 +10276,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E393" s="2" t="b">
         <v>0</v>
@@ -10295,7 +10296,7 @@
         <v>2</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E394" s="2" t="b">
         <v>0</v>
@@ -10315,7 +10316,7 @@
         <v>3</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E395" s="2" t="b">
         <v>0</v>
@@ -10335,7 +10336,7 @@
         <v>4</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E396" s="2" t="b">
         <v>0</v>
@@ -10355,7 +10356,7 @@
         <v>6</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E397" s="2" t="b">
         <v>0</v>
@@ -10375,7 +10376,7 @@
         <v>5</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E398" s="2" t="b">
         <v>0</v>
@@ -10395,7 +10396,7 @@
         <v>7</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E399" s="2" t="b">
         <v>0</v>
@@ -10415,7 +10416,7 @@
         <v>8</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E400" s="2" t="b">
         <v>0</v>
@@ -10435,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E401" s="2" t="b">
         <v>0</v>
@@ -10455,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E402" s="2" t="b">
         <v>0</v>
@@ -10475,7 +10476,7 @@
         <v>3</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>297</v>
+        <v>566</v>
       </c>
       <c r="E403" s="2" t="b">
         <v>0</v>
@@ -10495,7 +10496,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E404" s="2" t="b">
         <v>0</v>
@@ -10515,7 +10516,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E405" s="2" t="b">
         <v>0</v>
@@ -10535,7 +10536,7 @@
         <v>7</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E406" s="2" t="b">
         <v>0</v>
@@ -10555,7 +10556,7 @@
         <v>10</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E407" s="2" t="b">
         <v>0</v>
@@ -10575,7 +10576,7 @@
         <v>10</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E408" s="2" t="b">
         <v>0</v>
@@ -10595,7 +10596,7 @@
         <v>5</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E409" s="2" t="b">
         <v>0</v>
@@ -10615,7 +10616,7 @@
         <v>7</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E410" s="2" t="b">
         <v>0</v>
@@ -10635,7 +10636,7 @@
         <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E411" s="2" t="b">
         <v>0</v>
@@ -10652,10 +10653,10 @@
         <v>80</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E412" s="2" t="b">
         <v>0</v>
@@ -10669,13 +10670,13 @@
         <v>7001</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E413" s="2" t="b">
         <v>0</v>
@@ -10689,13 +10690,13 @@
         <v>7002</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E414" s="2" t="b">
         <v>0</v>
@@ -10709,13 +10710,13 @@
         <v>7003</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E415" s="2" t="b">
         <v>0</v>
@@ -10735,7 +10736,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E416" s="2" t="b">
         <v>0</v>
@@ -10749,13 +10750,13 @@
         <v>7005</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E417" s="2" t="b">
         <v>0</v>
@@ -10769,13 +10770,13 @@
         <v>7006</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E418" s="2" t="b">
         <v>0</v>
@@ -10789,13 +10790,13 @@
         <v>7007</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E419" s="2" t="b">
         <v>0</v>
@@ -10809,13 +10810,13 @@
         <v>7008</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E420" s="2" t="b">
         <v>0</v>
@@ -10829,13 +10830,13 @@
         <v>7009</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E421" s="2" t="b">
         <v>0</v>
@@ -10849,13 +10850,13 @@
         <v>7010</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E422" s="2" t="b">
         <v>0</v>
@@ -10869,13 +10870,13 @@
         <v>7011</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E423" s="2" t="b">
         <v>0</v>
@@ -10889,13 +10890,13 @@
         <v>7012</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E424" s="2" t="b">
         <v>0</v>
@@ -10909,13 +10910,13 @@
         <v>7013</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E425" s="2" t="b">
         <v>0</v>
@@ -10929,13 +10930,13 @@
         <v>7014</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E426" s="2" t="b">
         <v>0</v>
@@ -10949,13 +10950,13 @@
         <v>7015</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E427" s="2" t="b">
         <v>0</v>
@@ -10969,13 +10970,13 @@
         <v>7016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E428" s="2" t="b">
         <v>0</v>
@@ -10992,10 +10993,10 @@
         <v>80</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E429" s="2" t="b">
         <v>0</v>
@@ -11009,13 +11010,13 @@
         <v>7018</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E430" s="2" t="b">
         <v>0</v>
@@ -11029,13 +11030,13 @@
         <v>7019</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E431" s="2" t="b">
         <v>0</v>
@@ -11049,13 +11050,13 @@
         <v>7020</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E432" s="2" t="b">
         <v>0</v>
@@ -11069,13 +11070,13 @@
         <v>7021</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E433" s="2" t="b">
         <v>0</v>
@@ -11089,13 +11090,13 @@
         <v>7022</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E434" s="2" t="b">
         <v>0</v>
@@ -11109,13 +11110,13 @@
         <v>7023</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E435" s="2" t="b">
         <v>0</v>
@@ -11129,13 +11130,13 @@
         <v>7024</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E436" s="2" t="b">
         <v>0</v>
@@ -11149,13 +11150,13 @@
         <v>7025</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E437" s="2" t="b">
         <v>0</v>
@@ -11175,7 +11176,7 @@
         <v>7</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E438" s="2" t="b">
         <v>0</v>
@@ -11189,13 +11190,13 @@
         <v>7027</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E439" s="2" t="b">
         <v>0</v>
@@ -11212,10 +11213,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E440" s="2" t="b">
         <v>0</v>
@@ -11235,7 +11236,7 @@
         <v>7</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E441" s="2" t="b">
         <v>0</v>
@@ -11249,13 +11250,13 @@
         <v>7030</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E442" s="2" t="b">
         <v>0</v>
@@ -11269,13 +11270,13 @@
         <v>7031</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E443" s="2" t="b">
         <v>0</v>
@@ -11289,13 +11290,13 @@
         <v>7032</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E444" s="2" t="b">
         <v>0</v>
@@ -11309,13 +11310,13 @@
         <v>7033</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E445" s="2" t="b">
         <v>0</v>
@@ -11329,13 +11330,13 @@
         <v>7034</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E446" s="2" t="b">
         <v>0</v>
@@ -11355,7 +11356,7 @@
         <v>8</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E447" s="2" t="b">
         <v>0</v>
@@ -11369,13 +11370,13 @@
         <v>7036</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E448" s="2" t="b">
         <v>0</v>
@@ -11392,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D449" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E449" s="2" t="b">
         <v>0</v>
@@ -11415,7 +11416,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E450" s="2" t="b">
         <v>0</v>
@@ -11429,13 +11430,13 @@
         <v>7039</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E451" s="2" t="b">
         <v>0</v>
@@ -11449,13 +11450,13 @@
         <v>7040</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E452" s="2" t="b">
         <v>0</v>
@@ -11469,13 +11470,13 @@
         <v>7041</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E453" s="2" t="b">
         <v>0</v>
@@ -11489,13 +11490,13 @@
         <v>7042</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E454" s="2" t="b">
         <v>0</v>
@@ -11512,10 +11513,10 @@
         <v>0</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E455" s="2" t="b">
         <v>0</v>
@@ -11529,13 +11530,13 @@
         <v>7044</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E456" s="2" t="b">
         <v>0</v>
@@ -11549,13 +11550,13 @@
         <v>7045</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E457" s="2" t="b">
         <v>0</v>
@@ -11569,13 +11570,13 @@
         <v>7046</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E458" s="2" t="b">
         <v>0</v>
@@ -11589,13 +11590,13 @@
         <v>7047</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E459" s="2" t="b">
         <v>0</v>
@@ -11609,13 +11610,13 @@
         <v>7048</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E460" s="2" t="b">
         <v>0</v>
@@ -11629,13 +11630,13 @@
         <v>7049</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E461" s="2" t="b">
         <v>0</v>
@@ -11649,13 +11650,13 @@
         <v>7050</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E462" s="2" t="b">
         <v>0</v>
@@ -11669,13 +11670,13 @@
         <v>7051</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E463" s="2" t="b">
         <v>0</v>
@@ -11689,13 +11690,13 @@
         <v>7052</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E464" s="2" t="b">
         <v>0</v>
@@ -11712,10 +11713,10 @@
         <v>0</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E465" s="2" t="b">
         <v>0</v>
@@ -11729,13 +11730,13 @@
         <v>7054</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E466" s="2" t="b">
         <v>0</v>
@@ -11752,10 +11753,10 @@
         <v>0</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E467" s="2" t="b">
         <v>0</v>
@@ -11769,13 +11770,13 @@
         <v>7056</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E468" s="2" t="b">
         <v>0</v>
@@ -11792,10 +11793,10 @@
         <v>0</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E469" s="2" t="b">
         <v>0</v>
@@ -11812,10 +11813,10 @@
         <v>0</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E470" s="2" t="b">
         <v>0</v>
@@ -11829,13 +11830,13 @@
         <v>7059</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E471" s="2" t="b">
         <v>0</v>
@@ -11849,13 +11850,13 @@
         <v>7060</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E472" s="2" t="b">
         <v>0</v>
@@ -11872,10 +11873,10 @@
         <v>0</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E473" s="2" t="b">
         <v>0</v>
@@ -11895,7 +11896,7 @@
         <v>7</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E474" s="2" t="b">
         <v>0</v>
@@ -11912,10 +11913,10 @@
         <v>0</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E475" s="2" t="b">
         <v>0</v>
@@ -11935,7 +11936,7 @@
         <v>7</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E476" s="2" t="b">
         <v>0</v>
@@ -11949,13 +11950,13 @@
         <v>7065</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E477" s="2" t="b">
         <v>0</v>
@@ -11969,13 +11970,13 @@
         <v>7066</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E478" s="2" t="b">
         <v>0</v>
@@ -11989,13 +11990,13 @@
         <v>7067</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E479" s="2" t="b">
         <v>0</v>
@@ -12009,13 +12010,13 @@
         <v>7068</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E480" s="2" t="b">
         <v>0</v>
@@ -12032,10 +12033,10 @@
         <v>0</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E481" s="2" t="b">
         <v>0</v>
@@ -12049,13 +12050,13 @@
         <v>7070</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E482" s="2" t="b">
         <v>0</v>
@@ -12072,10 +12073,10 @@
         <v>0</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E483" s="2" t="b">
         <v>0</v>
@@ -12092,10 +12093,10 @@
         <v>0</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E484" s="2" t="b">
         <v>0</v>
@@ -12112,10 +12113,10 @@
         <v>0</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E485" s="2" t="b">
         <v>0</v>
@@ -12129,13 +12130,13 @@
         <v>7074</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E486" s="2" t="b">
         <v>0</v>
@@ -12149,13 +12150,13 @@
         <v>7075</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E487" s="2" t="b">
         <v>0</v>
@@ -12172,10 +12173,10 @@
         <v>0</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E488" s="2" t="b">
         <v>0</v>
@@ -12195,7 +12196,7 @@
         <v>7</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E489" s="2" t="b">
         <v>0</v>
@@ -12212,10 +12213,10 @@
         <v>0</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E490" s="2" t="b">
         <v>0</v>
@@ -12235,7 +12236,7 @@
         <v>7</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E491" s="2" t="b">
         <v>0</v>
@@ -12249,13 +12250,13 @@
         <v>7080</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E492" s="2" t="b">
         <v>0</v>
@@ -12269,13 +12270,13 @@
         <v>7081</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E493" s="2" t="b">
         <v>0</v>
@@ -12289,13 +12290,13 @@
         <v>7082</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E494" s="2" t="b">
         <v>0</v>
@@ -12309,13 +12310,13 @@
         <v>7083</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E495" s="2" t="b">
         <v>0</v>
@@ -12332,10 +12333,10 @@
         <v>0</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E496" s="2" t="b">
         <v>0</v>
@@ -12349,13 +12350,13 @@
         <v>7085</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E497" s="2" t="b">
         <v>0</v>
@@ -12369,13 +12370,13 @@
         <v>7086</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E498" s="2" t="b">
         <v>0</v>
@@ -12389,13 +12390,13 @@
         <v>7087</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E499" s="2" t="b">
         <v>0</v>
@@ -12409,13 +12410,13 @@
         <v>7088</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E500" s="2" t="b">
         <v>0</v>
@@ -12432,10 +12433,10 @@
         <v>0</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D501" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E501" s="2" t="b">
         <v>0</v>
@@ -12452,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E502" s="2" t="b">
         <v>0</v>
@@ -12469,13 +12470,13 @@
         <v>7091</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E503" s="2" t="b">
         <v>0</v>
@@ -12489,13 +12490,13 @@
         <v>7092</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E504" s="2" t="b">
         <v>0</v>
@@ -12509,13 +12510,13 @@
         <v>7093</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E505" s="2" t="b">
         <v>0</v>
@@ -12529,13 +12530,13 @@
         <v>7094</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E506" s="2" t="b">
         <v>0</v>
@@ -12552,10 +12553,10 @@
         <v>0</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E507" s="2" t="b">
         <v>0</v>
@@ -12572,10 +12573,10 @@
         <v>0</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E508" s="2" t="b">
         <v>0</v>
@@ -12592,10 +12593,10 @@
         <v>0</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D509" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E509" s="2" t="b">
         <v>0</v>
@@ -12612,10 +12613,10 @@
         <v>0</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E510" s="2" t="b">
         <v>0</v>
@@ -12632,10 +12633,10 @@
         <v>0</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E511" s="2" t="b">
         <v>0</v>
@@ -12652,10 +12653,10 @@
         <v>0</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D512" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E512" s="2" t="b">
         <v>0</v>
@@ -12672,10 +12673,10 @@
         <v>0</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D513" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E513" s="2" t="b">
         <v>0</v>
@@ -12692,10 +12693,10 @@
         <v>0</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D514" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E514" s="2" t="b">
         <v>0</v>
@@ -12709,13 +12710,13 @@
         <v>7103</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D515" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E515" s="2" t="b">
         <v>0</v>
@@ -12729,13 +12730,13 @@
         <v>7104</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D516" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E516" s="2" t="b">
         <v>0</v>
@@ -12749,13 +12750,13 @@
         <v>7105</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D517" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E517" s="2" t="b">
         <v>0</v>
@@ -12769,13 +12770,13 @@
         <v>7106</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D518" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E518" s="2" t="b">
         <v>0</v>
@@ -12789,13 +12790,13 @@
         <v>7107</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D519" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E519" s="2" t="b">
         <v>0</v>
@@ -12809,13 +12810,13 @@
         <v>7108</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E520" s="2" t="b">
         <v>0</v>
@@ -12829,13 +12830,13 @@
         <v>7109</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D521" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E521" s="2" t="b">
         <v>0</v>
@@ -12849,13 +12850,13 @@
         <v>7110</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C522" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D522" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="D522" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="E522" s="2" t="b">
         <v>0</v>
@@ -12869,13 +12870,13 @@
         <v>7111</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D523" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E523" s="2" t="b">
         <v>0</v>
@@ -12889,13 +12890,13 @@
         <v>7112</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D524" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E524" s="2" t="b">
         <v>0</v>
@@ -12909,13 +12910,13 @@
         <v>7113</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D525" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E525" s="2" t="b">
         <v>0</v>
@@ -12929,13 +12930,13 @@
         <v>7114</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D526" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E526" s="2" t="b">
         <v>0</v>
@@ -12949,13 +12950,13 @@
         <v>7115</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D527" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E527" s="2" t="b">
         <v>0</v>
@@ -12969,13 +12970,13 @@
         <v>7116</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D528" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E528" s="2" t="b">
         <v>0</v>
@@ -12989,13 +12990,13 @@
         <v>7117</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D529" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E529" s="2" t="b">
         <v>0</v>
@@ -13009,13 +13010,13 @@
         <v>7118</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D530" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E530" s="2" t="b">
         <v>0</v>
@@ -13029,13 +13030,13 @@
         <v>7119</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D531" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E531" s="2" t="b">
         <v>0</v>
@@ -13049,13 +13050,13 @@
         <v>7120</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D532" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E532" s="2" t="b">
         <v>0</v>
@@ -13069,13 +13070,13 @@
         <v>7121</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D533" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E533" s="2" t="b">
         <v>0</v>
@@ -13089,13 +13090,13 @@
         <v>7122</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E534" s="2" t="b">
         <v>0</v>
@@ -13109,13 +13110,13 @@
         <v>7123</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D535" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E535" s="2" t="b">
         <v>0</v>
@@ -13129,13 +13130,13 @@
         <v>7124</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D536" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E536" s="2" t="b">
         <v>0</v>
@@ -13149,13 +13150,13 @@
         <v>7125</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D537" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E537" s="2" t="b">
         <v>0</v>
@@ -13169,13 +13170,13 @@
         <v>7126</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D538" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E538" s="2" t="b">
         <v>0</v>
@@ -13189,13 +13190,13 @@
         <v>7127</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D539" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E539" s="2" t="b">
         <v>0</v>
@@ -13209,13 +13210,13 @@
         <v>7128</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D540" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E540" s="2" t="b">
         <v>0</v>
@@ -13229,13 +13230,13 @@
         <v>7129</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D541" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E541" s="2" t="b">
         <v>0</v>
@@ -13249,13 +13250,13 @@
         <v>7130</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D542" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E542" s="2" t="b">
         <v>0</v>
@@ -13269,13 +13270,13 @@
         <v>7131</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D543" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E543" s="2" t="b">
         <v>0</v>
@@ -13289,13 +13290,13 @@
         <v>7132</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D544" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E544" s="2" t="b">
         <v>0</v>
@@ -13309,13 +13310,13 @@
         <v>7133</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D545" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E545" s="2" t="b">
         <v>0</v>
@@ -13329,13 +13330,13 @@
         <v>7134</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D546" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E546" s="2" t="b">
         <v>0</v>
@@ -13349,13 +13350,13 @@
         <v>7135</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D547" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E547" s="2" t="b">
         <v>0</v>
@@ -13369,13 +13370,13 @@
         <v>7136</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D548" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E548" s="2" t="b">
         <v>0</v>
@@ -13389,13 +13390,13 @@
         <v>7137</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D549" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E549" s="2" t="b">
         <v>0</v>
@@ -13409,13 +13410,13 @@
         <v>7138</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D550" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E550" s="2" t="b">
         <v>0</v>
@@ -13429,13 +13430,13 @@
         <v>7139</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D551" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E551" s="2" t="b">
         <v>0</v>
@@ -13449,13 +13450,13 @@
         <v>7140</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D552" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E552" s="2" t="b">
         <v>0</v>
@@ -13469,13 +13470,13 @@
         <v>7141</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D553" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E553" s="2" t="b">
         <v>0</v>
@@ -13489,13 +13490,13 @@
         <v>7142</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D554" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E554" s="2" t="b">
         <v>0</v>
@@ -13509,13 +13510,13 @@
         <v>7143</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D555" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E555" s="2" t="b">
         <v>0</v>
@@ -13529,13 +13530,13 @@
         <v>7144</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D556" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E556" s="2" t="b">
         <v>0</v>
@@ -13549,13 +13550,13 @@
         <v>7145</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D557" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E557" s="2" t="b">
         <v>0</v>
@@ -13569,13 +13570,13 @@
         <v>7146</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D558" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E558" s="2" t="b">
         <v>0</v>
@@ -13589,13 +13590,13 @@
         <v>7147</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D559" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E559" s="2" t="b">
         <v>0</v>
@@ -13609,13 +13610,13 @@
         <v>7148</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D560" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E560" s="2" t="b">
         <v>0</v>
@@ -13629,13 +13630,13 @@
         <v>7149</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D561" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E561" s="2" t="b">
         <v>0</v>
@@ -13649,13 +13650,13 @@
         <v>7150</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D562" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E562" s="2" t="b">
         <v>0</v>
@@ -13669,13 +13670,13 @@
         <v>7151</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D563" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E563" s="2" t="b">
         <v>0</v>
@@ -13689,13 +13690,13 @@
         <v>7152</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D564" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E564" s="2" t="b">
         <v>0</v>
@@ -13712,10 +13713,10 @@
         <v>0</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D565" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E565" s="2" t="b">
         <v>0</v>
@@ -13732,10 +13733,10 @@
         <v>0</v>
       </c>
       <c r="C566" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D566" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="D566" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="E566" s="2" t="b">
         <v>0</v>
@@ -13752,10 +13753,10 @@
         <v>0</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E567" s="2" t="b">
         <v>0</v>
@@ -13772,10 +13773,10 @@
         <v>0</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E568" s="2" t="b">
         <v>0</v>
@@ -13792,10 +13793,10 @@
         <v>0</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E569" s="2" t="b">
         <v>0</v>
@@ -13812,10 +13813,10 @@
         <v>0</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E570" s="2" t="b">
         <v>0</v>
@@ -13832,10 +13833,10 @@
         <v>0</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D571" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E571" s="2" t="b">
         <v>0</v>
@@ -13852,10 +13853,10 @@
         <v>0</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E572" s="2" t="b">
         <v>0</v>
@@ -13872,10 +13873,10 @@
         <v>0</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D573" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E573" s="2" t="b">
         <v>0</v>
@@ -13892,10 +13893,10 @@
         <v>0</v>
       </c>
       <c r="C574" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D574" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E574" s="2" t="b">
         <v>0</v>
@@ -13912,10 +13913,10 @@
         <v>0</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E575" s="2" t="b">
         <v>0</v>
@@ -13932,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E576" s="2" t="b">
         <v>0</v>
@@ -13952,10 +13953,10 @@
         <v>0</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D577" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E577" s="2" t="b">
         <v>0</v>
@@ -13972,10 +13973,10 @@
         <v>0</v>
       </c>
       <c r="C578" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E578" s="2" t="b">
         <v>0</v>
@@ -13992,10 +13993,10 @@
         <v>0</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D579" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E579" s="2" t="b">
         <v>0</v>
@@ -14012,10 +14013,10 @@
         <v>0</v>
       </c>
       <c r="C580" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D580" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E580" s="2" t="b">
         <v>0</v>
@@ -14032,10 +14033,10 @@
         <v>0</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D581" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E581" s="2" t="b">
         <v>0</v>
@@ -14052,10 +14053,10 @@
         <v>0</v>
       </c>
       <c r="C582" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D582" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E582" s="2" t="b">
         <v>0</v>
@@ -14072,10 +14073,10 @@
         <v>0</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E583" s="2" t="b">
         <v>0</v>
@@ -14092,10 +14093,10 @@
         <v>0</v>
       </c>
       <c r="C584" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D584" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E584" s="2" t="b">
         <v>0</v>
@@ -14112,10 +14113,10 @@
         <v>0</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E585" s="2" t="b">
         <v>0</v>
@@ -14132,10 +14133,10 @@
         <v>0</v>
       </c>
       <c r="C586" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D586" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E586" s="2" t="b">
         <v>0</v>
@@ -14152,10 +14153,10 @@
         <v>0</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E587" s="2" t="b">
         <v>0</v>
@@ -14172,10 +14173,10 @@
         <v>0</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D588" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E588" s="2" t="b">
         <v>0</v>
@@ -14192,10 +14193,10 @@
         <v>0</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E589" s="2" t="b">
         <v>0</v>
@@ -14212,10 +14213,10 @@
         <v>0</v>
       </c>
       <c r="C590" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E590" s="2" t="b">
         <v>0</v>
@@ -14232,10 +14233,10 @@
         <v>0</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D591" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E591" s="2" t="b">
         <v>0</v>
@@ -14252,10 +14253,10 @@
         <v>0</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D592" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E592" s="2" t="b">
         <v>0</v>
@@ -14272,10 +14273,10 @@
         <v>0</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D593" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E593" s="2" t="b">
         <v>0</v>
@@ -14292,10 +14293,10 @@
         <v>0</v>
       </c>
       <c r="C594" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D594" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E594" s="2" t="b">
         <v>0</v>
@@ -14312,10 +14313,10 @@
         <v>0</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D595" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E595" s="2" t="b">
         <v>0</v>
@@ -14332,10 +14333,10 @@
         <v>0</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D596" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E596" s="2" t="b">
         <v>0</v>
@@ -14352,10 +14353,10 @@
         <v>0</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D597" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E597" s="2" t="b">
         <v>0</v>
@@ -14372,10 +14373,10 @@
         <v>0</v>
       </c>
       <c r="C598" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D598" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E598" s="2" t="b">
         <v>0</v>
@@ -14392,10 +14393,10 @@
         <v>0</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E599" s="2" t="b">
         <v>0</v>
@@ -14412,10 +14413,10 @@
         <v>0</v>
       </c>
       <c r="C600" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D600" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E600" s="2" t="b">
         <v>0</v>
@@ -14432,10 +14433,10 @@
         <v>0</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D601" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E601" s="2" t="b">
         <v>0</v>
@@ -14452,10 +14453,10 @@
         <v>0</v>
       </c>
       <c r="C602" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D602" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E602" s="2" t="b">
         <v>0</v>
@@ -14472,10 +14473,10 @@
         <v>0</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D603" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E603" s="2" t="b">
         <v>0</v>
@@ -14492,10 +14493,10 @@
         <v>0</v>
       </c>
       <c r="C604" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D604" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E604" s="2" t="b">
         <v>0</v>
@@ -14512,10 +14513,10 @@
         <v>0</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E605" s="2" t="b">
         <v>0</v>
@@ -14529,13 +14530,13 @@
         <v>7194</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E606" s="2" t="b">
         <v>0</v>
@@ -14555,7 +14556,7 @@
         <v>1</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E607" s="2" t="b">
         <v>0</v>
@@ -14575,7 +14576,7 @@
         <v>2</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E608" s="2" t="b">
         <v>0</v>
@@ -14595,7 +14596,7 @@
         <v>3</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E609" s="2" t="b">
         <v>0</v>
@@ -14615,7 +14616,7 @@
         <v>4</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E610" s="2" t="b">
         <v>0</v>
@@ -14635,7 +14636,7 @@
         <v>5</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E611" s="2" t="b">
         <v>0</v>
@@ -14655,7 +14656,7 @@
         <v>6</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E612" s="2" t="b">
         <v>0</v>
@@ -14675,7 +14676,7 @@
         <v>7</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E613" s="2" t="b">
         <v>0</v>
@@ -14695,7 +14696,7 @@
         <v>8</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E614" s="2" t="b">
         <v>0</v>
@@ -14715,7 +14716,7 @@
         <v>1</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E615" s="2" t="b">
         <v>0</v>
@@ -14735,7 +14736,7 @@
         <v>2</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E616" s="2" t="b">
         <v>0</v>
@@ -14755,7 +14756,7 @@
         <v>3</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E617" s="2" t="b">
         <v>0</v>
@@ -14775,7 +14776,7 @@
         <v>4</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E618" s="2" t="b">
         <v>0</v>
@@ -14815,7 +14816,7 @@
         <v>6</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E620" s="2" t="b">
         <v>0</v>
@@ -14835,7 +14836,7 @@
         <v>7</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E621" s="2" t="b">
         <v>0</v>
@@ -14855,7 +14856,7 @@
         <v>8</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E622" s="2" t="b">
         <v>0</v>
@@ -14875,7 +14876,7 @@
         <v>1</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E623" s="2" t="b">
         <v>0</v>
@@ -14895,7 +14896,7 @@
         <v>2</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E624" s="2" t="b">
         <v>0</v>
@@ -14915,7 +14916,7 @@
         <v>3</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E625" s="2" t="b">
         <v>0</v>
@@ -14935,7 +14936,7 @@
         <v>4</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E626" s="2" t="b">
         <v>0</v>
@@ -14975,7 +14976,7 @@
         <v>6</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E628" s="2" t="b">
         <v>0</v>
@@ -14995,7 +14996,7 @@
         <v>7</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E629" s="2" t="b">
         <v>0</v>
@@ -15015,7 +15016,7 @@
         <v>8</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E630" s="2" t="b">
         <v>0</v>
@@ -15035,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E631" s="2" t="b">
         <v>0</v>
@@ -15055,7 +15056,7 @@
         <v>2</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E632" s="2" t="b">
         <v>0</v>
@@ -15075,7 +15076,7 @@
         <v>3</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E633" s="2" t="b">
         <v>0</v>
@@ -15095,7 +15096,7 @@
         <v>4</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E634" s="2" t="b">
         <v>0</v>
@@ -15135,7 +15136,7 @@
         <v>6</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E636" s="2" t="b">
         <v>0</v>
@@ -15155,7 +15156,7 @@
         <v>8</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E637" s="2" t="b">
         <v>0</v>
@@ -15175,7 +15176,7 @@
         <v>7</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E638" s="2" t="b">
         <v>0</v>
@@ -15195,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E639" s="2" t="b">
         <v>0</v>
@@ -15215,7 +15216,7 @@
         <v>2</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E640" s="2" t="b">
         <v>0</v>
@@ -15235,7 +15236,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E641" s="2" t="b">
         <v>0</v>
@@ -15255,7 +15256,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E642" s="2" t="b">
         <v>0</v>
@@ -15275,7 +15276,7 @@
         <v>6</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E643" s="2" t="b">
         <v>0</v>
@@ -15295,7 +15296,7 @@
         <v>5</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E644" s="2" t="b">
         <v>0</v>
@@ -15315,7 +15316,7 @@
         <v>7</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E645" s="2" t="b">
         <v>0</v>
@@ -15335,7 +15336,7 @@
         <v>8</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E646" s="2" t="b">
         <v>0</v>
@@ -15355,7 +15356,7 @@
         <v>7</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E647" s="2" t="b">
         <v>0</v>
@@ -15375,7 +15376,7 @@
         <v>7</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E648" s="2" t="b">
         <v>0</v>
@@ -15395,7 +15396,7 @@
         <v>1</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E649" s="2" t="b">
         <v>0</v>
@@ -15415,7 +15416,7 @@
         <v>2</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E650" s="2" t="b">
         <v>0</v>
@@ -15435,7 +15436,7 @@
         <v>3</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E651" s="2" t="b">
         <v>0</v>
@@ -15455,7 +15456,7 @@
         <v>4</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E652" s="2" t="b">
         <v>0</v>
@@ -15475,7 +15476,7 @@
         <v>6</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E653" s="2" t="b">
         <v>0</v>
@@ -15495,7 +15496,7 @@
         <v>5</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E654" s="2" t="b">
         <v>0</v>
@@ -15515,7 +15516,7 @@
         <v>7</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E655" s="2" t="b">
         <v>0</v>
@@ -15535,7 +15536,7 @@
         <v>8</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E656" s="2" t="b">
         <v>0</v>
@@ -15552,10 +15553,10 @@
         <v>80</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E657" s="2" t="b">
         <v>0</v>
@@ -15569,13 +15570,13 @@
         <v>7246</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E658" s="2" t="b">
         <v>0</v>
@@ -15589,13 +15590,13 @@
         <v>7247</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E659" s="2" t="b">
         <v>0</v>
@@ -15609,13 +15610,13 @@
         <v>7248</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E660" s="2" t="b">
         <v>0</v>
@@ -15635,7 +15636,7 @@
         <v>9</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E661" s="2" t="b">
         <v>0</v>
@@ -15649,13 +15650,13 @@
         <v>7250</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E662" s="2" t="b">
         <v>0</v>
@@ -15669,13 +15670,13 @@
         <v>7251</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E663" s="2" t="b">
         <v>0</v>
@@ -15689,13 +15690,13 @@
         <v>7252</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E664" s="2" t="b">
         <v>0</v>
@@ -15709,13 +15710,13 @@
         <v>7253</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E665" s="2" t="b">
         <v>0</v>
@@ -15729,13 +15730,13 @@
         <v>7254</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E666" s="2" t="b">
         <v>0</v>
@@ -15749,13 +15750,13 @@
         <v>7255</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E667" s="2" t="b">
         <v>0</v>
@@ -15769,13 +15770,13 @@
         <v>7256</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E668" s="2" t="b">
         <v>0</v>
@@ -15789,13 +15790,13 @@
         <v>7257</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E669" s="2" t="b">
         <v>0</v>
@@ -15809,13 +15810,13 @@
         <v>7258</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E670" s="2" t="b">
         <v>0</v>
@@ -15829,13 +15830,13 @@
         <v>7259</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E671" s="2" t="b">
         <v>0</v>
@@ -15849,13 +15850,13 @@
         <v>7260</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E672" s="2" t="b">
         <v>0</v>
@@ -15869,13 +15870,13 @@
         <v>7261</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E673" s="2" t="b">
         <v>0</v>
@@ -15892,10 +15893,10 @@
         <v>80</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E674" s="2" t="b">
         <v>0</v>
@@ -15909,13 +15910,13 @@
         <v>7263</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E675" s="2" t="b">
         <v>0</v>
@@ -15929,13 +15930,13 @@
         <v>7264</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E676" s="2" t="b">
         <v>0</v>
@@ -15949,13 +15950,13 @@
         <v>7265</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E677" s="2" t="b">
         <v>0</v>
@@ -15969,13 +15970,13 @@
         <v>7266</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E678" s="2" t="b">
         <v>0</v>
@@ -15989,13 +15990,13 @@
         <v>7267</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E679" s="2" t="b">
         <v>0</v>
@@ -16009,13 +16010,13 @@
         <v>7268</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E680" s="2" t="b">
         <v>0</v>
@@ -16029,13 +16030,13 @@
         <v>7269</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E681" s="2" t="b">
         <v>0</v>
@@ -16049,13 +16050,13 @@
         <v>7270</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E682" s="2" t="b">
         <v>0</v>
@@ -16075,7 +16076,7 @@
         <v>7</v>
       </c>
       <c r="D683" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E683" s="2" t="b">
         <v>0</v>
@@ -16089,13 +16090,13 @@
         <v>7272</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C684" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D684" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E684" s="2" t="b">
         <v>0</v>
@@ -16112,10 +16113,10 @@
         <v>80</v>
       </c>
       <c r="C685" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D685" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E685" s="2" t="b">
         <v>0</v>
@@ -16135,7 +16136,7 @@
         <v>7</v>
       </c>
       <c r="D686" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E686" s="2" t="b">
         <v>0</v>
@@ -16149,13 +16150,13 @@
         <v>7275</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C687" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D687" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E687" s="2" t="b">
         <v>0</v>
@@ -16169,13 +16170,13 @@
         <v>7276</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D688" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E688" s="2" t="b">
         <v>0</v>
@@ -16189,13 +16190,13 @@
         <v>7277</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D689" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E689" s="2" t="b">
         <v>0</v>
@@ -16209,13 +16210,13 @@
         <v>7278</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D690" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E690" s="2" t="b">
         <v>0</v>
@@ -16229,13 +16230,13 @@
         <v>7279</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C691" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E691" s="2" t="b">
         <v>0</v>
@@ -16255,7 +16256,7 @@
         <v>8</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E692" s="2" t="b">
         <v>0</v>
@@ -16269,13 +16270,13 @@
         <v>7281</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C693" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E693" s="2" t="b">
         <v>0</v>
@@ -16292,10 +16293,10 @@
         <v>80</v>
       </c>
       <c r="C694" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D694" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E694" s="2" t="b">
         <v>0</v>
@@ -16315,7 +16316,7 @@
         <v>7</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E695" s="2" t="b">
         <v>0</v>
@@ -16329,13 +16330,13 @@
         <v>7284</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E696" s="2" t="b">
         <v>0</v>
@@ -16349,13 +16350,13 @@
         <v>7285</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E697" s="2" t="b">
         <v>0</v>
@@ -16369,13 +16370,13 @@
         <v>7286</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E698" s="2" t="b">
         <v>0</v>
@@ -16389,13 +16390,13 @@
         <v>7287</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C699" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E699" s="2" t="b">
         <v>0</v>
@@ -16412,10 +16413,10 @@
         <v>80</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E700" s="2" t="b">
         <v>0</v>
@@ -16429,13 +16430,13 @@
         <v>7289</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E701" s="2" t="b">
         <v>0</v>
@@ -16449,13 +16450,13 @@
         <v>7290</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E702" s="2" t="b">
         <v>0</v>
@@ -16469,13 +16470,13 @@
         <v>7291</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E703" s="2" t="b">
         <v>0</v>
@@ -16489,13 +16490,13 @@
         <v>7292</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E704" s="2" t="b">
         <v>0</v>
@@ -16509,13 +16510,13 @@
         <v>7293</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E705" s="2" t="b">
         <v>0</v>
@@ -16529,13 +16530,13 @@
         <v>7294</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E706" s="2" t="b">
         <v>0</v>
@@ -16549,13 +16550,13 @@
         <v>7295</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E707" s="2" t="b">
         <v>0</v>
@@ -16569,13 +16570,13 @@
         <v>7296</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E708" s="2" t="b">
         <v>0</v>
@@ -16589,13 +16590,13 @@
         <v>7297</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E709" s="2" t="b">
         <v>0</v>
@@ -16612,10 +16613,10 @@
         <v>80</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E710" s="2" t="b">
         <v>0</v>
@@ -16629,13 +16630,13 @@
         <v>7299</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C711" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E711" s="2" t="b">
         <v>0</v>
@@ -16652,10 +16653,10 @@
         <v>80</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E712" s="2" t="b">
         <v>0</v>
@@ -16669,13 +16670,13 @@
         <v>7301</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E713" s="2" t="b">
         <v>0</v>
@@ -16692,10 +16693,10 @@
         <v>80</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E714" s="2" t="b">
         <v>0</v>
@@ -16712,10 +16713,10 @@
         <v>80</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E715" s="2" t="b">
         <v>0</v>
@@ -16729,13 +16730,13 @@
         <v>7304</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D716" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E716" s="2" t="b">
         <v>0</v>
@@ -16749,13 +16750,13 @@
         <v>7305</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C717" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D717" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E717" s="2" t="b">
         <v>0</v>
@@ -16772,10 +16773,10 @@
         <v>80</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D718" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E718" s="2" t="b">
         <v>0</v>
@@ -16795,7 +16796,7 @@
         <v>7</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E719" s="2" t="b">
         <v>0</v>
@@ -16812,10 +16813,10 @@
         <v>80</v>
       </c>
       <c r="C720" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E720" s="2" t="b">
         <v>0</v>
@@ -16835,7 +16836,7 @@
         <v>7</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E721" s="2" t="b">
         <v>0</v>
@@ -16849,13 +16850,13 @@
         <v>7310</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C722" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E722" s="2" t="b">
         <v>0</v>
@@ -16869,13 +16870,13 @@
         <v>7311</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C723" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D723" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E723" s="2" t="b">
         <v>0</v>
@@ -16889,13 +16890,13 @@
         <v>7312</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C724" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D724" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E724" s="2" t="b">
         <v>0</v>
@@ -16909,13 +16910,13 @@
         <v>7313</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C725" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E725" s="2" t="b">
         <v>0</v>
@@ -16932,10 +16933,10 @@
         <v>80</v>
       </c>
       <c r="C726" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D726" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E726" s="2" t="b">
         <v>0</v>
@@ -16949,13 +16950,13 @@
         <v>7315</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C727" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D727" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E727" s="2" t="b">
         <v>0</v>
@@ -16972,10 +16973,10 @@
         <v>80</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D728" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E728" s="2" t="b">
         <v>0</v>
@@ -16992,10 +16993,10 @@
         <v>80</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D729" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E729" s="2" t="b">
         <v>0</v>
@@ -17012,10 +17013,10 @@
         <v>80</v>
       </c>
       <c r="C730" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D730" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E730" s="2" t="b">
         <v>0</v>
@@ -17029,13 +17030,13 @@
         <v>7319</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C731" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E731" s="2" t="b">
         <v>0</v>
@@ -17049,13 +17050,13 @@
         <v>7320</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C732" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E732" s="2" t="b">
         <v>0</v>
@@ -17072,10 +17073,10 @@
         <v>80</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E733" s="2" t="b">
         <v>0</v>
@@ -17095,7 +17096,7 @@
         <v>7</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E734" s="2" t="b">
         <v>0</v>
@@ -17112,10 +17113,10 @@
         <v>80</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E735" s="2" t="b">
         <v>0</v>
@@ -17135,7 +17136,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E736" s="2" t="b">
         <v>0</v>
@@ -17149,13 +17150,13 @@
         <v>7325</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E737" s="2" t="b">
         <v>0</v>
@@ -17169,13 +17170,13 @@
         <v>7326</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E738" s="2" t="b">
         <v>0</v>
@@ -17189,13 +17190,13 @@
         <v>7327</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E739" s="2" t="b">
         <v>0</v>
@@ -17209,13 +17210,13 @@
         <v>7328</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E740" s="2" t="b">
         <v>0</v>
@@ -17232,10 +17233,10 @@
         <v>80</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E741" s="2" t="b">
         <v>0</v>
@@ -17249,13 +17250,13 @@
         <v>7330</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E742" s="2" t="b">
         <v>0</v>
@@ -17269,13 +17270,13 @@
         <v>7331</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E743" s="2" t="b">
         <v>0</v>
@@ -17289,13 +17290,13 @@
         <v>7332</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E744" s="2" t="b">
         <v>0</v>
@@ -17309,13 +17310,13 @@
         <v>7333</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E745" s="2" t="b">
         <v>0</v>
@@ -17332,10 +17333,10 @@
         <v>80</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E746" s="2" t="b">
         <v>0</v>
@@ -17352,10 +17353,10 @@
         <v>80</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E747" s="2" t="b">
         <v>0</v>
@@ -17369,13 +17370,13 @@
         <v>7336</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C748" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E748" s="2" t="b">
         <v>0</v>
@@ -17389,13 +17390,13 @@
         <v>7337</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C749" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E749" s="2" t="b">
         <v>0</v>
@@ -17409,13 +17410,13 @@
         <v>7338</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C750" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E750" s="2" t="b">
         <v>0</v>
@@ -17429,13 +17430,13 @@
         <v>7339</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C751" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E751" s="2" t="b">
         <v>0</v>
@@ -17452,10 +17453,10 @@
         <v>80</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E752" s="2" t="b">
         <v>0</v>
@@ -17472,10 +17473,10 @@
         <v>80</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E753" s="2" t="b">
         <v>0</v>
@@ -17492,10 +17493,10 @@
         <v>80</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E754" s="2" t="b">
         <v>0</v>
@@ -17512,10 +17513,10 @@
         <v>80</v>
       </c>
       <c r="C755" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E755" s="2" t="b">
         <v>0</v>
@@ -17532,10 +17533,10 @@
         <v>80</v>
       </c>
       <c r="C756" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E756" s="2" t="b">
         <v>0</v>
@@ -17552,10 +17553,10 @@
         <v>80</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E757" s="2" t="b">
         <v>0</v>
@@ -17572,10 +17573,10 @@
         <v>80</v>
       </c>
       <c r="C758" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E758" s="2" t="b">
         <v>0</v>
@@ -17592,10 +17593,10 @@
         <v>80</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E759" s="2" t="b">
         <v>0</v>
@@ -17609,13 +17610,13 @@
         <v>7348</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C760" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E760" s="2" t="b">
         <v>0</v>
@@ -17629,13 +17630,13 @@
         <v>7349</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C761" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E761" s="2" t="b">
         <v>0</v>
@@ -17649,13 +17650,13 @@
         <v>7350</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C762" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E762" s="2" t="b">
         <v>0</v>
@@ -17669,13 +17670,13 @@
         <v>7351</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C763" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E763" s="2" t="b">
         <v>0</v>
@@ -17689,13 +17690,13 @@
         <v>7352</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C764" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E764" s="2" t="b">
         <v>0</v>
@@ -17709,13 +17710,13 @@
         <v>7353</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C765" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E765" s="2" t="b">
         <v>0</v>
@@ -17729,13 +17730,13 @@
         <v>7354</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E766" s="2" t="b">
         <v>0</v>
@@ -17752,10 +17753,10 @@
         <v>80</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E767" s="2" t="b">
         <v>0</v>
@@ -17775,7 +17776,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E768" s="2" t="b">
         <v>0</v>
@@ -17789,13 +17790,13 @@
         <v>7357</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E769" s="2" t="b">
         <v>0</v>
@@ -17812,10 +17813,10 @@
         <v>80</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E770" s="2" t="b">
         <v>0</v>
@@ -17835,7 +17836,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E771" s="2" t="b">
         <v>0</v>
@@ -17849,13 +17850,13 @@
         <v>7360</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E772" s="2" t="b">
         <v>0</v>
@@ -17872,10 +17873,10 @@
         <v>80</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E773" s="2" t="b">
         <v>0</v>
@@ -17895,7 +17896,7 @@
         <v>6</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E774" s="2" t="b">
         <v>0</v>
@@ -17915,7 +17916,7 @@
         <v>6</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E775" s="2" t="b">
         <v>0</v>
@@ -17929,13 +17930,13 @@
         <v>7364</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E776" s="2" t="b">
         <v>0</v>
@@ -17952,10 +17953,10 @@
         <v>80</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E777" s="2" t="b">
         <v>0</v>
@@ -17969,13 +17970,13 @@
         <v>7366</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E778" s="2" t="b">
         <v>0</v>
@@ -17989,13 +17990,13 @@
         <v>7367</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E779" s="2" t="b">
         <v>0</v>
@@ -18009,13 +18010,13 @@
         <v>7368</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E780" s="2" t="b">
         <v>0</v>
@@ -18029,13 +18030,13 @@
         <v>7369</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E781" s="2" t="b">
         <v>0</v>
@@ -18052,10 +18053,10 @@
         <v>80</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E782" s="2" t="b">
         <v>0</v>
@@ -18075,7 +18076,7 @@
         <v>6</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E783" s="2" t="b">
         <v>0</v>
@@ -18089,13 +18090,13 @@
         <v>7372</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E784" s="2" t="b">
         <v>0</v>
@@ -18112,10 +18113,10 @@
         <v>80</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E785" s="2" t="b">
         <v>0</v>
@@ -18135,7 +18136,7 @@
         <v>6</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E786" s="2" t="b">
         <v>0</v>
@@ -18149,13 +18150,13 @@
         <v>7375</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E787" s="2" t="b">
         <v>0</v>
@@ -18172,10 +18173,10 @@
         <v>80</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E788" s="2" t="b">
         <v>0</v>
@@ -18195,7 +18196,7 @@
         <v>6</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E789" s="2" t="b">
         <v>0</v>
@@ -18215,7 +18216,7 @@
         <v>6</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E790" s="2" t="b">
         <v>0</v>
@@ -18229,13 +18230,13 @@
         <v>7379</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E791" s="2" t="b">
         <v>0</v>
@@ -18252,10 +18253,10 @@
         <v>80</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E792" s="2" t="b">
         <v>0</v>
@@ -18269,13 +18270,13 @@
         <v>7381</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E793" s="2" t="b">
         <v>0</v>
@@ -18289,13 +18290,13 @@
         <v>7382</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E794" s="2" t="b">
         <v>0</v>
@@ -18309,13 +18310,13 @@
         <v>7383</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E795" s="2" t="b">
         <v>0</v>
@@ -18329,13 +18330,13 @@
         <v>7384</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E796" s="2" t="b">
         <v>0</v>
@@ -18352,10 +18353,10 @@
         <v>80</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E797" s="2" t="b">
         <v>0</v>
@@ -18375,7 +18376,7 @@
         <v>6</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E798" s="2" t="b">
         <v>0</v>
@@ -18395,7 +18396,7 @@
         <v>4</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E799" s="2" t="b">
         <v>0</v>
@@ -18412,10 +18413,10 @@
         <v>80</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D800" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E800" s="2" t="b">
         <v>0</v>
@@ -18435,7 +18436,7 @@
         <v>7</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E801" s="2" t="b">
         <v>0</v>
@@ -18455,7 +18456,7 @@
         <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E802" s="2" t="b">
         <v>0</v>
@@ -18469,13 +18470,13 @@
         <v>7391</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E803" s="2" t="b">
         <v>0</v>
@@ -18489,13 +18490,13 @@
         <v>7392</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E804" s="2" t="b">
         <v>0</v>
@@ -18509,13 +18510,13 @@
         <v>7393</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E805" s="2" t="b">
         <v>0</v>
@@ -18529,13 +18530,13 @@
         <v>7394</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E806" s="2" t="b">
         <v>0</v>
@@ -18549,13 +18550,13 @@
         <v>7395</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E807" s="2" t="b">
         <v>0</v>
@@ -18569,13 +18570,13 @@
         <v>7396</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E808" s="2" t="b">
         <v>0</v>
@@ -18589,13 +18590,13 @@
         <v>7397</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E809" s="2" t="b">
         <v>0</v>
@@ -18609,13 +18610,13 @@
         <v>7398</v>
       </c>
       <c r="B810" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E810" s="2" t="b">
         <v>0</v>
@@ -18632,10 +18633,10 @@
         <v>80</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E811" s="2" t="b">
         <v>0</v>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39463E1A-DB9D-4BD8-8492-1C9BE3C5A24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501DE8B0-09D4-4E2F-9691-9DDC9E8608A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NPC_01!$A$1:$F$829</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NPC_01!$A$1:$F$838</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="567">
   <si>
     <t>key_index</t>
   </si>
@@ -487,9 +487,6 @@
     <t>ⓦ아들은 없고 딸만 셋이오. 누구 놀리시오?</t>
   </si>
   <si>
-    <t>송나라 상인들</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2077,9 +2074,6 @@
     <t>ⓦ단서에 대해 향리 댁 부인과 대화를 해보자.</t>
   </si>
   <si>
-    <t>사공</t>
-  </si>
-  <si>
     <t>ⓦ그러면 이제 출발하겠소.</t>
   </si>
   <si>
@@ -2125,9 +2119,6 @@
     <t>ⓦ달아난 뱃사공과 어떤 사내를 두 사람이 좇아갔고, 나는 너무나 쉽게 잡혀버렸다.</t>
   </si>
   <si>
-    <t>귀덕어멈</t>
-  </si>
-  <si>
     <t>ⓦ그만 좀 물어보게!! 댁도 이젠 알지 않소? 청이 찾기 힘들걸세.</t>
   </si>
   <si>
@@ -2137,9 +2128,6 @@
     <t>ⓦ따님이 어디 멀리 간다고 이야기했던 것은 아닙니까? 저는 아는 건 다 말씀드렸수다.</t>
   </si>
   <si>
-    <t>뺑덕어멈</t>
-  </si>
-  <si>
     <t>ⓦ하아암~ 이제 그만하시어요. 나 바빠요.</t>
   </si>
   <si>
@@ -2213,13 +2201,89 @@
   </si>
   <si>
     <t>ⓦ무슨 짓이죠? 너무 차갑군요.. 혹여나 제게 앙심이라도 품으신 건 아니시겠죠? 조심하시지요.</t>
+  </si>
+  <si>
+    <t>ⓦ웃는 표정이 어딘가 섬뜩하다. 물이 다 쏟아졌으니, 다시 떠야겠다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓑ[계란유골]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓑ[연경학망]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓑ[분골쇄신]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 들여온 비녀가 그렇게 예쁘던데,,,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 맛있겠다..</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음 깊이 불공드리면 조만간 부처의 덕으로 눈을 뜰 수 있을 것입니다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>어려움 있으면 말해봅세.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(노비와 대화를 나눈다.)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>제게 물어보고 싶으신 게 꽤 많으실 겁니다. 천천히 물어보시지요.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주막에 앉아서 늘어지게 쉬고 있다.)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몹시 바빠 보인다.)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이쪽은 쳐다도 보지 않는다.)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀덕 어멈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>임시</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ⓦ웃는 표정이 어딘가 섬뜩하다. 물이 다 쏟아졌으니, 다시 떠야겠다.</t>
+    <t>ⓦ귓가에 어떤 소리가 맴돈다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ귓가에 어떤 소리가 맴돈다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ제대로 계산한 것이오? 내가 눈대중으로 봐도 그 값은 아닐진데,,,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2227,59 +2291,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ⓑ[계란유골]</t>
+    <t>ⓥ타인을 너무 쉽게 믿지 말자.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓥ급할수록 차분해야 한다. 끝까지 주변과 소통해 보자.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓥ청이의 단서들에 대해 더 생각해 보자.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓥ*사공을 끝까지 도와주자.*</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀덕 어멈</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ⓑ[연경학망]</t>
+    <t>뺑덕 어멈</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ⓑ[분골쇄신]</t>
+    <t>송나라 상인</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ⓦ청이가 이틀 동안 얼굴도 비추지 않았나요? 향리 댁 규수가 되었다고 모른 체하는 건지.. 딸은 키워봤자라니까!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에 들여온 비녀가 그렇게 예쁘던데,,,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>저거 맛있겠다..</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음 깊이 불공드리면 조만간 부처의 덕으로 눈을 뜰 수 있을 것입니다.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>어려움 있으면 말해봅세.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>살 것 없으면 좀 비키시오! 객 쫓겠네.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>(노비와 대화를 나눈다.)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>제게 물어보고 싶으신 게 꽤 많으실 겁니다. 천천히 물어보시지요.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주막에 앉아서 늘어지게 쉬고 있다.)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>(몹시 바빠 보인다.)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이쪽은 쳐다도 보지 않는다.)</t>
+    <t>뱃사공</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2287,7 +2327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2349,6 +2389,36 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF752F6D"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2389,7 +2459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2416,6 +2486,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2726,11 +2805,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K829"/>
+  <dimension ref="A1:K839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C405" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D407" sqref="D407"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3004,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -4376,10 +4453,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E66" s="3" t="b">
         <v>0</v>
@@ -4404,7 +4481,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E67" s="3" t="b">
         <v>0</v>
@@ -4429,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" s="3" t="b">
         <v>0</v>
@@ -4454,7 +4531,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E69" s="3" t="b">
         <v>0</v>
@@ -4479,7 +4556,7 @@
         <v>15</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70" s="3" t="b">
         <v>0</v>
@@ -4504,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E71" s="3" t="b">
         <v>0</v>
@@ -4529,7 +4606,7 @@
         <v>18</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E72" s="3" t="b">
         <v>0</v>
@@ -4554,7 +4631,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" s="3" t="b">
         <v>0</v>
@@ -4579,7 +4656,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E74" s="3" t="b">
         <v>0</v>
@@ -4604,7 +4681,7 @@
         <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E75" s="3" t="b">
         <v>0</v>
@@ -4629,7 +4706,7 @@
         <v>20</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E76" s="3" t="b">
         <v>0</v>
@@ -4654,7 +4731,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E77" s="3" t="b">
         <v>0</v>
@@ -4679,7 +4756,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E78" s="3" t="b">
         <v>0</v>
@@ -4704,7 +4781,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E79" s="3" t="b">
         <v>0</v>
@@ -4729,7 +4806,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E80" s="3" t="b">
         <v>0</v>
@@ -4754,7 +4831,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="3" t="b">
         <v>0</v>
@@ -4779,7 +4856,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E82" s="3" t="b">
         <v>0</v>
@@ -4804,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E83" s="3" t="b">
         <v>0</v>
@@ -4829,7 +4906,7 @@
         <v>7</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E84" s="3" t="b">
         <v>0</v>
@@ -4854,7 +4931,7 @@
         <v>18</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E85" s="3" t="b">
         <v>0</v>
@@ -4879,7 +4956,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E86" s="3" t="b">
         <v>0</v>
@@ -4929,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E88" s="3" t="b">
         <v>0</v>
@@ -4954,7 +5031,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E89" s="3" t="b">
         <v>0</v>
@@ -4979,7 +5056,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="3" t="b">
         <v>0</v>
@@ -5029,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E92" s="3" t="b">
         <v>0</v>
@@ -5054,7 +5131,7 @@
         <v>18</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E93" s="3" t="b">
         <v>0</v>
@@ -5079,7 +5156,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E94" s="3" t="b">
         <v>0</v>
@@ -5129,7 +5206,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E96" s="3" t="b">
         <v>0</v>
@@ -5154,7 +5231,7 @@
         <v>11</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E97" s="3" t="b">
         <v>0</v>
@@ -5179,7 +5256,7 @@
         <v>13</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E98" s="3" t="b">
         <v>0</v>
@@ -5229,7 +5306,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E100" s="3" t="b">
         <v>0</v>
@@ -5254,7 +5331,7 @@
         <v>18</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E101" s="3" t="b">
         <v>0</v>
@@ -5279,7 +5356,7 @@
         <v>20</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E102" s="3" t="b">
         <v>0</v>
@@ -5304,7 +5381,7 @@
         <v>22</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E103" s="3" t="b">
         <v>0</v>
@@ -5329,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E104" s="3" t="b">
         <v>0</v>
@@ -5354,7 +5431,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E105" s="3" t="b">
         <v>0</v>
@@ -5379,7 +5456,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106" s="3" t="b">
         <v>0</v>
@@ -5404,7 +5481,7 @@
         <v>11</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E107" s="3" t="b">
         <v>0</v>
@@ -5429,7 +5506,7 @@
         <v>13</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E108" s="3" t="b">
         <v>0</v>
@@ -5454,7 +5531,7 @@
         <v>15</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E109" s="3" t="b">
         <v>0</v>
@@ -5479,7 +5556,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E110" s="3" t="b">
         <v>0</v>
@@ -5504,7 +5581,7 @@
         <v>18</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E111" s="3" t="b">
         <v>0</v>
@@ -5579,7 +5656,7 @@
         <v>30</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E114" s="3" t="b">
         <v>0</v>
@@ -5604,7 +5681,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E115" s="3" t="b">
         <v>0</v>
@@ -5629,7 +5706,7 @@
         <v>11</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E116" s="3" t="b">
         <v>0</v>
@@ -5654,7 +5731,7 @@
         <v>13</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E117" s="3" t="b">
         <v>0</v>
@@ -5679,7 +5756,7 @@
         <v>15</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E118" s="3" t="b">
         <v>0</v>
@@ -5704,7 +5781,7 @@
         <v>7</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E119" s="3" t="b">
         <v>0</v>
@@ -5729,7 +5806,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E120" s="3" t="b">
         <v>0</v>
@@ -5754,7 +5831,7 @@
         <v>20</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E121" s="3" t="b">
         <v>0</v>
@@ -5779,7 +5856,7 @@
         <v>22</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E122" s="3" t="b">
         <v>0</v>
@@ -5804,7 +5881,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E123" s="3" t="b">
         <v>0</v>
@@ -5829,7 +5906,7 @@
         <v>11</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E124" s="3" t="b">
         <v>0</v>
@@ -5854,7 +5931,7 @@
         <v>13</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E125" s="3" t="b">
         <v>0</v>
@@ -5879,7 +5956,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E126" s="3" t="b">
         <v>0</v>
@@ -5904,7 +5981,7 @@
         <v>7</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E127" s="3" t="b">
         <v>0</v>
@@ -5929,7 +6006,7 @@
         <v>18</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128" s="3" t="b">
         <v>0</v>
@@ -5954,7 +6031,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E129" s="3" t="b">
         <v>0</v>
@@ -5979,7 +6056,7 @@
         <v>22</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E130" s="3" t="b">
         <v>0</v>
@@ -6004,7 +6081,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E131" s="3" t="b">
         <v>0</v>
@@ -6029,7 +6106,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E132" s="3" t="b">
         <v>0</v>
@@ -6054,7 +6131,7 @@
         <v>13</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E133" s="3" t="b">
         <v>0</v>
@@ -6079,7 +6156,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E134" s="3" t="b">
         <v>0</v>
@@ -6104,7 +6181,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E135" s="3" t="b">
         <v>0</v>
@@ -6129,7 +6206,7 @@
         <v>18</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E136" s="3" t="b">
         <v>0</v>
@@ -6154,7 +6231,7 @@
         <v>20</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E137" s="3" t="b">
         <v>0</v>
@@ -6204,7 +6281,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E139" s="3" t="b">
         <v>0</v>
@@ -6229,7 +6306,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E140" s="3" t="b">
         <v>0</v>
@@ -6254,7 +6331,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E141" s="3" t="b">
         <v>0</v>
@@ -6279,7 +6356,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E142" s="3" t="b">
         <v>0</v>
@@ -6304,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E143" s="3" t="b">
         <v>0</v>
@@ -6329,7 +6406,7 @@
         <v>18</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E144" s="3" t="b">
         <v>0</v>
@@ -6354,7 +6431,7 @@
         <v>20</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E145" s="3" t="b">
         <v>0</v>
@@ -6379,7 +6456,7 @@
         <v>22</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E146" s="3" t="b">
         <v>0</v>
@@ -6404,7 +6481,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E147" s="3" t="b">
         <v>0</v>
@@ -6429,7 +6506,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E148" s="3" t="b">
         <v>0</v>
@@ -6454,7 +6531,7 @@
         <v>13</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E149" s="3" t="b">
         <v>0</v>
@@ -6479,7 +6556,7 @@
         <v>15</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E150" s="3" t="b">
         <v>0</v>
@@ -6504,7 +6581,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E151" s="3" t="b">
         <v>0</v>
@@ -6529,7 +6606,7 @@
         <v>18</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E152" s="3" t="b">
         <v>0</v>
@@ -6554,7 +6631,7 @@
         <v>20</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E153" s="3" t="b">
         <v>0</v>
@@ -6579,7 +6656,7 @@
         <v>22</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E154" s="3" t="b">
         <v>0</v>
@@ -6604,7 +6681,7 @@
         <v>15</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E155" s="3" t="b">
         <v>0</v>
@@ -6629,7 +6706,7 @@
         <v>15</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E156" s="3" t="b">
         <v>0</v>
@@ -6654,7 +6731,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E157" s="3" t="b">
         <v>0</v>
@@ -6679,7 +6756,7 @@
         <v>11</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E158" s="3" t="b">
         <v>0</v>
@@ -6704,7 +6781,7 @@
         <v>13</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E159" s="3" t="b">
         <v>0</v>
@@ -6729,7 +6806,7 @@
         <v>15</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E160" s="3" t="b">
         <v>0</v>
@@ -6754,7 +6831,7 @@
         <v>7</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E161" s="3" t="b">
         <v>0</v>
@@ -6779,7 +6856,7 @@
         <v>18</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E162" s="3" t="b">
         <v>0</v>
@@ -6829,7 +6906,7 @@
         <v>22</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E164" s="3" t="b">
         <v>0</v>
@@ -6854,7 +6931,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E165" s="3" t="b">
         <v>0</v>
@@ -6879,7 +6956,7 @@
         <v>11</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E166" s="3" t="b">
         <v>0</v>
@@ -6904,7 +6981,7 @@
         <v>7</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E167" s="3" t="b">
         <v>0</v>
@@ -6929,7 +7006,7 @@
         <v>18</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E168" s="3" t="b">
         <v>0</v>
@@ -6954,7 +7031,7 @@
         <v>13</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E169" s="3" t="b">
         <v>0</v>
@@ -6979,7 +7056,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E170" s="3" t="b">
         <v>0</v>
@@ -7004,7 +7081,7 @@
         <v>20</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E171" s="3" t="b">
         <v>0</v>
@@ -7029,7 +7106,7 @@
         <v>22</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E172" s="3" t="b">
         <v>0</v>
@@ -7054,7 +7131,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E173" s="3" t="b">
         <v>0</v>
@@ -7079,7 +7156,7 @@
         <v>11</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E174" s="3" t="b">
         <v>0</v>
@@ -7104,7 +7181,7 @@
         <v>18</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E175" s="3" t="b">
         <v>0</v>
@@ -7129,7 +7206,7 @@
         <v>18</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E176" s="3" t="b">
         <v>0</v>
@@ -7154,7 +7231,7 @@
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E177" s="3" t="b">
         <v>0</v>
@@ -7179,7 +7256,7 @@
         <v>11</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E178" s="3" t="b">
         <v>0</v>
@@ -7204,7 +7281,7 @@
         <v>11</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E179" s="3" t="b">
         <v>0</v>
@@ -7229,7 +7306,7 @@
         <v>30</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E180" s="3" t="b">
         <v>0</v>
@@ -7254,7 +7331,7 @@
         <v>30</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E181" s="3" t="b">
         <v>0</v>
@@ -7279,7 +7356,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E182" s="3" t="b">
         <v>0</v>
@@ -7304,7 +7381,7 @@
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E183" s="3" t="b">
         <v>0</v>
@@ -7329,7 +7406,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E184" s="3" t="b">
         <v>0</v>
@@ -7354,7 +7431,7 @@
         <v>11</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E185" s="3" t="b">
         <v>0</v>
@@ -7379,7 +7456,7 @@
         <v>13</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E186" s="3" t="b">
         <v>0</v>
@@ -7404,7 +7481,7 @@
         <v>15</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E187" s="3" t="b">
         <v>0</v>
@@ -7429,7 +7506,7 @@
         <v>7</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E188" s="3" t="b">
         <v>0</v>
@@ -7454,7 +7531,7 @@
         <v>18</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E189" s="3" t="b">
         <v>0</v>
@@ -7479,7 +7556,7 @@
         <v>20</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E190" s="3" t="b">
         <v>0</v>
@@ -7504,7 +7581,7 @@
         <v>22</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E191" s="3" t="b">
         <v>0</v>
@@ -7529,7 +7606,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E192" s="3" t="b">
         <v>0</v>
@@ -7554,7 +7631,7 @@
         <v>11</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E193" s="3" t="b">
         <v>0</v>
@@ -7579,7 +7656,7 @@
         <v>13</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E194" s="3" t="b">
         <v>0</v>
@@ -7604,7 +7681,7 @@
         <v>15</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E195" s="3" t="b">
         <v>0</v>
@@ -7654,7 +7731,7 @@
         <v>18</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E197" s="3" t="b">
         <v>0</v>
@@ -7679,7 +7756,7 @@
         <v>20</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E198" s="3" t="b">
         <v>0</v>
@@ -7729,7 +7806,7 @@
         <v>13</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E200" s="3" t="b">
         <v>0</v>
@@ -7754,7 +7831,7 @@
         <v>9</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E201" s="3" t="b">
         <v>0</v>
@@ -7779,7 +7856,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E202" s="3" t="b">
         <v>0</v>
@@ -7804,7 +7881,7 @@
         <v>13</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E203" s="3" t="b">
         <v>0</v>
@@ -7829,7 +7906,7 @@
         <v>15</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E204" s="3" t="b">
         <v>0</v>
@@ -7854,7 +7931,7 @@
         <v>7</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E205" s="3" t="b">
         <v>0</v>
@@ -7879,7 +7956,7 @@
         <v>18</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E206" s="3" t="b">
         <v>0</v>
@@ -7904,7 +7981,7 @@
         <v>20</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E207" s="3" t="b">
         <v>0</v>
@@ -7929,7 +8006,7 @@
         <v>22</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E208" s="3" t="b">
         <v>0</v>
@@ -7954,7 +8031,7 @@
         <v>9</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E209" s="3" t="b">
         <v>0</v>
@@ -7979,7 +8056,7 @@
         <v>11</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E210" s="3" t="b">
         <v>0</v>
@@ -8004,7 +8081,7 @@
         <v>13</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E211" s="3" t="b">
         <v>0</v>
@@ -8029,7 +8106,7 @@
         <v>15</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E212" s="3" t="b">
         <v>0</v>
@@ -8054,7 +8131,7 @@
         <v>7</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E213" s="3" t="b">
         <v>0</v>
@@ -8079,7 +8156,7 @@
         <v>18</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E214" s="3" t="b">
         <v>0</v>
@@ -8104,7 +8181,7 @@
         <v>20</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E215" s="3" t="b">
         <v>0</v>
@@ -8129,7 +8206,7 @@
         <v>22</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E216" s="3" t="b">
         <v>0</v>
@@ -8154,7 +8231,7 @@
         <v>15</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E217" s="3" t="b">
         <v>0</v>
@@ -8179,7 +8256,7 @@
         <v>15</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E218" s="3" t="b">
         <v>0</v>
@@ -8204,7 +8281,7 @@
         <v>30</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E219" s="3" t="b">
         <v>0</v>
@@ -8229,7 +8306,7 @@
         <v>15</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E220" s="3" t="b">
         <v>0</v>
@@ -8254,7 +8331,7 @@
         <v>30</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E221" s="3" t="b">
         <v>0</v>
@@ -8279,7 +8356,7 @@
         <v>15</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E222" s="3" t="b">
         <v>0</v>
@@ -8329,7 +8406,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E224" s="3" t="b">
         <v>0</v>
@@ -8354,7 +8431,7 @@
         <v>13</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E225" s="3" t="b">
         <v>0</v>
@@ -8404,7 +8481,7 @@
         <v>7</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E227" s="3" t="b">
         <v>0</v>
@@ -8429,7 +8506,7 @@
         <v>18</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E228" s="3" t="b">
         <v>0</v>
@@ -8454,7 +8531,7 @@
         <v>20</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E229" s="3" t="b">
         <v>0</v>
@@ -8479,7 +8556,7 @@
         <v>22</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E230" s="3" t="b">
         <v>0</v>
@@ -8504,7 +8581,7 @@
         <v>9</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E231" s="3" t="b">
         <v>0</v>
@@ -8529,7 +8606,7 @@
         <v>11</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E232" s="3" t="b">
         <v>0</v>
@@ -8554,7 +8631,7 @@
         <v>13</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E233" s="3" t="b">
         <v>0</v>
@@ -8579,7 +8656,7 @@
         <v>15</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E234" s="3" t="b">
         <v>0</v>
@@ -8604,7 +8681,7 @@
         <v>7</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E235" s="3" t="b">
         <v>0</v>
@@ -8629,7 +8706,7 @@
         <v>18</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E236" s="3" t="b">
         <v>0</v>
@@ -8654,7 +8731,7 @@
         <v>30</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E237" s="3" t="b">
         <v>0</v>
@@ -8679,7 +8756,7 @@
         <v>20</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E238" s="3" t="b">
         <v>0</v>
@@ -8704,7 +8781,7 @@
         <v>20</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E239" s="3" t="b">
         <v>0</v>
@@ -8729,7 +8806,7 @@
         <v>30</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E240" s="3" t="b">
         <v>0</v>
@@ -8754,7 +8831,7 @@
         <v>20</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E241" s="3" t="b">
         <v>0</v>
@@ -8779,7 +8856,7 @@
         <v>20</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E242" s="3" t="b">
         <v>0</v>
@@ -8804,7 +8881,7 @@
         <v>30</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E243" s="3" t="b">
         <v>0</v>
@@ -8829,7 +8906,7 @@
         <v>30</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E244" s="3" t="b">
         <v>0</v>
@@ -8851,10 +8928,10 @@
         <v>6</v>
       </c>
       <c r="C245" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="E245" s="3" t="b">
         <v>0</v>
@@ -8876,10 +8953,10 @@
         <v>6</v>
       </c>
       <c r="C246" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="E246" s="3" t="b">
         <v>0</v>
@@ -8904,7 +8981,7 @@
         <v>30</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E247" s="3" t="b">
         <v>0</v>
@@ -8929,7 +9006,7 @@
         <v>30</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E248" s="3" t="b">
         <v>0</v>
@@ -8951,10 +9028,10 @@
         <v>6</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E249" s="3" t="b">
         <v>0</v>
@@ -8979,7 +9056,7 @@
         <v>22</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E250" s="3" t="b">
         <v>0</v>
@@ -9004,7 +9081,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E251" s="3" t="b">
         <v>0</v>
@@ -9029,7 +9106,7 @@
         <v>11</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E252" s="3" t="b">
         <v>0</v>
@@ -9054,7 +9131,7 @@
         <v>13</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E253" s="3" t="b">
         <v>0</v>
@@ -9104,7 +9181,7 @@
         <v>7</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E255" s="3" t="b">
         <v>0</v>
@@ -9129,7 +9206,7 @@
         <v>18</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E256" s="3" t="b">
         <v>0</v>
@@ -9204,7 +9281,7 @@
         <v>9</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E259" s="3" t="b">
         <v>0</v>
@@ -9229,7 +9306,7 @@
         <v>11</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E260" s="3" t="b">
         <v>0</v>
@@ -9254,7 +9331,7 @@
         <v>13</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E261" s="3" t="b">
         <v>0</v>
@@ -9304,7 +9381,7 @@
         <v>7</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E263" s="3" t="b">
         <v>0</v>
@@ -9329,7 +9406,7 @@
         <v>18</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E264" s="3" t="b">
         <v>0</v>
@@ -9404,7 +9481,7 @@
         <v>30</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E267" s="3" t="b">
         <v>0</v>
@@ -9429,7 +9506,7 @@
         <v>9</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E268" s="3" t="b">
         <v>0</v>
@@ -9454,7 +9531,7 @@
         <v>11</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E269" s="3" t="b">
         <v>0</v>
@@ -9479,7 +9556,7 @@
         <v>13</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E270" s="3" t="b">
         <v>0</v>
@@ -9529,7 +9606,7 @@
         <v>7</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E272" s="3" t="b">
         <v>0</v>
@@ -9554,7 +9631,7 @@
         <v>18</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E273" s="3" t="b">
         <v>0</v>
@@ -9629,7 +9706,7 @@
         <v>9</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E276" s="3" t="b">
         <v>0</v>
@@ -9654,7 +9731,7 @@
         <v>11</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E277" s="3" t="b">
         <v>0</v>
@@ -9679,7 +9756,7 @@
         <v>13</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E278" s="3" t="b">
         <v>0</v>
@@ -9729,7 +9806,7 @@
         <v>7</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E280" s="3" t="b">
         <v>0</v>
@@ -9754,7 +9831,7 @@
         <v>18</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E281" s="3" t="b">
         <v>0</v>
@@ -9829,7 +9906,7 @@
         <v>30</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E284" s="3" t="b">
         <v>0</v>
@@ -9854,7 +9931,7 @@
         <v>9</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E285" s="3" t="b">
         <v>0</v>
@@ -9879,7 +9956,7 @@
         <v>11</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E286" s="3" t="b">
         <v>0</v>
@@ -9904,7 +9981,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E287" s="3" t="b">
         <v>0</v>
@@ -9929,7 +10006,7 @@
         <v>15</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E288" s="3" t="b">
         <v>0</v>
@@ -9954,7 +10031,7 @@
         <v>7</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E289" s="3" t="b">
         <v>0</v>
@@ -9979,7 +10056,7 @@
         <v>18</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E290" s="3" t="b">
         <v>0</v>
@@ -10004,7 +10081,7 @@
         <v>20</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E291" s="3" t="b">
         <v>0</v>
@@ -10054,7 +10131,7 @@
         <v>30</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E293" s="3" t="b">
         <v>0</v>
@@ -10079,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E294" s="3" t="b">
         <v>0</v>
@@ -10104,7 +10181,7 @@
         <v>11</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E295" s="3" t="b">
         <v>0</v>
@@ -10129,7 +10206,7 @@
         <v>13</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E296" s="3" t="b">
         <v>0</v>
@@ -10154,7 +10231,7 @@
         <v>15</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E297" s="3" t="b">
         <v>0</v>
@@ -10179,7 +10256,7 @@
         <v>7</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E298" s="3" t="b">
         <v>0</v>
@@ -10204,7 +10281,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E299" s="3" t="b">
         <v>0</v>
@@ -10254,7 +10331,7 @@
         <v>9</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E301" s="3" t="b">
         <v>0</v>
@@ -10279,7 +10356,7 @@
         <v>11</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E302" s="3" t="b">
         <v>0</v>
@@ -10304,7 +10381,7 @@
         <v>13</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E303" s="3" t="b">
         <v>0</v>
@@ -10329,7 +10406,7 @@
         <v>15</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E304" s="3" t="b">
         <v>0</v>
@@ -10354,7 +10431,7 @@
         <v>7</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E305" s="3" t="b">
         <v>0</v>
@@ -10379,7 +10456,7 @@
         <v>18</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E306" s="3" t="b">
         <v>0</v>
@@ -10404,7 +10481,7 @@
         <v>20</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E307" s="3" t="b">
         <v>0</v>
@@ -10429,7 +10506,7 @@
         <v>22</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E308" s="3" t="b">
         <v>0</v>
@@ -10454,7 +10531,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E309" s="3" t="b">
         <v>0</v>
@@ -10479,7 +10556,7 @@
         <v>11</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E310" s="3" t="b">
         <v>0</v>
@@ -10504,7 +10581,7 @@
         <v>13</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E311" s="3" t="b">
         <v>0</v>
@@ -10529,7 +10606,7 @@
         <v>15</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E312" s="3" t="b">
         <v>0</v>
@@ -10554,7 +10631,7 @@
         <v>7</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E313" s="3" t="b">
         <v>0</v>
@@ -10579,7 +10656,7 @@
         <v>18</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E314" s="3" t="b">
         <v>0</v>
@@ -10604,7 +10681,7 @@
         <v>20</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E315" s="3" t="b">
         <v>0</v>
@@ -10629,7 +10706,7 @@
         <v>22</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E316" s="3" t="b">
         <v>0</v>
@@ -10654,7 +10731,7 @@
         <v>9</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E317" s="3" t="b">
         <v>0</v>
@@ -10679,7 +10756,7 @@
         <v>11</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E318" s="3" t="b">
         <v>0</v>
@@ -10704,7 +10781,7 @@
         <v>13</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E319" s="3" t="b">
         <v>0</v>
@@ -10754,7 +10831,7 @@
         <v>7</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E321" s="3" t="b">
         <v>0</v>
@@ -10829,7 +10906,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E324" s="3" t="b">
         <v>0</v>
@@ -10854,7 +10931,7 @@
         <v>11</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E325" s="3" t="b">
         <v>0</v>
@@ -10879,7 +10956,7 @@
         <v>13</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E326" s="3" t="b">
         <v>0</v>
@@ -10904,7 +10981,7 @@
         <v>15</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E327" s="3" t="b">
         <v>0</v>
@@ -10929,7 +11006,7 @@
         <v>7</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E328" s="3" t="b">
         <v>0</v>
@@ -10954,7 +11031,7 @@
         <v>18</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E329" s="3" t="b">
         <v>0</v>
@@ -10979,7 +11056,7 @@
         <v>20</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E330" s="3" t="b">
         <v>0</v>
@@ -11004,7 +11081,7 @@
         <v>22</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E331" s="3" t="b">
         <v>0</v>
@@ -11029,7 +11106,7 @@
         <v>9</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E332" s="3" t="b">
         <v>0</v>
@@ -11054,7 +11131,7 @@
         <v>11</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E333" s="3" t="b">
         <v>0</v>
@@ -11079,7 +11156,7 @@
         <v>13</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E334" s="3" t="b">
         <v>0</v>
@@ -11129,7 +11206,7 @@
         <v>7</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E336" s="3" t="b">
         <v>0</v>
@@ -11154,7 +11231,7 @@
         <v>18</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E337" s="3" t="b">
         <v>0</v>
@@ -11229,7 +11306,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E340" s="3" t="b">
         <v>0</v>
@@ -11254,7 +11331,7 @@
         <v>11</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E341" s="3" t="b">
         <v>0</v>
@@ -11279,7 +11356,7 @@
         <v>13</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E342" s="3" t="b">
         <v>0</v>
@@ -11304,7 +11381,7 @@
         <v>15</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E343" s="3" t="b">
         <v>0</v>
@@ -11329,7 +11406,7 @@
         <v>7</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E344" s="3" t="b">
         <v>0</v>
@@ -11354,7 +11431,7 @@
         <v>18</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E345" s="3" t="b">
         <v>0</v>
@@ -11379,7 +11456,7 @@
         <v>20</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E346" s="3" t="b">
         <v>0</v>
@@ -11404,7 +11481,7 @@
         <v>20</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E347" s="3" t="b">
         <v>0</v>
@@ -11429,7 +11506,7 @@
         <v>20</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E348" s="3" t="b">
         <v>0</v>
@@ -11454,7 +11531,7 @@
         <v>22</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E349" s="3" t="b">
         <v>0</v>
@@ -11479,7 +11556,7 @@
         <v>30</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E350" s="3" t="b">
         <v>0</v>
@@ -11504,7 +11581,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E351" s="3" t="b">
         <v>0</v>
@@ -11529,7 +11606,7 @@
         <v>11</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E352" s="3" t="b">
         <v>0</v>
@@ -11554,7 +11631,7 @@
         <v>13</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E353" s="3" t="b">
         <v>0</v>
@@ -11579,7 +11656,7 @@
         <v>15</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E354" s="3" t="b">
         <v>0</v>
@@ -11604,7 +11681,7 @@
         <v>7</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E355" s="3" t="b">
         <v>0</v>
@@ -11629,7 +11706,7 @@
         <v>18</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E356" s="3" t="b">
         <v>0</v>
@@ -11654,7 +11731,7 @@
         <v>20</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E357" s="3" t="b">
         <v>0</v>
@@ -11679,7 +11756,7 @@
         <v>22</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E358" s="3" t="b">
         <v>0</v>
@@ -11704,7 +11781,7 @@
         <v>9</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E359" s="3" t="b">
         <v>0</v>
@@ -11729,7 +11806,7 @@
         <v>11</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E360" s="3" t="b">
         <v>0</v>
@@ -11754,7 +11831,7 @@
         <v>13</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E361" s="3" t="b">
         <v>0</v>
@@ -11804,7 +11881,7 @@
         <v>7</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E363" s="3" t="b">
         <v>0</v>
@@ -11829,7 +11906,7 @@
         <v>18</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E364" s="3" t="b">
         <v>0</v>
@@ -11854,7 +11931,7 @@
         <v>20</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E365" s="3" t="b">
         <v>0</v>
@@ -11904,7 +11981,7 @@
         <v>9</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E367" s="3" t="b">
         <v>0</v>
@@ -11929,7 +12006,7 @@
         <v>11</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E368" s="3" t="b">
         <v>0</v>
@@ -11954,7 +12031,7 @@
         <v>13</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E369" s="3" t="b">
         <v>0</v>
@@ -12004,7 +12081,7 @@
         <v>7</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E371" s="3" t="b">
         <v>0</v>
@@ -12029,7 +12106,7 @@
         <v>18</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E372" s="3" t="b">
         <v>0</v>
@@ -12054,7 +12131,7 @@
         <v>20</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E373" s="3" t="b">
         <v>0</v>
@@ -12104,7 +12181,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E375" s="3" t="b">
         <v>0</v>
@@ -12129,7 +12206,7 @@
         <v>11</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E376" s="3" t="b">
         <v>0</v>
@@ -12154,7 +12231,7 @@
         <v>13</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E377" s="3" t="b">
         <v>0</v>
@@ -12179,7 +12256,7 @@
         <v>15</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E378" s="3" t="b">
         <v>0</v>
@@ -12204,7 +12281,7 @@
         <v>7</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E379" s="3" t="b">
         <v>0</v>
@@ -12229,7 +12306,7 @@
         <v>18</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E380" s="3" t="b">
         <v>0</v>
@@ -12254,7 +12331,7 @@
         <v>22</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E381" s="3" t="b">
         <v>0</v>
@@ -12304,7 +12381,7 @@
         <v>9</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E383" s="3" t="b">
         <v>0</v>
@@ -12329,7 +12406,7 @@
         <v>11</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E384" s="3" t="b">
         <v>0</v>
@@ -12354,7 +12431,7 @@
         <v>13</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E385" s="3" t="b">
         <v>0</v>
@@ -12379,7 +12456,7 @@
         <v>15</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E386" s="3" t="b">
         <v>0</v>
@@ -12404,7 +12481,7 @@
         <v>18</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E387" s="3" t="b">
         <v>0</v>
@@ -12429,7 +12506,7 @@
         <v>7</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E388" s="3" t="b">
         <v>0</v>
@@ -12454,7 +12531,7 @@
         <v>20</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E389" s="3" t="b">
         <v>0</v>
@@ -12479,7 +12556,7 @@
         <v>22</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E390" s="3" t="b">
         <v>0</v>
@@ -12504,7 +12581,7 @@
         <v>20</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E391" s="3" t="b">
         <v>0</v>
@@ -12529,7 +12606,7 @@
         <v>20</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E392" s="3" t="b">
         <v>0</v>
@@ -12554,7 +12631,7 @@
         <v>9</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E393" s="3" t="b">
         <v>0</v>
@@ -12579,7 +12656,7 @@
         <v>11</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E394" s="3" t="b">
         <v>0</v>
@@ -12604,7 +12681,7 @@
         <v>13</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E395" s="3" t="b">
         <v>0</v>
@@ -12629,7 +12706,7 @@
         <v>15</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E396" s="3" t="b">
         <v>0</v>
@@ -12654,7 +12731,7 @@
         <v>18</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E397" s="3" t="b">
         <v>0</v>
@@ -12679,7 +12756,7 @@
         <v>7</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E398" s="3" t="b">
         <v>0</v>
@@ -12704,7 +12781,7 @@
         <v>20</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E399" s="3" t="b">
         <v>0</v>
@@ -12729,7 +12806,7 @@
         <v>22</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E400" s="3" t="b">
         <v>0</v>
@@ -12754,7 +12831,7 @@
         <v>9</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E401" s="3" t="b">
         <v>0</v>
@@ -12779,7 +12856,7 @@
         <v>11</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E402" s="3" t="b">
         <v>0</v>
@@ -12804,7 +12881,7 @@
         <v>13</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E403" s="3" t="b">
         <v>0</v>
@@ -12829,7 +12906,7 @@
         <v>15</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E404" s="3" t="b">
         <v>0</v>
@@ -12854,7 +12931,7 @@
         <v>18</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E405" s="3" t="b">
         <v>0</v>
@@ -12879,7 +12956,7 @@
         <v>20</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E406" s="3" t="b">
         <v>0</v>
@@ -12904,7 +12981,7 @@
         <v>22</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E407" s="3" t="b">
         <v>0</v>
@@ -12929,7 +13006,7 @@
         <v>22</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E408" s="3" t="b">
         <v>0</v>
@@ -12954,7 +13031,7 @@
         <v>7</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E409" s="3" t="b">
         <v>0</v>
@@ -12979,7 +13056,7 @@
         <v>20</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E410" s="3" t="b">
         <v>0</v>
@@ -13004,7 +13081,7 @@
         <v>22</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E411" s="3" t="b">
         <v>0</v>
@@ -13029,7 +13106,7 @@
         <v>15</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E412" s="3" t="b">
         <v>0</v>
@@ -13054,7 +13131,7 @@
         <v>30</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E413" s="3" t="b">
         <v>0</v>
@@ -13079,7 +13156,7 @@
         <v>30</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E414" s="3" t="b">
         <v>0</v>
@@ -13104,7 +13181,7 @@
         <v>30</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E415" s="3" t="b">
         <v>0</v>
@@ -13129,7 +13206,7 @@
         <v>13</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E416" s="3" t="b">
         <v>0</v>
@@ -13154,7 +13231,7 @@
         <v>30</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E417" s="3" t="b">
         <v>0</v>
@@ -13179,7 +13256,7 @@
         <v>30</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E418" s="3" t="b">
         <v>0</v>
@@ -13204,7 +13281,7 @@
         <v>30</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E419" s="3" t="b">
         <v>0</v>
@@ -13229,7 +13306,7 @@
         <v>30</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E420" s="3" t="b">
         <v>0</v>
@@ -13254,7 +13331,7 @@
         <v>30</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E421" s="3" t="b">
         <v>0</v>
@@ -13279,7 +13356,7 @@
         <v>30</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E422" s="3" t="b">
         <v>0</v>
@@ -13304,7 +13381,7 @@
         <v>30</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E423" s="3" t="b">
         <v>0</v>
@@ -13329,7 +13406,7 @@
         <v>30</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E424" s="3" t="b">
         <v>0</v>
@@ -13354,7 +13431,7 @@
         <v>30</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E425" s="3" t="b">
         <v>0</v>
@@ -13379,7 +13456,7 @@
         <v>30</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E426" s="3" t="b">
         <v>0</v>
@@ -13404,7 +13481,7 @@
         <v>30</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E427" s="3" t="b">
         <v>0</v>
@@ -13429,7 +13506,7 @@
         <v>30</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E428" s="3" t="b">
         <v>0</v>
@@ -13451,10 +13528,10 @@
         <v>6</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E429" s="3" t="b">
         <v>0</v>
@@ -13479,7 +13556,7 @@
         <v>30</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E430" s="3" t="b">
         <v>0</v>
@@ -13504,7 +13581,7 @@
         <v>30</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E431" s="3" t="b">
         <v>0</v>
@@ -13529,7 +13606,7 @@
         <v>30</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E432" s="3" t="b">
         <v>0</v>
@@ -13554,7 +13631,7 @@
         <v>30</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E433" s="3" t="b">
         <v>0</v>
@@ -13579,7 +13656,7 @@
         <v>30</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E434" s="3" t="b">
         <v>0</v>
@@ -13604,7 +13681,7 @@
         <v>30</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E435" s="3" t="b">
         <v>0</v>
@@ -13629,7 +13706,7 @@
         <v>30</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E436" s="3" t="b">
         <v>0</v>
@@ -13654,7 +13731,7 @@
         <v>30</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E437" s="3" t="b">
         <v>0</v>
@@ -13679,7 +13756,7 @@
         <v>20</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E438" s="3" t="b">
         <v>0</v>
@@ -13704,7 +13781,7 @@
         <v>30</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E439" s="3" t="b">
         <v>0</v>
@@ -13726,10 +13803,10 @@
         <v>6</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E440" s="3" t="b">
         <v>0</v>
@@ -13754,7 +13831,7 @@
         <v>20</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E441" s="3" t="b">
         <v>0</v>
@@ -13779,7 +13856,7 @@
         <v>30</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E442" s="3" t="b">
         <v>0</v>
@@ -13804,7 +13881,7 @@
         <v>30</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E443" s="3" t="b">
         <v>0</v>
@@ -13829,7 +13906,7 @@
         <v>30</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E444" s="3" t="b">
         <v>0</v>
@@ -13854,7 +13931,7 @@
         <v>30</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E445" s="3" t="b">
         <v>0</v>
@@ -13879,7 +13956,7 @@
         <v>30</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E446" s="3" t="b">
         <v>0</v>
@@ -13904,7 +13981,7 @@
         <v>22</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E447" s="3" t="b">
         <v>0</v>
@@ -13929,7 +14006,7 @@
         <v>30</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E448" s="3" t="b">
         <v>0</v>
@@ -13951,10 +14028,10 @@
         <v>6</v>
       </c>
       <c r="C449" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D449" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="E449" s="3" t="b">
         <v>0</v>
@@ -13979,7 +14056,7 @@
         <v>20</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E450" s="3" t="b">
         <v>0</v>
@@ -14004,7 +14081,7 @@
         <v>30</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E451" s="3" t="b">
         <v>0</v>
@@ -14029,7 +14106,7 @@
         <v>30</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E452" s="3" t="b">
         <v>0</v>
@@ -14054,7 +14131,7 @@
         <v>30</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E453" s="3" t="b">
         <v>0</v>
@@ -14079,7 +14156,7 @@
         <v>30</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E454" s="3" t="b">
         <v>0</v>
@@ -14101,10 +14178,10 @@
         <v>6</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E455" s="3" t="b">
         <v>0</v>
@@ -14129,7 +14206,7 @@
         <v>30</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E456" s="3" t="b">
         <v>0</v>
@@ -14154,7 +14231,7 @@
         <v>30</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E457" s="3" t="b">
         <v>0</v>
@@ -14179,7 +14256,7 @@
         <v>30</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E458" s="3" t="b">
         <v>0</v>
@@ -14204,7 +14281,7 @@
         <v>30</v>
       </c>
       <c r="D459" s="5" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E459" s="3" t="b">
         <v>0</v>
@@ -14229,7 +14306,7 @@
         <v>30</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E460" s="3" t="b">
         <v>0</v>
@@ -14254,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E461" s="3" t="b">
         <v>0</v>
@@ -14279,7 +14356,7 @@
         <v>30</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E462" s="3" t="b">
         <v>0</v>
@@ -14304,7 +14381,7 @@
         <v>30</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E463" s="3" t="b">
         <v>0</v>
@@ -14329,7 +14406,7 @@
         <v>30</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E464" s="3" t="b">
         <v>0</v>
@@ -14351,10 +14428,10 @@
         <v>6</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E465" s="3" t="b">
         <v>0</v>
@@ -14379,7 +14456,7 @@
         <v>30</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E466" s="3" t="b">
         <v>0</v>
@@ -14401,10 +14478,10 @@
         <v>6</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E467" s="3" t="b">
         <v>0</v>
@@ -14429,7 +14506,7 @@
         <v>30</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E468" s="3" t="b">
         <v>0</v>
@@ -14451,10 +14528,10 @@
         <v>6</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E469" s="3" t="b">
         <v>0</v>
@@ -14476,10 +14553,10 @@
         <v>6</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E470" s="3" t="b">
         <v>0</v>
@@ -14504,7 +14581,7 @@
         <v>30</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E471" s="3" t="b">
         <v>0</v>
@@ -14529,7 +14606,7 @@
         <v>30</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E472" s="3" t="b">
         <v>0</v>
@@ -14551,10 +14628,10 @@
         <v>6</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E473" s="3" t="b">
         <v>0</v>
@@ -14579,7 +14656,7 @@
         <v>20</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E474" s="3" t="b">
         <v>0</v>
@@ -14601,10 +14678,10 @@
         <v>6</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E475" s="3" t="b">
         <v>0</v>
@@ -14629,7 +14706,7 @@
         <v>20</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E476" s="3" t="b">
         <v>0</v>
@@ -14654,7 +14731,7 @@
         <v>30</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E477" s="3" t="b">
         <v>0</v>
@@ -14679,7 +14756,7 @@
         <v>30</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E478" s="3" t="b">
         <v>0</v>
@@ -14704,7 +14781,7 @@
         <v>30</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E479" s="3" t="b">
         <v>0</v>
@@ -14729,7 +14806,7 @@
         <v>30</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E480" s="3" t="b">
         <v>0</v>
@@ -14751,10 +14828,10 @@
         <v>6</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E481" s="3" t="b">
         <v>0</v>
@@ -14779,7 +14856,7 @@
         <v>30</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E482" s="3" t="b">
         <v>0</v>
@@ -14801,10 +14878,10 @@
         <v>6</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E483" s="3" t="b">
         <v>0</v>
@@ -14826,10 +14903,10 @@
         <v>6</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E484" s="3" t="b">
         <v>0</v>
@@ -14851,10 +14928,10 @@
         <v>6</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E485" s="3" t="b">
         <v>0</v>
@@ -14879,7 +14956,7 @@
         <v>30</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E486" s="3" t="b">
         <v>0</v>
@@ -14904,7 +14981,7 @@
         <v>30</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E487" s="3" t="b">
         <v>0</v>
@@ -14926,10 +15003,10 @@
         <v>6</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E488" s="3" t="b">
         <v>0</v>
@@ -14954,7 +15031,7 @@
         <v>20</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E489" s="3" t="b">
         <v>0</v>
@@ -14976,10 +15053,10 @@
         <v>6</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E490" s="3" t="b">
         <v>0</v>
@@ -15004,7 +15081,7 @@
         <v>20</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E491" s="3" t="b">
         <v>0</v>
@@ -15029,7 +15106,7 @@
         <v>30</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E492" s="3" t="b">
         <v>0</v>
@@ -15054,7 +15131,7 @@
         <v>30</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E493" s="3" t="b">
         <v>0</v>
@@ -15079,7 +15156,7 @@
         <v>30</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E494" s="3" t="b">
         <v>0</v>
@@ -15104,7 +15181,7 @@
         <v>30</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E495" s="3" t="b">
         <v>0</v>
@@ -15126,10 +15203,10 @@
         <v>6</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E496" s="3" t="b">
         <v>0</v>
@@ -15154,7 +15231,7 @@
         <v>30</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E497" s="3" t="b">
         <v>0</v>
@@ -15179,7 +15256,7 @@
         <v>30</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E498" s="3" t="b">
         <v>0</v>
@@ -15204,7 +15281,7 @@
         <v>30</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E499" s="3" t="b">
         <v>0</v>
@@ -15229,7 +15306,7 @@
         <v>30</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E500" s="3" t="b">
         <v>0</v>
@@ -15251,10 +15328,10 @@
         <v>6</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E501" s="3" t="b">
         <v>0</v>
@@ -15276,10 +15353,10 @@
         <v>6</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E502" s="3" t="b">
         <v>0</v>
@@ -15304,7 +15381,7 @@
         <v>30</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E503" s="3" t="b">
         <v>0</v>
@@ -15329,7 +15406,7 @@
         <v>30</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E504" s="3" t="b">
         <v>0</v>
@@ -15354,7 +15431,7 @@
         <v>30</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E505" s="3" t="b">
         <v>0</v>
@@ -15379,7 +15456,7 @@
         <v>30</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E506" s="3" t="b">
         <v>0</v>
@@ -15401,10 +15478,10 @@
         <v>6</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E507" s="3" t="b">
         <v>0</v>
@@ -15426,10 +15503,10 @@
         <v>6</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E508" s="3" t="b">
         <v>0</v>
@@ -15451,10 +15528,10 @@
         <v>6</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E509" s="3" t="b">
         <v>0</v>
@@ -15476,10 +15553,10 @@
         <v>6</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E510" s="3" t="b">
         <v>0</v>
@@ -15501,10 +15578,10 @@
         <v>6</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E511" s="3" t="b">
         <v>0</v>
@@ -15526,10 +15603,10 @@
         <v>6</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E512" s="3" t="b">
         <v>0</v>
@@ -15551,10 +15628,10 @@
         <v>6</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E513" s="3" t="b">
         <v>0</v>
@@ -15576,10 +15653,10 @@
         <v>6</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E514" s="3" t="b">
         <v>0</v>
@@ -15604,7 +15681,7 @@
         <v>30</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E515" s="3" t="b">
         <v>0</v>
@@ -15629,7 +15706,7 @@
         <v>30</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E516" s="3" t="b">
         <v>0</v>
@@ -15654,7 +15731,7 @@
         <v>30</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E517" s="3" t="b">
         <v>0</v>
@@ -15679,7 +15756,7 @@
         <v>30</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E518" s="3" t="b">
         <v>0</v>
@@ -15704,7 +15781,7 @@
         <v>30</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E519" s="3" t="b">
         <v>0</v>
@@ -15729,7 +15806,7 @@
         <v>30</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E520" s="3" t="b">
         <v>0</v>
@@ -15754,7 +15831,7 @@
         <v>30</v>
       </c>
       <c r="D521" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E521" s="3" t="b">
         <v>0</v>
@@ -15779,7 +15856,7 @@
         <v>30</v>
       </c>
       <c r="D522" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E522" s="3" t="b">
         <v>0</v>
@@ -15804,7 +15881,7 @@
         <v>30</v>
       </c>
       <c r="D523" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E523" s="3" t="b">
         <v>0</v>
@@ -15829,7 +15906,7 @@
         <v>30</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E524" s="3" t="b">
         <v>0</v>
@@ -15854,7 +15931,7 @@
         <v>30</v>
       </c>
       <c r="D525" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E525" s="3" t="b">
         <v>0</v>
@@ -15879,7 +15956,7 @@
         <v>30</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E526" s="3" t="b">
         <v>0</v>
@@ -15904,7 +15981,7 @@
         <v>30</v>
       </c>
       <c r="D527" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E527" s="3" t="b">
         <v>0</v>
@@ -15929,7 +16006,7 @@
         <v>30</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E528" s="3" t="b">
         <v>0</v>
@@ -15954,7 +16031,7 @@
         <v>30</v>
       </c>
       <c r="D529" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E529" s="3" t="b">
         <v>0</v>
@@ -15979,7 +16056,7 @@
         <v>30</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E530" s="3" t="b">
         <v>0</v>
@@ -16004,7 +16081,7 @@
         <v>30</v>
       </c>
       <c r="D531" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E531" s="3" t="b">
         <v>0</v>
@@ -16029,7 +16106,7 @@
         <v>30</v>
       </c>
       <c r="D532" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E532" s="3" t="b">
         <v>0</v>
@@ -16054,7 +16131,7 @@
         <v>30</v>
       </c>
       <c r="D533" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E533" s="3" t="b">
         <v>0</v>
@@ -16079,7 +16156,7 @@
         <v>30</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E534" s="3" t="b">
         <v>0</v>
@@ -16104,7 +16181,7 @@
         <v>30</v>
       </c>
       <c r="D535" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E535" s="3" t="b">
         <v>0</v>
@@ -16129,7 +16206,7 @@
         <v>30</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E536" s="3" t="b">
         <v>0</v>
@@ -16154,7 +16231,7 @@
         <v>30</v>
       </c>
       <c r="D537" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E537" s="3" t="b">
         <v>0</v>
@@ -16179,7 +16256,7 @@
         <v>30</v>
       </c>
       <c r="D538" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E538" s="3" t="b">
         <v>0</v>
@@ -16204,7 +16281,7 @@
         <v>30</v>
       </c>
       <c r="D539" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E539" s="3" t="b">
         <v>0</v>
@@ -16229,7 +16306,7 @@
         <v>30</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E540" s="3" t="b">
         <v>0</v>
@@ -16254,7 +16331,7 @@
         <v>30</v>
       </c>
       <c r="D541" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E541" s="3" t="b">
         <v>0</v>
@@ -16279,7 +16356,7 @@
         <v>30</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E542" s="3" t="b">
         <v>0</v>
@@ -16304,7 +16381,7 @@
         <v>30</v>
       </c>
       <c r="D543" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E543" s="3" t="b">
         <v>0</v>
@@ -16329,7 +16406,7 @@
         <v>30</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E544" s="3" t="b">
         <v>0</v>
@@ -16354,7 +16431,7 @@
         <v>30</v>
       </c>
       <c r="D545" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E545" s="3" t="b">
         <v>0</v>
@@ -16379,7 +16456,7 @@
         <v>30</v>
       </c>
       <c r="D546" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E546" s="3" t="b">
         <v>0</v>
@@ -16404,7 +16481,7 @@
         <v>30</v>
       </c>
       <c r="D547" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E547" s="3" t="b">
         <v>0</v>
@@ -16429,7 +16506,7 @@
         <v>30</v>
       </c>
       <c r="D548" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E548" s="3" t="b">
         <v>0</v>
@@ -16454,7 +16531,7 @@
         <v>30</v>
       </c>
       <c r="D549" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E549" s="3" t="b">
         <v>0</v>
@@ -16479,7 +16556,7 @@
         <v>30</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E550" s="3" t="b">
         <v>0</v>
@@ -16504,7 +16581,7 @@
         <v>30</v>
       </c>
       <c r="D551" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E551" s="3" t="b">
         <v>0</v>
@@ -16529,7 +16606,7 @@
         <v>30</v>
       </c>
       <c r="D552" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E552" s="3" t="b">
         <v>0</v>
@@ -16554,7 +16631,7 @@
         <v>30</v>
       </c>
       <c r="D553" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E553" s="3" t="b">
         <v>0</v>
@@ -16579,7 +16656,7 @@
         <v>30</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E554" s="3" t="b">
         <v>0</v>
@@ -16604,7 +16681,7 @@
         <v>30</v>
       </c>
       <c r="D555" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E555" s="3" t="b">
         <v>0</v>
@@ -16629,7 +16706,7 @@
         <v>30</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E556" s="3" t="b">
         <v>0</v>
@@ -16654,7 +16731,7 @@
         <v>30</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E557" s="3" t="b">
         <v>0</v>
@@ -16679,7 +16756,7 @@
         <v>30</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E558" s="3" t="b">
         <v>0</v>
@@ -16704,7 +16781,7 @@
         <v>30</v>
       </c>
       <c r="D559" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E559" s="3" t="b">
         <v>0</v>
@@ -16729,7 +16806,7 @@
         <v>30</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E560" s="3" t="b">
         <v>0</v>
@@ -16754,7 +16831,7 @@
         <v>30</v>
       </c>
       <c r="D561" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E561" s="3" t="b">
         <v>0</v>
@@ -16779,7 +16856,7 @@
         <v>30</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E562" s="3" t="b">
         <v>0</v>
@@ -16804,7 +16881,7 @@
         <v>30</v>
       </c>
       <c r="D563" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E563" s="3" t="b">
         <v>0</v>
@@ -16829,7 +16906,7 @@
         <v>30</v>
       </c>
       <c r="D564" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E564" s="3" t="b">
         <v>0</v>
@@ -16851,10 +16928,10 @@
         <v>6</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E565" s="3" t="b">
         <v>0</v>
@@ -16876,10 +16953,10 @@
         <v>6</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E566" s="3" t="b">
         <v>0</v>
@@ -16901,10 +16978,10 @@
         <v>6</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E567" s="3" t="b">
         <v>0</v>
@@ -16926,10 +17003,10 @@
         <v>6</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E568" s="3" t="b">
         <v>0</v>
@@ -16951,10 +17028,10 @@
         <v>6</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E569" s="3" t="b">
         <v>0</v>
@@ -16976,10 +17053,10 @@
         <v>6</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E570" s="3" t="b">
         <v>0</v>
@@ -17001,10 +17078,10 @@
         <v>6</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E571" s="3" t="b">
         <v>0</v>
@@ -17026,10 +17103,10 @@
         <v>6</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E572" s="3" t="b">
         <v>0</v>
@@ -17051,10 +17128,10 @@
         <v>6</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E573" s="3" t="b">
         <v>0</v>
@@ -17076,10 +17153,10 @@
         <v>6</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E574" s="3" t="b">
         <v>0</v>
@@ -17101,10 +17178,10 @@
         <v>6</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E575" s="3" t="b">
         <v>0</v>
@@ -17126,10 +17203,10 @@
         <v>6</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E576" s="3" t="b">
         <v>0</v>
@@ -17151,10 +17228,10 @@
         <v>6</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E577" s="3" t="b">
         <v>0</v>
@@ -17176,10 +17253,10 @@
         <v>6</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E578" s="3" t="b">
         <v>0</v>
@@ -17201,10 +17278,10 @@
         <v>6</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E579" s="3" t="b">
         <v>0</v>
@@ -17226,10 +17303,10 @@
         <v>6</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E580" s="3" t="b">
         <v>0</v>
@@ -17251,10 +17328,10 @@
         <v>6</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E581" s="3" t="b">
         <v>0</v>
@@ -17276,10 +17353,10 @@
         <v>6</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E582" s="3" t="b">
         <v>0</v>
@@ -17301,10 +17378,10 @@
         <v>6</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E583" s="3" t="b">
         <v>0</v>
@@ -17326,10 +17403,10 @@
         <v>6</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E584" s="3" t="b">
         <v>0</v>
@@ -17351,10 +17428,10 @@
         <v>6</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E585" s="3" t="b">
         <v>0</v>
@@ -17376,10 +17453,10 @@
         <v>6</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E586" s="3" t="b">
         <v>0</v>
@@ -17401,10 +17478,10 @@
         <v>6</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E587" s="3" t="b">
         <v>0</v>
@@ -17426,10 +17503,10 @@
         <v>6</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E588" s="3" t="b">
         <v>0</v>
@@ -17451,10 +17528,10 @@
         <v>6</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E589" s="3" t="b">
         <v>0</v>
@@ -17476,10 +17553,10 @@
         <v>6</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E590" s="3" t="b">
         <v>0</v>
@@ -17501,10 +17578,10 @@
         <v>6</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E591" s="3" t="b">
         <v>0</v>
@@ -17526,10 +17603,10 @@
         <v>6</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E592" s="3" t="b">
         <v>0</v>
@@ -17551,10 +17628,10 @@
         <v>6</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E593" s="3" t="b">
         <v>0</v>
@@ -17576,10 +17653,10 @@
         <v>6</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E594" s="3" t="b">
         <v>0</v>
@@ -17601,10 +17678,10 @@
         <v>6</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E595" s="3" t="b">
         <v>0</v>
@@ -17626,10 +17703,10 @@
         <v>6</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E596" s="3" t="b">
         <v>0</v>
@@ -17651,10 +17728,10 @@
         <v>6</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E597" s="3" t="b">
         <v>0</v>
@@ -17676,10 +17753,10 @@
         <v>6</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E598" s="3" t="b">
         <v>0</v>
@@ -17701,10 +17778,10 @@
         <v>6</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E599" s="3" t="b">
         <v>0</v>
@@ -17726,10 +17803,10 @@
         <v>6</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E600" s="3" t="b">
         <v>0</v>
@@ -17751,10 +17828,10 @@
         <v>6</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E601" s="3" t="b">
         <v>0</v>
@@ -17776,10 +17853,10 @@
         <v>6</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E602" s="3" t="b">
         <v>0</v>
@@ -17801,10 +17878,10 @@
         <v>6</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E603" s="3" t="b">
         <v>0</v>
@@ -17826,10 +17903,10 @@
         <v>6</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E604" s="3" t="b">
         <v>0</v>
@@ -17851,10 +17928,10 @@
         <v>6</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E605" s="3" t="b">
         <v>0</v>
@@ -17879,7 +17956,7 @@
         <v>30</v>
       </c>
       <c r="D606" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E606" s="3" t="b">
         <v>0</v>
@@ -17904,7 +17981,7 @@
         <v>9</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E607" s="3" t="b">
         <v>0</v>
@@ -17929,7 +18006,7 @@
         <v>11</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E608" s="3" t="b">
         <v>0</v>
@@ -17954,7 +18031,7 @@
         <v>13</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E609" s="3" t="b">
         <v>0</v>
@@ -17979,7 +18056,7 @@
         <v>15</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E610" s="3" t="b">
         <v>0</v>
@@ -18004,7 +18081,7 @@
         <v>7</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E611" s="3" t="b">
         <v>0</v>
@@ -18029,7 +18106,7 @@
         <v>18</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E612" s="3" t="b">
         <v>0</v>
@@ -18054,7 +18131,7 @@
         <v>20</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E613" s="3" t="b">
         <v>0</v>
@@ -18079,7 +18156,7 @@
         <v>22</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E614" s="3" t="b">
         <v>0</v>
@@ -18104,7 +18181,7 @@
         <v>9</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E615" s="3" t="b">
         <v>0</v>
@@ -18129,7 +18206,7 @@
         <v>11</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E616" s="3" t="b">
         <v>0</v>
@@ -18154,7 +18231,7 @@
         <v>13</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E617" s="3" t="b">
         <v>0</v>
@@ -18179,7 +18256,7 @@
         <v>15</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E618" s="3" t="b">
         <v>0</v>
@@ -18204,7 +18281,7 @@
         <v>7</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E619" s="3" t="b">
         <v>0</v>
@@ -18229,7 +18306,7 @@
         <v>18</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E620" s="3" t="b">
         <v>0</v>
@@ -18254,7 +18331,7 @@
         <v>20</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E621" s="3" t="b">
         <v>0</v>
@@ -18279,7 +18356,7 @@
         <v>22</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E622" s="3" t="b">
         <v>0</v>
@@ -18304,7 +18381,7 @@
         <v>9</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E623" s="3" t="b">
         <v>0</v>
@@ -18329,7 +18406,7 @@
         <v>11</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E624" s="3" t="b">
         <v>0</v>
@@ -18354,7 +18431,7 @@
         <v>13</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E625" s="3" t="b">
         <v>0</v>
@@ -18379,7 +18456,7 @@
         <v>15</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E626" s="3" t="b">
         <v>0</v>
@@ -18404,7 +18481,7 @@
         <v>7</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E627" s="3" t="b">
         <v>0</v>
@@ -18429,7 +18506,7 @@
         <v>18</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E628" s="3" t="b">
         <v>0</v>
@@ -18454,7 +18531,7 @@
         <v>20</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E629" s="3" t="b">
         <v>0</v>
@@ -18479,7 +18556,7 @@
         <v>22</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E630" s="3" t="b">
         <v>0</v>
@@ -18504,7 +18581,7 @@
         <v>9</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E631" s="3" t="b">
         <v>0</v>
@@ -18529,7 +18606,7 @@
         <v>11</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E632" s="3" t="b">
         <v>0</v>
@@ -18554,7 +18631,7 @@
         <v>13</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E633" s="3" t="b">
         <v>0</v>
@@ -18579,7 +18656,7 @@
         <v>15</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E634" s="3" t="b">
         <v>0</v>
@@ -18604,7 +18681,7 @@
         <v>7</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E635" s="3" t="b">
         <v>0</v>
@@ -18629,7 +18706,7 @@
         <v>18</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E636" s="3" t="b">
         <v>0</v>
@@ -18654,7 +18731,7 @@
         <v>22</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E637" s="3" t="b">
         <v>0</v>
@@ -18679,7 +18756,7 @@
         <v>20</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E638" s="3" t="b">
         <v>0</v>
@@ -18704,7 +18781,7 @@
         <v>9</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E639" s="3" t="b">
         <v>0</v>
@@ -18729,7 +18806,7 @@
         <v>11</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E640" s="3" t="b">
         <v>0</v>
@@ -18754,7 +18831,7 @@
         <v>13</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E641" s="3" t="b">
         <v>0</v>
@@ -18779,7 +18856,7 @@
         <v>15</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E642" s="3" t="b">
         <v>0</v>
@@ -18804,7 +18881,7 @@
         <v>18</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E643" s="3" t="b">
         <v>0</v>
@@ -18829,7 +18906,7 @@
         <v>7</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E644" s="3" t="b">
         <v>0</v>
@@ -18854,7 +18931,7 @@
         <v>20</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E645" s="3" t="b">
         <v>0</v>
@@ -18879,7 +18956,7 @@
         <v>22</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E646" s="3" t="b">
         <v>0</v>
@@ -18904,7 +18981,7 @@
         <v>20</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E647" s="3" t="b">
         <v>0</v>
@@ -18929,7 +19006,7 @@
         <v>20</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E648" s="3" t="b">
         <v>0</v>
@@ -18954,7 +19031,7 @@
         <v>9</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E649" s="3" t="b">
         <v>0</v>
@@ -18979,7 +19056,7 @@
         <v>11</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E650" s="3" t="b">
         <v>0</v>
@@ -19004,7 +19081,7 @@
         <v>13</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E651" s="3" t="b">
         <v>0</v>
@@ -19029,7 +19106,7 @@
         <v>15</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E652" s="3" t="b">
         <v>0</v>
@@ -19054,7 +19131,7 @@
         <v>18</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E653" s="3" t="b">
         <v>0</v>
@@ -19079,7 +19156,7 @@
         <v>7</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E654" s="3" t="b">
         <v>0</v>
@@ -19104,7 +19181,7 @@
         <v>20</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E655" s="3" t="b">
         <v>0</v>
@@ -19129,7 +19206,7 @@
         <v>22</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E656" s="3" t="b">
         <v>0</v>
@@ -19154,7 +19231,7 @@
         <v>15</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E657" s="3" t="b">
         <v>0</v>
@@ -19179,7 +19256,7 @@
         <v>30</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E658" s="3" t="b">
         <v>0</v>
@@ -19204,7 +19281,7 @@
         <v>30</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E659" s="3" t="b">
         <v>0</v>
@@ -19229,7 +19306,7 @@
         <v>30</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E660" s="3" t="b">
         <v>0</v>
@@ -19254,7 +19331,7 @@
         <v>13</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E661" s="3" t="b">
         <v>0</v>
@@ -19279,7 +19356,7 @@
         <v>30</v>
       </c>
       <c r="D662" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E662" s="3" t="b">
         <v>0</v>
@@ -19304,7 +19381,7 @@
         <v>30</v>
       </c>
       <c r="D663" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E663" s="3" t="b">
         <v>0</v>
@@ -19329,7 +19406,7 @@
         <v>30</v>
       </c>
       <c r="D664" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E664" s="3" t="b">
         <v>0</v>
@@ -19354,7 +19431,7 @@
         <v>30</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E665" s="3" t="b">
         <v>0</v>
@@ -19379,7 +19456,7 @@
         <v>30</v>
       </c>
       <c r="D666" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E666" s="3" t="b">
         <v>0</v>
@@ -19404,7 +19481,7 @@
         <v>30</v>
       </c>
       <c r="D667" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E667" s="3" t="b">
         <v>0</v>
@@ -19429,7 +19506,7 @@
         <v>30</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E668" s="3" t="b">
         <v>0</v>
@@ -19454,7 +19531,7 @@
         <v>30</v>
       </c>
       <c r="D669" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E669" s="3" t="b">
         <v>0</v>
@@ -19479,7 +19556,7 @@
         <v>30</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E670" s="3" t="b">
         <v>0</v>
@@ -19504,7 +19581,7 @@
         <v>30</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E671" s="3" t="b">
         <v>0</v>
@@ -19529,7 +19606,7 @@
         <v>30</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E672" s="3" t="b">
         <v>0</v>
@@ -19554,7 +19631,7 @@
         <v>30</v>
       </c>
       <c r="D673" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E673" s="3" t="b">
         <v>0</v>
@@ -19576,10 +19653,10 @@
         <v>6</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D674" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E674" s="3" t="b">
         <v>0</v>
@@ -19604,7 +19681,7 @@
         <v>30</v>
       </c>
       <c r="D675" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E675" s="3" t="b">
         <v>0</v>
@@ -19629,7 +19706,7 @@
         <v>30</v>
       </c>
       <c r="D676" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E676" s="3" t="b">
         <v>0</v>
@@ -19654,7 +19731,7 @@
         <v>30</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E677" s="3" t="b">
         <v>0</v>
@@ -19679,7 +19756,7 @@
         <v>30</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E678" s="3" t="b">
         <v>0</v>
@@ -19704,7 +19781,7 @@
         <v>30</v>
       </c>
       <c r="D679" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E679" s="3" t="b">
         <v>0</v>
@@ -19729,7 +19806,7 @@
         <v>30</v>
       </c>
       <c r="D680" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E680" s="3" t="b">
         <v>0</v>
@@ -19754,7 +19831,7 @@
         <v>30</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E681" s="3" t="b">
         <v>0</v>
@@ -19779,7 +19856,7 @@
         <v>30</v>
       </c>
       <c r="D682" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E682" s="3" t="b">
         <v>0</v>
@@ -19804,7 +19881,7 @@
         <v>20</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E683" s="3" t="b">
         <v>0</v>
@@ -19829,7 +19906,7 @@
         <v>30</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E684" s="3" t="b">
         <v>0</v>
@@ -19851,10 +19928,10 @@
         <v>6</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E685" s="3" t="b">
         <v>0</v>
@@ -19879,7 +19956,7 @@
         <v>20</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E686" s="3" t="b">
         <v>0</v>
@@ -19904,7 +19981,7 @@
         <v>30</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E687" s="3" t="b">
         <v>0</v>
@@ -19929,7 +20006,7 @@
         <v>30</v>
       </c>
       <c r="D688" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E688" s="3" t="b">
         <v>0</v>
@@ -19954,7 +20031,7 @@
         <v>30</v>
       </c>
       <c r="D689" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E689" s="3" t="b">
         <v>0</v>
@@ -19979,7 +20056,7 @@
         <v>30</v>
       </c>
       <c r="D690" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E690" s="3" t="b">
         <v>0</v>
@@ -20004,7 +20081,7 @@
         <v>30</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E691" s="3" t="b">
         <v>0</v>
@@ -20029,7 +20106,7 @@
         <v>22</v>
       </c>
       <c r="D692" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E692" s="3" t="b">
         <v>0</v>
@@ -20054,7 +20131,7 @@
         <v>30</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E693" s="3" t="b">
         <v>0</v>
@@ -20076,10 +20153,10 @@
         <v>6</v>
       </c>
       <c r="C694" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D694" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D694" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="E694" s="3" t="b">
         <v>0</v>
@@ -20104,7 +20181,7 @@
         <v>20</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E695" s="3" t="b">
         <v>0</v>
@@ -20129,7 +20206,7 @@
         <v>30</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E696" s="3" t="b">
         <v>0</v>
@@ -20154,7 +20231,7 @@
         <v>30</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E697" s="3" t="b">
         <v>0</v>
@@ -20179,7 +20256,7 @@
         <v>30</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E698" s="3" t="b">
         <v>0</v>
@@ -20204,7 +20281,7 @@
         <v>30</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E699" s="3" t="b">
         <v>0</v>
@@ -20226,10 +20303,10 @@
         <v>6</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E700" s="3" t="b">
         <v>0</v>
@@ -20254,7 +20331,7 @@
         <v>30</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E701" s="3" t="b">
         <v>0</v>
@@ -20279,7 +20356,7 @@
         <v>30</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E702" s="3" t="b">
         <v>0</v>
@@ -20304,7 +20381,7 @@
         <v>30</v>
       </c>
       <c r="D703" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E703" s="3" t="b">
         <v>0</v>
@@ -20329,7 +20406,7 @@
         <v>30</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E704" s="3" t="b">
         <v>0</v>
@@ -20354,7 +20431,7 @@
         <v>30</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E705" s="3" t="b">
         <v>0</v>
@@ -20379,7 +20456,7 @@
         <v>30</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E706" s="3" t="b">
         <v>0</v>
@@ -20404,7 +20481,7 @@
         <v>30</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E707" s="3" t="b">
         <v>0</v>
@@ -20429,7 +20506,7 @@
         <v>30</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E708" s="3" t="b">
         <v>0</v>
@@ -20454,7 +20531,7 @@
         <v>30</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E709" s="3" t="b">
         <v>0</v>
@@ -20476,10 +20553,10 @@
         <v>6</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E710" s="3" t="b">
         <v>0</v>
@@ -20504,7 +20581,7 @@
         <v>30</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E711" s="3" t="b">
         <v>0</v>
@@ -20526,10 +20603,10 @@
         <v>6</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E712" s="3" t="b">
         <v>0</v>
@@ -20554,7 +20631,7 @@
         <v>30</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E713" s="3" t="b">
         <v>0</v>
@@ -20576,10 +20653,10 @@
         <v>6</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E714" s="3" t="b">
         <v>0</v>
@@ -20601,10 +20678,10 @@
         <v>6</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E715" s="3" t="b">
         <v>0</v>
@@ -20629,7 +20706,7 @@
         <v>30</v>
       </c>
       <c r="D716" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E716" s="3" t="b">
         <v>0</v>
@@ -20654,7 +20731,7 @@
         <v>30</v>
       </c>
       <c r="D717" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E717" s="3" t="b">
         <v>0</v>
@@ -20676,10 +20753,10 @@
         <v>6</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E718" s="3" t="b">
         <v>0</v>
@@ -20704,7 +20781,7 @@
         <v>20</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E719" s="3" t="b">
         <v>0</v>
@@ -20726,10 +20803,10 @@
         <v>6</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E720" s="3" t="b">
         <v>0</v>
@@ -20754,7 +20831,7 @@
         <v>20</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E721" s="3" t="b">
         <v>0</v>
@@ -20779,7 +20856,7 @@
         <v>30</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E722" s="3" t="b">
         <v>0</v>
@@ -20804,7 +20881,7 @@
         <v>30</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E723" s="3" t="b">
         <v>0</v>
@@ -20829,7 +20906,7 @@
         <v>30</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E724" s="3" t="b">
         <v>0</v>
@@ -20854,7 +20931,7 @@
         <v>30</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E725" s="3" t="b">
         <v>0</v>
@@ -20876,10 +20953,10 @@
         <v>6</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E726" s="3" t="b">
         <v>0</v>
@@ -20904,7 +20981,7 @@
         <v>30</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E727" s="3" t="b">
         <v>0</v>
@@ -20926,10 +21003,10 @@
         <v>6</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E728" s="3" t="b">
         <v>0</v>
@@ -20951,10 +21028,10 @@
         <v>6</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E729" s="3" t="b">
         <v>0</v>
@@ -20976,10 +21053,10 @@
         <v>6</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E730" s="3" t="b">
         <v>0</v>
@@ -21004,7 +21081,7 @@
         <v>30</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E731" s="3" t="b">
         <v>0</v>
@@ -21029,7 +21106,7 @@
         <v>30</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E732" s="3" t="b">
         <v>0</v>
@@ -21051,10 +21128,10 @@
         <v>6</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E733" s="3" t="b">
         <v>0</v>
@@ -21079,7 +21156,7 @@
         <v>20</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E734" s="3" t="b">
         <v>0</v>
@@ -21101,10 +21178,10 @@
         <v>6</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E735" s="3" t="b">
         <v>0</v>
@@ -21129,7 +21206,7 @@
         <v>20</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E736" s="3" t="b">
         <v>0</v>
@@ -21154,7 +21231,7 @@
         <v>30</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E737" s="3" t="b">
         <v>0</v>
@@ -21179,7 +21256,7 @@
         <v>30</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E738" s="3" t="b">
         <v>0</v>
@@ -21204,7 +21281,7 @@
         <v>30</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E739" s="3" t="b">
         <v>0</v>
@@ -21229,7 +21306,7 @@
         <v>30</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E740" s="3" t="b">
         <v>0</v>
@@ -21251,10 +21328,10 @@
         <v>6</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D741" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E741" s="3" t="b">
         <v>0</v>
@@ -21279,7 +21356,7 @@
         <v>30</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E742" s="3" t="b">
         <v>0</v>
@@ -21304,7 +21381,7 @@
         <v>30</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E743" s="3" t="b">
         <v>0</v>
@@ -21329,7 +21406,7 @@
         <v>30</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E744" s="3" t="b">
         <v>0</v>
@@ -21354,7 +21431,7 @@
         <v>30</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E745" s="3" t="b">
         <v>0</v>
@@ -21376,10 +21453,10 @@
         <v>6</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E746" s="3" t="b">
         <v>0</v>
@@ -21401,10 +21478,10 @@
         <v>6</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E747" s="3" t="b">
         <v>0</v>
@@ -21429,7 +21506,7 @@
         <v>30</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E748" s="3" t="b">
         <v>0</v>
@@ -21454,7 +21531,7 @@
         <v>30</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E749" s="3" t="b">
         <v>0</v>
@@ -21479,7 +21556,7 @@
         <v>30</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E750" s="3" t="b">
         <v>0</v>
@@ -21504,7 +21581,7 @@
         <v>30</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E751" s="3" t="b">
         <v>0</v>
@@ -21526,10 +21603,10 @@
         <v>6</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E752" s="3" t="b">
         <v>0</v>
@@ -21551,10 +21628,10 @@
         <v>6</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D753" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E753" s="3" t="b">
         <v>0</v>
@@ -21576,10 +21653,10 @@
         <v>6</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E754" s="3" t="b">
         <v>0</v>
@@ -21601,10 +21678,10 @@
         <v>6</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E755" s="3" t="b">
         <v>0</v>
@@ -21626,10 +21703,10 @@
         <v>6</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E756" s="3" t="b">
         <v>0</v>
@@ -21651,10 +21728,10 @@
         <v>6</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E757" s="3" t="b">
         <v>0</v>
@@ -21676,10 +21753,10 @@
         <v>6</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E758" s="3" t="b">
         <v>0</v>
@@ -21701,10 +21778,10 @@
         <v>6</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D759" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E759" s="3" t="b">
         <v>0</v>
@@ -21729,7 +21806,7 @@
         <v>30</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E760" s="3" t="b">
         <v>0</v>
@@ -21754,7 +21831,7 @@
         <v>30</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E761" s="3" t="b">
         <v>0</v>
@@ -21779,7 +21856,7 @@
         <v>30</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E762" s="3" t="b">
         <v>0</v>
@@ -21804,7 +21881,7 @@
         <v>30</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E763" s="3" t="b">
         <v>0</v>
@@ -21829,7 +21906,7 @@
         <v>30</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E764" s="3" t="b">
         <v>0</v>
@@ -21854,7 +21931,7 @@
         <v>30</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E765" s="3" t="b">
         <v>0</v>
@@ -21879,7 +21956,7 @@
         <v>30</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E766" s="3" t="b">
         <v>0</v>
@@ -21901,10 +21978,10 @@
         <v>6</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E767" s="3" t="b">
         <v>0</v>
@@ -21929,7 +22006,7 @@
         <v>18</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E768" s="3" t="b">
         <v>0</v>
@@ -21954,7 +22031,7 @@
         <v>30</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E769" s="3" t="b">
         <v>0</v>
@@ -21976,10 +22053,10 @@
         <v>6</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E770" s="3" t="b">
         <v>0</v>
@@ -22004,7 +22081,7 @@
         <v>18</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E771" s="3" t="b">
         <v>0</v>
@@ -22029,7 +22106,7 @@
         <v>30</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E772" s="3" t="b">
         <v>0</v>
@@ -22051,10 +22128,10 @@
         <v>6</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="D773" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E773" s="3" t="b">
         <v>0</v>
@@ -22079,7 +22156,7 @@
         <v>18</v>
       </c>
       <c r="D774" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E774" s="3" t="b">
         <v>0</v>
@@ -22104,7 +22181,7 @@
         <v>18</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E775" s="3" t="b">
         <v>0</v>
@@ -22129,7 +22206,7 @@
         <v>30</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E776" s="3" t="b">
         <v>0</v>
@@ -22151,10 +22228,10 @@
         <v>6</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E777" s="3" t="b">
         <v>0</v>
@@ -22179,7 +22256,7 @@
         <v>30</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E778" s="3" t="b">
         <v>0</v>
@@ -22204,7 +22281,7 @@
         <v>30</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E779" s="3" t="b">
         <v>0</v>
@@ -22229,7 +22306,7 @@
         <v>30</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E780" s="3" t="b">
         <v>0</v>
@@ -22254,7 +22331,7 @@
         <v>30</v>
       </c>
       <c r="D781" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E781" s="3" t="b">
         <v>0</v>
@@ -22276,10 +22353,10 @@
         <v>6</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E782" s="3" t="b">
         <v>0</v>
@@ -22304,7 +22381,7 @@
         <v>18</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E783" s="3" t="b">
         <v>0</v>
@@ -22329,7 +22406,7 @@
         <v>30</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E784" s="3" t="b">
         <v>0</v>
@@ -22351,10 +22428,10 @@
         <v>6</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E785" s="3" t="b">
         <v>0</v>
@@ -22379,7 +22456,7 @@
         <v>18</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E786" s="3" t="b">
         <v>0</v>
@@ -22404,7 +22481,7 @@
         <v>30</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E787" s="3" t="b">
         <v>0</v>
@@ -22426,10 +22503,10 @@
         <v>6</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E788" s="3" t="b">
         <v>0</v>
@@ -22454,7 +22531,7 @@
         <v>18</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E789" s="3" t="b">
         <v>0</v>
@@ -22479,7 +22556,7 @@
         <v>18</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E790" s="3" t="b">
         <v>0</v>
@@ -22504,7 +22581,7 @@
         <v>30</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E791" s="3" t="b">
         <v>0</v>
@@ -22526,10 +22603,10 @@
         <v>6</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E792" s="3" t="b">
         <v>0</v>
@@ -22554,7 +22631,7 @@
         <v>30</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E793" s="3" t="b">
         <v>0</v>
@@ -22579,7 +22656,7 @@
         <v>30</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E794" s="3" t="b">
         <v>0</v>
@@ -22604,7 +22681,7 @@
         <v>30</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E795" s="3" t="b">
         <v>0</v>
@@ -22629,7 +22706,7 @@
         <v>30</v>
       </c>
       <c r="D796" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E796" s="3" t="b">
         <v>0</v>
@@ -22651,10 +22728,10 @@
         <v>6</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E797" s="3" t="b">
         <v>0</v>
@@ -22679,7 +22756,7 @@
         <v>18</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E798" s="3" t="b">
         <v>0</v>
@@ -22704,7 +22781,7 @@
         <v>15</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E799" s="3" t="b">
         <v>0</v>
@@ -22726,10 +22803,10 @@
         <v>6</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E800" s="3" t="b">
         <v>0</v>
@@ -22754,7 +22831,7 @@
         <v>20</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E801" s="3" t="b">
         <v>0</v>
@@ -22779,7 +22856,7 @@
         <v>7</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E802" s="3" t="b">
         <v>0</v>
@@ -22804,7 +22881,7 @@
         <v>30</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E803" s="3" t="b">
         <v>0</v>
@@ -22829,7 +22906,7 @@
         <v>30</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E804" s="3" t="b">
         <v>0</v>
@@ -22854,7 +22931,7 @@
         <v>30</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E805" s="3" t="b">
         <v>0</v>
@@ -22879,7 +22956,7 @@
         <v>30</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E806" s="3" t="b">
         <v>0</v>
@@ -22904,7 +22981,7 @@
         <v>30</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E807" s="3" t="b">
         <v>0</v>
@@ -22929,7 +23006,7 @@
         <v>30</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E808" s="3" t="b">
         <v>0</v>
@@ -22954,7 +23031,7 @@
         <v>30</v>
       </c>
       <c r="D809" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E809" s="3" t="b">
         <v>0</v>
@@ -22979,7 +23056,7 @@
         <v>30</v>
       </c>
       <c r="D810" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E810" s="3" t="b">
         <v>0</v>
@@ -23004,7 +23081,7 @@
         <v>9</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E811" s="3" t="b">
         <v>0</v>
@@ -23029,7 +23106,7 @@
         <v>30</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E812" s="3" t="b">
         <v>0</v>
@@ -23054,7 +23131,7 @@
         <v>11</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E813" s="3" t="b">
         <v>0</v>
@@ -23079,7 +23156,7 @@
         <v>30</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E814" s="3" t="b">
         <v>0</v>
@@ -23104,7 +23181,7 @@
         <v>30</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E815" s="3" t="b">
         <v>0</v>
@@ -23129,7 +23206,7 @@
         <v>7</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E816" s="3" t="b">
         <v>0</v>
@@ -23154,7 +23231,7 @@
         <v>30</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E817" s="3" t="b">
         <v>0</v>
@@ -23179,7 +23256,7 @@
         <v>18</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E818" s="3" t="b">
         <v>0</v>
@@ -23204,7 +23281,7 @@
         <v>30</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E819" s="3" t="b">
         <v>0</v>
@@ -23229,7 +23306,7 @@
         <v>15</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E820" s="3" t="b">
         <v>0</v>
@@ -23254,7 +23331,7 @@
         <v>15</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E821" s="3" t="b">
         <v>0</v>
@@ -23279,7 +23356,7 @@
         <v>20</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E822" s="3" t="b">
         <v>0</v>
@@ -23304,7 +23381,7 @@
         <v>30</v>
       </c>
       <c r="D823" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E823" s="3" t="b">
         <v>0</v>
@@ -23329,7 +23406,7 @@
         <v>13</v>
       </c>
       <c r="D824" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E824" s="3" t="b">
         <v>0</v>
@@ -23354,7 +23431,7 @@
         <v>13</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E825" s="3" t="b">
         <v>0</v>
@@ -23379,7 +23456,7 @@
         <v>30</v>
       </c>
       <c r="D826" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E826" s="3" t="b">
         <v>0</v>
@@ -23404,7 +23481,7 @@
         <v>22</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E827" s="3" t="b">
         <v>0</v>
@@ -23429,7 +23506,7 @@
         <v>30</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E828" s="3" t="b">
         <v>0</v>
@@ -23444,27 +23521,208 @@
       <c r="K828" s="3"/>
     </row>
     <row r="829" spans="1:11" ht="19.2">
-      <c r="A829" s="3">
+      <c r="A829" s="9">
         <v>7417</v>
       </c>
-      <c r="B829" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C829" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D829" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="E829" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F829" s="3">
+      <c r="B829" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C829" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D829" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E829" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F829" s="9">
         <v>827</v>
       </c>
     </row>
+    <row r="830" spans="1:11" ht="19.2">
+      <c r="A830" s="9">
+        <v>7418</v>
+      </c>
+      <c r="B830" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C830" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D830" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="E830" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F830" s="9">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="831" spans="1:11" ht="19.2">
+      <c r="A831" s="9">
+        <v>7419</v>
+      </c>
+      <c r="B831" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C831" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D831" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E831" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F831" s="9">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="832" spans="1:11" ht="19.2">
+      <c r="A832" s="9">
+        <v>7420</v>
+      </c>
+      <c r="B832" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C832" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D832" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E832" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F832" s="9">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" ht="19.2">
+      <c r="A833" s="9">
+        <v>7421</v>
+      </c>
+      <c r="B833" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C833" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D833" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E833" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F833" s="9">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" ht="19.2">
+      <c r="A834" s="9">
+        <v>7422</v>
+      </c>
+      <c r="B834" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C834" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D834" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E834" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F834" s="9">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" ht="19.2">
+      <c r="A835" s="9">
+        <v>7423</v>
+      </c>
+      <c r="B835" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C835" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D835" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E835" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F835" s="9">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" ht="19.2">
+      <c r="A836" s="9">
+        <v>7424</v>
+      </c>
+      <c r="B836" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C836" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D836" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="E836" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F836" s="9">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" ht="19.2">
+      <c r="A837" s="9">
+        <v>7425</v>
+      </c>
+      <c r="B837" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C837" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D837" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E837" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F837" s="9">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" ht="19.2">
+      <c r="A838" s="9">
+        <v>7426</v>
+      </c>
+      <c r="B838" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C838" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D838" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E838" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F838" s="9">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" ht="17.399999999999999"/>
   </sheetData>
-  <autoFilter ref="A1:F829" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F838" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9251B53D-F3E9-41AF-AA07-B43336D23FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527E5DD9-BBF9-4F92-BD10-1F8E001B1323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="595">
   <si>
     <t>key_index</t>
   </si>
@@ -2402,6 +2402,113 @@
       <t>ⓦ 가져오신다면 알려드리겠소~</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ볏짚을 건넸다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ설마 볏짚을 꼬아달라는 거예요? 고생 시키는 남자는 딱 질색이네요!!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ볏짚을 아주 잘 말려놨구만. 심청이가 지 어미를 닮아서 일은 똑 부러지네.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ심씨 댁에 베틀에서 새끼를 꼬아다주게.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ뭐 살 것 있소?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ부처께 지성으로 불공드린다면 근심이 없어진답니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ볏짚이 굉장히 잘 말랐네요! 덮고 자면 딱 따뜻할 것 같아요.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ오랜만에 밟는 땅이요. 쉬고 싶소.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ시간이 명줄이오! 빨리 움직이십시오!!(퍽 겸손한 말씨로 바삐 일한다.)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ호호, 무슨 일이신가요??</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ이건 오른새끼네.. 열심히 새끼 꼬아서 살림 피자고.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ이건 오른새끼지 않은가... 그래도 고맙네.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ새끼줄을 팔러 왔소? 다른 상인 찾아보십쇼.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ이게 뭐예요? 새끼줄?? 짚신이라도 만드시게요?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ새끼줄이군.. 내 안사람이 새끼줄을 잘 꼬았었지.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ여기 사람들의 새끼줄은 참 촘촘합니다. 잘 끊어지질 않지요.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ만져보면 알잖는가. 왼새끼일세. 딱히 지금 필요한 곳이 있나?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ오, 정말 고맙네! 내가 조만간 꼭 사례하도록 하지.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ왼새끼는 보통 잘 안 팝니다. 다들 직접 만들어 쓰니까요.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ왼새끼는 저희 몽운사에서도 많이 필요해서 제가 자주 만들지요.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ⓦ볏짚이 있다면 집 안에 ⓡ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>베틀ⓦ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>에서 새끼줄을 만들어주게.</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2524,7 +2631,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2541,6 +2648,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD965"/>
         <bgColor rgb="FFFFD965"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2563,7 +2682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2602,6 +2721,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2912,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K845"/>
+  <dimension ref="A1:K871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D845" sqref="D845"/>
+    <sheetView tabSelected="1" topLeftCell="A865" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A871" sqref="A871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -23953,20 +24078,540 @@
       <c r="A845" s="8">
         <v>7433</v>
       </c>
-      <c r="B845" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C845" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="D845" s="12" t="s">
-        <v>552</v>
+      <c r="B845" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C845" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D845" s="8" t="s">
+        <v>574</v>
       </c>
       <c r="E845" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F845" s="8">
         <v>843</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" ht="19.2">
+      <c r="A846" s="8">
+        <v>7434</v>
+      </c>
+      <c r="B846" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C846" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D846" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E846" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F846" s="8">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" ht="19.2">
+      <c r="A847" s="13">
+        <v>7435</v>
+      </c>
+      <c r="B847" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C847" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D847" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="E847" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F847" s="8">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" ht="19.2">
+      <c r="A848" s="13">
+        <v>7436</v>
+      </c>
+      <c r="B848" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C848" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D848" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="E848" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F848" s="8">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" ht="19.2">
+      <c r="A849" s="13">
+        <v>7437</v>
+      </c>
+      <c r="B849" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C849" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D849" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="E849" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F849" s="8">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" ht="19.2">
+      <c r="A850" s="13">
+        <v>7438</v>
+      </c>
+      <c r="B850" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C850" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D850" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="E850" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F850" s="8">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" ht="19.2">
+      <c r="A851" s="13">
+        <v>7439</v>
+      </c>
+      <c r="B851" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C851" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D851" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="E851" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F851" s="8">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" ht="19.2">
+      <c r="A852" s="13">
+        <v>7440</v>
+      </c>
+      <c r="B852" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C852" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D852" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E852" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F852" s="8">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" ht="19.2">
+      <c r="A853" s="13">
+        <v>7441</v>
+      </c>
+      <c r="B853" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C853" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D853" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="E853" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F853" s="8">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" ht="19.2">
+      <c r="A854" s="13">
+        <v>7442</v>
+      </c>
+      <c r="B854" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C854" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D854" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="E854" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F854" s="8">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" ht="19.2">
+      <c r="A855" s="14">
+        <v>7443</v>
+      </c>
+      <c r="B855" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C855" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D855" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="E855" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F855" s="8">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" ht="19.2">
+      <c r="A856" s="14">
+        <v>7444</v>
+      </c>
+      <c r="B856" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C856" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D856" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="E856" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F856" s="8">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" ht="19.2">
+      <c r="A857" s="14">
+        <v>7445</v>
+      </c>
+      <c r="B857" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C857" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D857" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E857" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F857" s="8">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" ht="19.2">
+      <c r="A858" s="14">
+        <v>7446</v>
+      </c>
+      <c r="B858" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C858" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D858" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="E858" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F858" s="8">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" ht="19.2">
+      <c r="A859" s="14">
+        <v>7447</v>
+      </c>
+      <c r="B859" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C859" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D859" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E859" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F859" s="8">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" ht="19.2">
+      <c r="A860" s="14">
+        <v>7448</v>
+      </c>
+      <c r="B860" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C860" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D860" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="E860" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F860" s="8">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" ht="19.2">
+      <c r="A861" s="14">
+        <v>7449</v>
+      </c>
+      <c r="B861" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C861" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D861" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="E861" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F861" s="8">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" ht="19.2">
+      <c r="A862" s="14">
+        <v>7450</v>
+      </c>
+      <c r="B862" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C862" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D862" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="E862" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F862" s="8">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" ht="19.2">
+      <c r="A863" s="8">
+        <v>7451</v>
+      </c>
+      <c r="B863" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C863" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D863" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E863" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F863" s="8">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" ht="19.2">
+      <c r="A864" s="8">
+        <v>7452</v>
+      </c>
+      <c r="B864" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C864" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D864" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E864" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F864" s="8">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" ht="19.2">
+      <c r="A865" s="8">
+        <v>7453</v>
+      </c>
+      <c r="B865" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C865" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D865" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E865" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F865" s="8">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" ht="19.2">
+      <c r="A866" s="8">
+        <v>7454</v>
+      </c>
+      <c r="B866" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C866" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D866" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E866" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F866" s="8">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" ht="19.2">
+      <c r="A867" s="8">
+        <v>7455</v>
+      </c>
+      <c r="B867" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C867" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D867" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E867" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F867" s="8">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" ht="19.2">
+      <c r="A868" s="8">
+        <v>7456</v>
+      </c>
+      <c r="B868" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C868" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D868" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E868" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F868" s="8">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" ht="19.2">
+      <c r="A869" s="8">
+        <v>7457</v>
+      </c>
+      <c r="B869" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C869" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D869" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E869" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F869" s="8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" ht="19.2">
+      <c r="A870" s="8">
+        <v>7458</v>
+      </c>
+      <c r="B870" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C870" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D870" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E870" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F870" s="8">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" ht="19.2">
+      <c r="A871" s="8">
+        <v>7433</v>
+      </c>
+      <c r="B871" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C871" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="D871" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="E871" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F871" s="8">
+        <v>869</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Database/S_NPCdatabase_Yes.xlsx
+++ b/Assets/Database/S_NPCdatabase_Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\취업 포트폴리오 정리\2023\230705~Shimcheong\real\RealRealShimeCheong\Assets\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527E5DD9-BBF9-4F92-BD10-1F8E001B1323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E6E044-CF10-4849-A2E6-BF0EF7052267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_01" sheetId="1" r:id="rId1"/>
@@ -1138,15 +1138,9 @@
     <t>ⓦ여기는 어쩐 일이오?</t>
   </si>
   <si>
-    <t>ⓦ먼저 장작을 넣어야한다.</t>
-  </si>
-  <si>
     <t>ⓦ개울가에서 z를 누르면 물을 뜰 수 있소!</t>
   </si>
   <si>
-    <t>ⓦ쌀이 있어야 밥을 만들 수 있다.</t>
-  </si>
-  <si>
     <t>ⓦ누굴 배곯고 다니는 거지로 아시오? 이걸 누구 코에 붙인담.. 도로 가져가셔요!</t>
   </si>
   <si>
@@ -1166,9 +1160,6 @@
   </si>
   <si>
     <t>ⓦ굶주릴 땐 여기 도화촌 주막이 종종 생각나곤 하지..</t>
-  </si>
-  <si>
-    <t>ⓦ쌀이 타기 전에 물을 붓자.</t>
   </si>
   <si>
     <t>ⓦ저는 이런 것보단, 좀 더 반짝거리는 것이 좋습니다. 호호호~</t>
@@ -1696,24 +1687,6 @@
     <t>ⓦ대신 보부상들이 장터 자리를 꿰찼고 이전보다 더 활기차졌다.</t>
   </si>
   <si>
-    <t>ⓦ장작을 아궁이에 넣었다.</t>
-  </si>
-  <si>
-    <t>ⓦ부시와 부싯돌로 불을 붙였다.</t>
-  </si>
-  <si>
-    <t>ⓦ바가지로 물을 떴다.</t>
-  </si>
-  <si>
-    <t>ⓦ물이 든 바가지를 솥에 부었다.</t>
-  </si>
-  <si>
-    <t>ⓦ쌀을 솥에 넣었다.</t>
-  </si>
-  <si>
-    <t>ⓦ주먹밥을 만들었다.</t>
-  </si>
-  <si>
     <t>ⓦ주먹밥을 건넸다.</t>
   </si>
   <si>
@@ -1964,9 +1937,6 @@
       </rPr>
       <t>무슨 일이 있더라도 아버님이 뛰어드시면 안 됩니다.</t>
     </r>
-  </si>
-  <si>
-    <t>ⓦ노 젓기를 도와준다.</t>
   </si>
   <si>
     <t>ⓦ그날이었나,, 뱃사공이 큰 소리를 쳤던 일이 있소. 사공에게 한번 가보시오.</t>
@@ -2509,6 +2479,46 @@
       <t>에서 새끼줄을 만들어주게.</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀이 있어야 밥을 만들 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ노 젓기를 도와준다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ장작을 아궁이에 넣었다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ부시와 부싯돌로 불을 붙였다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ바가지로 물을 떴다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ물이 든 바가지를 솥에 부었다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ쌀을 솥에 넣었다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ주먹밥을 만들었다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ먼저 장작을 넣어야한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓦ쌀이 타기 전에 물을 붓자.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3039,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A865" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A871" sqref="A871"/>
+    <sheetView tabSelected="1" topLeftCell="A595" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D603" sqref="D603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -3315,7 +3325,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -3440,7 +3450,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -3515,7 +3525,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -4115,7 +4125,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="E43" s="3" t="b">
         <v>0</v>
@@ -4240,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E48" s="3" t="b">
         <v>0</v>
@@ -4265,7 +4275,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E49" s="3" t="b">
         <v>0</v>
@@ -4687,7 +4697,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>71</v>
@@ -9715,7 +9725,7 @@
         <v>28</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>227</v>
+        <v>593</v>
       </c>
       <c r="E267" s="3" t="b">
         <v>0</v>
@@ -9765,7 +9775,7 @@
         <v>11</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E269" s="3" t="b">
         <v>0</v>
@@ -10140,7 +10150,7 @@
         <v>28</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>229</v>
+        <v>585</v>
       </c>
       <c r="E284" s="3" t="b">
         <v>0</v>
@@ -10165,7 +10175,7 @@
         <v>9</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E285" s="3" t="b">
         <v>0</v>
@@ -10190,7 +10200,7 @@
         <v>11</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E286" s="3" t="b">
         <v>0</v>
@@ -10215,7 +10225,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E287" s="3" t="b">
         <v>0</v>
@@ -10240,7 +10250,7 @@
         <v>15</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E288" s="3" t="b">
         <v>0</v>
@@ -10265,7 +10275,7 @@
         <v>7</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E289" s="3" t="b">
         <v>0</v>
@@ -10290,7 +10300,7 @@
         <v>18</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E290" s="3" t="b">
         <v>0</v>
@@ -10315,7 +10325,7 @@
         <v>20</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E291" s="3" t="b">
         <v>0</v>
@@ -10365,7 +10375,7 @@
         <v>28</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>237</v>
+        <v>594</v>
       </c>
       <c r="E293" s="3" t="b">
         <v>0</v>
@@ -10390,7 +10400,7 @@
         <v>9</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E294" s="3" t="b">
         <v>0</v>
@@ -10415,7 +10425,7 @@
         <v>11</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E295" s="3" t="b">
         <v>0</v>
@@ -10440,7 +10450,7 @@
         <v>13</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E296" s="3" t="b">
         <v>0</v>
@@ -10465,7 +10475,7 @@
         <v>15</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E297" s="3" t="b">
         <v>0</v>
@@ -10490,7 +10500,7 @@
         <v>7</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E298" s="3" t="b">
         <v>0</v>
@@ -10515,7 +10525,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E299" s="3" t="b">
         <v>0</v>
@@ -10565,7 +10575,7 @@
         <v>9</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E301" s="3" t="b">
         <v>0</v>
@@ -10590,7 +10600,7 @@
         <v>11</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E302" s="3" t="b">
         <v>0</v>
@@ -10640,7 +10650,7 @@
         <v>15</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E304" s="3" t="b">
         <v>0</v>
@@ -10690,7 +10700,7 @@
         <v>18</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E306" s="3" t="b">
         <v>0</v>
@@ -10715,7 +10725,7 @@
         <v>20</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E307" s="3" t="b">
         <v>0</v>
@@ -10740,7 +10750,7 @@
         <v>22</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E308" s="3" t="b">
         <v>0</v>
@@ -10765,7 +10775,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E309" s="3" t="b">
         <v>0</v>
@@ -10790,7 +10800,7 @@
         <v>11</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E310" s="3" t="b">
         <v>0</v>
@@ -10815,7 +10825,7 @@
         <v>13</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E311" s="3" t="b">
         <v>0</v>
@@ -10840,7 +10850,7 @@
         <v>15</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E312" s="3" t="b">
         <v>0</v>
@@ -10865,7 +10875,7 @@
         <v>7</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E313" s="3" t="b">
         <v>0</v>
@@ -10890,7 +10900,7 @@
         <v>18</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E314" s="3" t="b">
         <v>0</v>
@@ -10915,7 +10925,7 @@
         <v>20</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E315" s="3" t="b">
         <v>0</v>
@@ -10940,7 +10950,7 @@
         <v>22</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E316" s="3" t="b">
         <v>0</v>
@@ -10990,7 +11000,7 @@
         <v>11</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E318" s="3" t="b">
         <v>0</v>
@@ -11140,7 +11150,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E324" s="3" t="b">
         <v>0</v>
@@ -11165,7 +11175,7 @@
         <v>11</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E325" s="3" t="b">
         <v>0</v>
@@ -11190,7 +11200,7 @@
         <v>13</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E326" s="3" t="b">
         <v>0</v>
@@ -11215,7 +11225,7 @@
         <v>15</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E327" s="3" t="b">
         <v>0</v>
@@ -11240,7 +11250,7 @@
         <v>7</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E328" s="3" t="b">
         <v>0</v>
@@ -11265,7 +11275,7 @@
         <v>18</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E329" s="3" t="b">
         <v>0</v>
@@ -11290,7 +11300,7 @@
         <v>20</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E330" s="3" t="b">
         <v>0</v>
@@ -11315,7 +11325,7 @@
         <v>22</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E331" s="3" t="b">
         <v>0</v>
@@ -11540,7 +11550,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E340" s="3" t="b">
         <v>0</v>
@@ -11565,7 +11575,7 @@
         <v>11</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E341" s="3" t="b">
         <v>0</v>
@@ -11590,7 +11600,7 @@
         <v>13</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E342" s="3" t="b">
         <v>0</v>
@@ -11615,7 +11625,7 @@
         <v>15</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E343" s="3" t="b">
         <v>0</v>
@@ -11640,7 +11650,7 @@
         <v>7</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E344" s="3" t="b">
         <v>0</v>
@@ -11665,7 +11675,7 @@
         <v>18</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E345" s="3" t="b">
         <v>0</v>
@@ -11690,7 +11700,7 @@
         <v>20</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E346" s="3" t="b">
         <v>0</v>
@@ -11715,7 +11725,7 @@
         <v>20</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E347" s="3" t="b">
         <v>0</v>
@@ -11740,7 +11750,7 @@
         <v>20</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E348" s="3" t="b">
         <v>0</v>
@@ -11765,7 +11775,7 @@
         <v>22</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E349" s="3" t="b">
         <v>0</v>
@@ -11790,7 +11800,7 @@
         <v>28</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E350" s="3" t="b">
         <v>0</v>
@@ -11815,7 +11825,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E351" s="3" t="b">
         <v>0</v>
@@ -11840,7 +11850,7 @@
         <v>11</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E352" s="3" t="b">
         <v>0</v>
@@ -11865,7 +11875,7 @@
         <v>13</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E353" s="3" t="b">
         <v>0</v>
@@ -11890,7 +11900,7 @@
         <v>15</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E354" s="3" t="b">
         <v>0</v>
@@ -11915,7 +11925,7 @@
         <v>7</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E355" s="3" t="b">
         <v>0</v>
@@ -11940,7 +11950,7 @@
         <v>18</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E356" s="3" t="b">
         <v>0</v>
@@ -11965,7 +11975,7 @@
         <v>20</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E357" s="3" t="b">
         <v>0</v>
@@ -11990,7 +12000,7 @@
         <v>22</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E358" s="3" t="b">
         <v>0</v>
@@ -12015,7 +12025,7 @@
         <v>9</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E359" s="3" t="b">
         <v>0</v>
@@ -12040,7 +12050,7 @@
         <v>11</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E360" s="3" t="b">
         <v>0</v>
@@ -12065,7 +12075,7 @@
         <v>13</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E361" s="3" t="b">
         <v>0</v>
@@ -12140,7 +12150,7 @@
         <v>18</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E364" s="3" t="b">
         <v>0</v>
@@ -12165,7 +12175,7 @@
         <v>20</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E365" s="3" t="b">
         <v>0</v>
@@ -12215,7 +12225,7 @@
         <v>9</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E367" s="3" t="b">
         <v>0</v>
@@ -12240,7 +12250,7 @@
         <v>11</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E368" s="3" t="b">
         <v>0</v>
@@ -12265,7 +12275,7 @@
         <v>13</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E369" s="3" t="b">
         <v>0</v>
@@ -12340,7 +12350,7 @@
         <v>18</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E372" s="3" t="b">
         <v>0</v>
@@ -12365,7 +12375,7 @@
         <v>20</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E373" s="3" t="b">
         <v>0</v>
@@ -12415,7 +12425,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E375" s="3" t="b">
         <v>0</v>
@@ -12440,7 +12450,7 @@
         <v>11</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E376" s="3" t="b">
         <v>0</v>
@@ -12465,7 +12475,7 @@
         <v>13</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E377" s="3" t="b">
         <v>0</v>
@@ -12490,7 +12500,7 @@
         <v>15</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E378" s="3" t="b">
         <v>0</v>
@@ -12540,7 +12550,7 @@
         <v>18</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E380" s="3" t="b">
         <v>0</v>
@@ -12565,7 +12575,7 @@
         <v>22</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E381" s="3" t="b">
         <v>0</v>
@@ -12615,7 +12625,7 @@
         <v>9</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E383" s="3" t="b">
         <v>0</v>
@@ -12640,7 +12650,7 @@
         <v>11</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E384" s="3" t="b">
         <v>0</v>
@@ -12665,7 +12675,7 @@
         <v>13</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E385" s="3" t="b">
         <v>0</v>
@@ -12690,7 +12700,7 @@
         <v>15</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E386" s="3" t="b">
         <v>0</v>
@@ -12715,7 +12725,7 @@
         <v>18</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E387" s="3" t="b">
         <v>0</v>
@@ -12740,7 +12750,7 @@
         <v>7</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E388" s="3" t="b">
         <v>0</v>
@@ -12765,7 +12775,7 @@
         <v>20</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E389" s="3" t="b">
         <v>0</v>
@@ -12790,7 +12800,7 @@
         <v>22</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E390" s="3" t="b">
         <v>0</v>
@@ -12815,7 +12825,7 @@
         <v>20</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E391" s="3" t="b">
         <v>0</v>
@@ -12840,7 +12850,7 @@
         <v>20</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E392" s="3" t="b">
         <v>0</v>
@@ -12865,7 +12875,7 @@
         <v>9</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E393" s="3" t="b">
         <v>0</v>
@@ -12890,7 +12900,7 @@
         <v>11</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E394" s="3" t="b">
         <v>0</v>
@@ -12915,7 +12925,7 @@
         <v>13</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E395" s="3" t="b">
         <v>0</v>
@@ -12940,7 +12950,7 @@
         <v>15</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E396" s="3" t="b">
         <v>0</v>
@@ -12965,7 +12975,7 @@
         <v>18</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E397" s="3" t="b">
         <v>0</v>
@@ -12990,7 +13000,7 @@
         <v>7</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E398" s="3" t="b">
         <v>0</v>
@@ -13015,7 +13025,7 @@
         <v>20</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E399" s="3" t="b">
         <v>0</v>
@@ -13040,7 +13050,7 @@
         <v>22</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E400" s="3" t="b">
         <v>0</v>
@@ -13065,7 +13075,7 @@
         <v>9</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="E401" s="3" t="b">
         <v>0</v>
@@ -13090,7 +13100,7 @@
         <v>11</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="E402" s="3" t="b">
         <v>0</v>
@@ -13115,7 +13125,7 @@
         <v>13</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E403" s="3" t="b">
         <v>0</v>
@@ -13140,7 +13150,7 @@
         <v>15</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E404" s="3" t="b">
         <v>0</v>
@@ -13165,7 +13175,7 @@
         <v>18</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="E405" s="3" t="b">
         <v>0</v>
@@ -13190,7 +13200,7 @@
         <v>20</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E406" s="3" t="b">
         <v>0</v>
@@ -13215,7 +13225,7 @@
         <v>22</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E407" s="3" t="b">
         <v>0</v>
@@ -13240,7 +13250,7 @@
         <v>22</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E408" s="3" t="b">
         <v>0</v>
@@ -13265,7 +13275,7 @@
         <v>7</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="E409" s="3" t="b">
         <v>0</v>
@@ -13315,7 +13325,7 @@
         <v>22</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E411" s="3" t="b">
         <v>0</v>
@@ -13340,7 +13350,7 @@
         <v>15</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E412" s="3" t="b">
         <v>0</v>
@@ -13365,7 +13375,7 @@
         <v>28</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E413" s="3" t="b">
         <v>0</v>
@@ -13390,7 +13400,7 @@
         <v>28</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E414" s="3" t="b">
         <v>0</v>
@@ -13415,7 +13425,7 @@
         <v>28</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E415" s="3" t="b">
         <v>0</v>
@@ -13440,7 +13450,7 @@
         <v>13</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E416" s="3" t="b">
         <v>0</v>
@@ -13465,7 +13475,7 @@
         <v>28</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E417" s="3" t="b">
         <v>0</v>
@@ -13490,7 +13500,7 @@
         <v>28</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E418" s="3" t="b">
         <v>0</v>
@@ -13515,7 +13525,7 @@
         <v>28</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E419" s="3" t="b">
         <v>0</v>
@@ -13540,7 +13550,7 @@
         <v>28</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E420" s="3" t="b">
         <v>0</v>
@@ -13565,7 +13575,7 @@
         <v>28</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E421" s="3" t="b">
         <v>0</v>
@@ -13590,7 +13600,7 @@
         <v>28</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E422" s="3" t="b">
         <v>0</v>
@@ -13615,7 +13625,7 @@
         <v>28</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E423" s="3" t="b">
         <v>0</v>
@@ -13640,7 +13650,7 @@
         <v>28</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E424" s="3" t="b">
         <v>0</v>
@@ -13665,7 +13675,7 @@
         <v>28</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E425" s="3" t="b">
         <v>0</v>
@@ -13690,7 +13700,7 @@
         <v>28</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E426" s="3" t="b">
         <v>0</v>
@@ -13715,7 +13725,7 @@
         <v>28</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E427" s="3" t="b">
         <v>0</v>
@@ -13740,7 +13750,7 @@
         <v>28</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E428" s="3" t="b">
         <v>0</v>
@@ -13765,7 +13775,7 @@
         <v>216</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E429" s="3" t="b">
         <v>0</v>
@@ -13790,7 +13800,7 @@
         <v>28</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E430" s="3" t="b">
         <v>0</v>
@@ -13815,7 +13825,7 @@
         <v>28</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E431" s="3" t="b">
         <v>0</v>
@@ -13840,7 +13850,7 @@
         <v>28</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E432" s="3" t="b">
         <v>0</v>
@@ -13865,7 +13875,7 @@
         <v>28</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E433" s="3" t="b">
         <v>0</v>
@@ -13890,7 +13900,7 @@
         <v>28</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E434" s="3" t="b">
         <v>0</v>
@@ -13915,7 +13925,7 @@
         <v>28</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E435" s="3" t="b">
         <v>0</v>
@@ -13940,7 +13950,7 @@
         <v>28</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E436" s="3" t="b">
         <v>0</v>
@@ -13965,7 +13975,7 @@
         <v>28</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E437" s="3" t="b">
         <v>0</v>
@@ -13990,7 +14000,7 @@
         <v>20</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E438" s="3" t="b">
         <v>0</v>
@@ -14015,7 +14025,7 @@
         <v>28</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E439" s="3" t="b">
         <v>0</v>
@@ -14040,7 +14050,7 @@
         <v>218</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E440" s="3" t="b">
         <v>0</v>
@@ -14065,7 +14075,7 @@
         <v>20</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E441" s="3" t="b">
         <v>0</v>
@@ -14090,7 +14100,7 @@
         <v>28</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E442" s="3" t="b">
         <v>0</v>
@@ -14115,7 +14125,7 @@
         <v>28</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E443" s="3" t="b">
         <v>0</v>
@@ -14140,7 +14150,7 @@
         <v>28</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E444" s="3" t="b">
         <v>0</v>
@@ -14165,7 +14175,7 @@
         <v>28</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E445" s="3" t="b">
         <v>0</v>
@@ -14190,7 +14200,7 @@
         <v>28</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E446" s="3" t="b">
         <v>0</v>
@@ -14215,7 +14225,7 @@
         <v>22</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E447" s="3" t="b">
         <v>0</v>
@@ -14240,7 +14250,7 @@
         <v>28</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E448" s="3" t="b">
         <v>0</v>
@@ -14262,10 +14272,10 @@
         <v>6</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E449" s="3" t="b">
         <v>0</v>
@@ -14290,7 +14300,7 @@
         <v>20</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E450" s="3" t="b">
         <v>0</v>
@@ -14315,7 +14325,7 @@
         <v>28</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E451" s="3" t="b">
         <v>0</v>
@@ -14340,7 +14350,7 @@
         <v>28</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E452" s="3" t="b">
         <v>0</v>
@@ -14365,7 +14375,7 @@
         <v>28</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E453" s="3" t="b">
         <v>0</v>
@@ -14390,7 +14400,7 @@
         <v>28</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E454" s="3" t="b">
         <v>0</v>
@@ -14415,7 +14425,7 @@
         <v>218</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E455" s="3" t="b">
         <v>0</v>
@@ -14440,7 +14450,7 @@
         <v>28</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E456" s="3" t="b">
         <v>0</v>
@@ -14465,7 +14475,7 @@
         <v>28</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E457" s="3" t="b">
         <v>0</v>
@@ -14490,7 +14500,7 @@
         <v>28</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E458" s="3" t="b">
         <v>0</v>
@@ -14515,7 +14525,7 @@
         <v>28</v>
       </c>
       <c r="D459" s="5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E459" s="3" t="b">
         <v>0</v>
@@ -14540,7 +14550,7 @@
         <v>28</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E460" s="3" t="b">
         <v>0</v>
@@ -14565,7 +14575,7 @@
         <v>28</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E461" s="3" t="b">
         <v>0</v>
@@ -14590,7 +14600,7 @@
         <v>28</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E462" s="3" t="b">
         <v>0</v>
@@ -14615,7 +14625,7 @@
         <v>28</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E463" s="3" t="b">
         <v>0</v>
@@ -14640,7 +14650,7 @@
         <v>28</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E464" s="3" t="b">
         <v>0</v>
@@ -14662,10 +14672,10 @@
         <v>6</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E465" s="3" t="b">
         <v>0</v>
@@ -14690,7 +14700,7 @@
         <v>28</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E466" s="3" t="b">
         <v>0</v>
@@ -14712,10 +14722,10 @@
         <v>6</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E467" s="3" t="b">
         <v>0</v>
@@ -14740,7 +14750,7 @@
         <v>28</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E468" s="3" t="b">
         <v>0</v>
@@ -14762,10 +14772,10 @@
         <v>6</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E469" s="3" t="b">
         <v>0</v>
@@ -14787,10 +14797,10 @@
         <v>6</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E470" s="3" t="b">
         <v>0</v>
@@ -14815,7 +14825,7 @@
         <v>28</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E471" s="3" t="b">
         <v>0</v>
@@ -14840,7 +14850,7 @@
         <v>28</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E472" s="3" t="b">
         <v>0</v>
@@ -14865,7 +14875,7 @@
         <v>218</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E473" s="3" t="b">
         <v>0</v>
@@ -14890,7 +14900,7 @@
         <v>20</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E474" s="3" t="b">
         <v>0</v>
@@ -14915,7 +14925,7 @@
         <v>218</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E475" s="3" t="b">
         <v>0</v>
@@ -14940,7 +14950,7 @@
         <v>20</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E476" s="3" t="b">
         <v>0</v>
@@ -14965,7 +14975,7 @@
         <v>28</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E477" s="3" t="b">
         <v>0</v>
@@ -14990,7 +15000,7 @@
         <v>28</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E478" s="3" t="b">
         <v>0</v>
@@ -15015,7 +15025,7 @@
         <v>28</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E479" s="3" t="b">
         <v>0</v>
@@ -15040,7 +15050,7 @@
         <v>28</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E480" s="3" t="b">
         <v>0</v>
@@ -15062,10 +15072,10 @@
         <v>6</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E481" s="3" t="b">
         <v>0</v>
@@ -15090,7 +15100,7 @@
         <v>28</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E482" s="3" t="b">
         <v>0</v>
@@ -15112,10 +15122,10 @@
         <v>6</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E483" s="3" t="b">
         <v>0</v>
@@ -15137,10 +15147,10 @@
         <v>6</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E484" s="3" t="b">
         <v>0</v>
@@ -15162,10 +15172,10 @@
         <v>6</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E485" s="3" t="b">
         <v>0</v>
@@ -15190,7 +15200,7 @@
         <v>28</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E486" s="3" t="b">
         <v>0</v>
@@ -15215,7 +15225,7 @@
         <v>28</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E487" s="3" t="b">
         <v>0</v>
@@ -15240,7 +15250,7 @@
         <v>218</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E488" s="3" t="b">
         <v>0</v>
@@ -15265,7 +15275,7 @@
         <v>20</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E489" s="3" t="b">
         <v>0</v>
@@ -15290,7 +15300,7 @@
         <v>218</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E490" s="3" t="b">
         <v>0</v>
@@ -15315,7 +15325,7 @@
         <v>20</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E491" s="3" t="b">
         <v>0</v>
@@ -15340,7 +15350,7 @@
         <v>28</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E492" s="3" t="b">
         <v>0</v>
@@ -15365,7 +15375,7 @@
         <v>28</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E493" s="3" t="b">
         <v>0</v>
@@ -15390,7 +15400,7 @@
         <v>28</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E494" s="3" t="b">
         <v>0</v>
@@ -15415,7 +15425,7 @@
         <v>28</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E495" s="3" t="b">
         <v>0</v>
@@ -15437,10 +15447,10 @@
         <v>6</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E496" s="3" t="b">
         <v>0</v>
@@ -15465,7 +15475,7 @@
         <v>28</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E497" s="3" t="b">
         <v>0</v>
@@ -15490,7 +15500,7 @@
         <v>28</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E498" s="3" t="b">
         <v>0</v>
@@ -15515,7 +15525,7 @@
         <v>28</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E499" s="3" t="b">
         <v>0</v>
@@ -15540,7 +15550,7 @@
         <v>28</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E500" s="3" t="b">
         <v>0</v>
@@ -15562,10 +15572,10 @@
         <v>6</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E501" s="3" t="b">
         <v>0</v>
@@ -15590,7 +15600,7 @@
         <v>218</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E502" s="3" t="b">
         <v>0</v>
@@ -15615,7 +15625,7 @@
         <v>28</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E503" s="3" t="b">
         <v>0</v>
@@ -15640,7 +15650,7 @@
         <v>28</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E504" s="3" t="b">
         <v>0</v>
@@ -15665,7 +15675,7 @@
         <v>28</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E505" s="3" t="b">
         <v>0</v>
@@ -15690,7 +15700,7 @@
         <v>28</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E506" s="3" t="b">
         <v>0</v>
@@ -15712,10 +15722,10 @@
         <v>6</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E507" s="3" t="b">
         <v>0</v>
@@ -15737,10 +15747,10 @@
         <v>6</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E508" s="3" t="b">
         <v>0</v>
@@ -15762,10 +15772,10 @@
         <v>6</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E509" s="3" t="b">
         <v>0</v>
@@ -15787,10 +15797,10 @@
         <v>6</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E510" s="3" t="b">
         <v>0</v>
@@ -15812,10 +15822,10 @@
         <v>6</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E511" s="3" t="b">
         <v>0</v>
@@ -15837,10 +15847,10 @@
         <v>6</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E512" s="3" t="b">
         <v>0</v>
@@ -15862,10 +15872,10 @@
         <v>6</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E513" s="3" t="b">
         <v>0</v>
@@ -15887,10 +15897,10 @@
         <v>6</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E514" s="3" t="b">
         <v>0</v>
@@ -15915,7 +15925,7 @@
         <v>28</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E515" s="3" t="b">
         <v>0</v>
@@ -15940,7 +15950,7 @@
         <v>28</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E516" s="3" t="b">
         <v>0</v>
@@ -15965,7 +15975,7 @@
         <v>28</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E517" s="3" t="b">
         <v>0</v>
@@ -15990,7 +16000,7 @@
         <v>28</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E518" s="3" t="b">
         <v>0</v>
@@ -16015,7 +16025,7 @@
         <v>28</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E519" s="3" t="b">
         <v>0</v>
@@ -16040,7 +16050,7 @@
         <v>28</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E520" s="3" t="b">
         <v>0</v>
@@ -16065,7 +16075,7 @@
         <v>28</v>
       </c>
       <c r="D521" s="6" t="s">
-        <v>398</v>
+        <v>587</v>
       </c>
       <c r="E521" s="3" t="b">
         <v>0</v>
@@ -16090,7 +16100,7 @@
         <v>28</v>
       </c>
       <c r="D522" s="6" t="s">
-        <v>399</v>
+        <v>588</v>
       </c>
       <c r="E522" s="3" t="b">
         <v>0</v>
@@ -16115,7 +16125,7 @@
         <v>28</v>
       </c>
       <c r="D523" s="6" t="s">
-        <v>400</v>
+        <v>589</v>
       </c>
       <c r="E523" s="3" t="b">
         <v>0</v>
@@ -16140,7 +16150,7 @@
         <v>28</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>401</v>
+        <v>590</v>
       </c>
       <c r="E524" s="3" t="b">
         <v>0</v>
@@ -16165,7 +16175,7 @@
         <v>28</v>
       </c>
       <c r="D525" s="6" t="s">
-        <v>402</v>
+        <v>591</v>
       </c>
       <c r="E525" s="3" t="b">
         <v>0</v>
@@ -16190,7 +16200,7 @@
         <v>28</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>403</v>
+        <v>592</v>
       </c>
       <c r="E526" s="3" t="b">
         <v>0</v>
@@ -16215,7 +16225,7 @@
         <v>28</v>
       </c>
       <c r="D527" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E527" s="3" t="b">
         <v>0</v>
@@ -16240,7 +16250,7 @@
         <v>28</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E528" s="3" t="b">
         <v>0</v>
@@ -16265,7 +16275,7 @@
         <v>28</v>
       </c>
       <c r="D529" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E529" s="3" t="b">
         <v>0</v>
@@ -16290,7 +16300,7 @@
         <v>28</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E530" s="3" t="b">
         <v>0</v>
@@ -16315,7 +16325,7 @@
         <v>28</v>
       </c>
       <c r="D531" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E531" s="3" t="b">
         <v>0</v>
@@ -16340,7 +16350,7 @@
         <v>28</v>
       </c>
       <c r="D532" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E532" s="3" t="b">
         <v>0</v>
@@ -16365,7 +16375,7 @@
         <v>28</v>
       </c>
       <c r="D533" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E533" s="3" t="b">
         <v>0</v>
@@ -16390,7 +16400,7 @@
         <v>28</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E534" s="3" t="b">
         <v>0</v>
@@ -16415,7 +16425,7 @@
         <v>28</v>
       </c>
       <c r="D535" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E535" s="3" t="b">
         <v>0</v>
@@ -16440,7 +16450,7 @@
         <v>28</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E536" s="3" t="b">
         <v>0</v>
@@ -16465,7 +16475,7 @@
         <v>28</v>
       </c>
       <c r="D537" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E537" s="3" t="b">
         <v>0</v>
@@ -16490,7 +16500,7 @@
         <v>28</v>
       </c>
       <c r="D538" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E538" s="3" t="b">
         <v>0</v>
@@ -16515,7 +16525,7 @@
         <v>28</v>
       </c>
       <c r="D539" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E539" s="3" t="b">
         <v>0</v>
@@ -16540,7 +16550,7 @@
         <v>28</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E540" s="3" t="b">
         <v>0</v>
@@ -16565,7 +16575,7 @@
         <v>28</v>
       </c>
       <c r="D541" s="6" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E541" s="3" t="b">
         <v>0</v>
@@ -16590,7 +16600,7 @@
         <v>28</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E542" s="3" t="b">
         <v>0</v>
@@ -16615,7 +16625,7 @@
         <v>28</v>
       </c>
       <c r="D543" s="6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E543" s="3" t="b">
         <v>0</v>
@@ -16640,7 +16650,7 @@
         <v>28</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E544" s="3" t="b">
         <v>0</v>
@@ -16665,7 +16675,7 @@
         <v>28</v>
       </c>
       <c r="D545" s="6" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E545" s="3" t="b">
         <v>0</v>
@@ -16690,7 +16700,7 @@
         <v>28</v>
       </c>
       <c r="D546" s="6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E546" s="3" t="b">
         <v>0</v>
@@ -16715,7 +16725,7 @@
         <v>28</v>
       </c>
       <c r="D547" s="6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E547" s="3" t="b">
         <v>0</v>
@@ -16740,7 +16750,7 @@
         <v>28</v>
       </c>
       <c r="D548" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E548" s="3" t="b">
         <v>0</v>
@@ -16765,7 +16775,7 @@
         <v>28</v>
       </c>
       <c r="D549" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E549" s="3" t="b">
         <v>0</v>
@@ -16790,7 +16800,7 @@
         <v>28</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E550" s="3" t="b">
         <v>0</v>
@@ -16815,7 +16825,7 @@
         <v>28</v>
       </c>
       <c r="D551" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E551" s="3" t="b">
         <v>0</v>
@@ -16840,7 +16850,7 @@
         <v>28</v>
       </c>
       <c r="D552" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E552" s="3" t="b">
         <v>0</v>
@@ -16865,7 +16875,7 @@
         <v>28</v>
       </c>
       <c r="D553" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E553" s="3" t="b">
         <v>0</v>
@@ -16890,7 +16900,7 @@
         <v>28</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E554" s="3" t="b">
         <v>0</v>
@@ -16915,7 +16925,7 @@
         <v>28</v>
       </c>
       <c r="D555" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E555" s="3" t="b">
         <v>0</v>
@@ -16940,7 +16950,7 @@
         <v>28</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E556" s="3" t="b">
         <v>0</v>
@@ -16965,7 +16975,7 @@
         <v>28</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E557" s="3" t="b">
         <v>0</v>
@@ -16990,7 +17000,7 @@
         <v>28</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E558" s="3" t="b">
         <v>0</v>
@@ -17015,7 +17025,7 @@
         <v>28</v>
       </c>
       <c r="D559" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E559" s="3" t="b">
         <v>0</v>
@@ -17040,7 +17050,7 @@
         <v>28</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E560" s="3" t="b">
         <v>0</v>
@@ -17065,7 +17075,7 @@
         <v>28</v>
       </c>
       <c r="D561" s="6" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E561" s="3" t="b">
         <v>0</v>
@@ -17090,7 +17100,7 @@
         <v>28</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E562" s="3" t="b">
         <v>0</v>
@@ -17115,7 +17125,7 @@
         <v>28</v>
       </c>
       <c r="D563" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E563" s="3" t="b">
         <v>0</v>
@@ -17140,7 +17150,7 @@
         <v>28</v>
       </c>
       <c r="D564" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E564" s="3" t="b">
         <v>0</v>
@@ -17165,7 +17175,7 @@
         <v>218</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E565" s="3" t="b">
         <v>0</v>
@@ -17190,7 +17200,7 @@
         <v>218</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E566" s="3" t="b">
         <v>0</v>
@@ -17215,7 +17225,7 @@
         <v>218</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E567" s="3" t="b">
         <v>0</v>
@@ -17240,7 +17250,7 @@
         <v>218</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E568" s="3" t="b">
         <v>0</v>
@@ -17265,7 +17275,7 @@
         <v>218</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E569" s="3" t="b">
         <v>0</v>
@@ -17290,7 +17300,7 @@
         <v>218</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E570" s="3" t="b">
         <v>0</v>
@@ -17315,7 +17325,7 @@
         <v>218</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E571" s="3" t="b">
         <v>0</v>
@@ -17340,7 +17350,7 @@
         <v>218</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E572" s="3" t="b">
         <v>0</v>
@@ -17365,7 +17375,7 @@
         <v>218</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E573" s="3" t="b">
         <v>0</v>
@@ -17390,7 +17400,7 @@
         <v>218</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E574" s="3" t="b">
         <v>0</v>
@@ -17415,7 +17425,7 @@
         <v>218</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E575" s="3" t="b">
         <v>0</v>
@@ -17440,7 +17450,7 @@
         <v>218</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E576" s="3" t="b">
         <v>0</v>
@@ -17465,7 +17475,7 @@
         <v>218</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E577" s="3" t="b">
         <v>0</v>
@@ -17490,7 +17500,7 @@
         <v>218</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E578" s="3" t="b">
         <v>0</v>
@@ -17515,7 +17525,7 @@
         <v>218</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E579" s="3" t="b">
         <v>0</v>
@@ -17540,7 +17550,7 @@
         <v>218</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E580" s="3" t="b">
         <v>0</v>
@@ -17565,7 +17575,7 @@
         <v>218</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E581" s="3" t="b">
         <v>0</v>
@@ -17590,7 +17600,7 @@
         <v>218</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E582" s="3" t="b">
         <v>0</v>
@@ -17615,7 +17625,7 @@
         <v>218</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E583" s="3" t="b">
         <v>0</v>
@@ -17640,7 +17650,7 @@
         <v>218</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E584" s="3" t="b">
         <v>0</v>
@@ -17665,7 +17675,7 @@
         <v>218</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E585" s="3" t="b">
         <v>0</v>
@@ -17690,7 +17700,7 @@
         <v>218</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E586" s="3" t="b">
         <v>0</v>
@@ -17715,7 +17725,7 @@
         <v>218</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E587" s="3" t="b">
         <v>0</v>
@@ -17740,7 +17750,7 @@
         <v>218</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E588" s="3" t="b">
         <v>0</v>
@@ -17765,7 +17775,7 @@
         <v>218</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E589" s="3" t="b">
         <v>0</v>
@@ -17790,7 +17800,7 @@
         <v>218</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E590" s="3" t="b">
         <v>0</v>
@@ -17815,7 +17825,7 @@
         <v>218</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E591" s="3" t="b">
         <v>0</v>
@@ -17840,7 +17850,7 @@
         <v>218</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E592" s="3" t="b">
         <v>0</v>
@@ -17865,7 +17875,7 @@
         <v>218</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E593" s="3" t="b">
         <v>0</v>
@@ -17890,7 +17900,7 @@
         <v>218</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E594" s="3" t="b">
         <v>0</v>
@@ -17915,7 +17925,7 @@
         <v>218</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E595" s="3" t="b">
         <v>0</v>
@@ -17940,7 +17950,7 @@
         <v>218</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E596" s="3" t="b">
         <v>0</v>
@@ -17965,7 +17975,7 @@
         <v>218</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E597" s="3" t="b">
         <v>0</v>
@@ -17990,7 +18000,7 @@
         <v>218</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E598" s="3" t="b">
         <v>0</v>
@@ -18015,7 +18025,7 @@
         <v>218</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E599" s="3" t="b">
         <v>0</v>
@@ -18040,7 +18050,7 @@
         <v>218</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E600" s="3" t="b">
         <v>0</v>
@@ -18065,7 +18075,7 @@
         <v>218</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E601" s="3" t="b">
         <v>0</v>
@@ -18090,7 +18100,7 @@
         <v>218</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E602" s="3" t="b">
         <v>0</v>
@@ -18115,7 +18125,7 @@
         <v>218</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E603" s="3" t="b">
         <v>0</v>
@@ -18140,7 +18150,7 @@
         <v>218</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E604" s="3" t="b">
         <v>0</v>
@@ -18165,7 +18175,7 @@
         <v>218</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E605" s="3" t="b">
         <v>0</v>
@@ -18190,7 +18200,7 @@
         <v>28</v>
       </c>
       <c r="D606" s="7" t="s">
-        <v>482</v>
+        <v>586</v>
       </c>
       <c r="E606" s="3" t="b">
         <v>0</v>
@@ -18215,7 +18225,7 @@
         <v>9</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E607" s="3" t="b">
         <v>0</v>
@@ -18240,7 +18250,7 @@
         <v>11</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E608" s="3" t="b">
         <v>0</v>
@@ -18265,7 +18275,7 @@
         <v>13</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E609" s="3" t="b">
         <v>0</v>
@@ -18290,7 +18300,7 @@
         <v>15</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E610" s="3" t="b">
         <v>0</v>
@@ -18315,7 +18325,7 @@
         <v>7</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E611" s="3" t="b">
         <v>0</v>
@@ -18340,7 +18350,7 @@
         <v>18</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E612" s="3" t="b">
         <v>0</v>
@@ -18365,7 +18375,7 @@
         <v>20</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E613" s="3" t="b">
         <v>0</v>
@@ -18390,7 +18400,7 @@
         <v>22</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E614" s="3" t="b">
         <v>0</v>
@@ -18415,7 +18425,7 @@
         <v>9</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E615" s="3" t="b">
         <v>0</v>
@@ -18440,7 +18450,7 @@
         <v>11</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E616" s="3" t="b">
         <v>0</v>
@@ -18465,7 +18475,7 @@
         <v>13</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E617" s="3" t="b">
         <v>0</v>
@@ -18490,7 +18500,7 @@
         <v>15</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E618" s="3" t="b">
         <v>0</v>
@@ -18540,7 +18550,7 @@
         <v>18</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E620" s="3" t="b">
         <v>0</v>
@@ -18565,7 +18575,7 @@
         <v>20</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E621" s="3" t="b">
         <v>0</v>
@@ -18590,7 +18600,7 @@
         <v>22</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E622" s="3" t="b">
         <v>0</v>
@@ -18615,7 +18625,7 @@
         <v>9</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E623" s="3" t="b">
         <v>0</v>
@@ -18640,7 +18650,7 @@
         <v>11</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E624" s="3" t="b">
         <v>0</v>
@@ -18665,7 +18675,7 @@
         <v>13</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E625" s="3" t="b">
         <v>0</v>
@@ -18690,7 +18700,7 @@
         <v>15</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E626" s="3" t="b">
         <v>0</v>
@@ -18740,7 +18750,7 @@
         <v>18</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E628" s="3" t="b">
         <v>0</v>
@@ -18765,7 +18775,7 @@
         <v>20</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E629" s="3" t="b">
         <v>0</v>
@@ -18790,7 +18800,7 @@
         <v>22</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E630" s="3" t="b">
         <v>0</v>
@@ -18815,7 +18825,7 @@
         <v>9</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E631" s="3" t="b">
         <v>0</v>
@@ -18840,7 +18850,7 @@
         <v>11</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E632" s="3" t="b">
         <v>0</v>
@@ -18865,7 +18875,7 @@
         <v>13</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E633" s="3" t="b">
         <v>0</v>
@@ -18890,7 +18900,7 @@
         <v>15</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E634" s="3" t="b">
         <v>0</v>
@@ -18940,7 +18950,7 @@
         <v>18</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E636" s="3" t="b">
         <v>0</v>
@@ -18965,7 +18975,7 @@
         <v>22</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E637" s="3" t="b">
         <v>0</v>
@@ -18990,7 +19000,7 @@
         <v>20</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E638" s="3" t="b">
         <v>0</v>
@@ -19015,7 +19025,7 @@
         <v>9</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E639" s="3" t="b">
         <v>0</v>
@@ -19040,7 +19050,7 @@
         <v>11</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E640" s="3" t="b">
         <v>0</v>
@@ -19065,7 +19075,7 @@
         <v>13</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E641" s="3" t="b">
         <v>0</v>
@@ -19090,7 +19100,7 @@
         <v>15</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E642" s="3" t="b">
         <v>0</v>
@@ -19115,7 +19125,7 @@
         <v>18</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E643" s="3" t="b">
         <v>0</v>
@@ -19140,7 +19150,7 @@
         <v>7</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E644" s="3" t="b">
         <v>0</v>
@@ -19165,7 +19175,7 @@
         <v>20</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E645" s="3" t="b">
         <v>0</v>
@@ -19190,7 +19200,7 @@
         <v>22</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E646" s="3" t="b">
         <v>0</v>
@@ -19215,7 +19225,7 @@
         <v>20</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E647" s="3" t="b">
         <v>0</v>
@@ -19240,7 +19250,7 @@
         <v>20</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E648" s="3" t="b">
         <v>0</v>
@@ -19265,7 +19275,7 @@
         <v>9</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E649" s="3" t="b">
         <v>0</v>
@@ -19290,7 +19300,7 @@
         <v>11</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E650" s="3" t="b">
         <v>0</v>
@@ -19315,7 +19325,7 @@
         <v>13</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E651" s="3" t="b">
         <v>0</v>
@@ -19340,7 +19350,7 @@
         <v>15</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E652" s="3" t="b">
         <v>0</v>
@@ -19365,7 +19375,7 @@
         <v>18</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E653" s="3" t="b">
         <v>0</v>
@@ -19390,7 +19400,7 @@
         <v>7</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E654" s="3" t="b">
         <v>0</v>
@@ -19415,7 +19425,7 @@
         <v>20</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E655" s="3" t="b">
         <v>0</v>
@@ -19440,7 +19450,7 @@
         <v>22</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E656" s="3" t="b">
         <v>0</v>
@@ -19465,7 +19475,7 @@
         <v>15</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E657" s="3" t="b">
         <v>0</v>
@@ -19490,7 +19500,7 @@
         <v>28</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E658" s="3" t="b">
         <v>0</v>
@@ -19515,7 +19525,7 @@
         <v>28</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E659" s="3" t="b">
         <v>0</v>
@@ -19540,7 +19550,7 @@
         <v>28</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E660" s="3" t="b">
         <v>0</v>
@@ -19565,7 +19575,7 @@
         <v>13</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E661" s="3" t="b">
         <v>0</v>
@@ -19590,7 +19600,7 @@
         <v>28</v>
       </c>
       <c r="D662" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E662" s="3" t="b">
         <v>0</v>
@@ -19615,7 +19625,7 @@
         <v>28</v>
       </c>
       <c r="D663" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E663" s="3" t="b">
         <v>0</v>
@@ -19640,7 +19650,7 @@
         <v>28</v>
       </c>
       <c r="D664" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E664" s="3" t="b">
         <v>0</v>
@@ -19665,7 +19675,7 @@
         <v>28</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E665" s="3" t="b">
         <v>0</v>
@@ -19690,7 +19700,7 @@
         <v>28</v>
       </c>
       <c r="D666" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E666" s="3" t="b">
         <v>0</v>
@@ -19715,7 +19725,7 @@
         <v>28</v>
       </c>
       <c r="D667" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E667" s="3" t="b">
         <v>0</v>
@@ -19740,7 +19750,7 @@
         <v>28</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E668" s="3" t="b">
         <v>0</v>
@@ -19765,7 +19775,7 @@
         <v>28</v>
       </c>
       <c r="D669" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E669" s="3" t="b">
         <v>0</v>
@@ -19790,7 +19800,7 @@
         <v>28</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E670" s="3" t="b">
         <v>0</v>
@@ -19815,7 +19825,7 @@
         <v>28</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E671" s="3" t="b">
         <v>0</v>
@@ -19840,7 +19850,7 @@
         <v>28</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E672" s="3" t="b">
         <v>0</v>
@@ -19865,7 +19875,7 @@
         <v>28</v>
       </c>
       <c r="D673" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E673" s="3" t="b">
         <v>0</v>
@@ -19890,7 +19900,7 @@
         <v>216</v>
       </c>
       <c r="D674" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E674" s="3" t="b">
         <v>0</v>
@@ -19915,7 +19925,7 @@
         <v>28</v>
       </c>
       <c r="D675" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E675" s="3" t="b">
         <v>0</v>
@@ -19940,7 +19950,7 @@
         <v>28</v>
       </c>
       <c r="D676" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E676" s="3" t="b">
         <v>0</v>
@@ -19965,7 +19975,7 @@
         <v>28</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E677" s="3" t="b">
         <v>0</v>
@@ -19990,7 +20000,7 @@
         <v>28</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E678" s="3" t="b">
         <v>0</v>
@@ -20015,7 +20025,7 @@
         <v>28</v>
       </c>
       <c r="D679" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E679" s="3" t="b">
         <v>0</v>
@@ -20040,7 +20050,7 @@
         <v>28</v>
       </c>
       <c r="D680" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E680" s="3" t="b">
         <v>0</v>
@@ -20065,7 +20075,7 @@
         <v>28</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E681" s="3" t="b">
         <v>0</v>
@@ -20090,7 +20100,7 @@
         <v>28</v>
       </c>
       <c r="D682" s="5" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E682" s="3" t="b">
         <v>0</v>
@@ -20115,7 +20125,7 @@
         <v>20</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E683" s="3" t="b">
         <v>0</v>
@@ -20140,7 +20150,7 @@
         <v>28</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E684" s="3" t="b">
         <v>0</v>
@@ -20165,7 +20175,7 @@
         <v>218</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E685" s="3" t="b">
         <v>0</v>
@@ -20190,7 +20200,7 @@
         <v>20</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E686" s="3" t="b">
         <v>0</v>
@@ -20215,7 +20225,7 @@
         <v>28</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E687" s="3" t="b">
         <v>0</v>
@@ -20240,7 +20250,7 @@
         <v>28</v>
       </c>
       <c r="D688" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E688" s="3" t="b">
         <v>0</v>
@@ -20265,7 +20275,7 @@
         <v>28</v>
       </c>
       <c r="D689" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E689" s="3" t="b">
         <v>0</v>
@@ -20290,7 +20300,7 @@
         <v>28</v>
       </c>
       <c r="D690" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E690" s="3" t="b">
         <v>0</v>
@@ -20315,7 +20325,7 @@
         <v>28</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E691" s="3" t="b">
         <v>0</v>
@@ -20340,7 +20350,7 @@
         <v>22</v>
       </c>
       <c r="D692" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E692" s="3" t="b">
         <v>0</v>
@@ -20365,7 +20375,7 @@
         <v>28</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E693" s="3" t="b">
         <v>0</v>
@@ -20387,10 +20397,10 @@
         <v>6</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E694" s="3" t="b">
         <v>0</v>
@@ -20415,7 +20425,7 @@
         <v>20</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E695" s="3" t="b">
         <v>0</v>
@@ -20440,7 +20450,7 @@
         <v>28</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E696" s="3" t="b">
         <v>0</v>
@@ -20465,7 +20475,7 @@
         <v>28</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E697" s="3" t="b">
         <v>0</v>
@@ -20490,7 +20500,7 @@
         <v>28</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E698" s="3" t="b">
         <v>0</v>
@@ -20515,7 +20525,7 @@
         <v>28</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E699" s="3" t="b">
         <v>0</v>
@@ -20540,7 +20550,7 @@
         <v>218</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E700" s="3" t="b">
         <v>0</v>
@@ -20565,7 +20575,7 @@
         <v>28</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E701" s="3" t="b">
         <v>0</v>
@@ -20590,7 +20600,7 @@
         <v>28</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E702" s="3" t="b">
         <v>0</v>
@@ -20615,7 +20625,7 @@
         <v>28</v>
       </c>
       <c r="D703" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E703" s="3" t="b">
         <v>0</v>
@@ -20640,7 +20650,7 @@
         <v>28</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E704" s="3" t="b">
         <v>0</v>
@@ -20665,7 +20675,7 @@
         <v>28</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E705" s="3" t="b">
         <v>0</v>
@@ -20690,7 +20700,7 @@
         <v>28</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E706" s="3" t="b">
         <v>0</v>
@@ -20715,7 +20725,7 @@
         <v>28</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E707" s="3" t="b">
         <v>0</v>
@@ -20740,7 +20750,7 @@
         <v>28</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E708" s="3" t="b">
         <v>0</v>
@@ -20765,7 +20775,7 @@
         <v>28</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E709" s="3" t="b">
         <v>0</v>
@@ -20787,10 +20797,10 @@
         <v>6</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E710" s="3" t="b">
         <v>0</v>
@@ -20815,7 +20825,7 @@
         <v>28</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E711" s="3" t="b">
         <v>0</v>
@@ -20837,10 +20847,10 @@
         <v>6</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E712" s="3" t="b">
         <v>0</v>
@@ -20865,7 +20875,7 @@
         <v>28</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E713" s="3" t="b">
         <v>0</v>
@@ -20887,10 +20897,10 @@
         <v>6</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E714" s="3" t="b">
         <v>0</v>
@@ -20912,10 +20922,10 @@
         <v>6</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E715" s="3" t="b">
         <v>0</v>
@@ -20940,7 +20950,7 @@
         <v>28</v>
       </c>
       <c r="D716" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E716" s="3" t="b">
         <v>0</v>
@@ -20965,7 +20975,7 @@
         <v>28</v>
       </c>
       <c r="D717" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E717" s="3" t="b">
         <v>0</v>
@@ -20990,7 +21000,7 @@
         <v>218</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E718" s="3" t="b">
         <v>0</v>
@@ -21015,7 +21025,7 @@
         <v>20</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E719" s="3" t="b">
         <v>0</v>
@@ -21040,7 +21050,7 @@
         <v>218</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E720" s="3" t="b">
         <v>0</v>
@@ -21065,7 +21075,7 @@
         <v>20</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E721" s="3" t="b">
         <v>0</v>
@@ -21090,7 +21100,7 @@
         <v>28</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E722" s="3" t="b">
         <v>0</v>
@@ -21115,7 +21125,7 @@
         <v>28</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E723" s="3" t="b">
         <v>0</v>
@@ -21140,7 +21150,7 @@
         <v>28</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E724" s="3" t="b">
         <v>0</v>
@@ -21165,7 +21175,7 @@
         <v>28</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E725" s="3" t="b">
         <v>0</v>
@@ -21187,10 +21197,10 @@
         <v>6</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E726" s="3" t="b">
         <v>0</v>
@@ -21215,7 +21225,7 @@
         <v>28</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E727" s="3" t="b">
         <v>0</v>
@@ -21237,10 +21247,10 @@
         <v>6</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E728" s="3" t="b">
         <v>0</v>
@@ -21262,10 +21272,10 @@
         <v>6</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E729" s="3" t="b">
         <v>0</v>
@@ -21287,10 +21297,10 @@
         <v>6</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E730" s="3" t="b">
         <v>0</v>
@@ -21315,7 +21325,7 @@
         <v>28</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E731" s="3" t="b">
         <v>0</v>
@@ -21340,7 +21350,7 @@
         <v>28</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E732" s="3" t="b">
         <v>0</v>
@@ -21365,7 +21375,7 @@
         <v>218</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E733" s="3" t="b">
         <v>0</v>
@@ -21390,7 +21400,7 @@
         <v>20</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E734" s="3" t="b">
         <v>0</v>
@@ -21415,7 +21425,7 @@
         <v>218</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E735" s="3" t="b">
         <v>0</v>
@@ -21440,7 +21450,7 @@
         <v>20</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E736" s="3" t="b">
         <v>0</v>
@@ -21465,7 +21475,7 @@
         <v>28</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E737" s="3" t="b">
         <v>0</v>
@@ -21490,7 +21500,7 @@
         <v>28</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E738" s="3" t="b">
         <v>0</v>
@@ -21515,7 +21525,7 @@
         <v>28</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E739" s="3" t="b">
         <v>0</v>
@@ -21540,7 +21550,7 @@
         <v>28</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E740" s="3" t="b">
         <v>0</v>
@@ -21562,10 +21572,10 @@
         <v>6</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D741" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E741" s="3" t="b">
         <v>0</v>
@@ -21590,7 +21600,7 @@
         <v>28</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E742" s="3" t="b">
         <v>0</v>
@@ -21615,7 +21625,7 @@
         <v>28</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E743" s="3" t="b">
         <v>0</v>
@@ -21640,7 +21650,7 @@
         <v>28</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E744" s="3" t="b">
         <v>0</v>
@@ -21665,7 +21675,7 @@
         <v>28</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E745" s="3" t="b">
         <v>0</v>
@@ -21687,10 +21697,10 @@
         <v>6</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E746" s="3" t="b">
         <v>0</v>
@@ -21715,7 +21725,7 @@
         <v>218</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E747" s="3" t="b">
         <v>0</v>
@@ -21740,7 +21750,7 @@
         <v>28</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E748" s="3" t="b">
         <v>0</v>
@@ -21765,7 +21775,7 @@
         <v>28</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E749" s="3" t="b">
         <v>0</v>
@@ -21790,7 +21800,7 @@
         <v>28</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E750" s="3" t="b">
         <v>0</v>
@@ -21815,7 +21825,7 @@
         <v>28</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E751" s="3" t="b">
         <v>0</v>
@@ -21837,10 +21847,10 @@
         <v>6</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E752" s="3" t="b">
         <v>0</v>
@@ -21862,10 +21872,10 @@
         <v>6</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D753" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E753" s="3" t="b">
         <v>0</v>
@@ -21887,10 +21897,10 @@
         <v>6</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E754" s="3" t="b">
         <v>0</v>
@@ -21912,10 +21922,10 @@
         <v>6</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E755" s="3" t="b">
         <v>0</v>
@@ -21937,10 +21947,10 @@
         <v>6</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E756" s="3" t="b">
         <v>0</v>
@@ -21962,10 +21972,10 @@
         <v>6</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E757" s="3" t="b">
         <v>0</v>
@@ -21987,10 +21997,10 @@
         <v>6</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E758" s="3" t="b">
         <v>0</v>
@@ -22012,10 +22022,10 @@
         <v>6</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D759" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E759" s="3" t="b">
         <v>0</v>
@@ -22040,7 +22050,7 @@
         <v>28</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E760" s="3" t="b">
         <v>0</v>
@@ -22065,7 +22075,7 @@
         <v>28</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E761" s="3" t="b">
         <v>0</v>
@@ -22090,7 +22100,7 @@
         <v>28</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E762" s="3" t="b">
         <v>0</v>
@@ -22115,7 +22125,7 @@
         <v>28</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E763" s="3" t="b">
         <v>0</v>
@@ -22140,7 +22150,7 @@
         <v>28</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E764" s="3" t="b">
         <v>0</v>
@@ -22165,7 +22175,7 @@
         <v>28</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E765" s="3" t="b">
         <v>0</v>
@@ -22190,7 +22200,7 @@
         <v>28</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E766" s="3" t="b">
         <v>0</v>
@@ -22212,10 +22222,10 @@
         <v>6</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E767" s="3" t="b">
         <v>0</v>
@@ -22240,7 +22250,7 @@
         <v>18</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E768" s="3" t="b">
         <v>0</v>
@@ -22265,7 +22275,7 @@
         <v>28</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E769" s="3" t="b">
         <v>0</v>
@@ -22287,10 +22297,10 @@
         <v>6</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E770" s="3" t="b">
         <v>0</v>
@@ -22315,7 +22325,7 @@
         <v>18</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E771" s="3" t="b">
         <v>0</v>
@@ -22340,7 +22350,7 @@
         <v>28</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E772" s="3" t="b">
         <v>0</v>
@@ -22362,10 +22372,10 @@
         <v>6</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D773" s="3" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E773" s="3" t="b">
         <v>0</v>
@@ -22390,7 +22400,7 @@
         <v>18</v>
       </c>
       <c r="D774" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E774" s="3" t="b">
         <v>0</v>
@@ -22415,7 +22425,7 @@
         <v>18</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E775" s="3" t="b">
         <v>0</v>
@@ -22440,7 +22450,7 @@
         <v>28</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E776" s="3" t="b">
         <v>0</v>
@@ -22462,10 +22472,10 @@
         <v>6</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E777" s="3" t="b">
         <v>0</v>
@@ -22490,7 +22500,7 @@
         <v>28</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E778" s="3" t="b">
         <v>0</v>
@@ -22515,7 +22525,7 @@
         <v>28</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="E779" s="3" t="b">
         <v>0</v>
@@ -22540,7 +22550,7 @@
         <v>28</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="E780" s="3" t="b">
         <v>0</v>
@@ -22565,7 +22575,7 @@
         <v>28</v>
       </c>
       <c r="D781" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E781" s="3" t="b">
         <v>0</v>
@@ -22587,7 +22597,7 @@
         <v>6</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D782" s="3" t="s">
         <v>213</v>
@@ -22615,7 +22625,7 @@
         <v>18</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E783" s="3" t="b">
         <v>0</v>
@@ -22640,7 +22650,7 @@
         <v>28</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E784" s="3" t="b">
         <v>0</v>
@@ -22662,10 +22672,10 @@
         <v>6</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E785" s="3" t="b">
         <v>0</v>
@@ -22690,7 +22700,7 @@
         <v>18</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E786" s="3" t="b">
         <v>0</v>
@@ -22715,7 +22725,7 @@
         <v>28</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E787" s="3" t="b">
         <v>0</v>
@@ -22737,10 +22747,10 @@
         <v>6</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E788" s="3" t="b">
         <v>0</v>
@@ -22765,7 +22775,7 @@
         <v>18</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E789" s="3" t="b">
         <v>0</v>
@@ -22790,7 +22800,7 @@
         <v>18</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E790" s="3" t="b">
         <v>0</v>
@@ -22815,7 +22825,7 @@
         <v>28</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E791" s="3" t="b">
         <v>0</v>
@@ -22837,10 +22847,10 @@
         <v>6</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E792" s="3" t="b">
         <v>0</v>
@@ -22865,7 +22875,7 @@
         <v>28</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E793" s="3" t="b">
         <v>0</v>
@@ -22890,7 +22900,7 @@
         <v>28</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E794" s="3" t="b">
         <v>0</v>
@@ -22915,7 +22925,7 @@
         <v>28</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="E795" s="3" t="b">
         <v>0</v>
@@ -22940,7 +22950,7 @@
         <v>28</v>
       </c>
       <c r="D796" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E796" s="3" t="b">
         <v>0</v>
@@ -22962,10 +22972,10 @@
         <v>6</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E797" s="3" t="b">
         <v>0</v>
@@ -22990,7 +23000,7 @@
         <v>18</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E798" s="3" t="b">
         <v>0</v>
@@ -23015,7 +23025,7 @@
         <v>15</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="E799" s="3" t="b">
         <v>0</v>
@@ -23037,10 +23047,10 @@
         <v>6</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E800" s="3" t="b">
         <v>0</v>
@@ -23065,7 +23075,7 @@
         <v>20</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E801" s="3" t="b">
         <v>0</v>
@@ -23090,7 +23100,7 @@
         <v>7</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E802" s="3" t="b">
         <v>0</v>
@@ -23115,7 +23125,7 @@
         <v>28</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E803" s="3" t="b">
         <v>0</v>
@@ -23140,7 +23150,7 @@
         <v>28</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="E804" s="3" t="b">
         <v>0</v>
@@ -23165,7 +23175,7 @@
         <v>28</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="E805" s="3" t="b">
         <v>0</v>
@@ -23190,7 +23200,7 @@
         <v>28</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E806" s="3" t="b">
         <v>0</v>
@@ -23215,7 +23225,7 @@
         <v>28</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="E807" s="3" t="b">
         <v>0</v>
@@ -23240,7 +23250,7 @@
         <v>28</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="E808" s="3" t="b">
         <v>0</v>
@@ -23265,7 +23275,7 @@
         <v>28</v>
       </c>
       <c r="D809" s="4" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E809" s="3" t="b">
         <v>0</v>
@@ -23290,7 +23300,7 @@
         <v>28</v>
       </c>
       <c r="D810" s="6" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E810" s="3" t="b">
         <v>0</v>
@@ -23315,7 +23325,7 @@
         <v>9</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E811" s="3" t="b">
         <v>0</v>
@@ -23340,7 +23350,7 @@
         <v>28</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E812" s="3" t="b">
         <v>0</v>
@@ -23365,7 +23375,7 @@
         <v>11</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E813" s="3" t="b">
         <v>0</v>
@@ -23390,7 +23400,7 @@
         <v>28</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E814" s="3" t="b">
         <v>0</v>
@@ -23415,7 +23425,7 @@
         <v>28</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E815" s="3" t="b">
         <v>0</v>
@@ -23440,7 +23450,7 @@
         <v>7</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E816" s="3" t="b">
         <v>0</v>
@@ -23465,7 +23475,7 @@
         <v>28</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E817" s="3" t="b">
         <v>0</v>
@@ -23490,7 +23500,7 @@
         <v>18</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E818" s="3" t="b">
         <v>0</v>
@@ -23515,7 +23525,7 @@
         <v>28</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E819" s="3" t="b">
         <v>0</v>
@@ -23540,7 +23550,7 @@
         <v>15</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E820" s="3" t="b">
         <v>0</v>
@@ -23565,7 +23575,7 @@
         <v>15</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E821" s="3" t="b">
         <v>0</v>
@@ -23590,7 +23600,7 @@
         <v>20</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E822" s="3" t="b">
         <v>0</v>
@@ -23615,7 +23625,7 @@
         <v>28</v>
       </c>
       <c r="D823" s="3" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="E823" s="3" t="b">
         <v>0</v>
@@ -23640,7 +23650,7 @@
         <v>13</v>
       </c>
       <c r="D824" s="3" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E824" s="3" t="b">
         <v>0</v>
@@ -23665,7 +23675,7 @@
         <v>13</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E825" s="3" t="b">
         <v>0</v>
@@ -23690,7 +23700,7 @@
         <v>28</v>
       </c>
       <c r="D826" s="3" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E826" s="3" t="b">
         <v>0</v>
@@ -23715,7 +23725,7 @@
         <v>22</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E827" s="3" t="b">
         <v>0</v>
@@ -23740,7 +23750,7 @@
         <v>28</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="E828" s="3" t="b">
         <v>0</v>
@@ -23759,13 +23769,13 @@
         <v>7417</v>
       </c>
       <c r="B829" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C829" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D829" s="8" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E829" s="8" t="b">
         <v>0</v>
@@ -23779,13 +23789,13 @@
         <v>7418</v>
       </c>
       <c r="B830" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C830" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E830" s="8" t="b">
         <v>0</v>
@@ -23799,13 +23809,13 @@
         <v>7419</v>
       </c>
       <c r="B831" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C831" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D831" s="8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E831" s="8" t="b">
         <v>0</v>
@@ -23819,13 +23829,13 @@
         <v>7420</v>
       </c>
       <c r="B832" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C832" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E832" s="8" t="b">
         <v>0</v>
@@ -23839,13 +23849,13 @@
         <v>7421</v>
       </c>
       <c r="B833" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C833" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D833" s="8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E833" s="8" t="b">
         <v>0</v>
@@ -23859,13 +23869,13 @@
         <v>7422</v>
       </c>
       <c r="B834" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C834" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E834" s="8" t="b">
         <v>0</v>
@@ -23879,13 +23889,13 @@
         <v>7423</v>
       </c>
       <c r="B835" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C835" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D835" s="8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E835" s="8" t="b">
         <v>0</v>
@@ -23899,13 +23909,13 @@
         <v>7424</v>
       </c>
       <c r="B836" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C836" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D836" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="C836" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D836" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="E836" s="8" t="b">
         <v>0</v>
@@ -23922,10 +23932,10 @@
         <v>6</v>
       </c>
       <c r="C837" s="8" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D837" s="10" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E837" s="8" t="b">
         <v>0</v>
@@ -23945,7 +23955,7 @@
         <v>13</v>
       </c>
       <c r="D838" s="8" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E838" s="8" t="b">
         <v>0</v>
@@ -23965,7 +23975,7 @@
         <v>13</v>
       </c>
       <c r="D839" s="8" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E839" s="8" t="b">
         <v>0</v>
@@ -23985,7 +23995,7 @@
         <v>13</v>
       </c>
       <c r="D840" s="8" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E840" s="8" t="b">
         <v>0</v>
@@ -24005,7 +24015,7 @@
         <v>13</v>
       </c>
       <c r="D841" s="8" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E841" s="8" t="b">
         <v>0</v>
@@ -24025,7 +24035,7 @@
         <v>13</v>
       </c>
       <c r="D842" s="8" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E842" s="8" t="b">
         <v>0</v>
@@ -24039,13 +24049,13 @@
         <v>7431</v>
       </c>
       <c r="B843" s="11" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C843" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D843" s="11" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E843" s="8" t="b">
         <v>0</v>
@@ -24059,13 +24069,13 @@
         <v>7432</v>
       </c>
       <c r="B844" s="11" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C844" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D844" s="8" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="E844" s="8" t="b">
         <v>0</v>
@@ -24079,13 +24089,13 @@
         <v>7433</v>
       </c>
       <c r="B845" s="11" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C845" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D845" s="8" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="E845" s="8" t="b">
         <v>0</v>
@@ -24105,7 +24115,7 @@
         <v>13</v>
       </c>
       <c r="D846" s="8" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E846" s="8" t="b">
         <v>0</v>
@@ -24125,7 +24135,7 @@
         <v>9</v>
       </c>
       <c r="D847" s="13" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E847" s="8" t="b">
         <v>0</v>
@@ -24145,7 +24155,7 @@
         <v>11</v>
       </c>
       <c r="D848" s="13" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E848" s="8" t="b">
         <v>0</v>
@@ -24165,7 +24175,7 @@
         <v>13</v>
       </c>
       <c r="D849" s="13" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E849" s="8" t="b">
         <v>0</v>
@@ -24185,7 +24195,7 @@
         <v>15</v>
       </c>
       <c r="D850" s="13" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="E850" s="8" t="b">
         <v>0</v>
@@ -24205,7 +24215,7 @@
         <v>7</v>
       </c>
       <c r="D851" s="13" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E851" s="8" t="b">
         <v>0</v>
@@ -24225,7 +24235,7 @@
         <v>18</v>
       </c>
       <c r="D852" s="13" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E852" s="8" t="b">
         <v>0</v>
@@ -24245,7 +24255,7 @@
         <v>20</v>
       </c>
       <c r="D853" s="13" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E853" s="8" t="b">
         <v>0</v>
@@ -24265,7 +24275,7 @@
         <v>22</v>
       </c>
       <c r="D854" s="13" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E854" s="8" t="b">
         <v>0</v>
@@ -24285,7 +24295,7 @@
         <v>9</v>
       </c>
       <c r="D855" s="14" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E855" s="8" t="b">
         <v>0</v>
@@ -24305,7 +24315,7 @@
         <v>11</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E856" s="8" t="b">
         <v>0</v>
@@ -24325,7 +24335,7 @@
         <v>13</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E857" s="8" t="b">
         <v>0</v>
@@ -24345,7 +24355,7 @@
         <v>15</v>
       </c>
       <c r="D858" s="14" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E858" s="8" t="b">
         <v>0</v>
@@ -24365,7 +24375,7 @@
         <v>7</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E859" s="8" t="b">
         <v>0</v>
@@ -24385,7 +24395,7 @@
         <v>18</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E860" s="8" t="b">
         <v>0</v>
@@ -24405,7 +24415,7 @@
         <v>20</v>
       </c>
       <c r="D861" s="14" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E861" s="8" t="b">
         <v>0</v>
@@ -24425,7 +24435,7 @@
         <v>22</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E862" s="8" t="b">
         <v>0</v>
@@ -24445,7 +24455,7 @@
         <v>9</v>
       </c>
       <c r="D863" s="8" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E863" s="8" t="b">
         <v>0</v>
@@ -24465,7 +24475,7 @@
         <v>11</v>
       </c>
       <c r="D864" s="8" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E864" s="8" t="b">
         <v>0</v>
@@ -24485,7 +24495,7 @@
         <v>13</v>
       </c>
       <c r="D865" s="8" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E865" s="8" t="b">
         <v>0</v>
@@ -24505,7 +24515,7 @@
         <v>15</v>
       </c>
       <c r="D866" s="8" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E866" s="8" t="b">
         <v>0</v>
@@ -24525,7 +24535,7 @@
         <v>7</v>
       </c>
       <c r="D867" s="8" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E867" s="8" t="b">
         <v>0</v>
@@ -24545,7 +24555,7 @@
         <v>18</v>
       </c>
       <c r="D868" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E868" s="8" t="b">
         <v>0</v>
@@ -24565,7 +24575,7 @@
         <v>20</v>
       </c>
       <c r="D869" s="8" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E869" s="8" t="b">
         <v>0</v>
@@ -24585,7 +24595,7 @@
         <v>22</v>
       </c>
       <c r="D870" s="8" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E870" s="8" t="b">
         <v>0</v>
@@ -24602,10 +24612,10 @@
         <v>6</v>
       </c>
       <c r="C871" s="12" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D871" s="12" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E871" s="8" t="b">
         <v>0</v>
